--- a/Companies_Apply_Status_Sheet.xlsx
+++ b/Companies_Apply_Status_Sheet.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAB21F4-B758-49CE-9001-15263668666C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="10725"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +13,10 @@
     <sheet name="Total List" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$43</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="470">
   <si>
     <t>SLNo</t>
   </si>
@@ -131,9 +133,6 @@
     <t>https://careers-perficient.icims.com/jobs/6074/project-manager/job?mode=submit_apply</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>walmart labs</t>
   </si>
   <si>
@@ -840,16 +839,652 @@
   </si>
   <si>
     <t>http://www.bhsolutions.com</t>
+  </si>
+  <si>
+    <t>Raytheon </t>
+  </si>
+  <si>
+    <t>sb@121291</t>
+  </si>
+  <si>
+    <t>Crowley</t>
+  </si>
+  <si>
+    <t>FIT</t>
+  </si>
+  <si>
+    <t>Tech PM</t>
+  </si>
+  <si>
+    <t>Modis</t>
+  </si>
+  <si>
+    <t>IT PM</t>
+  </si>
+  <si>
+    <t>Expedia</t>
+  </si>
+  <si>
+    <t>TPM</t>
+  </si>
+  <si>
+    <t>Ramya Ravishankar referral</t>
+  </si>
+  <si>
+    <t>Ameren</t>
+  </si>
+  <si>
+    <t>could not create creds</t>
+  </si>
+  <si>
+    <t>HCS Healthcare</t>
+  </si>
+  <si>
+    <t>sarath.sund/ sarath.sund@gmail.com</t>
+  </si>
+  <si>
+    <t>address details required</t>
+  </si>
+  <si>
+    <t>https://hca.taleo.net/careersection/careersection/candidateacquisition/flow.jsf</t>
+  </si>
+  <si>
+    <t>https://erecruit.ameren.com/psc/ps/CUSTOMER/HRMS/c/HRS_HRAM.HRS_CE.GBL?Page=HRS_CE_JOB_DTL&amp;Action=A&amp;JobOpeningId=17828&amp;SiteId=2&amp;PostingSeq=1&amp;</t>
+  </si>
+  <si>
+    <t>Frontier</t>
+  </si>
+  <si>
+    <t>Total comp: $92,000/yr Range: $70K – $123K</t>
+  </si>
+  <si>
+    <t>Sb@121291</t>
+  </si>
+  <si>
+    <t>https://recruiting2.ultipro.com/FRO1003FTAIR/JobBoard/1efcf859-1b48-4a31-b014-ef62bdcab988/Candidate/ViewPresence</t>
+  </si>
+  <si>
+    <t>Need to give writeup</t>
+  </si>
+  <si>
+    <t>Signature Cons</t>
+  </si>
+  <si>
+    <t>Frost Bank</t>
+  </si>
+  <si>
+    <t>https://frostbank.wd5.myworkdayjobs.com/en-US/External/applyLinkedin/SA-One-Frost/IT-Business-Analyst-III---Card-Management_R180098?source=Linkedin</t>
+  </si>
+  <si>
+    <t>Incomm</t>
+  </si>
+  <si>
+    <t>https://careers-incomm.icims.com/jobs/8575/it-project-manager-iii/candidate?from=login&amp;hideBasicProfilePageFields=true&amp;csrf=C17CA71BA80BE836&amp;hashed=523200796</t>
+  </si>
+  <si>
+    <t>Ariens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT PM </t>
+  </si>
+  <si>
+    <t>sarath</t>
+  </si>
+  <si>
+    <t>SQ ::Name of town where mother grew up? Chennai</t>
+  </si>
+  <si>
+    <t>sb121291</t>
+  </si>
+  <si>
+    <t>https://jobcenterofwisconsin.com/Login.aspx?ReturnUrl=%2fpresentation%2fJobSeekers%2fEnhancedJobs-det.aspx%3fOrderNumber%3d2446509&amp;OrderNumber=2446509</t>
+  </si>
+  <si>
+    <t>Job Order ID :WI2446509
+SSN details ??</t>
+  </si>
+  <si>
+    <t>Verisk</t>
+  </si>
+  <si>
+    <t>https://careers.verisk.com/criteria.html</t>
+  </si>
+  <si>
+    <t>App Supp PM (ID: 32683)</t>
+  </si>
+  <si>
+    <t>Apex Systems</t>
+  </si>
+  <si>
+    <t>Product M</t>
+  </si>
+  <si>
+    <t>Job #:  914258</t>
+  </si>
+  <si>
+    <t>https://itcareers.apexsystems.com/en-US/job/product-manager-sr/J3T3Y06S7VXVCWLXRHG</t>
+  </si>
+  <si>
+    <t>Job #:  915898; Job #: 903651; Job #:  888159</t>
+  </si>
+  <si>
+    <t>https://itcareers.apexsystems.com/search
+https://itcareers.apexsystems.com/ApplyFinish/J3W2PB71Z3CRGB927PX?Job_DID=J3W2PB71Z3CRGB927PX&amp;TN_DID=TN817L85ZW8CTR6LSKM5</t>
+  </si>
+  <si>
+    <t>https://career8.successfactors.com/portalcareer?_s.crb=kNBYkSysisIRZTdxfVciJ8DJuxM%253d
+Alerts:
+https://careers-inc.nttdata.com/search/?q=Project+Manager&amp;locationsearch=&amp;jobAlerts=true</t>
+  </si>
+  <si>
+    <t>Created alerts on NTT for PM and BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esri </t>
+  </si>
+  <si>
+    <t>https://external-esri.icims.com/jobs/9623/project-manager/candidate?from=login&amp;eem=oSOIOS6B%252F4iXiWzK845muDvk9rmGHGDoFKN0taOpAgi%252FNC6RjQoGmWtOoQRMzBml&amp;code=4b6ad335a4a238422adc655a81b0ce3abcdd1e97e7dc1d836863bbf5c7b12e04</t>
+  </si>
+  <si>
+    <t>Job ID 2018-9623</t>
+  </si>
+  <si>
+    <t>sign-in with linkedin</t>
+  </si>
+  <si>
+    <t>Conduent</t>
+  </si>
+  <si>
+    <t>Req sponsorship asked</t>
+  </si>
+  <si>
+    <t>https://conduent.taleo.net/careersection/careersection/candidateacquisition/flow.jsf</t>
+  </si>
+  <si>
+    <t>CTS Transportation(Job Number: 18023991
+need to complete questionnaire</t>
+  </si>
+  <si>
+    <t>Product M III</t>
+  </si>
+  <si>
+    <t>Job #: 2018-8817</t>
+  </si>
+  <si>
+    <t>Job #: 2018-8575
+employment start date was asked?</t>
+  </si>
+  <si>
+    <t>IT BA III</t>
+  </si>
+  <si>
+    <t>county - Mecklenburg  ??
+Recent salary??</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>App Dev Delivery M</t>
+  </si>
+  <si>
+    <t>Vivekanand elango referral
+Requisition ID - 56687
+under TPM filter</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/search/?alertAction=viewjobs&amp;currentJobId=964494127&amp;f_E=2&amp;keywords=technical%20project%20manager&amp;location=United%20States&amp;locationId=us%3A0</t>
+  </si>
+  <si>
+    <t>Fourteen</t>
+  </si>
+  <si>
+    <t>Orlando, FL</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/search/?alertAction=viewjobs&amp;currentJobId=986128180&amp;f_E=2&amp;keywords=technical%20project%20manager&amp;location=United%20States&amp;locationId=us%3A0&amp;start=25</t>
+  </si>
+  <si>
+    <t>Junior TPM</t>
+  </si>
+  <si>
+    <t>Securly</t>
+  </si>
+  <si>
+    <t>San Jose, CA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/search/?alertAction=viewjobs&amp;currentJobId=954927753&amp;f_E=2&amp;keywords=technical%20project%20manager&amp;location=United%20States&amp;locationId=us%3A0&amp;start=25</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/embed/job_app/confirmation?for=securly13&amp;token=1169934</t>
+  </si>
+  <si>
+    <t>Accenture Federal Services</t>
+  </si>
+  <si>
+    <t>Tech BA</t>
+  </si>
+  <si>
+    <t>Arlington, VA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/search/?alertAction=viewjobs&amp;currentJobId=922462987&amp;keywords=business%20analyst%20master&amp;location=United%20States&amp;locationId=us%3A0</t>
+  </si>
+  <si>
+    <t>Job Number: 00643253</t>
+  </si>
+  <si>
+    <t>https://www.accenture.com/us-en/careers/jobdetails?id=00643253_en&amp;src=LINKEDINJP
+https://tas-accenture.taleo.net/careersection/iam/accessmanagement/login.jsf?lang=en&amp;redirectionURI=https%3A%2F%2Ftas-accenture.taleo.net%2Fcareersection%2F10003%2Fjobapply.ftl%3Flang%3Den%26job%3D00643253%26src%3DLINKEDINJP%26regionDesc%3DSoutheast&amp;TARGET=https%3A%2F%2Ftas-accenture.taleo.net%2Fcareersection%2F10003%2Fjobapply.ftl%3Flang%3Den%26job%3D00643253%26src%3DLINKEDINJP%26regionDesc%3DSoutheast</t>
+  </si>
+  <si>
+    <t>Collabera</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Charlotte, NC</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/search/?alertAction=viewjobs&amp;currentJobId=903242995&amp;keywords=business%20analyst%20master&amp;location=United%20States&amp;locationId=us%3A0</t>
+  </si>
+  <si>
+    <t>UST Global</t>
+  </si>
+  <si>
+    <t>Jr BA</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/search/?alertAction=viewjobs&amp;currentJobId=957244856&amp;keywords=business%20analyst%20master&amp;location=United%20States&amp;locationId=us%3A0</t>
+  </si>
+  <si>
+    <t>Base salary : $38/hr – $40/hr
+**Other positions available too**</t>
+  </si>
+  <si>
+    <t>Impact Makers</t>
+  </si>
+  <si>
+    <t>McLean, VS</t>
+  </si>
+  <si>
+    <t>Sr BA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/search/?alertAction=viewjobs&amp;currentJobId=970547305&amp;keywords=business%20analyst%20master&amp;location=United%20States&amp;locationId=us%3A0</t>
+  </si>
+  <si>
+    <t>SGCIB</t>
+  </si>
+  <si>
+    <t>IT BA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/search/?alertAction=viewjobs&amp;currentJobId=975835061&amp;keywords=business%20analyst%20master&amp;location=United%20States&amp;locationId=us%3A0</t>
+  </si>
+  <si>
+    <t>Garmin</t>
+  </si>
+  <si>
+    <t>BA (Web Services/Agile/Web Analytics)-1800159</t>
+  </si>
+  <si>
+    <t>Olathe-KS</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/search/?alertAction=viewjobs&amp;currentJobId=959710703&amp;keywords=business%20analyst%20master&amp;location=United%20States&amp;locationId=us%3A0</t>
+  </si>
+  <si>
+    <t>https://garmin.taleo.net/careersection/iam/accessmanagement/login.jsf?redirectionURI=https%3A%2F%2Fgarmin.taleo.net%2Fcareersection%2F2012_garmin_exp_tech%2Fjobsearch.ftl%3Fftlcompclass%3DLoginComponent&amp;TARGET=https%3A%2F%2Fgarmin.taleo.net%2Fcareersection%2F2012_garmin_exp_tech%2Fjobsearch.ftl%3Fftlcompclass%3DLoginComponent</t>
+  </si>
+  <si>
+    <t>Eliassen</t>
+  </si>
+  <si>
+    <t>Agile proj analyst</t>
+  </si>
+  <si>
+    <t>Boston, MA</t>
+  </si>
+  <si>
+    <t>Job ID: 312881</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/search/?alertAction=viewjobs&amp;currentJobId=950522082&amp;keywords=business%20analyst%20master&amp;location=United%20States&amp;locationId=us%3A0</t>
+  </si>
+  <si>
+    <r>
+      <t>Job #: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>916114</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/search/?alertAction=viewjobs&amp;currentJobId=978660770&amp;keywords=business%20analyst%20master&amp;location=United%20States&amp;locationId=us%3A0</t>
+  </si>
+  <si>
+    <t>https://itcareers.apexsystems.com/en-US/job/tech-ba/J3R4ZF68FTJDS7PPJQ1</t>
+  </si>
+  <si>
+    <t>Lead Bus Sys Analyst</t>
+  </si>
+  <si>
+    <t>Denver, CO</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/search/?alertAction=viewjobs&amp;currentJobId=977458058&amp;keywords=business%20analyst%20master&amp;location=United%20States&amp;locationId=us%3A0</t>
+  </si>
+  <si>
+    <t>Optymyze</t>
+  </si>
+  <si>
+    <t>Greater Philadel</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/search/?alertAction=viewjobs&amp;currentJobId=962786981&amp;keywords=business%20analyst%20master&amp;location=United%20States&amp;locationId=us%3A0&amp;start=25</t>
+  </si>
+  <si>
+    <t>MoneyGram</t>
+  </si>
+  <si>
+    <t>IT PM I</t>
+  </si>
+  <si>
+    <t>St Louis, MN</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/search/?currentJobId=987865874</t>
+  </si>
+  <si>
+    <r>
+      <t>Job ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF565A5C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>18010987</t>
+    </r>
+  </si>
+  <si>
+    <t>https://moneygramjob.taleo.net/careersection/MGI_ex/jobapply.ftl?job=18010987&amp;lang=en</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/search/?currentJobId=990080941</t>
+  </si>
+  <si>
+    <t>Manager, BUS000GI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initiative Demand and Governance-BUS000GI
+</t>
+  </si>
+  <si>
+    <t>Prudential</t>
+  </si>
+  <si>
+    <t>https://pru.taleo.net/careersection/iam/accessmanagement/login.jsf?lang=en&amp;redirectionURI=https%3A%2F%2Fpru.taleo.net%2Fcareersection%2Fapplication.jss%3Flang%3Den%26type%3D1%26csNo%3D2%26portal%3D101430233%26reqNo%3D517379%26iniurl.src%3DLinkedIn_Slots%26iniurl.media_id%3D30684%26isOnLogoutPage%3Dtrue&amp;TARGET=https%3A%2F%2Fpru.taleo.net%2Fcareersection%2Fapplication.jss%3Flang%3Den%26type%3D1%26csNo%3D2%26portal%3D101430233%26reqNo%3D517379%26iniurl.src%3DLinkedIn_Slots%26iniurl.media_id%3D30684%26isOnLogoutPage%3Dtrue</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/search/?currentJobId=990068780&amp;start=25</t>
+  </si>
+  <si>
+    <t>https://pru.taleo.net/careersection/careersection/2/jobdetail.ftl</t>
+  </si>
+  <si>
+    <t>Digital Project Management-PLA0007O</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Digital Project Management-PLA00081</t>
+  </si>
+  <si>
+    <t>Program Management-PLA0008J</t>
+  </si>
+  <si>
+    <t>Newark, NJ</t>
+  </si>
+  <si>
+    <t>Investment Products-ESS00001</t>
+  </si>
+  <si>
+    <t>8+yrs</t>
+  </si>
+  <si>
+    <t>Kforce</t>
+  </si>
+  <si>
+    <t>Full stack Dev</t>
+  </si>
+  <si>
+    <t>Milford, OH</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/search/?currentJobId=993701989</t>
+  </si>
+  <si>
+    <t>https://www.kforce.com/thank-you/?jobid=2478~WQG~1738189P1~99</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Prod Technology M</t>
+  </si>
+  <si>
+    <t>Pittsburgh, PA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/search/?currentJobId=989419175</t>
+  </si>
+  <si>
+    <t>https://careers.google.com/jobs/results/6619081165570048-product-technology-manager-google/</t>
+  </si>
+  <si>
+    <t>Workday</t>
+  </si>
+  <si>
+    <t>Atlanta, GA</t>
+  </si>
+  <si>
+    <t>Business Dev Manager, PM</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/search/?currentJobId=990262481&amp;start=25</t>
+  </si>
+  <si>
+    <t>https://workday.wd5.myworkdayjobs.com/en-US/Workday/applyLinkedin/USA-VA-McLean/Business-Development-Manager--Pre-Sales-Project-Manager---Education---Government_JR-22396?source=website_linkedin</t>
+  </si>
+  <si>
+    <t>HW Kaufman</t>
+  </si>
+  <si>
+    <t>Farmington, MI</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/search/?currentJobId=994382573&amp;start=175</t>
+  </si>
+  <si>
+    <t>https://careers-hwkaufman.icims.com/jobs/3650/it-business-analyst/candidate?from=login&amp;csrf=CD35BCC4E645705D&amp;hashed=-435622310&amp;uploadResume=1&amp;uploadResume=1</t>
+  </si>
+  <si>
+    <t>Job ID 2018-3650</t>
+  </si>
+  <si>
+    <t>https://careers-hwkaufman.icims.com/jobs/3561/it-project-manager/questions?back=&amp;global=&amp;csrf=CD35BCC4E645705D&amp;hashed=670740545</t>
+  </si>
+  <si>
+    <t>Job ID 2018-3561
+automatically BA resume is taken***</t>
+  </si>
+  <si>
+    <t>UBS</t>
+  </si>
+  <si>
+    <t>Franklin, TM</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/search/?currentJobId=992428180&amp;start=275</t>
+  </si>
+  <si>
+    <t>PM - Risk Strategic Change</t>
+  </si>
+  <si>
+    <t>https://jobs.ubs.com/TGnewUI/Search/home/HomeWithPreLoad?PageType=JobDetails&amp;partnerid=25008&amp;siteid=5012&amp;jobId=186553&amp;source=ILINKEDIN#home</t>
+  </si>
+  <si>
+    <t>ID # 184232BR
+to be submitted **** - role, area</t>
+  </si>
+  <si>
+    <t>Prog M</t>
+  </si>
+  <si>
+    <t>https://jobs.ubs.com/TGnewUI/Search/home/HomeWithPreLoad?partnerid=25008&amp;siteid=5012&amp;PageType=JobDetails&amp;jobid=183885#jobDetails=183885_5012</t>
+  </si>
+  <si>
+    <t>&lt;Any&gt;</t>
+  </si>
+  <si>
+    <t>PM Lead</t>
+  </si>
+  <si>
+    <t>https://jobs.ubs.com/TGnewUI/Search/home/HomeWithPreLoad?partnerid=25008&amp;siteid=5012&amp;PageType=JobDetails&amp;jobid=183606#jobDetails=183606_5012</t>
+  </si>
+  <si>
+    <t>Job Reference #181575BR
+(added to saved applications)</t>
+  </si>
+  <si>
+    <t>Job Reference #181299BR
+(added to saved applications)</t>
+  </si>
+  <si>
+    <t>Compute service PM</t>
+  </si>
+  <si>
+    <t>Nashville</t>
+  </si>
+  <si>
+    <t>Job Reference #181625BR
+(added to saved applications)</t>
+  </si>
+  <si>
+    <t>https://jobs.ubs.com/TGnewUI/Search/home/HomeWithPreLoad?partnerid=25008&amp;siteid=5012&amp;PageType=JobDetails&amp;jobid=183934#jobDetails=183934_5012</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/search/?currentJobId=994608417&amp;start=350</t>
+  </si>
+  <si>
+    <t>https://lifion.com/apply-for-this-job?gh_jid=134574?utm_source=linkedin&amp;utm_medium=slot&amp;utm_campaign=krt&amp;src=LINKEDIN</t>
+  </si>
+  <si>
+    <t>could not open external link</t>
+  </si>
+  <si>
+    <t>T prog M</t>
+  </si>
+  <si>
+    <t>Mountain view, CA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/search/?alertAction=viewjobs&amp;currentJobId=986139116&amp;f_E=2&amp;keywords=technical%20project%20manager&amp;location=United%20States&amp;locationId=us%3A0&amp;start=25</t>
+  </si>
+  <si>
+    <t>unable to upload resume</t>
+  </si>
+  <si>
+    <t>https://careers.google.com/jobs/results/6525107425837056-technical-program-manager-university-graduate/?src=Online%2FLinkedIn%2Flinkedin_us&amp;utm_campaign=contract&amp;utm_medium=jobposting&amp;utm_source=linkedin</t>
+  </si>
+  <si>
+    <t>Wayfair</t>
+  </si>
+  <si>
+    <t>Prod M</t>
+  </si>
+  <si>
+    <t>Boston , MA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/943536122/?eBP=NotAvailableFromVoyagerAPI&amp;recommendedFlavor=SCHOOL_RECRUIT&amp;refId=2564469351543587875784&amp;trk=d_flagship3_job_home</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/994379073/?eBP=NotAvailableFromVoyagerAPI&amp;recommendedFlavor=HIDDEN_GEM&amp;refId=2564469351543587875784&amp;trk=d_flagship3_job_home</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/899650828/?eBP=CwEAAAFnZQJU2S-9hlsEBM9R8SsPv4qApk0qeGvTjzuJxuBB5OTL8gmXtMD5pbBCJtCr6lkM_-iTBFg0gh7zKikqnzxU7gguJIwneNag2KmM1Yh1a6vo4XiSTXivUMPPmT85ZIRTOS6tpLCecjTntkG9JqRNhfY2HXsWhU3KbhqzFeHO11HpvwZ0RCFQd3Rob7SN_Kh_ocalF2VZ4wrbsBjrQ1Ve180wstK8deQM-vpaii5n3k32htCnpv2ERB-cMeZNiC5U0-M43HV8LVU3ubczHyuHnXJ7KgKZtO0uh5dQx_72HOIPwxhdP4XYlWegJCEFruEZbpKxyeasuBjiVwGgTzJPJEQ&amp;refId=742aa48b-95cb-435d-892a-5f4885982282&amp;trk=d_flagship3_job_details</t>
+  </si>
+  <si>
+    <t>Reston, VA</t>
+  </si>
+  <si>
+    <t>Perfect Sense</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/934299217/?eBP=CwEAAAFnZQJU2bHsbceI5QGsw__um1fISxuhTnrGsZzbjjN7b-sWEJW3bhdbXsG_ytFaNtYvEWO5lgaMxYF6fHwD32okw3KpZXn0P351x5bQW_ezGUCcEWSmJCvBXlCgvkF76kP-pewc5hQQFAfhHUlKJVCF6KfbNcUgeGydFsch-GjgBD607YRyUkdB_ICAvDkgYuvMZfjtmW7JoOQslQwNTNonu31hpHWM9_4eUveNwPd2dsBtyhoABhWEL8UjgyOeVjLOsATTFqbQRCQ0LHSJYyiDceIjG1OB3zSYZwXkS2SpWKoRnJi9kLS3IMAuZLTX1g6QtiIZZN4oocBiWYrsRaJ2rz8&amp;recommendedFlavor=HIDDEN_GEM&amp;refId=742aa48b-95cb-435d-892a-5f4885982282&amp;trk=d_flagship3_job_details</t>
+  </si>
+  <si>
+    <t>Science Logic</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/sciencelogic/jobs/1418723</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/963056211/</t>
+  </si>
+  <si>
+    <t>Veristor Sys</t>
+  </si>
+  <si>
+    <t>Duluth, Georgia</t>
+  </si>
+  <si>
+    <t>Verizon Connect</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/879775759/</t>
+  </si>
+  <si>
+    <t>Waltham, MA</t>
+  </si>
+  <si>
+    <t>Job # 491233</t>
+  </si>
+  <si>
+    <t>https://careers.verizon.com/psc/vzehpra/EMPLOYEE/HRMS/c/B_RS_MENU.B_RS_EA.GBL?JobOpeningID=491233&amp;PostingSeq=1&amp;tid=x_9cfe83bf-8ecb-4229-b07d-d447f3f856f1&amp;apply=Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -891,8 +1526,27 @@
       <color rgb="FF787E82"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF565A5C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF565A5C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -923,8 +1577,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -965,17 +1631,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1012,6 +1688,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1285,51 +1979,54 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A7" sqref="A7"/>
+      <selection pane="topRight" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="7" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" customWidth="1"/>
     <col min="10" max="10" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.5703125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="30.42578125" customWidth="1"/>
+    <col min="11" max="12" width="42.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1347,33 +2044,36 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>43385</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1381,29 +2081,30 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="3" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="2"/>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>43385</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1413,21 +2114,22 @@
       <c r="J3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="2"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" ht="45">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1437,23 +2139,24 @@
       <c r="J4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8"/>
+      <c r="L4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1461,21 +2164,22 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="2"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
@@ -1483,39 +2187,41 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="2"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="2"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="2" t="s">
         <v>31</v>
       </c>
@@ -1523,21 +2229,22 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="2"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" ht="45">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1545,23 +2252,24 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="6"/>
+      <c r="L9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" ht="45">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1569,23 +2277,24 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="2"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="2" t="s">
         <v>27</v>
       </c>
@@ -1593,21 +2302,22 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="2"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>41</v>
+      <c r="C12" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="E12" s="6"/>
       <c r="F12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1615,21 +2325,22 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="2"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>42</v>
+      <c r="C13" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1637,353 +2348,2486 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="2"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="B14" s="4">
+        <v>43430</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="6"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="B15" s="4">
+        <v>43430</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="2"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="B16" s="4">
+        <v>43430</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="2"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="B17" s="4">
+        <v>43430</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="2"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="2"/>
+      <c r="B18" s="4">
+        <v>43430</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="K18" s="19"/>
+      <c r="L18" s="6"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="1:15" ht="60">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="B19" s="4">
+        <v>43430</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E19" s="6"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6" t="s">
+        <v>287</v>
+      </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="1:15" ht="30">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>43430</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="K20" s="19"/>
+      <c r="L20" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="1:15" ht="45">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="4">
+        <v>43430</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>288</v>
+      </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J21" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="B22" s="4">
+        <v>43430</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="2"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G28" t="s">
-        <v>35</v>
-      </c>
+      <c r="O22" s="6"/>
+    </row>
+    <row r="23" spans="1:15" ht="60">
+      <c r="A23" s="2"/>
+      <c r="B23" s="4">
+        <v>43430</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="K23" s="19"/>
+      <c r="L23" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="49.5" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="4">
+        <v>43431</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="K24" s="24"/>
+      <c r="L24" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="49.5" customHeight="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="4">
+        <v>43430</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="K25" s="24"/>
+      <c r="L25" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="75">
+      <c r="A26" s="2"/>
+      <c r="B26" s="4">
+        <v>43430</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="K26" s="19"/>
+      <c r="L26" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="25" customFormat="1" ht="75">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23">
+        <v>43430</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="L27" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="N27" s="22"/>
+      <c r="O27" s="24"/>
+    </row>
+    <row r="28" spans="1:15" ht="120">
+      <c r="A28" s="2"/>
+      <c r="B28" s="4">
+        <v>43430</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="90">
+      <c r="A29" s="2"/>
+      <c r="B29" s="4">
+        <v>43431</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="6"/>
+    </row>
+    <row r="30" spans="1:15" ht="45">
+      <c r="A30" s="2"/>
+      <c r="B30" s="4">
+        <v>43431</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="6"/>
+    </row>
+    <row r="31" spans="1:15" ht="105">
+      <c r="A31" s="2"/>
+      <c r="B31" s="4">
+        <v>43431</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="O31" s="6"/>
+    </row>
+    <row r="32" spans="1:15" ht="30">
+      <c r="A32" s="2"/>
+      <c r="B32" s="4">
+        <v>43431</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="K32" s="19"/>
+      <c r="L32" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="45">
+      <c r="A33" s="2"/>
+      <c r="B33" s="4">
+        <v>43431</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="6"/>
+    </row>
+    <row r="34" spans="1:15" ht="75">
+      <c r="A34" s="2"/>
+      <c r="B34" s="4">
+        <v>43431</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="L34" s="6"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="6"/>
+    </row>
+    <row r="35" spans="1:15" ht="75">
+      <c r="A35" s="2"/>
+      <c r="B35" s="4">
+        <v>43431</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="6"/>
+    </row>
+    <row r="36" spans="1:15" ht="255">
+      <c r="A36" s="2"/>
+      <c r="B36" s="4">
+        <v>43431</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="O36" s="6"/>
+    </row>
+    <row r="37" spans="1:15" ht="60">
+      <c r="A37" s="2"/>
+      <c r="B37" s="4">
+        <v>43432</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="L37" s="6"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="6"/>
+    </row>
+    <row r="38" spans="1:15" ht="60">
+      <c r="A38" s="2"/>
+      <c r="B38" s="4">
+        <v>43432</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="L38" s="6"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="6"/>
+    </row>
+    <row r="39" spans="1:15" ht="60">
+      <c r="A39" s="2"/>
+      <c r="B39" s="4">
+        <v>43432</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="L39" s="6"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="6"/>
+    </row>
+    <row r="40" spans="1:15" ht="60">
+      <c r="A40" s="2"/>
+      <c r="B40" s="4">
+        <v>43432</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="L40" s="6"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="6"/>
+    </row>
+    <row r="41" spans="1:15" ht="135">
+      <c r="A41" s="2"/>
+      <c r="B41" s="4">
+        <v>43432</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="O41" s="6"/>
+    </row>
+    <row r="42" spans="1:15" ht="60">
+      <c r="A42" s="2"/>
+      <c r="B42" s="4">
+        <v>43432</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="L42" s="6"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="6"/>
+    </row>
+    <row r="43" spans="1:15" ht="60.75">
+      <c r="A43" s="2"/>
+      <c r="B43" s="4">
+        <v>43432</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="6"/>
+    </row>
+    <row r="44" spans="1:15" ht="60">
+      <c r="A44" s="2"/>
+      <c r="B44" s="4">
+        <v>43432</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="L44" s="6"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="6"/>
+    </row>
+    <row r="45" spans="1:15" ht="75">
+      <c r="A45" s="2"/>
+      <c r="B45" s="4">
+        <v>43432</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="L45" s="6"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="6"/>
+    </row>
+    <row r="46" spans="1:15" ht="45">
+      <c r="A46" s="2"/>
+      <c r="B46" s="4">
+        <v>43432</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="O46" s="6"/>
+    </row>
+    <row r="47" spans="1:15" ht="51" customHeight="1">
+      <c r="A47" s="2"/>
+      <c r="B47" s="4">
+        <v>43433</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="O47" s="6"/>
+    </row>
+    <row r="48" spans="1:15" ht="30">
+      <c r="A48" s="2"/>
+      <c r="B48" s="4">
+        <v>43433</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="J48" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="6"/>
+    </row>
+    <row r="49" spans="1:15" ht="30">
+      <c r="A49" s="2"/>
+      <c r="B49" s="4">
+        <v>43433</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="J49" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="6"/>
+    </row>
+    <row r="50" spans="1:15" ht="30">
+      <c r="A50" s="2"/>
+      <c r="B50" s="4">
+        <v>43433</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="J50" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="K50" s="6"/>
+      <c r="L50" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="6"/>
+    </row>
+    <row r="51" spans="1:15" ht="30">
+      <c r="A51" s="2"/>
+      <c r="B51" s="4">
+        <v>43433</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="K51" s="6"/>
+      <c r="L51" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="6"/>
+    </row>
+    <row r="52" spans="1:15" ht="30">
+      <c r="A52" s="2"/>
+      <c r="B52" s="4">
+        <v>43433</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="6"/>
+    </row>
+    <row r="53" spans="1:15" ht="30">
+      <c r="A53" s="2"/>
+      <c r="B53" s="4">
+        <v>43433</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="6"/>
+    </row>
+    <row r="54" spans="1:15" ht="90">
+      <c r="A54" s="2"/>
+      <c r="B54" s="4">
+        <v>43433</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="O54" s="6"/>
+    </row>
+    <row r="55" spans="1:15" ht="90">
+      <c r="A55" s="2"/>
+      <c r="B55" s="4">
+        <v>43434</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="O55" s="6"/>
+    </row>
+    <row r="56" spans="1:15" ht="60">
+      <c r="A56" s="2"/>
+      <c r="B56" s="4">
+        <v>43434</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="6"/>
+    </row>
+    <row r="57" spans="1:15" ht="42.75" customHeight="1">
+      <c r="A57" s="2"/>
+      <c r="B57" s="4">
+        <v>43434</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="K57" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="L57" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="O57" s="6"/>
+    </row>
+    <row r="58" spans="1:15" ht="60">
+      <c r="A58" s="2"/>
+      <c r="B58" s="4">
+        <v>43434</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="6"/>
+    </row>
+    <row r="59" spans="1:15" ht="42" customHeight="1">
+      <c r="A59" s="2"/>
+      <c r="B59" s="4">
+        <v>43434</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="6"/>
+    </row>
+    <row r="60" spans="1:15" ht="30">
+      <c r="A60" s="2"/>
+      <c r="B60" s="4">
+        <v>43434</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="6"/>
+    </row>
+    <row r="61" spans="1:15" ht="30">
+      <c r="A61" s="2"/>
+      <c r="B61" s="4">
+        <v>43434</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="6"/>
+    </row>
+    <row r="62" spans="1:15" ht="43.5" customHeight="1">
+      <c r="A62" s="2"/>
+      <c r="B62" s="4">
+        <v>43434</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="O62" s="6"/>
+    </row>
+    <row r="63" spans="1:15" ht="75">
+      <c r="A63" s="2"/>
+      <c r="B63" s="4">
+        <v>43434</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="6"/>
+    </row>
+    <row r="64" spans="1:15" ht="51" customHeight="1">
+      <c r="A64" s="2"/>
+      <c r="B64" s="4">
+        <v>43434</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="L64" s="6"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="6"/>
+    </row>
+    <row r="65" spans="1:15" ht="51" customHeight="1">
+      <c r="A65" s="2"/>
+      <c r="B65" s="4">
+        <v>43434</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="6"/>
+    </row>
+    <row r="66" spans="1:15" ht="30">
+      <c r="A66" s="2"/>
+      <c r="B66" s="4">
+        <v>43434</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="L66" s="6"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="6"/>
+    </row>
+    <row r="67" spans="1:15" ht="40.5" customHeight="1">
+      <c r="A67" s="2"/>
+      <c r="B67" s="4">
+        <v>43434</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="O67" s="6"/>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="2"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="6"/>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="2"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="6"/>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="2"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="6"/>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="2"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="6"/>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="2"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="6"/>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="2"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="6"/>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="2"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="6"/>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="2"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="6"/>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="2"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E76" s="6"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="6"/>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="2"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="6"/>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="2"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="6"/>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="2"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="6"/>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="2"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="6"/>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="2"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="6"/>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="2"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="6"/>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="2"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="6"/>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="2"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="6"/>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="2"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="6"/>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="2"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="6"/>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="2"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="6"/>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="2"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="6"/>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="2"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="6"/>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="2"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="6"/>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" s="2"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="6"/>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="2"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="6"/>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="2"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="6"/>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="2"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="6"/>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="2"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="6"/>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="2"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="6"/>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" s="2"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="6"/>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="2"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="6"/>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="2"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="6"/>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="2"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="6"/>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="2"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C43"/>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{5214E7DF-EB03-47DE-AFB5-786FD3927D2B}"/>
-    <hyperlink ref="M2" r:id="rId2" xr:uid="{1E8D74ED-DCA2-4EAB-B507-8BFB2ED6A019}"/>
-    <hyperlink ref="J4" r:id="rId3" tooltip="View this job description" display="https://autodesk.taleo.net/careersection/careersection/candidateacquisition/flow.jsf" xr:uid="{7169A4F6-4043-4817-9A52-7DB749732844}"/>
-    <hyperlink ref="K9" r:id="rId4" xr:uid="{43D9A658-0A29-485B-8304-93BD88530AFB}"/>
+    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="N2" r:id="rId2"/>
+    <hyperlink ref="J4" r:id="rId3" tooltip="View this job description" display="https://autodesk.taleo.net/careersection/careersection/candidateacquisition/flow.jsf"/>
+    <hyperlink ref="L9" r:id="rId4"/>
+    <hyperlink ref="M14" r:id="rId5"/>
+    <hyperlink ref="N14" r:id="rId6"/>
+    <hyperlink ref="N20" r:id="rId7"/>
+    <hyperlink ref="N21" r:id="rId8"/>
+    <hyperlink ref="M21" r:id="rId9"/>
+    <hyperlink ref="N23" r:id="rId10"/>
+    <hyperlink ref="M23" r:id="rId11"/>
+    <hyperlink ref="N25" r:id="rId12"/>
+    <hyperlink ref="N28" r:id="rId13"/>
+    <hyperlink ref="L28" r:id="rId14" display="https://career8.successfactors.com/portalcareer?_s.crb=kNBYkSysisIRZTdxfVciJ8DJuxM%253d"/>
+    <hyperlink ref="N31" r:id="rId15"/>
+    <hyperlink ref="M32" r:id="rId16"/>
+    <hyperlink ref="N32" r:id="rId17"/>
+    <hyperlink ref="N24" r:id="rId18"/>
+    <hyperlink ref="L26" r:id="rId19"/>
+    <hyperlink ref="M36" r:id="rId20"/>
+    <hyperlink ref="N36" r:id="rId21"/>
+    <hyperlink ref="M41" r:id="rId22"/>
+    <hyperlink ref="N41" r:id="rId23"/>
+    <hyperlink ref="K41" r:id="rId24"/>
+    <hyperlink ref="L41" display="https://garmin.taleo.net/careersection/iam/accessmanagement/login.jsf?redirectionURI=https%3A%2F%2Fgarmin.taleo.net%2Fcareersection%2F2012_garmin_exp_tech%2Fjobsearch.ftl%3Fftlcompclass%3DLoginComponent&amp;TARGET=https%3A%2F%2Fgarmin.taleo.net%2Fcareersectio"/>
+    <hyperlink ref="M46" r:id="rId25"/>
+    <hyperlink ref="N46" r:id="rId26"/>
+    <hyperlink ref="M47" r:id="rId27"/>
+    <hyperlink ref="N47" r:id="rId28"/>
+    <hyperlink ref="L50" r:id="rId29"/>
+    <hyperlink ref="L51" r:id="rId30"/>
+    <hyperlink ref="M54" r:id="rId31"/>
+    <hyperlink ref="N54" r:id="rId32"/>
+    <hyperlink ref="M55" r:id="rId33"/>
+    <hyperlink ref="N55" r:id="rId34"/>
+    <hyperlink ref="M57" r:id="rId35"/>
+    <hyperlink ref="N57" r:id="rId36"/>
+    <hyperlink ref="M62" r:id="rId37"/>
+    <hyperlink ref="N62" r:id="rId38"/>
+    <hyperlink ref="L62" r:id="rId39"/>
+    <hyperlink ref="M67" r:id="rId40"/>
+    <hyperlink ref="N67" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3038CD5-5AAE-4789-8EDA-59205211F5C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E3" s="10" t="s">
+    <row r="3" spans="4:6">
+      <c r="E3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="4:6">
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6">
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6">
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6">
       <c r="D7">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6">
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6">
       <c r="D9">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6">
       <c r="D10">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6">
       <c r="D11">
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6">
       <c r="D12">
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6">
       <c r="D13">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6">
       <c r="D14">
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6">
       <c r="D15">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6">
       <c r="D16">
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
       <c r="D17">
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
       <c r="D18">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
       <c r="D19">
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
       <c r="D20">
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5">
       <c r="D21">
         <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
       <c r="D22">
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1993,1705 +4837,1705 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B482CD-0D4A-4CF6-814C-435FF7391D53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:G86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="7" width="48.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1" s="11" t="s">
+    <row r="1" spans="5:7" ht="15.75" thickBot="1">
+      <c r="E1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="5:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="5:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="5:7" ht="15.75" thickBot="1">
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="5:7" ht="15.75" thickBot="1">
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7" ht="15.75" thickBot="1">
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="5:7" ht="15.75" thickBot="1">
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" ht="15.75" thickBot="1">
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="5:7" ht="15.75" thickBot="1">
       <c r="E8">
         <v>7</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="5:7" ht="15.75" thickBot="1">
       <c r="E9">
         <v>8</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="5:7" ht="15.75" thickBot="1">
       <c r="E10">
         <v>9</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7" ht="15.75" thickBot="1">
       <c r="E11">
         <v>10</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="5:7" ht="15.75" thickBot="1">
       <c r="E12">
         <v>11</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7" ht="15.75" thickBot="1">
       <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="5:7" ht="15.75" thickBot="1">
       <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="5:7" ht="15.75" thickBot="1">
       <c r="E15">
         <v>14</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="5:7" ht="15.75" thickBot="1">
       <c r="E16">
         <v>15</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="5:7" ht="15.75" thickBot="1">
       <c r="E17">
         <v>16</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" ht="15.75" thickBot="1">
       <c r="E18">
         <v>17</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" ht="15.75" thickBot="1">
       <c r="E19">
         <v>18</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="G19" s="12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="5:7" ht="15.75" thickBot="1">
       <c r="E20">
         <v>19</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" ht="15.75" thickBot="1">
       <c r="E21">
         <v>20</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="G21" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="5:7" ht="15.75" thickBot="1">
       <c r="E22">
         <v>21</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="G22" s="12" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="5:7" ht="15.75" thickBot="1">
       <c r="E23">
         <v>22</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" ht="15.75" thickBot="1">
       <c r="E24">
         <v>23</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="25" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" ht="15.75" thickBot="1">
       <c r="E25">
         <v>24</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="G25" s="12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="26" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="5:7" ht="15.75" thickBot="1">
       <c r="E26">
         <v>25</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="G26" s="12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="5:7" ht="15.75" thickBot="1">
       <c r="E27">
         <v>26</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="28" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7" ht="15.75" thickBot="1">
       <c r="E28">
         <v>27</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="G28" s="12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="29" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="5:7" ht="15.75" thickBot="1">
       <c r="E29">
         <v>28</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7" ht="15.75" thickBot="1">
       <c r="E30">
         <v>29</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="G30" s="12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="31" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="5:7" ht="15.75" thickBot="1">
       <c r="E31">
         <v>30</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="G31" s="12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="32" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="5:7" ht="15.75" thickBot="1">
       <c r="E32">
         <v>31</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="G32" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="33" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="5:7" ht="15.75" thickBot="1">
       <c r="E33">
         <v>32</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="G33" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="G33" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="34" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="5:7" ht="15.75" thickBot="1">
       <c r="E34">
         <v>33</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="G34" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="35" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="5:7" ht="15.75" thickBot="1">
       <c r="E35">
         <v>34</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="G35" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="36" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="5:7" ht="15.75" thickBot="1">
       <c r="E36">
         <v>35</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="G36" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="37" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="5:7" ht="15.75" thickBot="1">
       <c r="E37">
         <v>36</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="G37" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="G37" s="12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="38" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="5:7" ht="15.75" thickBot="1">
       <c r="E38">
         <v>37</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="G38" s="12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="39" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="5:7" ht="15.75" thickBot="1">
       <c r="E39">
         <v>38</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="G39" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="G39" s="12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="40" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="5:7" ht="15.75" thickBot="1">
       <c r="E40">
         <v>39</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="G40" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="G40" s="12" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="41" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="5:7" ht="15.75" thickBot="1">
       <c r="E41">
         <v>40</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G41" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="G41" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="42" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="5:7" ht="15.75" thickBot="1">
       <c r="E42">
         <v>41</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G42" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="G42" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="5:7" ht="15.75" thickBot="1">
       <c r="E43">
         <v>42</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G43" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G43" s="12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="44" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="5:7" ht="15.75" thickBot="1">
       <c r="E44">
         <v>43</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G44" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="G44" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="45" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="5:7" ht="15.75" thickBot="1">
       <c r="E45">
         <v>44</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="G45" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="G45" s="12" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="46" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="5:7" ht="15.75" thickBot="1">
       <c r="E46">
         <v>45</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G46" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="G46" s="12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="47" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="5:7" ht="15.75" thickBot="1">
       <c r="E47">
         <v>46</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G47" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="G47" s="12" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="48" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="5:7" ht="15.75" thickBot="1">
       <c r="E48">
         <v>47</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="G48" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="G48" s="12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="49" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="5:7" ht="15.75" thickBot="1">
       <c r="E49">
         <v>48</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="G49" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="G49" s="12" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="50" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="5:7" ht="15.75" thickBot="1">
       <c r="E50">
         <v>49</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="G50" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="G50" s="12" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="51" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="5:7" ht="15.75" thickBot="1">
       <c r="E51">
         <v>50</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="F51" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G51" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="G51" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="52" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="5:7" ht="15.75" thickBot="1">
       <c r="E52">
         <v>51</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G52" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G52" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="53" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="5:7" ht="15.75" thickBot="1">
       <c r="E53">
         <v>52</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="F53" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="G53" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="G53" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="54" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="5:7" ht="15.75" thickBot="1">
       <c r="E54">
         <v>53</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="F54" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G54" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="G54" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="55" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="5:7" ht="15.75" thickBot="1">
       <c r="E55">
         <v>54</v>
       </c>
-      <c r="F55" s="12" t="s">
+      <c r="F55" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G55" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="G55" s="12" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="56" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="5:7" ht="15.75" thickBot="1">
       <c r="E56">
         <v>55</v>
       </c>
-      <c r="F56" s="12" t="s">
+      <c r="F56" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="G56" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="G56" s="12" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="57" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="5:7" ht="15.75" thickBot="1">
       <c r="E57">
         <v>56</v>
       </c>
-      <c r="F57" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="58" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F57" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7" ht="15.75" thickBot="1">
       <c r="E58">
         <v>57</v>
       </c>
-      <c r="F58" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="59" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F58" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7" ht="15.75" thickBot="1">
       <c r="E59">
         <v>58</v>
       </c>
-      <c r="F59" s="12" t="s">
+      <c r="F59" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="G59" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="G59" s="12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="60" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="5:7" ht="15.75" thickBot="1">
       <c r="E60">
         <v>59</v>
       </c>
-      <c r="F60" s="12" t="s">
+      <c r="F60" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="G60" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="G60" s="12" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="61" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="5:7" ht="15.75" thickBot="1">
       <c r="E61">
         <v>60</v>
       </c>
-      <c r="F61" s="12" t="s">
+      <c r="F61" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="G61" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="G61" s="12" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="62" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="5:7" ht="15.75" thickBot="1">
       <c r="E62">
         <v>61</v>
       </c>
-      <c r="F62" s="12" t="s">
+      <c r="F62" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G62" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G62" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="5:7" ht="15.75" thickBot="1">
       <c r="E63">
         <v>62</v>
       </c>
-      <c r="F63" s="12" t="s">
+      <c r="F63" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="G63" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="G63" s="12" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="64" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="5:7" ht="15.75" thickBot="1">
       <c r="E64">
         <v>63</v>
       </c>
-      <c r="F64" s="12" t="s">
+      <c r="F64" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G64" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G64" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="65" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="5:7" ht="15.75" thickBot="1">
       <c r="E65">
         <v>64</v>
       </c>
-      <c r="F65" s="12" t="s">
+      <c r="F65" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="G65" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="G65" s="12" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="66" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="5:7" ht="15.75" thickBot="1">
       <c r="E66">
         <v>65</v>
       </c>
-      <c r="F66" s="12" t="s">
+      <c r="F66" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="G66" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="G66" s="12" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="67" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="5:7" ht="15.75" thickBot="1">
       <c r="E67">
         <v>66</v>
       </c>
-      <c r="F67" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F67" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="5:7" ht="15.75" thickBot="1">
       <c r="E68">
         <v>67</v>
       </c>
-      <c r="F68" s="12" t="s">
+      <c r="F68" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="G68" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="G68" s="12" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="69" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="5:7" ht="15.75" thickBot="1">
       <c r="E69">
         <v>68</v>
       </c>
-      <c r="F69" s="12" t="s">
+      <c r="F69" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G69" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="G69" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="70" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="5:7" ht="15.75" thickBot="1">
       <c r="E70">
         <v>69</v>
       </c>
-      <c r="F70" s="12" t="s">
+      <c r="F70" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="G70" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="G70" s="12" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="71" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="5:7" ht="15.75" thickBot="1">
       <c r="E71">
         <v>70</v>
       </c>
-      <c r="F71" s="12" t="s">
+      <c r="F71" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="G71" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="G71" s="12" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="72" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="5:7" ht="15.75" thickBot="1">
       <c r="E72">
         <v>71</v>
       </c>
-      <c r="F72" s="12" t="s">
+      <c r="F72" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="G72" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="G72" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="73" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="5:7" ht="15.75" thickBot="1">
       <c r="E73">
         <v>72</v>
       </c>
-      <c r="F73" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="G73" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="74" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F73" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="5:7" ht="15.75" thickBot="1">
       <c r="E74">
         <v>73</v>
       </c>
-      <c r="F74" s="12" t="s">
+      <c r="F74" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G74" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G74" s="12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="75" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="5:7" ht="15.75" thickBot="1">
       <c r="E75">
         <v>74</v>
       </c>
-      <c r="F75" s="12" t="s">
+      <c r="F75" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G75" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="G75" s="12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="76" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="5:7" ht="15.75" thickBot="1">
       <c r="E76">
         <v>75</v>
       </c>
-      <c r="F76" s="12" t="s">
+      <c r="F76" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G76" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G76" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="77" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="5:7" ht="15.75" thickBot="1">
       <c r="E77">
         <v>76</v>
       </c>
-      <c r="F77" s="12" t="s">
+      <c r="F77" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G77" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="G77" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="78" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="5:7" ht="15.75" thickBot="1">
       <c r="E78">
         <v>77</v>
       </c>
-      <c r="F78" s="12" t="s">
+      <c r="F78" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G78" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="G78" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="79" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="5:7" ht="15.75" thickBot="1">
       <c r="E79">
         <v>78</v>
       </c>
-      <c r="F79" s="12" t="s">
+      <c r="F79" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G79" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="G79" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="80" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="5:7" ht="15.75" thickBot="1">
       <c r="E80">
         <v>79</v>
       </c>
-      <c r="F80" s="12" t="s">
+      <c r="F80" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="G80" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="G80" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="81" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="5:7" ht="15.75" thickBot="1">
       <c r="E81">
         <v>80</v>
       </c>
-      <c r="F81" s="12" t="s">
+      <c r="F81" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G81" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="G81" s="12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="82" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="5:7" ht="15.75" thickBot="1">
       <c r="E82">
         <v>81</v>
       </c>
-      <c r="F82" s="12" t="s">
+      <c r="F82" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G82" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="G82" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="83" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="5:7" ht="15.75" thickBot="1">
       <c r="E83">
         <v>82</v>
       </c>
-      <c r="F83" s="12" t="s">
+      <c r="F83" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G83" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="G83" s="12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="84" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="5:7" ht="15.75" thickBot="1">
       <c r="E84">
         <v>83</v>
       </c>
-      <c r="F84" s="12" t="s">
+      <c r="F84" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G84" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="G84" s="12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="85" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="5:7" ht="15.75" thickBot="1">
       <c r="E85">
         <v>84</v>
       </c>
-      <c r="F85" s="12" t="s">
+      <c r="F85" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G85" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="G85" s="12" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="86" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
+    </row>
+    <row r="86" spans="5:7" ht="15.75" thickBot="1">
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://www.forbes.com/companies/ibm/?list=best-management-consulting-firms" xr:uid="{9D815722-E44A-482A-AD18-13FEF9817937}"/>
-    <hyperlink ref="G2" r:id="rId2" display="http://www.ibm.com/" xr:uid="{938BB7B4-DB2A-4BA7-AABA-4DAF68EA2656}"/>
-    <hyperlink ref="F3" r:id="rId3" display="https://www.forbes.com/companies/dxc-technology/?list=best-management-consulting-firms" xr:uid="{F538DA83-6F0E-45D6-8FA1-D6251F9B4836}"/>
-    <hyperlink ref="G3" r:id="rId4" display="http://www.dxc.technology/" xr:uid="{97041E72-1452-4782-A3FA-3EBB823DD6AF}"/>
-    <hyperlink ref="F4" r:id="rId5" display="https://www.forbes.com/companies/deloitte-touche-tohmatsu/?list=best-management-consulting-firms" xr:uid="{52FDCCAF-63A5-435D-AC86-1E50DCFD915D}"/>
-    <hyperlink ref="G4" r:id="rId6" display="http://www.deloitte.com/" xr:uid="{2BF05679-74D0-4EA8-A74B-4EC992913672}"/>
-    <hyperlink ref="F5" r:id="rId7" display="https://www.forbes.com/companies/cisco-systems/?list=best-management-consulting-firms" xr:uid="{13E8B235-7C93-4600-893F-35EA2CC746C9}"/>
-    <hyperlink ref="G5" r:id="rId8" display="http://www.cisco.com/" xr:uid="{0866F9FB-3692-471C-B7C3-FB9617FA2347}"/>
-    <hyperlink ref="F6" r:id="rId9" display="https://www.forbes.com/companies/accenture/?list=best-management-consulting-firms" xr:uid="{7D922108-68EA-4B79-B466-F9EAF4779A3F}"/>
-    <hyperlink ref="G6" r:id="rId10" display="http://www.accenture.com/" xr:uid="{53FF34EB-0509-4852-928E-5A43E690DA14}"/>
-    <hyperlink ref="F7" r:id="rId11" display="https://www.forbes.com/companies/sap/?list=best-management-consulting-firms" xr:uid="{1CD783CB-6A02-4BEB-87AE-8DDF2AFB8423}"/>
-    <hyperlink ref="G7" r:id="rId12" display="http://www.sap.com/" xr:uid="{4900747E-2664-4737-8ED4-B9E792D791BB}"/>
-    <hyperlink ref="F8" r:id="rId13" display="https://www.forbes.com/companies/pricewaterhousecoopers/?list=best-management-consulting-firms" xr:uid="{08E52710-6839-4F22-ADF0-260DC6363554}"/>
-    <hyperlink ref="G8" r:id="rId14" display="http://www.pwc.com/" xr:uid="{7E156BD1-FDC8-47EE-AD9A-770D7C73F84E}"/>
-    <hyperlink ref="F9" r:id="rId15" display="https://www.forbes.com/companies/oracle/?list=best-management-consulting-firms" xr:uid="{4F809867-30B6-49FF-B89C-66167395F405}"/>
-    <hyperlink ref="G9" r:id="rId16" display="http://www.oracle.com/" xr:uid="{6A9ABBC3-7860-4305-B487-499D315BA19B}"/>
-    <hyperlink ref="F10" r:id="rId17" display="https://www.forbes.com/companies/mckinsey-company/?list=best-management-consulting-firms" xr:uid="{8947EEA4-D6A3-4EA8-8302-CC976712D621}"/>
-    <hyperlink ref="G10" r:id="rId18" display="http://www.mckinsey.com/" xr:uid="{332ECF8C-F8D5-4880-BD05-A387C5CC3239}"/>
-    <hyperlink ref="F11" r:id="rId19" display="https://www.forbes.com/companies/kpmg/?list=best-management-consulting-firms" xr:uid="{79B9639F-33EF-4AAD-A967-FA5A487CE808}"/>
-    <hyperlink ref="G11" r:id="rId20" display="http://www.kpmg.com/" xr:uid="{C1846A5C-825F-4E35-A1AC-9ADAF32EB6BE}"/>
-    <hyperlink ref="F12" r:id="rId21" display="https://www.forbes.com/companies/infosys-consulting/?list=best-management-consulting-firms" xr:uid="{9BA19A5E-178F-42AE-9114-026FBEF0B876}"/>
-    <hyperlink ref="G12" r:id="rId22" display="http://www.infosys.com/" xr:uid="{B2627D82-4FBD-4C15-8D4A-5BA012DF8739}"/>
-    <hyperlink ref="F13" r:id="rId23" display="https://www.forbes.com/companies/information-services-group/?list=best-management-consulting-firms" xr:uid="{629DF3C0-B2CB-4F6F-A9F6-26CF8C35C984}"/>
-    <hyperlink ref="G13" r:id="rId24" display="http://www.isg-one.com/" xr:uid="{E25222F5-3F84-44AC-9671-48A88349F217}"/>
-    <hyperlink ref="F14" r:id="rId25" display="https://www.forbes.com/companies/gartner/?list=best-management-consulting-firms" xr:uid="{8230B00D-463F-42C2-B9F9-E0FF8871139A}"/>
-    <hyperlink ref="G14" r:id="rId26" display="http://www.gartner.com/" xr:uid="{A8488B02-5C0D-4A0E-9815-E0FEB12A46F9}"/>
-    <hyperlink ref="F15" r:id="rId27" display="https://www.forbes.com/companies/ernst-young/?list=best-management-consulting-firms" xr:uid="{3656B6B7-A1B1-4E75-8674-CC2711F9904D}"/>
-    <hyperlink ref="G15" r:id="rId28" display="http://www.ey.com/" xr:uid="{A67FE8ED-4823-4550-AE15-14A7BFE203EF}"/>
-    <hyperlink ref="F16" r:id="rId29" display="https://www.forbes.com/companies/boston-consulting-group/?list=best-management-consulting-firms" xr:uid="{046664C7-84DA-4938-BBD7-C6F72FB0438A}"/>
-    <hyperlink ref="G16" r:id="rId30" display="http://www.bcg.com/" xr:uid="{578A720E-0731-43BD-9634-DD951C7C7946}"/>
-    <hyperlink ref="F17" r:id="rId31" display="https://www.forbes.com/companies/booz-allen-hamilton/?list=best-management-consulting-firms" xr:uid="{8F9F3D98-13DE-4020-B354-4D1889C26682}"/>
-    <hyperlink ref="G17" r:id="rId32" display="http://www.boozallen.com/" xr:uid="{66B7D942-0AE4-4D86-85A9-1B97C62B7DFC}"/>
-    <hyperlink ref="F18" r:id="rId33" display="https://www.forbes.com/companies/west-monroe-partners/?list=best-management-consulting-firms" xr:uid="{E9C7B1C1-A150-495B-A156-325CA177D135}"/>
-    <hyperlink ref="G18" r:id="rId34" display="http://www.westmonroepartners.com/" xr:uid="{B6BD0CF6-6025-45DB-B925-BCDC458170EF}"/>
-    <hyperlink ref="F19" r:id="rId35" display="https://www.forbes.com/companies/the-chartis-group/?list=best-management-consulting-firms" xr:uid="{5E41D39B-FDD5-4668-B501-77FCE7AB41FD}"/>
-    <hyperlink ref="G19" r:id="rId36" display="http://www.chartis.com/" xr:uid="{0AD9EC58-539C-4A8B-A400-B95E2B0CED1A}"/>
-    <hyperlink ref="F20" r:id="rId37" display="https://www.forbes.com/companies/tata-consultancy-services/?list=best-management-consulting-firms" xr:uid="{5AAC0CFB-D1B5-410D-9683-B834F81AFD73}"/>
-    <hyperlink ref="G20" r:id="rId38" display="http://www.tcs.com/" xr:uid="{25E4A565-E812-4D16-80E1-44FEB7D15661}"/>
-    <hyperlink ref="F21" r:id="rId39" display="https://www.forbes.com/companies/strategy/?list=best-management-consulting-firms" xr:uid="{963FA891-57CA-40CC-8F35-7C928FDEBE41}"/>
-    <hyperlink ref="G21" r:id="rId40" display="http://www.strategyand.pwc.com/" xr:uid="{CB821A66-F2CB-43DD-8724-927E45579B73}"/>
-    <hyperlink ref="F22" r:id="rId41" display="https://www.forbes.com/companies/ssa-company/?list=best-management-consulting-firms" xr:uid="{27D05E3B-BD57-45C9-B24B-563464A8F00D}"/>
-    <hyperlink ref="G22" r:id="rId42" display="http://www.ssaandco.com/" xr:uid="{3522DDA9-D4C7-4B38-A69A-DA100A8561F1}"/>
-    <hyperlink ref="F23" r:id="rId43" display="https://www.forbes.com/companies/slalom-consulting/?list=best-management-consulting-firms" xr:uid="{0FA59539-5418-4E35-BE54-5997835C3856}"/>
-    <hyperlink ref="G23" r:id="rId44" display="http://www.slalom.com/" xr:uid="{DDB7A7AA-C8BB-4AB0-9BFD-8A887646FBDB}"/>
-    <hyperlink ref="F24" r:id="rId45" display="https://www.forbes.com/companies/sapient/?list=best-management-consulting-firms" xr:uid="{47F6D197-4054-48BA-B0F7-EE858160926A}"/>
-    <hyperlink ref="G24" r:id="rId46" display="http://www.sapientconsulting.com/" xr:uid="{F41E17DA-00D8-4BA4-8564-262AA5CE1831}"/>
-    <hyperlink ref="F25" r:id="rId47" display="https://www.forbes.com/companies/roland-berger-strategy-consultants/?list=best-management-consulting-firms" xr:uid="{DE6AD215-7B95-4943-BECB-20BC6B1C05BA}"/>
-    <hyperlink ref="G25" r:id="rId48" display="http://www.rolandberger.com/" xr:uid="{BCF043A1-ED0B-4872-BDA6-AC80C8A480F7}"/>
-    <hyperlink ref="F26" r:id="rId49" display="https://www.forbes.com/companies/resources-global-professionals/?list=best-management-consulting-firms" xr:uid="{C858101B-54A0-4ADB-BBF4-149995505484}"/>
-    <hyperlink ref="G26" r:id="rId50" display="http://www.rgp.com/" xr:uid="{9068827E-7E56-4E58-B11D-C7FEEE73DEB7}"/>
-    <hyperlink ref="F27" r:id="rId51" display="https://www.forbes.com/companies/protiviti/?list=best-management-consulting-firms" xr:uid="{3F18B700-5B6F-42A6-A971-0E2ED5DE9CAA}"/>
-    <hyperlink ref="G27" r:id="rId52" display="http://www.protiviti.com/" xr:uid="{346062EA-6EAD-4157-8E61-1CE2CDFEF220}"/>
-    <hyperlink ref="F28" r:id="rId53" display="https://www.forbes.com/companies/point-b/?list=best-management-consulting-firms" xr:uid="{A68FF70E-0EC0-4F60-B705-901E26542EFD}"/>
-    <hyperlink ref="G28" r:id="rId54" display="http://www.pointb.com/" xr:uid="{3C8B0F07-34D2-49D6-AB54-491ADB692C20}"/>
-    <hyperlink ref="F29" r:id="rId55" display="https://www.forbes.com/companies/oliver-wyman/?list=best-management-consulting-firms" xr:uid="{5D3329CF-744F-4B02-AC6D-2E89C012228F}"/>
-    <hyperlink ref="G29" r:id="rId56" display="http://www.oliverwyman.com/" xr:uid="{3BA826EB-9F47-4C04-B82D-DBEC3A657FE4}"/>
-    <hyperlink ref="F30" r:id="rId57" display="https://www.forbes.com/companies/oasys-international/?list=best-management-consulting-firms" xr:uid="{5C531C2E-A313-408E-856E-5A8A559AC3F8}"/>
-    <hyperlink ref="G30" r:id="rId58" display="http://www.oasysic.com/" xr:uid="{52203AAB-D2F7-43EA-ABCB-CBBFB0031483}"/>
-    <hyperlink ref="F31" r:id="rId59" display="https://www.forbes.com/companies/novantas/?list=best-management-consulting-firms" xr:uid="{C097D412-DDA5-44EE-A9CC-CB4B4BA174DB}"/>
-    <hyperlink ref="G31" r:id="rId60" display="http://www.novantas.com/" xr:uid="{75DA0F33-23BB-42A2-BEF6-EC1A6C735C6B}"/>
-    <hyperlink ref="F32" r:id="rId61" display="https://www.forbes.com/companies/north-highland/?list=best-management-consulting-firms" xr:uid="{BB3F7D93-7E01-4B2A-BC58-BF0270318F11}"/>
-    <hyperlink ref="G32" r:id="rId62" display="http://www.northhighland.com/" xr:uid="{3197C139-3CE2-4AF5-BB4C-A810D7728B2E}"/>
-    <hyperlink ref="F33" r:id="rId63" display="https://www.forbes.com/companies/medmatica-consulting-associates/?list=best-management-consulting-firms" xr:uid="{EE4EEC9F-3045-417A-82E6-B4ECBDF1F57F}"/>
-    <hyperlink ref="G33" r:id="rId64" display="http://www.medmatica.com/" xr:uid="{FF0762AD-FC90-48D9-821A-6E2B04245C48}"/>
-    <hyperlink ref="F34" r:id="rId65" display="https://www.forbes.com/companies/lockheed-martin/?list=best-management-consulting-firms" xr:uid="{62657F58-F91E-4FF0-AD08-B096AC09D05B}"/>
-    <hyperlink ref="G34" r:id="rId66" display="http://www.lockheedmartin.com/" xr:uid="{1225388F-F2F6-4653-ADBB-2032C41DC3B0}"/>
-    <hyperlink ref="F35" r:id="rId67" display="https://www.forbes.com/companies/leappoint/?list=best-management-consulting-firms" xr:uid="{72C22246-E931-4682-95B8-448666013020}"/>
-    <hyperlink ref="G35" r:id="rId68" display="http://leappoint.com/" xr:uid="{6E802417-47DB-47AF-B54F-15BC6DA5C0F2}"/>
-    <hyperlink ref="F36" r:id="rId69" display="https://www.forbes.com/companies/kurt-salmon/?list=best-management-consulting-firms" xr:uid="{BC2C13C4-3AFC-4BF2-87AC-21D821836E32}"/>
-    <hyperlink ref="G36" r:id="rId70" display="http://www.kurtsalmon.com/" xr:uid="{75B5B452-79D7-4558-8EE5-D0899D0E7BB5}"/>
-    <hyperlink ref="F37" r:id="rId71" display="https://www.forbes.com/companies/jabian-consulting/?list=best-management-consulting-firms" xr:uid="{60BD505A-65C4-49A2-9434-BAFF7B6273DE}"/>
-    <hyperlink ref="G37" r:id="rId72" display="http://www.jabian.com/" xr:uid="{8BF590F7-7CAE-49BC-A969-CE22F44C56C7}"/>
-    <hyperlink ref="F38" r:id="rId73" display="https://www.forbes.com/companies/impact-advisors/?list=best-management-consulting-firms" xr:uid="{3CF760CD-DD2B-434D-A025-0EEB57F3DFF8}"/>
-    <hyperlink ref="G38" r:id="rId74" display="http://www.impact-advisors.com/" xr:uid="{CE05AD0C-1791-4D58-8045-767FEC9EBB34}"/>
-    <hyperlink ref="F39" r:id="rId75" display="https://www.forbes.com/companies/ignyte-group/?list=best-management-consulting-firms" xr:uid="{3689D95C-25F4-4ADC-BB2A-795DAF481EF6}"/>
-    <hyperlink ref="G39" r:id="rId76" display="http://ignytegroup.com/" xr:uid="{CD3DB032-CF5F-4F49-9A6B-8688FF93297B}"/>
-    <hyperlink ref="F40" r:id="rId77" display="https://www.forbes.com/companies/huron-consulting-group/?list=best-management-consulting-firms" xr:uid="{16EF47BD-34B2-45BA-8C81-F873676A0BAE}"/>
-    <hyperlink ref="G40" r:id="rId78" display="http://www.huronconsultinggroup.com/" xr:uid="{5A866518-ADBA-45B7-9748-C688CA42971B}"/>
-    <hyperlink ref="F41" r:id="rId79" display="https://www.forbes.com/companies/grant-thornton/?list=best-management-consulting-firms" xr:uid="{B93B5B57-E4CB-4A39-BED0-9434FAFAB464}"/>
-    <hyperlink ref="G41" r:id="rId80" display="http://www.grantthornton.com/" xr:uid="{E5188B32-D6DD-4F98-A9C7-4D92A095CC1C}"/>
-    <hyperlink ref="F42" r:id="rId81" display="https://www.forbes.com/companies/fti-consulting/?list=best-management-consulting-firms" xr:uid="{6AFF7BF7-3801-4D61-AC36-5507379DA3AF}"/>
-    <hyperlink ref="G42" r:id="rId82" display="http://www.fticonsulting.com/" xr:uid="{039F7182-6B78-49B5-A209-F69BC0B0E749}"/>
-    <hyperlink ref="F43" r:id="rId83" display="https://www.forbes.com/companies/forsythe-solutions-group/?list=best-management-consulting-firms" xr:uid="{2167F56F-CE47-4971-8A55-71A310F67ED4}"/>
-    <hyperlink ref="G43" r:id="rId84" display="http://www.forsythe.com/" xr:uid="{ABD58BE6-94B5-43AE-BF3F-703D5669AFB7}"/>
-    <hyperlink ref="F44" r:id="rId85" display="https://www.forbes.com/companies/everest-group/?list=best-management-consulting-firms" xr:uid="{C496BE54-ACE1-430A-8986-100F28EC46B0}"/>
-    <hyperlink ref="G44" r:id="rId86" display="http://www.everestgrp.com/" xr:uid="{42FB8B07-5E87-41CA-BFF2-6ED88607782F}"/>
-    <hyperlink ref="F45" r:id="rId87" display="https://www.forbes.com/companies/cumberland-consulting-group/?list=best-management-consulting-firms" xr:uid="{CF20F68A-52C4-4007-8DBD-5CCBD37F1306}"/>
-    <hyperlink ref="G45" r:id="rId88" display="http://www.cumberlandcg.com/" xr:uid="{85A76EDE-F418-40FF-8AC5-7BF749A8C24C}"/>
-    <hyperlink ref="F46" r:id="rId89" display="https://www.forbes.com/companies/cognizant/?list=best-management-consulting-firms" xr:uid="{C2B5B86E-CC82-46B4-8A0B-974B19500E60}"/>
-    <hyperlink ref="G46" r:id="rId90" display="http://www.cognizant.com/" xr:uid="{F087DEB6-30E6-4EEF-AD24-636A581F8305}"/>
-    <hyperlink ref="F47" r:id="rId91" display="https://www.forbes.com/companies/clarkston-consulting/?list=best-management-consulting-firms" xr:uid="{2CE85554-8975-4DED-8678-9BCB0FB7BB1E}"/>
-    <hyperlink ref="G47" r:id="rId92" display="http://www.clarkstonconsulting.com/" xr:uid="{9606D9E2-C4DA-42DC-8D58-82BC8A9120FD}"/>
-    <hyperlink ref="F48" r:id="rId93" display="https://www.forbes.com/companies/cgn-global/?list=best-management-consulting-firms" xr:uid="{87CF2051-341F-437E-B6F7-48B732044F8A}"/>
-    <hyperlink ref="G48" r:id="rId94" display="http://www.cgnglobal.com/" xr:uid="{E6B37CDA-9D19-4F86-9443-733E8030745D}"/>
-    <hyperlink ref="F49" r:id="rId95" display="https://www.forbes.com/companies/censeo-consulting-group/?list=best-management-consulting-firms" xr:uid="{A00EE0E4-2B10-480D-BF23-0B27522EF113}"/>
-    <hyperlink ref="G49" r:id="rId96" display="http://www.censeoconsulting.com/" xr:uid="{05411088-8F15-4C56-BF4D-65D4A97EE58B}"/>
-    <hyperlink ref="F50" r:id="rId97" display="https://www.forbes.com/companies/captech/?list=best-management-consulting-firms" xr:uid="{D394CBF5-BD03-440C-B173-D8A03840CCF0}"/>
-    <hyperlink ref="G50" r:id="rId98" display="http://www.captechconsulting.com/" xr:uid="{D111BA3E-A8B2-496C-962B-FD5246606CAF}"/>
-    <hyperlink ref="F51" r:id="rId99" display="https://www.forbes.com/companies/capgemini-consulting/?list=best-management-consulting-firms" xr:uid="{30968964-EA74-46DE-83D9-C82B8BF803A5}"/>
-    <hyperlink ref="G51" r:id="rId100" display="http://www.capgemini.com/" xr:uid="{D7931FCC-371A-4E9F-848F-A917BE49F63E}"/>
-    <hyperlink ref="F52" r:id="rId101" display="https://www.forbes.com/companies/brattle-group/?list=best-management-consulting-firms" xr:uid="{33659244-8A37-4477-8622-AB7BD0D41A72}"/>
-    <hyperlink ref="G52" r:id="rId102" display="http://www.brattle.com/" xr:uid="{97087335-4245-485E-A7F2-159947135BB1}"/>
-    <hyperlink ref="F53" r:id="rId103" display="https://www.forbes.com/companies/bdo-usa/?list=best-management-consulting-firms" xr:uid="{0F1B92A2-F77E-4C5C-8F0B-3E1504ACB729}"/>
-    <hyperlink ref="G53" r:id="rId104" display="http://www.bdo.com/" xr:uid="{F75166B0-AC7F-4023-BD7D-CF24A0BE5C34}"/>
-    <hyperlink ref="F54" r:id="rId105" display="https://www.forbes.com/companies/bain-and-company/?list=best-management-consulting-firms" xr:uid="{ABEC260A-1228-455A-9179-31B3FFF1BA20}"/>
-    <hyperlink ref="G54" r:id="rId106" display="http://www.bain.com/" xr:uid="{D3D0DBB3-6735-40F5-8F05-E9541F05C4AE}"/>
-    <hyperlink ref="F55" r:id="rId107" display="https://www.forbes.com/companies/bae-systems/?list=best-management-consulting-firms" xr:uid="{F6C3BBD9-17F2-4384-A8A0-8098BF894F85}"/>
-    <hyperlink ref="G55" r:id="rId108" display="http://www.baesystems.com/" xr:uid="{9A66C85E-4D2D-43BB-B75B-ADCAB4F19454}"/>
-    <hyperlink ref="F56" r:id="rId109" display="https://www.forbes.com/companies/avasant/?list=best-management-consulting-firms" xr:uid="{5704C4AD-3569-480A-8811-784360A146C3}"/>
-    <hyperlink ref="G56" r:id="rId110" display="http://www.avasant.com/" xr:uid="{3FEAD7DB-0DD8-4FBA-9781-29BAF69C6615}"/>
-    <hyperlink ref="F57" r:id="rId111" display="https://www.forbes.com/companies/at-kearney/?list=best-management-consulting-firms" xr:uid="{506083F0-9D5A-4FEA-A578-55D57000AD4A}"/>
-    <hyperlink ref="G57" r:id="rId112" display="http://www.atkearney.com/" xr:uid="{85295E24-E7BB-47BE-A049-93372A8A0B2B}"/>
-    <hyperlink ref="F58" r:id="rId113" display="https://www.forbes.com/companies/arthur-d-little/?list=best-management-consulting-firms" xr:uid="{D7BD1C10-BEBA-4B8D-AAF6-8BBD578AA523}"/>
-    <hyperlink ref="G58" r:id="rId114" display="http://www.adlittle.com/" xr:uid="{6E763AE3-9F2D-4470-8C2B-B4E53F9284DC}"/>
-    <hyperlink ref="F59" r:id="rId115" display="https://www.forbes.com/companies/archpoint/?list=best-management-consulting-firms" xr:uid="{9805C577-3A83-4C34-8FEF-DC2C74ED7304}"/>
-    <hyperlink ref="G59" r:id="rId116" display="http://www.archpointconsulting.com/" xr:uid="{DE03805F-62CE-426C-8D03-1C1352399BEA}"/>
-    <hyperlink ref="F60" r:id="rId117" display="https://www.forbes.com/companies/appirio/?list=best-management-consulting-firms" xr:uid="{05104E30-5F77-471C-B6D1-9AD2024569A6}"/>
-    <hyperlink ref="G60" r:id="rId118" display="http://www.appirio.com/" xr:uid="{85605FA1-1C0E-4676-8456-A55A40796209}"/>
-    <hyperlink ref="F61" r:id="rId119" display="https://www.forbes.com/companies/alixpartners/?list=best-management-consulting-firms" xr:uid="{76FEB623-2B52-479B-B911-D8F9737425CF}"/>
-    <hyperlink ref="G61" r:id="rId120" display="http://www.alixpartners.com/" xr:uid="{98BC3AEA-B6BB-4623-A818-CB4A35BB63BE}"/>
-    <hyperlink ref="F62" r:id="rId121" display="https://www.forbes.com/companies/microsoft/?list=best-management-consulting-firms" xr:uid="{E9F0C143-41F7-4199-9D08-DC72CFFDD546}"/>
-    <hyperlink ref="G62" r:id="rId122" display="http://www.microsoft.com/" xr:uid="{07729245-142F-4BF5-A800-C9567818A883}"/>
-    <hyperlink ref="F63" r:id="rId123" display="https://www.forbes.com/companies/wipro/?list=best-management-consulting-firms" xr:uid="{B81680DC-A00C-4527-AF2B-EE322E44F207}"/>
-    <hyperlink ref="G63" r:id="rId124" display="http://www.wipro.com/" xr:uid="{6DD97296-3489-4023-AEB1-5B3C819412C2}"/>
-    <hyperlink ref="F64" r:id="rId125" display="https://www.forbes.com/companies/virtusa/?list=best-management-consulting-firms" xr:uid="{AA306429-B3B6-47B5-9B0D-51D49B07ECFC}"/>
-    <hyperlink ref="G64" r:id="rId126" display="http://www.virtusa.com/" xr:uid="{A6475736-D682-4324-B653-063C5E8A4DD9}"/>
-    <hyperlink ref="F65" r:id="rId127" display="https://www.forbes.com/companies/ntt-data-services/?list=best-management-consulting-firms" xr:uid="{C8F9D767-DBF3-4E72-BB99-360490906407}"/>
-    <hyperlink ref="G65" r:id="rId128" display="http://us.nttdata.com/" xr:uid="{44BB01E8-F9C2-4669-B4C5-5F4A19968596}"/>
-    <hyperlink ref="F66" r:id="rId129" display="https://www.forbes.com/companies/mckinnis-consulting-services/?list=best-management-consulting-firms" xr:uid="{4FD30A1A-0AF1-4B24-990F-215F6FF8CA38}"/>
-    <hyperlink ref="G66" r:id="rId130" display="http://www.mckinnisconsulting.com/" xr:uid="{6FAF288D-7792-4EBE-A314-B507F9200E27}"/>
-    <hyperlink ref="F67" r:id="rId131" display="https://www.forbes.com/companies/hitachi-consulting/?list=best-management-consulting-firms" xr:uid="{318BC360-723E-4EC8-880E-C259786E725D}"/>
-    <hyperlink ref="G67" r:id="rId132" display="http://www.hitachiconsulting.com/" xr:uid="{C23C2906-0840-4CA7-B1EF-7D4FEA5E3A82}"/>
-    <hyperlink ref="F68" r:id="rId133" display="https://www.forbes.com/companies/hcl-technologies/?list=best-management-consulting-firms" xr:uid="{88C944C0-C543-47D3-9CD7-8D0BB0B6616F}"/>
-    <hyperlink ref="G68" r:id="rId134" display="http://www.hcltech.com/" xr:uid="{1B249A8A-E204-4E3E-B37F-E0CD3B37AAC3}"/>
-    <hyperlink ref="F69" r:id="rId135" display="https://www.forbes.com/companies/fujitsu-america/?list=best-management-consulting-firms" xr:uid="{C2D9BAE3-3975-454E-8161-664E30ABC3FB}"/>
-    <hyperlink ref="G69" r:id="rId136" display="http://www.fujitsu.com/" xr:uid="{A987C30A-D954-4FA0-838F-BAC2C8689524}"/>
-    <hyperlink ref="F70" r:id="rId137" display="https://www.forbes.com/companies/bridge-solutions-group/?list=best-management-consulting-firms" xr:uid="{245B4981-6F42-4CBF-89D5-9357CA5D2FD8}"/>
-    <hyperlink ref="G70" r:id="rId138" display="http://bridgesgi.com/" xr:uid="{127BE975-F975-4461-9742-3A67FDDD7989}"/>
-    <hyperlink ref="F71" r:id="rId139" display="https://www.forbes.com/companies/blue-horseshoe-solutions/?list=best-management-consulting-firms" xr:uid="{FB178ABB-8ADD-42DB-90CA-B9FF9230778F}"/>
-    <hyperlink ref="G71" r:id="rId140" display="http://www.bhsolutions.com/" xr:uid="{0AFCE0E5-71F6-4DA8-A8E2-42488497B156}"/>
-    <hyperlink ref="F72" r:id="rId141" display="https://www.forbes.com/companies/application-consulting-group/?list=best-management-consulting-firms" xr:uid="{9A7B383A-775A-4D56-8287-0A7BE6004DB6}"/>
-    <hyperlink ref="G72" r:id="rId142" display="http://www.acgi.com/" xr:uid="{3680555B-B45F-4585-859F-D12383AF1328}"/>
-    <hyperlink ref="F73" r:id="rId143" display="https://www.forbes.com/companies/simon-kucher-partners/?list=best-management-consulting-firms" xr:uid="{B688A261-B40B-4B8A-813C-08691F92B778}"/>
-    <hyperlink ref="G73" r:id="rId144" display="http://www.simon-kucher.com/" xr:uid="{7B3F6CBD-B3DE-46B5-AB76-F6AE144DD780}"/>
-    <hyperlink ref="F74" r:id="rId145" display="https://www.forbes.com/companies/navigant-consulting/?list=best-management-consulting-firms" xr:uid="{D42A3368-3064-4CD8-A857-C07F3B6A5ED4}"/>
-    <hyperlink ref="G74" r:id="rId146" display="http://www.navigant.com/" xr:uid="{42A76926-E3F8-40B8-A6CA-475CB60F98BB}"/>
-    <hyperlink ref="F75" r:id="rId147" display="https://www.forbes.com/companies/keystone-strategy/?list=best-management-consulting-firms" xr:uid="{38E7CA6F-FD8E-4C8F-8958-6B376F41354A}"/>
-    <hyperlink ref="G75" r:id="rId148" display="http://www.keystonestrategy.com/" xr:uid="{36363C54-4038-4F0E-995F-505D21363394}"/>
-    <hyperlink ref="F76" r:id="rId149" display="https://www.forbes.com/companies/kaiser-associates/?list=best-management-consulting-firms" xr:uid="{26237C56-6B89-4E98-B2B6-4FBE56F7944C}"/>
-    <hyperlink ref="G76" r:id="rId150" display="http://www.kaiserassociates.com/" xr:uid="{AE70D19E-632F-4BB9-8526-40A1BEDE4537}"/>
-    <hyperlink ref="F77" r:id="rId151" display="https://www.forbes.com/companies/insight-sourcing-group/?list=best-management-consulting-firms" xr:uid="{03596DF1-451F-4ADE-96E1-7390913C1943}"/>
-    <hyperlink ref="G77" r:id="rId152" display="http://www.insightsourcing.com/" xr:uid="{3511911A-284A-495F-A638-FCEA6857A093}"/>
-    <hyperlink ref="F78" r:id="rId153" display="https://www.forbes.com/companies/innosight/?list=best-management-consulting-firms" xr:uid="{7AF6F7AC-AA36-444C-809F-18EC9B7D89A1}"/>
-    <hyperlink ref="G78" r:id="rId154" display="http://www.innosight.com/" xr:uid="{D6880B12-4ECA-44B9-B3CF-FA995484372F}"/>
-    <hyperlink ref="F79" r:id="rId155" display="https://www.forbes.com/companies/ibb-consulting-group/?list=best-management-consulting-firms" xr:uid="{34234032-7FD7-4C79-9388-1064B2B37761}"/>
-    <hyperlink ref="G79" r:id="rId156" display="http://www.ibbconsulting.com/" xr:uid="{2E3B024D-EAF0-4558-96B8-BC166214CAF9}"/>
-    <hyperlink ref="F80" r:id="rId157" display="https://www.forbes.com/companies/hay-group/?list=best-management-consulting-firms" xr:uid="{27C67948-9BF1-4BB6-81CC-7C59651891D9}"/>
-    <hyperlink ref="G80" r:id="rId158" display="http://www.haygroup.com/" xr:uid="{4156F39E-5C31-4021-BAD5-CE3237F931E6}"/>
-    <hyperlink ref="F81" r:id="rId159" display="https://www.forbes.com/companies/cornerstone-research/?list=best-management-consulting-firms" xr:uid="{FBC9D6FE-D86B-4C76-9631-0C642B7A187F}"/>
-    <hyperlink ref="G81" r:id="rId160" display="http://www.cornerstone.com/" xr:uid="{CE57BAC1-5A51-48DB-A991-E48B29FB8F31}"/>
-    <hyperlink ref="F82" r:id="rId161" display="https://www.forbes.com/companies/charles-river-associates/?list=best-management-consulting-firms" xr:uid="{8F64B732-5633-4E65-BED9-D99B29C27DB8}"/>
-    <hyperlink ref="G82" r:id="rId162" display="http://www.crai.com/" xr:uid="{70500862-2186-4D50-80F9-ECDE6F4C6E38}"/>
-    <hyperlink ref="F83" r:id="rId163" display="https://www.forbes.com/companies/centric-consulting/?list=best-management-consulting-firms" xr:uid="{0300B0D2-FEE6-4274-A04A-0EE24986AC49}"/>
-    <hyperlink ref="G83" r:id="rId164" display="http://www.centricconsulting.com/" xr:uid="{D015F512-D9CE-455A-9E42-91EC6E0ED7EE}"/>
-    <hyperlink ref="F84" r:id="rId165" display="https://www.forbes.com/companies/bates-white/?list=best-management-consulting-firms" xr:uid="{734B7239-9253-42A3-9735-8A3F93139764}"/>
-    <hyperlink ref="G84" r:id="rId166" display="http://www.bateswhite.com/" xr:uid="{03924464-9E2E-4EAC-BD43-DB1983FFB60D}"/>
-    <hyperlink ref="F85" r:id="rId167" display="https://www.forbes.com/companies/avanade/?list=best-management-consulting-firms" xr:uid="{BC8FCC46-03C4-4E40-927C-A4D9D8E5B4E4}"/>
-    <hyperlink ref="G85" r:id="rId168" display="http://www.avanade.com/" xr:uid="{59585FCF-38AE-4884-86B0-4583ED23488D}"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://www.forbes.com/companies/ibm/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G2" r:id="rId2" display="http://www.ibm.com/"/>
+    <hyperlink ref="F3" r:id="rId3" display="https://www.forbes.com/companies/dxc-technology/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G3" r:id="rId4" display="http://www.dxc.technology/"/>
+    <hyperlink ref="F4" r:id="rId5" display="https://www.forbes.com/companies/deloitte-touche-tohmatsu/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G4" r:id="rId6" display="http://www.deloitte.com/"/>
+    <hyperlink ref="F5" r:id="rId7" display="https://www.forbes.com/companies/cisco-systems/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G5" r:id="rId8" display="http://www.cisco.com/"/>
+    <hyperlink ref="F6" r:id="rId9" display="https://www.forbes.com/companies/accenture/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G6" r:id="rId10" display="http://www.accenture.com/"/>
+    <hyperlink ref="F7" r:id="rId11" display="https://www.forbes.com/companies/sap/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G7" r:id="rId12" display="http://www.sap.com/"/>
+    <hyperlink ref="F8" r:id="rId13" display="https://www.forbes.com/companies/pricewaterhousecoopers/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G8" r:id="rId14" display="http://www.pwc.com/"/>
+    <hyperlink ref="F9" r:id="rId15" display="https://www.forbes.com/companies/oracle/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G9" r:id="rId16" display="http://www.oracle.com/"/>
+    <hyperlink ref="F10" r:id="rId17" display="https://www.forbes.com/companies/mckinsey-company/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G10" r:id="rId18" display="http://www.mckinsey.com/"/>
+    <hyperlink ref="F11" r:id="rId19" display="https://www.forbes.com/companies/kpmg/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G11" r:id="rId20" display="http://www.kpmg.com/"/>
+    <hyperlink ref="F12" r:id="rId21" display="https://www.forbes.com/companies/infosys-consulting/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G12" r:id="rId22" display="http://www.infosys.com/"/>
+    <hyperlink ref="F13" r:id="rId23" display="https://www.forbes.com/companies/information-services-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G13" r:id="rId24" display="http://www.isg-one.com/"/>
+    <hyperlink ref="F14" r:id="rId25" display="https://www.forbes.com/companies/gartner/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G14" r:id="rId26" display="http://www.gartner.com/"/>
+    <hyperlink ref="F15" r:id="rId27" display="https://www.forbes.com/companies/ernst-young/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G15" r:id="rId28" display="http://www.ey.com/"/>
+    <hyperlink ref="F16" r:id="rId29" display="https://www.forbes.com/companies/boston-consulting-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G16" r:id="rId30" display="http://www.bcg.com/"/>
+    <hyperlink ref="F17" r:id="rId31" display="https://www.forbes.com/companies/booz-allen-hamilton/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G17" r:id="rId32" display="http://www.boozallen.com/"/>
+    <hyperlink ref="F18" r:id="rId33" display="https://www.forbes.com/companies/west-monroe-partners/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G18" r:id="rId34" display="http://www.westmonroepartners.com/"/>
+    <hyperlink ref="F19" r:id="rId35" display="https://www.forbes.com/companies/the-chartis-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G19" r:id="rId36" display="http://www.chartis.com/"/>
+    <hyperlink ref="F20" r:id="rId37" display="https://www.forbes.com/companies/tata-consultancy-services/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G20" r:id="rId38" display="http://www.tcs.com/"/>
+    <hyperlink ref="F21" r:id="rId39" display="https://www.forbes.com/companies/strategy/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G21" r:id="rId40" display="http://www.strategyand.pwc.com/"/>
+    <hyperlink ref="F22" r:id="rId41" display="https://www.forbes.com/companies/ssa-company/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G22" r:id="rId42" display="http://www.ssaandco.com/"/>
+    <hyperlink ref="F23" r:id="rId43" display="https://www.forbes.com/companies/slalom-consulting/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G23" r:id="rId44" display="http://www.slalom.com/"/>
+    <hyperlink ref="F24" r:id="rId45" display="https://www.forbes.com/companies/sapient/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G24" r:id="rId46" display="http://www.sapientconsulting.com/"/>
+    <hyperlink ref="F25" r:id="rId47" display="https://www.forbes.com/companies/roland-berger-strategy-consultants/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G25" r:id="rId48" display="http://www.rolandberger.com/"/>
+    <hyperlink ref="F26" r:id="rId49" display="https://www.forbes.com/companies/resources-global-professionals/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G26" r:id="rId50" display="http://www.rgp.com/"/>
+    <hyperlink ref="F27" r:id="rId51" display="https://www.forbes.com/companies/protiviti/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G27" r:id="rId52" display="http://www.protiviti.com/"/>
+    <hyperlink ref="F28" r:id="rId53" display="https://www.forbes.com/companies/point-b/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G28" r:id="rId54" display="http://www.pointb.com/"/>
+    <hyperlink ref="F29" r:id="rId55" display="https://www.forbes.com/companies/oliver-wyman/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G29" r:id="rId56" display="http://www.oliverwyman.com/"/>
+    <hyperlink ref="F30" r:id="rId57" display="https://www.forbes.com/companies/oasys-international/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G30" r:id="rId58" display="http://www.oasysic.com/"/>
+    <hyperlink ref="F31" r:id="rId59" display="https://www.forbes.com/companies/novantas/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G31" r:id="rId60" display="http://www.novantas.com/"/>
+    <hyperlink ref="F32" r:id="rId61" display="https://www.forbes.com/companies/north-highland/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G32" r:id="rId62" display="http://www.northhighland.com/"/>
+    <hyperlink ref="F33" r:id="rId63" display="https://www.forbes.com/companies/medmatica-consulting-associates/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G33" r:id="rId64" display="http://www.medmatica.com/"/>
+    <hyperlink ref="F34" r:id="rId65" display="https://www.forbes.com/companies/lockheed-martin/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G34" r:id="rId66" display="http://www.lockheedmartin.com/"/>
+    <hyperlink ref="F35" r:id="rId67" display="https://www.forbes.com/companies/leappoint/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G35" r:id="rId68" display="http://leappoint.com/"/>
+    <hyperlink ref="F36" r:id="rId69" display="https://www.forbes.com/companies/kurt-salmon/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G36" r:id="rId70" display="http://www.kurtsalmon.com/"/>
+    <hyperlink ref="F37" r:id="rId71" display="https://www.forbes.com/companies/jabian-consulting/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G37" r:id="rId72" display="http://www.jabian.com/"/>
+    <hyperlink ref="F38" r:id="rId73" display="https://www.forbes.com/companies/impact-advisors/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G38" r:id="rId74" display="http://www.impact-advisors.com/"/>
+    <hyperlink ref="F39" r:id="rId75" display="https://www.forbes.com/companies/ignyte-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G39" r:id="rId76" display="http://ignytegroup.com/"/>
+    <hyperlink ref="F40" r:id="rId77" display="https://www.forbes.com/companies/huron-consulting-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G40" r:id="rId78" display="http://www.huronconsultinggroup.com/"/>
+    <hyperlink ref="F41" r:id="rId79" display="https://www.forbes.com/companies/grant-thornton/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G41" r:id="rId80" display="http://www.grantthornton.com/"/>
+    <hyperlink ref="F42" r:id="rId81" display="https://www.forbes.com/companies/fti-consulting/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G42" r:id="rId82" display="http://www.fticonsulting.com/"/>
+    <hyperlink ref="F43" r:id="rId83" display="https://www.forbes.com/companies/forsythe-solutions-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G43" r:id="rId84" display="http://www.forsythe.com/"/>
+    <hyperlink ref="F44" r:id="rId85" display="https://www.forbes.com/companies/everest-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G44" r:id="rId86" display="http://www.everestgrp.com/"/>
+    <hyperlink ref="F45" r:id="rId87" display="https://www.forbes.com/companies/cumberland-consulting-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G45" r:id="rId88" display="http://www.cumberlandcg.com/"/>
+    <hyperlink ref="F46" r:id="rId89" display="https://www.forbes.com/companies/cognizant/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G46" r:id="rId90" display="http://www.cognizant.com/"/>
+    <hyperlink ref="F47" r:id="rId91" display="https://www.forbes.com/companies/clarkston-consulting/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G47" r:id="rId92" display="http://www.clarkstonconsulting.com/"/>
+    <hyperlink ref="F48" r:id="rId93" display="https://www.forbes.com/companies/cgn-global/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G48" r:id="rId94" display="http://www.cgnglobal.com/"/>
+    <hyperlink ref="F49" r:id="rId95" display="https://www.forbes.com/companies/censeo-consulting-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G49" r:id="rId96" display="http://www.censeoconsulting.com/"/>
+    <hyperlink ref="F50" r:id="rId97" display="https://www.forbes.com/companies/captech/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G50" r:id="rId98" display="http://www.captechconsulting.com/"/>
+    <hyperlink ref="F51" r:id="rId99" display="https://www.forbes.com/companies/capgemini-consulting/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G51" r:id="rId100" display="http://www.capgemini.com/"/>
+    <hyperlink ref="F52" r:id="rId101" display="https://www.forbes.com/companies/brattle-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G52" r:id="rId102" display="http://www.brattle.com/"/>
+    <hyperlink ref="F53" r:id="rId103" display="https://www.forbes.com/companies/bdo-usa/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G53" r:id="rId104" display="http://www.bdo.com/"/>
+    <hyperlink ref="F54" r:id="rId105" display="https://www.forbes.com/companies/bain-and-company/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G54" r:id="rId106" display="http://www.bain.com/"/>
+    <hyperlink ref="F55" r:id="rId107" display="https://www.forbes.com/companies/bae-systems/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G55" r:id="rId108" display="http://www.baesystems.com/"/>
+    <hyperlink ref="F56" r:id="rId109" display="https://www.forbes.com/companies/avasant/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G56" r:id="rId110" display="http://www.avasant.com/"/>
+    <hyperlink ref="F57" r:id="rId111" display="https://www.forbes.com/companies/at-kearney/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G57" r:id="rId112" display="http://www.atkearney.com/"/>
+    <hyperlink ref="F58" r:id="rId113" display="https://www.forbes.com/companies/arthur-d-little/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G58" r:id="rId114" display="http://www.adlittle.com/"/>
+    <hyperlink ref="F59" r:id="rId115" display="https://www.forbes.com/companies/archpoint/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G59" r:id="rId116" display="http://www.archpointconsulting.com/"/>
+    <hyperlink ref="F60" r:id="rId117" display="https://www.forbes.com/companies/appirio/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G60" r:id="rId118" display="http://www.appirio.com/"/>
+    <hyperlink ref="F61" r:id="rId119" display="https://www.forbes.com/companies/alixpartners/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G61" r:id="rId120" display="http://www.alixpartners.com/"/>
+    <hyperlink ref="F62" r:id="rId121" display="https://www.forbes.com/companies/microsoft/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G62" r:id="rId122" display="http://www.microsoft.com/"/>
+    <hyperlink ref="F63" r:id="rId123" display="https://www.forbes.com/companies/wipro/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G63" r:id="rId124" display="http://www.wipro.com/"/>
+    <hyperlink ref="F64" r:id="rId125" display="https://www.forbes.com/companies/virtusa/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G64" r:id="rId126" display="http://www.virtusa.com/"/>
+    <hyperlink ref="F65" r:id="rId127" display="https://www.forbes.com/companies/ntt-data-services/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G65" r:id="rId128" display="http://us.nttdata.com/"/>
+    <hyperlink ref="F66" r:id="rId129" display="https://www.forbes.com/companies/mckinnis-consulting-services/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G66" r:id="rId130" display="http://www.mckinnisconsulting.com/"/>
+    <hyperlink ref="F67" r:id="rId131" display="https://www.forbes.com/companies/hitachi-consulting/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G67" r:id="rId132" display="http://www.hitachiconsulting.com/"/>
+    <hyperlink ref="F68" r:id="rId133" display="https://www.forbes.com/companies/hcl-technologies/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G68" r:id="rId134" display="http://www.hcltech.com/"/>
+    <hyperlink ref="F69" r:id="rId135" display="https://www.forbes.com/companies/fujitsu-america/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G69" r:id="rId136" display="http://www.fujitsu.com/"/>
+    <hyperlink ref="F70" r:id="rId137" display="https://www.forbes.com/companies/bridge-solutions-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G70" r:id="rId138" display="http://bridgesgi.com/"/>
+    <hyperlink ref="F71" r:id="rId139" display="https://www.forbes.com/companies/blue-horseshoe-solutions/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G71" r:id="rId140" display="http://www.bhsolutions.com/"/>
+    <hyperlink ref="F72" r:id="rId141" display="https://www.forbes.com/companies/application-consulting-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G72" r:id="rId142" display="http://www.acgi.com/"/>
+    <hyperlink ref="F73" r:id="rId143" display="https://www.forbes.com/companies/simon-kucher-partners/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G73" r:id="rId144" display="http://www.simon-kucher.com/"/>
+    <hyperlink ref="F74" r:id="rId145" display="https://www.forbes.com/companies/navigant-consulting/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G74" r:id="rId146" display="http://www.navigant.com/"/>
+    <hyperlink ref="F75" r:id="rId147" display="https://www.forbes.com/companies/keystone-strategy/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G75" r:id="rId148" display="http://www.keystonestrategy.com/"/>
+    <hyperlink ref="F76" r:id="rId149" display="https://www.forbes.com/companies/kaiser-associates/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G76" r:id="rId150" display="http://www.kaiserassociates.com/"/>
+    <hyperlink ref="F77" r:id="rId151" display="https://www.forbes.com/companies/insight-sourcing-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G77" r:id="rId152" display="http://www.insightsourcing.com/"/>
+    <hyperlink ref="F78" r:id="rId153" display="https://www.forbes.com/companies/innosight/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G78" r:id="rId154" display="http://www.innosight.com/"/>
+    <hyperlink ref="F79" r:id="rId155" display="https://www.forbes.com/companies/ibb-consulting-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G79" r:id="rId156" display="http://www.ibbconsulting.com/"/>
+    <hyperlink ref="F80" r:id="rId157" display="https://www.forbes.com/companies/hay-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G80" r:id="rId158" display="http://www.haygroup.com/"/>
+    <hyperlink ref="F81" r:id="rId159" display="https://www.forbes.com/companies/cornerstone-research/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G81" r:id="rId160" display="http://www.cornerstone.com/"/>
+    <hyperlink ref="F82" r:id="rId161" display="https://www.forbes.com/companies/charles-river-associates/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G82" r:id="rId162" display="http://www.crai.com/"/>
+    <hyperlink ref="F83" r:id="rId163" display="https://www.forbes.com/companies/centric-consulting/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G83" r:id="rId164" display="http://www.centricconsulting.com/"/>
+    <hyperlink ref="F84" r:id="rId165" display="https://www.forbes.com/companies/bates-white/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G84" r:id="rId166" display="http://www.bateswhite.com/"/>
+    <hyperlink ref="F85" r:id="rId167" display="https://www.forbes.com/companies/avanade/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G85" r:id="rId168" display="http://www.avanade.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD38270-A59E-4A0B-9200-A877A8354053}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.5703125" customWidth="1"/>
     <col min="6" max="6" width="55.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D2" s="13" t="s">
+    <row r="2" spans="4:6" ht="31.5">
+      <c r="D2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="13" t="s">
+    </row>
+    <row r="3" spans="4:6">
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D3" s="14">
-        <v>1</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14">
+        <v>17310000000</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6">
+      <c r="D4" s="13">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="15">
-        <v>17310000000</v>
-      </c>
-    </row>
-    <row r="4" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="14">
-        <v>2</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="14">
+        <v>15460000000</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6">
+      <c r="D5" s="13">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="15">
-        <v>15460000000</v>
-      </c>
-    </row>
-    <row r="5" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D5" s="14">
-        <v>3</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="F5" s="14">
+        <v>14930000000</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6">
+      <c r="D6" s="13">
+        <v>4</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="15">
-        <v>14930000000</v>
-      </c>
-    </row>
-    <row r="6" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D6" s="14">
-        <v>4</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="F6" s="14">
+        <v>14810000000</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6">
+      <c r="D7" s="13">
+        <v>5</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="15">
-        <v>14810000000</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D7" s="14">
-        <v>5</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="F7" s="14">
+        <v>13350000000</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6">
+      <c r="D8" s="13">
+        <v>6</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="15">
-        <v>13350000000</v>
-      </c>
-    </row>
-    <row r="8" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D8" s="14">
-        <v>6</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="F8" s="14">
+        <v>12253000000</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6">
+      <c r="D9" s="13">
+        <v>7</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="15">
-        <v>12253000000</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D9" s="14">
-        <v>7</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="F9" s="14">
+        <v>12000000000</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6">
+      <c r="D10" s="13">
+        <v>8</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="15">
-        <v>12000000000</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D10" s="14">
-        <v>8</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="14">
+        <v>11600000000</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6">
+      <c r="D11" s="13">
+        <v>9</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="15">
-        <v>11600000000</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D11" s="14">
-        <v>9</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="F11" s="14">
+        <v>10210000000</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6">
+      <c r="D12" s="13">
+        <v>10</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="15">
-        <v>10210000000</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D12" s="14">
-        <v>10</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="F12" s="14">
+        <v>10180000000</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6">
+      <c r="D13" s="13">
+        <v>11</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="15">
-        <v>10180000000</v>
-      </c>
-    </row>
-    <row r="13" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D13" s="14">
-        <v>11</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="F13" s="14">
+        <v>8800000000</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6">
+      <c r="D14" s="13">
+        <v>12</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="15">
-        <v>8800000000</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D14" s="14">
-        <v>12</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="F14" s="14">
+        <v>8500000000</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6">
+      <c r="D15" s="13">
+        <v>13</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="15">
-        <v>8500000000</v>
-      </c>
-    </row>
-    <row r="15" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D15" s="14">
-        <v>13</v>
-      </c>
-      <c r="E15" s="14" t="s">
+      <c r="F15" s="14">
+        <v>7882000000</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6">
+      <c r="D16" s="13">
+        <v>14</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="15">
-        <v>7882000000</v>
-      </c>
-    </row>
-    <row r="16" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D16" s="14">
-        <v>14</v>
-      </c>
-      <c r="E16" s="14" t="s">
+      <c r="F16" s="14">
+        <v>6300000000</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="D17" s="13">
+        <v>15</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="14">
+        <v>6100000000</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="D18" s="13">
+        <v>16</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="15">
-        <v>6300000000</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="14">
-        <v>15</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="F18" s="14">
+        <v>4300000000</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19" s="13">
+        <v>17</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="14">
+        <v>4200000000</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6">
+      <c r="D20" s="13">
+        <v>18</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="14">
+        <v>3870000000</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="D21" s="13">
+        <v>19</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="14">
+        <v>3566000000</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6">
+      <c r="D22" s="13">
+        <v>20</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="14">
+        <v>3358000000</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6">
+      <c r="D23" s="13">
+        <v>21</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="14">
+        <v>3300000000</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6">
+      <c r="D24" s="13">
+        <v>22</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="14">
+        <v>2813000000</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6">
+      <c r="D25" s="13">
+        <v>23</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="14">
+        <v>2000000000</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6">
+      <c r="D26" s="13">
+        <v>24</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="14">
+        <v>1800000000</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6">
+      <c r="D27" s="13">
+        <v>25</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="14">
+        <v>1800000000</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6">
+      <c r="D28" s="13">
+        <v>26</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="14">
+        <v>1700000000</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6">
+      <c r="D29" s="13">
+        <v>27</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="14">
+        <v>1410000000</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6">
+      <c r="D30" s="13">
+        <v>28</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="14">
+        <v>1400000000</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6">
+      <c r="D31" s="13">
+        <v>29</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="14">
+        <v>1305000000</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6">
+      <c r="D32" s="13">
+        <v>30</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="14">
+        <v>1300000000</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6">
+      <c r="D33" s="13">
+        <v>31</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="14">
+        <v>1300000000</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6">
+      <c r="D34" s="13">
+        <v>32</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="14">
+        <v>1190000000</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6">
+      <c r="D35" s="13">
+        <v>33</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="14">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6">
+      <c r="D36" s="13">
+        <v>34</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="14">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6">
+      <c r="D37" s="13">
+        <v>35</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="14">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6">
+      <c r="D38" s="13">
+        <v>36</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="14">
+        <v>816000000</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6">
+      <c r="D39" s="13">
+        <v>37</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="14">
+        <v>797700000</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6">
+      <c r="D40" s="13">
+        <v>38</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="14">
+        <v>781800000</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6">
+      <c r="D41" s="13">
+        <v>39</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F41" s="14">
+        <v>767000000</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6">
+      <c r="D42" s="13">
+        <v>40</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="14">
+        <v>600000000</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6">
+      <c r="D43" s="13">
+        <v>41</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F43" s="14">
+        <v>600000000</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6">
+      <c r="D44" s="13">
+        <v>42</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="14">
+        <v>556000000</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6">
+      <c r="D45" s="13">
+        <v>43</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="14">
+        <v>525000000</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6">
+      <c r="D46" s="13">
+        <v>44</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46" s="14">
+        <v>500000000</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6">
+      <c r="D47" s="13">
+        <v>45</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F47" s="14">
+        <v>487000000</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6">
+      <c r="D48" s="13">
+        <v>46</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F48" s="14">
+        <v>311000000</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6">
+      <c r="D49" s="13">
+        <v>47</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49" s="14">
+        <v>239200000</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6">
+      <c r="D50" s="13">
         <v>48</v>
       </c>
-      <c r="F17" s="15">
-        <v>6100000000</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D18" s="14">
-        <v>16</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" s="15">
-        <v>4300000000</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D19" s="14">
-        <v>17</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="15">
-        <v>4200000000</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D20" s="14">
-        <v>18</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="15">
-        <v>3870000000</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D21" s="14">
-        <v>19</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="15">
-        <v>3566000000</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D22" s="14">
-        <v>20</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" s="15">
-        <v>3358000000</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D23" s="14">
-        <v>21</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="15">
-        <v>3300000000</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D24" s="14">
-        <v>22</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="15">
-        <v>2813000000</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D25" s="14">
-        <v>23</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="15">
-        <v>2000000000</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D26" s="14">
-        <v>24</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" s="15">
-        <v>1800000000</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D27" s="14">
-        <v>25</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="15">
-        <v>1800000000</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D28" s="14">
-        <v>26</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F28" s="15">
-        <v>1700000000</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D29" s="14">
-        <v>27</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="15">
-        <v>1410000000</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D30" s="14">
-        <v>28</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="F30" s="15">
-        <v>1400000000</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D31" s="14">
-        <v>29</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F31" s="15">
-        <v>1305000000</v>
-      </c>
-    </row>
-    <row r="32" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D32" s="14">
-        <v>30</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="F32" s="15">
-        <v>1300000000</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D33" s="14">
-        <v>31</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="15">
-        <v>1300000000</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D34" s="14">
-        <v>32</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" s="15">
-        <v>1190000000</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D35" s="14">
-        <v>33</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="15">
-        <v>1000000000</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D36" s="14">
-        <v>34</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="15">
-        <v>1000000000</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D37" s="14">
-        <v>35</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F37" s="15">
-        <v>1000000000</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D38" s="14">
-        <v>36</v>
-      </c>
-      <c r="E38" s="14" t="s">
+      <c r="E50" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F50" s="14">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6">
+      <c r="D51" s="13">
+        <v>49</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F51" s="14">
+        <v>162000000</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6">
+      <c r="D52" s="15">
         <v>50</v>
       </c>
-      <c r="F38" s="15">
-        <v>816000000</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D39" s="14">
-        <v>37</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="F39" s="15">
-        <v>797700000</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D40" s="14">
-        <v>38</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F40" s="15">
-        <v>781800000</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D41" s="14">
-        <v>39</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="F41" s="15">
-        <v>767000000</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D42" s="14">
-        <v>40</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F42" s="15">
-        <v>600000000</v>
-      </c>
-    </row>
-    <row r="43" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D43" s="14">
-        <v>41</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="F43" s="15">
-        <v>600000000</v>
-      </c>
-    </row>
-    <row r="44" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D44" s="14">
-        <v>42</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F44" s="15">
-        <v>556000000</v>
-      </c>
-    </row>
-    <row r="45" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D45" s="14">
-        <v>43</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="15">
-        <v>525000000</v>
-      </c>
-    </row>
-    <row r="46" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D46" s="14">
-        <v>44</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="F46" s="15">
-        <v>500000000</v>
-      </c>
-    </row>
-    <row r="47" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D47" s="14">
-        <v>45</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="F47" s="15">
-        <v>487000000</v>
-      </c>
-    </row>
-    <row r="48" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D48" s="14">
-        <v>46</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="F48" s="15">
-        <v>311000000</v>
-      </c>
-    </row>
-    <row r="49" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D49" s="14">
-        <v>47</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F49" s="15">
-        <v>239200000</v>
-      </c>
-    </row>
-    <row r="50" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="14">
-        <v>48</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F50" s="15">
-        <v>200000000</v>
-      </c>
-    </row>
-    <row r="51" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D51" s="14">
-        <v>49</v>
-      </c>
-      <c r="E51" s="14" t="s">
+      <c r="E52" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="F51" s="15">
-        <v>162000000</v>
-      </c>
-    </row>
-    <row r="52" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="16">
-        <v>50</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="F52" s="17">
+      <c r="F52" s="16">
         <v>160000000</v>
       </c>
     </row>
@@ -3701,18 +6545,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54A7B72-545B-4E91-BFBB-5855FBB458BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="7" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="7:7">
       <c r="G7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Companies_Apply_Status_Sheet.xlsx
+++ b/Companies_Apply_Status_Sheet.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$119</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="521">
   <si>
     <t>SLNo</t>
   </si>
@@ -1475,6 +1475,161 @@
   </si>
   <si>
     <t>https://careers.verizon.com/psc/vzehpra/EMPLOYEE/HRMS/c/B_RS_MENU.B_RS_EA.GBL?JobOpeningID=491233&amp;PostingSeq=1&amp;tid=x_9cfe83bf-8ecb-4229-b07d-d447f3f856f1&amp;apply=Y</t>
+  </si>
+  <si>
+    <t>Black Knight</t>
+  </si>
+  <si>
+    <t>PM I</t>
+  </si>
+  <si>
+    <t>Jacksonville, FL</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/973518121/?recommendedFlavor=SCHOOL_RECRUIT&amp;trk=d_flagship3_job_home_savedjobs</t>
+  </si>
+  <si>
+    <t>https://blackknight.wd1.myworkdayjobs.com/BKC/login?redirect=%2FBKC%2Fjob%2FJacksonville-FL%2FProject-Manager-I---Technical_2018-543-2%2Fapply%3Fsource%3Dlinkedin</t>
+  </si>
+  <si>
+    <t>link opens a blank page</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/993929684/?recommendedFlavor=HIDDEN_GEM&amp;trk=d_flagship3_job_home_savedjobs</t>
+  </si>
+  <si>
+    <t>https://recruiting.adp.com/srccar/public/RTI.home?r=5000438050706&amp;c=1046545&amp;d=External&amp;apply=true&amp;rb=KRT#/</t>
+  </si>
+  <si>
+    <t>Norfolk, VA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login with linkedlin populates incorrect LN and unable to edit it. Not able to register new with gmail </t>
+  </si>
+  <si>
+    <t>https://www.applytracking.com/track.aspx/2l8XU</t>
+  </si>
+  <si>
+    <t>IT PM Consultant</t>
+  </si>
+  <si>
+    <t>Los Angeles, CA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/918668055/?recommendedFlavor=SCHOOL_RECRUIT&amp;trk=d_flagship3_job_home_savedjobs</t>
+  </si>
+  <si>
+    <t>Seatte, Washg</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/792630393/?recommendedFlavor=SCHOOL_RECRUIT&amp;trk=d_flagship3_job_home_savedjobs</t>
+  </si>
+  <si>
+    <t>ID: 7104BR
+other questions****</t>
+  </si>
+  <si>
+    <t>https://sjobs.brassring.com/TGnewUI/Search/home/HomeWithPreLoad?PageType=JobDetails&amp;partnerid=25811&amp;siteid=5185&amp;areq=7104BR#jobDetails=410516_5185</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job ID 679696  </t>
+  </si>
+  <si>
+    <t>SantaBarbara, CA</t>
+  </si>
+  <si>
+    <t>https://us-amazon.icims.com/jobs/login?loginOnly=1&amp;redirect=&amp;hashed=124496045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job ID 673272  </t>
+  </si>
+  <si>
+    <t>Login with google+
+sarath.sund@gmail.com</t>
+  </si>
+  <si>
+    <t>Sunnyville, cA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/836043648/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/837072415/?recommendedFlavor=IN_NETWORK&amp;trk=d_flagship3_job_home_savedjobs</t>
+  </si>
+  <si>
+    <t>asks for RGP Local office? Mandatory**</t>
+  </si>
+  <si>
+    <t>Zulily</t>
+  </si>
+  <si>
+    <t>Greater Seattle</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/989276714/?recommendedFlavor=SCHOOL_RECRUIT&amp;trk=d_flagship3_job_home_savedjobs</t>
+  </si>
+  <si>
+    <t>Puppet</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/991869851/?eBP=CwEAAAFniLnPMSTGAEEamI3lNqkcMUUDrITrVLns7t1h-k8To5LB0fLvwlITrBmvNM2R6mfKaZY1H0HRNEgNxpZjjqKbwKreRPOMsCusYbly4LZluz8zMIJ7PpZVYQfswsbhuZ3lPkIbZRbcIQa1PuJs1MocjMMhZXWcsLNk0dFxsYUx-Ad9Xcd9amhDDy886EBRo8y7z5lfmpITuBTyUNLN-A7X6He5eaSQ8WFgVMPw61JMvjhbFncdf7fi3T5PtYLe04RF43E2G5-dhuOtYX70JX6gwYYNs7M96dcX6NGHUqJlZv2pLSgLRwrygG3h6upKQ-y1d6RhC3O95twOIr25Xat2nt_IU2BbXg&amp;refId=3b881891-0cd5-4424-9203-2f83bcf19955&amp;trk=d_flagship3_job_details</t>
+  </si>
+  <si>
+    <t>https://puppet.com/company/careers/jobs?gh_jid=1452543&amp;gh_src=7e8f977a1</t>
+  </si>
+  <si>
+    <t>Need description of skills</t>
+  </si>
+  <si>
+    <t>Rover.com</t>
+  </si>
+  <si>
+    <t>https://jobs.lever.co/rover/d4672baa-8868-4a64-a6b7-d74773b92379?lever-origin=applied&amp;lever-source%5B%5D=LinkedIn+Paid</t>
+  </si>
+  <si>
+    <t>Applied thro LinkedIn as career website required cover letter</t>
+  </si>
+  <si>
+    <t>Seattle, WA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/778151069/</t>
+  </si>
+  <si>
+    <t>Sanp Inc (Placed)</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/snapchat/jobs/839587?s=LinkedIn&amp;source=LinkedIn#app</t>
+  </si>
+  <si>
+    <t>Elastic</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/865100811/</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/elastic/jobs/1227502?gh_src=ubgar5dh1&amp;s=LinkedIn&amp;source=LinkedIn</t>
+  </si>
+  <si>
+    <t>(Senior) Prod M</t>
+  </si>
+  <si>
+    <t>OneSource Virtual</t>
+  </si>
+  <si>
+    <t>Dallas,TX</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/970939978/?eBP=CwEAAAFniS46e_-0JXt7aeUnkUAF0F-Qkw-SQFxE4-FGM2yR5BpAfUkag1CoCdhpeCza-rkSyU3Dz6g8F6DTTyKMxz4ajyFb-VJGJ3cQ_3LdMWnB1YRp_AKzf7VzKvtAoB3sKbKVOc33ICireDVzTVMFjqpO8X5ooSaCWXRNnqaoYYWFgURz-biClXd17ryuET27KMuQvSdNCHaJGRrvOV_x7jFA9iHT4iSWDcxRRONIBNt88WYiap52aBZQQmVWfHKIGic9s6G9B_sPt8t6zCO_DvzvM-iGuovCIoqeXHxwiV1YLGUTAItQEDJ_jzdy18K2_nhg_Oe7T3Akthqo2YIoare11TkxRFjrtejkYySoFgKohI9VM2AUgX7PFQP9b3AwjC690hc&amp;refId=fc88913f-e106-4d5c-bf4b-914f31ef32ea&amp;trk=d_flagship3_job_details</t>
+  </si>
+  <si>
+    <t>https://vhr-osvhr.wd1.myworkdayjobs.com/OSV_External_Career_Site/job/US-TX-Dallas/Project-Manager_REQ-2018-404?source=LinkedIn</t>
+  </si>
+  <si>
+    <t>blank page</t>
   </si>
 </sst>
 </file>
@@ -1979,7 +2134,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1987,12 +2142,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:O119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="F71" sqref="F71"/>
+      <selection pane="topRight" activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3549,7 +3704,7 @@
       <c r="N52" s="3"/>
       <c r="O52" s="6"/>
     </row>
-    <row r="53" spans="1:15" ht="30">
+    <row r="53" spans="1:15" ht="45">
       <c r="A53" s="2"/>
       <c r="B53" s="4">
         <v>43433</v>
@@ -3768,7 +3923,7 @@
       <c r="N59" s="3"/>
       <c r="O59" s="6"/>
     </row>
-    <row r="60" spans="1:15" ht="30">
+    <row r="60" spans="1:15" ht="60">
       <c r="A60" s="2"/>
       <c r="B60" s="4">
         <v>43434</v>
@@ -3797,7 +3952,7 @@
       <c r="N60" s="3"/>
       <c r="O60" s="6"/>
     </row>
-    <row r="61" spans="1:15" ht="30">
+    <row r="61" spans="1:15" ht="60">
       <c r="A61" s="2"/>
       <c r="B61" s="4">
         <v>43434</v>
@@ -4014,210 +4169,388 @@
       </c>
       <c r="O67" s="6"/>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" ht="45">
       <c r="A68" s="2"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
+      <c r="B68" s="4">
+        <v>43441</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="F68" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>474</v>
+      </c>
       <c r="M68" s="2"/>
       <c r="N68" s="3"/>
       <c r="O68" s="6"/>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" ht="45">
       <c r="A69" s="2"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="2"/>
+      <c r="B69" s="4">
+        <v>43441</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="6"/>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" ht="45">
       <c r="A70" s="2"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
+      <c r="B70" s="4">
+        <v>43441</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>480</v>
+      </c>
       <c r="M70" s="2"/>
       <c r="N70" s="3"/>
       <c r="O70" s="6"/>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" ht="45.75" customHeight="1">
       <c r="A71" s="2"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="3"/>
+      <c r="B71" s="4">
+        <v>43441</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>272</v>
+      </c>
       <c r="O71" s="6"/>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" ht="45">
       <c r="A72" s="2"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="2"/>
+      <c r="B72" s="4">
+        <v>43441</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="3"/>
+      <c r="J72" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="M72" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>272</v>
+      </c>
       <c r="O72" s="6"/>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" ht="45">
       <c r="A73" s="2"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="6"/>
+      <c r="B73" s="4">
+        <v>43441</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>494</v>
+      </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
+      <c r="J73" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>491</v>
+      </c>
       <c r="M73" s="2"/>
       <c r="N73" s="3"/>
       <c r="O73" s="6"/>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" ht="30">
       <c r="A74" s="2"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="2"/>
+      <c r="B74" s="4">
+        <v>43441</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
-      <c r="K74" s="6"/>
+      <c r="K74" s="6" t="s">
+        <v>500</v>
+      </c>
       <c r="L74" s="6"/>
       <c r="M74" s="2"/>
       <c r="N74" s="3"/>
       <c r="O74" s="6"/>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" ht="48" customHeight="1">
       <c r="A75" s="2"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="E75" s="6"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
+      <c r="B75" s="4">
+        <v>43441</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>503</v>
+      </c>
       <c r="M75" s="2"/>
       <c r="N75" s="3"/>
       <c r="O75" s="6"/>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" ht="41.25" customHeight="1">
       <c r="A76" s="2"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="6"/>
+      <c r="B76" s="4">
+        <v>43441</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>505</v>
+      </c>
       <c r="D76" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="E76" s="6"/>
-      <c r="F76" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
+      <c r="J76" s="6" t="s">
+        <v>507</v>
+      </c>
       <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
+      <c r="L76" s="6" t="s">
+        <v>506</v>
+      </c>
       <c r="M76" s="2"/>
       <c r="N76" s="3"/>
       <c r="O76" s="6"/>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" ht="30">
       <c r="A77" s="2"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="2"/>
+      <c r="B77" s="4">
+        <v>43441</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
+      <c r="K77" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>511</v>
+      </c>
       <c r="M77" s="2"/>
       <c r="N77" s="3"/>
       <c r="O77" s="6"/>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" ht="30">
       <c r="A78" s="2"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="2"/>
+      <c r="B78" s="4">
+        <v>43441</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
+      <c r="K78" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>514</v>
+      </c>
       <c r="M78" s="2"/>
       <c r="N78" s="3"/>
       <c r="O78" s="6"/>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" ht="54" customHeight="1">
       <c r="A79" s="2"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
+      <c r="B79" s="4">
+        <v>43441</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>519</v>
+      </c>
       <c r="M79" s="2"/>
       <c r="N79" s="3"/>
       <c r="O79" s="6"/>
@@ -4447,7 +4780,9 @@
       <c r="A93" s="2"/>
       <c r="B93" s="4"/>
       <c r="C93" s="6"/>
-      <c r="D93" s="2"/>
+      <c r="D93" s="2" t="s">
+        <v>389</v>
+      </c>
       <c r="E93" s="6"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -4464,7 +4799,9 @@
       <c r="A94" s="2"/>
       <c r="B94" s="4"/>
       <c r="C94" s="6"/>
-      <c r="D94" s="2"/>
+      <c r="D94" s="2" t="s">
+        <v>455</v>
+      </c>
       <c r="E94" s="6"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -4596,8 +4933,314 @@
       <c r="N101" s="3"/>
       <c r="O101" s="6"/>
     </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="2"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="6"/>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="2"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="6"/>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="2"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="6"/>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" s="2"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="6"/>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" s="2"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="6"/>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" s="2"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="6"/>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" s="2"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="6"/>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" s="2"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="6"/>
+    </row>
+    <row r="110" spans="1:15" ht="409.6">
+      <c r="A110" s="2"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="6"/>
+    </row>
+    <row r="111" spans="1:15" ht="409.6">
+      <c r="A111" s="2"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="3"/>
+      <c r="O111" s="6"/>
+    </row>
+    <row r="112" spans="1:15" ht="409.6">
+      <c r="A112" s="2"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="3"/>
+      <c r="O112" s="6"/>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" s="2"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="6"/>
+    </row>
+    <row r="114" spans="1:15" ht="409.6">
+      <c r="A114" s="2"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="6"/>
+    </row>
+    <row r="115" spans="1:15" ht="409.6">
+      <c r="A115" s="2"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="6"/>
+    </row>
+    <row r="116" spans="1:15" ht="409.6">
+      <c r="A116" s="2"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="6"/>
+    </row>
+    <row r="117" spans="1:15" ht="409.6">
+      <c r="A117" s="2"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="6"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="6"/>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" s="2"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="6"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="3"/>
+      <c r="O118" s="6"/>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119" s="2"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="3"/>
+      <c r="O119" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C43"/>
+  <autoFilter ref="C1:C119"/>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1"/>
     <hyperlink ref="N2" r:id="rId2"/>
@@ -4641,9 +5284,13 @@
     <hyperlink ref="L62" r:id="rId39"/>
     <hyperlink ref="M67" r:id="rId40"/>
     <hyperlink ref="N67" r:id="rId41"/>
+    <hyperlink ref="M71" r:id="rId42"/>
+    <hyperlink ref="N71" r:id="rId43"/>
+    <hyperlink ref="M72" r:id="rId44" display="sarath.sund@gmail.com"/>
+    <hyperlink ref="N72" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId42"/>
+  <pageSetup orientation="portrait" r:id="rId46"/>
 </worksheet>
 </file>
 

--- a/Companies_Apply_Status_Sheet.xlsx
+++ b/Companies_Apply_Status_Sheet.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF8E005-FF79-4A18-8A09-0003B0D06757}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="10725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="520">
   <si>
     <t>SLNo</t>
   </si>
@@ -1414,9 +1415,6 @@
     <t>https://www.linkedin.com/jobs/search/?alertAction=viewjobs&amp;currentJobId=986139116&amp;f_E=2&amp;keywords=technical%20project%20manager&amp;location=United%20States&amp;locationId=us%3A0&amp;start=25</t>
   </si>
   <si>
-    <t>unable to upload resume</t>
-  </si>
-  <si>
     <t>https://careers.google.com/jobs/results/6525107425837056-technical-program-manager-university-graduate/?src=Online%2FLinkedIn%2Flinkedin_us&amp;utm_campaign=contract&amp;utm_medium=jobposting&amp;utm_source=linkedin</t>
   </si>
   <si>
@@ -1492,9 +1490,6 @@
     <t>https://blackknight.wd1.myworkdayjobs.com/BKC/login?redirect=%2FBKC%2Fjob%2FJacksonville-FL%2FProject-Manager-I---Technical_2018-543-2%2Fapply%3Fsource%3Dlinkedin</t>
   </si>
   <si>
-    <t>link opens a blank page</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/jobs/view/993929684/?recommendedFlavor=HIDDEN_GEM&amp;trk=d_flagship3_job_home_savedjobs</t>
   </si>
   <si>
@@ -1525,17 +1520,10 @@
     <t>https://www.linkedin.com/jobs/view/792630393/?recommendedFlavor=SCHOOL_RECRUIT&amp;trk=d_flagship3_job_home_savedjobs</t>
   </si>
   <si>
-    <t>ID: 7104BR
-other questions****</t>
-  </si>
-  <si>
     <t>https://sjobs.brassring.com/TGnewUI/Search/home/HomeWithPreLoad?PageType=JobDetails&amp;partnerid=25811&amp;siteid=5185&amp;areq=7104BR#jobDetails=410516_5185</t>
   </si>
   <si>
     <t>Amazon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job ID 679696  </t>
   </si>
   <si>
     <t>SantaBarbara, CA</t>
@@ -1630,16 +1618,29 @@
   </si>
   <si>
     <t>blank page</t>
+  </si>
+  <si>
+    <t>unable to upload resume
+SB: Submitted might be due to access issues</t>
+  </si>
+  <si>
+    <t>link opens a blank page
+SB: Submitted the application</t>
+  </si>
+  <si>
+    <t>ID: 7104BR
+other questions****
+SB: used the exsiting account and completed thee process</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1802,7 +1803,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1861,6 +1862,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2134,23 +2137,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="D81" sqref="D81"/>
+      <selection pane="topRight" activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
@@ -2168,7 +2171,7 @@
     <col min="15" max="15" width="30.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2215,7 +2218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2248,7 +2251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="4">
         <v>43385</v>
@@ -2275,7 +2278,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="45">
+    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="6" t="s">
@@ -2302,7 +2305,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="6" t="s">
@@ -2325,7 +2328,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
@@ -2348,7 +2351,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="6" t="s">
@@ -2367,7 +2370,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="6" t="s">
@@ -2390,7 +2393,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:15" ht="45">
+    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="6" t="s">
@@ -2415,7 +2418,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:15" ht="45">
+    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="6" t="s">
@@ -2440,7 +2443,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
@@ -2463,7 +2466,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="6" t="s">
@@ -2486,7 +2489,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="6" t="s">
@@ -2509,7 +2512,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="4">
         <v>43430</v>
@@ -2536,7 +2539,7 @@
       </c>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="4">
         <v>43430</v>
@@ -2561,7 +2564,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="4">
         <v>43430</v>
@@ -2586,7 +2589,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="4">
         <v>43430</v>
@@ -2611,7 +2614,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="4">
         <v>43430</v>
@@ -2636,7 +2639,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" ht="60">
+    <row r="19" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="4">
         <v>43430</v>
@@ -2663,7 +2666,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="6"/>
     </row>
-    <row r="20" spans="1:15" ht="30">
+    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="4">
         <v>43430</v>
@@ -2694,7 +2697,7 @@
       </c>
       <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="1:15" ht="45">
+    <row r="21" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="4">
         <v>43430</v>
@@ -2725,7 +2728,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="4">
         <v>43430</v>
@@ -2750,7 +2753,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="6"/>
     </row>
-    <row r="23" spans="1:15" ht="60">
+    <row r="23" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="4">
         <v>43430</v>
@@ -2785,7 +2788,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="49.5" customHeight="1">
+    <row r="24" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="4">
         <v>43431</v>
@@ -2820,7 +2823,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="49.5" customHeight="1">
+    <row r="25" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="4">
         <v>43430</v>
@@ -2855,7 +2858,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="75">
+    <row r="26" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="4">
         <v>43430</v>
@@ -2888,7 +2891,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="25" customFormat="1" ht="75">
+    <row r="27" spans="1:15" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="23">
         <v>43430</v>
@@ -2921,7 +2924,7 @@
       <c r="N27" s="22"/>
       <c r="O27" s="24"/>
     </row>
-    <row r="28" spans="1:15" ht="120">
+    <row r="28" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="4">
         <v>43430</v>
@@ -2954,7 +2957,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="90">
+    <row r="29" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="4">
         <v>43431</v>
@@ -2983,7 +2986,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" ht="45">
+    <row r="30" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="4">
         <v>43431</v>
@@ -3012,7 +3015,7 @@
       <c r="N30" s="3"/>
       <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="1:15" ht="105">
+    <row r="31" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="4">
         <v>43431</v>
@@ -3045,7 +3048,7 @@
       </c>
       <c r="O31" s="6"/>
     </row>
-    <row r="32" spans="1:15" ht="30">
+    <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="4">
         <v>43431</v>
@@ -3080,7 +3083,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="45">
+    <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="4">
         <v>43431</v>
@@ -3107,7 +3110,7 @@
       <c r="N33" s="3"/>
       <c r="O33" s="6"/>
     </row>
-    <row r="34" spans="1:15" ht="75">
+    <row r="34" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="4">
         <v>43431</v>
@@ -3136,7 +3139,7 @@
       <c r="N34" s="3"/>
       <c r="O34" s="6"/>
     </row>
-    <row r="35" spans="1:15" ht="75">
+    <row r="35" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="4">
         <v>43431</v>
@@ -3167,7 +3170,7 @@
       <c r="N35" s="3"/>
       <c r="O35" s="6"/>
     </row>
-    <row r="36" spans="1:15" ht="255">
+    <row r="36" spans="1:15" ht="255" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="4">
         <v>43431</v>
@@ -3204,7 +3207,7 @@
       </c>
       <c r="O36" s="6"/>
     </row>
-    <row r="37" spans="1:15" ht="60">
+    <row r="37" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="4">
         <v>43432</v>
@@ -3235,7 +3238,7 @@
       <c r="N37" s="3"/>
       <c r="O37" s="6"/>
     </row>
-    <row r="38" spans="1:15" ht="60">
+    <row r="38" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="4">
         <v>43432</v>
@@ -3264,7 +3267,7 @@
       <c r="N38" s="3"/>
       <c r="O38" s="6"/>
     </row>
-    <row r="39" spans="1:15" ht="60">
+    <row r="39" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="4">
         <v>43432</v>
@@ -3293,7 +3296,7 @@
       <c r="N39" s="3"/>
       <c r="O39" s="6"/>
     </row>
-    <row r="40" spans="1:15" ht="60">
+    <row r="40" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="4">
         <v>43432</v>
@@ -3322,7 +3325,7 @@
       <c r="N40" s="3"/>
       <c r="O40" s="6"/>
     </row>
-    <row r="41" spans="1:15" ht="135">
+    <row r="41" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="4">
         <v>43432</v>
@@ -3357,7 +3360,7 @@
       </c>
       <c r="O41" s="6"/>
     </row>
-    <row r="42" spans="1:15" ht="60">
+    <row r="42" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="4">
         <v>43432</v>
@@ -3388,7 +3391,7 @@
       <c r="N42" s="3"/>
       <c r="O42" s="6"/>
     </row>
-    <row r="43" spans="1:15" ht="60.75">
+    <row r="43" spans="1:15" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="4">
         <v>43432</v>
@@ -3421,7 +3424,7 @@
       <c r="N43" s="3"/>
       <c r="O43" s="6"/>
     </row>
-    <row r="44" spans="1:15" ht="60">
+    <row r="44" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="4">
         <v>43432</v>
@@ -3450,7 +3453,7 @@
       <c r="N44" s="3"/>
       <c r="O44" s="6"/>
     </row>
-    <row r="45" spans="1:15" ht="75">
+    <row r="45" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="4">
         <v>43432</v>
@@ -3479,7 +3482,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="6"/>
     </row>
-    <row r="46" spans="1:15" ht="45">
+    <row r="46" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="4">
         <v>43432</v>
@@ -3516,7 +3519,7 @@
       </c>
       <c r="O46" s="6"/>
     </row>
-    <row r="47" spans="1:15" ht="51" customHeight="1">
+    <row r="47" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="4">
         <v>43433</v>
@@ -3553,7 +3556,7 @@
       </c>
       <c r="O47" s="6"/>
     </row>
-    <row r="48" spans="1:15" ht="30">
+    <row r="48" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="4">
         <v>43433</v>
@@ -3584,7 +3587,7 @@
       <c r="N48" s="3"/>
       <c r="O48" s="6"/>
     </row>
-    <row r="49" spans="1:15" ht="30">
+    <row r="49" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="4">
         <v>43433</v>
@@ -3615,7 +3618,7 @@
       <c r="N49" s="3"/>
       <c r="O49" s="6"/>
     </row>
-    <row r="50" spans="1:15" ht="30">
+    <row r="50" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="4">
         <v>43433</v>
@@ -3646,7 +3649,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="6"/>
     </row>
-    <row r="51" spans="1:15" ht="30">
+    <row r="51" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="4">
         <v>43433</v>
@@ -3675,7 +3678,7 @@
       <c r="N51" s="3"/>
       <c r="O51" s="6"/>
     </row>
-    <row r="52" spans="1:15" ht="30">
+    <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="4">
         <v>43433</v>
@@ -3704,7 +3707,7 @@
       <c r="N52" s="3"/>
       <c r="O52" s="6"/>
     </row>
-    <row r="53" spans="1:15" ht="45">
+    <row r="53" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="4">
         <v>43433</v>
@@ -3733,7 +3736,7 @@
       <c r="N53" s="3"/>
       <c r="O53" s="6"/>
     </row>
-    <row r="54" spans="1:15" ht="90">
+    <row r="54" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="4">
         <v>43433</v>
@@ -3766,7 +3769,7 @@
       </c>
       <c r="O54" s="6"/>
     </row>
-    <row r="55" spans="1:15" ht="90">
+    <row r="55" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="4">
         <v>43434</v>
@@ -3801,7 +3804,7 @@
       </c>
       <c r="O55" s="6"/>
     </row>
-    <row r="56" spans="1:15" ht="60">
+    <row r="56" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="4">
         <v>43434</v>
@@ -3830,7 +3833,7 @@
       <c r="N56" s="3"/>
       <c r="O56" s="6"/>
     </row>
-    <row r="57" spans="1:15" ht="42.75" customHeight="1">
+    <row r="57" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="4">
         <v>43434</v>
@@ -3865,7 +3868,7 @@
       </c>
       <c r="O57" s="6"/>
     </row>
-    <row r="58" spans="1:15" ht="60">
+    <row r="58" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="4">
         <v>43434</v>
@@ -3894,7 +3897,7 @@
       <c r="N58" s="3"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" ht="42" customHeight="1">
+    <row r="59" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="4">
         <v>43434</v>
@@ -3923,7 +3926,7 @@
       <c r="N59" s="3"/>
       <c r="O59" s="6"/>
     </row>
-    <row r="60" spans="1:15" ht="60">
+    <row r="60" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="4">
         <v>43434</v>
@@ -3952,7 +3955,7 @@
       <c r="N60" s="3"/>
       <c r="O60" s="6"/>
     </row>
-    <row r="61" spans="1:15" ht="60">
+    <row r="61" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="4">
         <v>43434</v>
@@ -3983,32 +3986,32 @@
       <c r="N61" s="3"/>
       <c r="O61" s="6"/>
     </row>
-    <row r="62" spans="1:15" ht="43.5" customHeight="1">
+    <row r="62" spans="1:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="B62" s="4">
+      <c r="B62" s="28">
         <v>43434</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="29" t="s">
         <v>446</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="E62" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18" t="s">
-        <v>449</v>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="26" t="s">
+        <v>517</v>
       </c>
       <c r="K62" s="6" t="s">
         <v>448</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>13</v>
@@ -4018,19 +4021,19 @@
       </c>
       <c r="O62" s="6"/>
     </row>
-    <row r="63" spans="1:15" ht="75">
+    <row r="63" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="4">
         <v>43434</v>
       </c>
       <c r="C63" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="6" t="s">
         <v>452</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>453</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -4038,28 +4041,28 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="3"/>
       <c r="O63" s="6"/>
     </row>
-    <row r="64" spans="1:15" ht="51" customHeight="1">
+    <row r="64" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="4">
         <v>43434</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
@@ -4067,26 +4070,26 @@
       <c r="I64" s="18"/>
       <c r="J64" s="18"/>
       <c r="K64" s="19" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L64" s="6"/>
       <c r="M64" s="2"/>
       <c r="N64" s="3"/>
       <c r="O64" s="6"/>
     </row>
-    <row r="65" spans="1:15" ht="51" customHeight="1">
+    <row r="65" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="4">
         <v>43434</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>27</v>
@@ -4096,28 +4099,28 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="3"/>
       <c r="O65" s="6"/>
     </row>
-    <row r="66" spans="1:15" ht="30">
+    <row r="66" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="4">
         <v>43434</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>31</v>
@@ -4127,39 +4130,39 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L66" s="6"/>
       <c r="M66" s="2"/>
       <c r="N66" s="3"/>
       <c r="O66" s="6"/>
     </row>
-    <row r="67" spans="1:15" ht="40.5" customHeight="1">
+    <row r="67" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="4">
         <v>43434</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="L67" s="6" t="s">
         <v>468</v>
-      </c>
-      <c r="K67" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="L67" s="6" t="s">
-        <v>469</v>
       </c>
       <c r="M67" s="3" t="s">
         <v>13</v>
@@ -4169,40 +4172,44 @@
       </c>
       <c r="O67" s="6"/>
     </row>
-    <row r="68" spans="1:15" ht="45">
+    <row r="68" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
-      <c r="B68" s="4">
+      <c r="B68" s="28">
         <v>43441</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C68" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="D68" s="29" t="s">
         <v>470</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="E68" s="26" t="s">
         <v>471</v>
       </c>
-      <c r="E68" s="19" t="s">
+      <c r="F68" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="K68" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="F68" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18" t="s">
-        <v>475</v>
-      </c>
-      <c r="K68" s="6" t="s">
+      <c r="L68" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="L68" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="3"/>
+      <c r="M68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>290</v>
+      </c>
       <c r="O68" s="6"/>
     </row>
-    <row r="69" spans="1:15" ht="45">
+    <row r="69" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="4">
         <v>43441</v>
@@ -4211,10 +4218,10 @@
         <v>442</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F69" s="18" t="s">
         <v>27</v>
@@ -4223,19 +4230,19 @@
       <c r="H69" s="18"/>
       <c r="I69" s="18"/>
       <c r="J69" s="19" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="6"/>
     </row>
-    <row r="70" spans="1:15" ht="45">
+    <row r="70" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="4">
         <v>43441</v>
@@ -4244,10 +4251,10 @@
         <v>56</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F70" s="18" t="s">
         <v>27</v>
@@ -4256,44 +4263,44 @@
       <c r="H70" s="18"/>
       <c r="I70" s="18"/>
       <c r="J70" s="18" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="3"/>
       <c r="O70" s="6"/>
     </row>
-    <row r="71" spans="1:15" ht="45.75" customHeight="1">
+    <row r="71" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
-      <c r="B71" s="4">
+      <c r="B71" s="28">
         <v>43441</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D71" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="E71" s="19" t="s">
+      <c r="D71" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="L71" s="8" t="s">
         <v>484</v>
-      </c>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="19" t="s">
-        <v>486</v>
-      </c>
-      <c r="K71" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="L71" s="6" t="s">
-        <v>487</v>
       </c>
       <c r="M71" s="3" t="s">
         <v>13</v>
@@ -4303,19 +4310,19 @@
       </c>
       <c r="O71" s="6"/>
     </row>
-    <row r="72" spans="1:15" ht="45">
+    <row r="72" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="4">
         <v>43441</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>279</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>27</v>
@@ -4323,67 +4330,67 @@
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
-      <c r="J72" s="2" t="s">
+      <c r="J72" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="M72" s="8" t="s">
         <v>489</v>
-      </c>
-      <c r="K72" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="L72" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="M72" s="8" t="s">
-        <v>493</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>272</v>
       </c>
       <c r="O72" s="6"/>
     </row>
-    <row r="73" spans="1:15" ht="45">
+    <row r="73" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="4">
         <v>43441</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>279</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="3"/>
       <c r="O73" s="6"/>
     </row>
-    <row r="74" spans="1:15" ht="30">
+    <row r="74" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="4">
         <v>43441</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>279</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>31</v>
@@ -4393,57 +4400,57 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="6" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="L74" s="6"/>
       <c r="M74" s="2"/>
       <c r="N74" s="3"/>
       <c r="O74" s="6"/>
     </row>
-    <row r="75" spans="1:15" ht="48" customHeight="1">
+    <row r="75" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="4">
         <v>43441</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
       <c r="H75" s="18"/>
       <c r="I75" s="18"/>
       <c r="J75" s="18" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="3"/>
       <c r="O75" s="6"/>
     </row>
-    <row r="76" spans="1:15" ht="41.25" customHeight="1">
+    <row r="76" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="4">
         <v>43441</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>27</v>
@@ -4452,29 +4459,29 @@
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="6" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="K76" s="6"/>
       <c r="L76" s="6" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="3"/>
       <c r="O76" s="6"/>
     </row>
-    <row r="77" spans="1:15" ht="30">
+    <row r="77" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="4">
         <v>43441</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>27</v>
@@ -4484,28 +4491,28 @@
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="6" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="3"/>
       <c r="O77" s="6"/>
     </row>
-    <row r="78" spans="1:15" ht="30">
+    <row r="78" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="4">
         <v>43441</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>27</v>
@@ -4515,47 +4522,47 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="6" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="3"/>
       <c r="O78" s="6"/>
     </row>
-    <row r="79" spans="1:15" ht="54" customHeight="1">
+    <row r="79" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="4">
         <v>43441</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D79" s="18" t="s">
         <v>33</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
       <c r="H79" s="18"/>
       <c r="I79" s="18"/>
       <c r="J79" s="18" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="3"/>
       <c r="O79" s="6"/>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="4"/>
       <c r="C80" s="6"/>
@@ -4572,7 +4579,7 @@
       <c r="N80" s="3"/>
       <c r="O80" s="6"/>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="4"/>
       <c r="C81" s="6"/>
@@ -4589,7 +4596,7 @@
       <c r="N81" s="3"/>
       <c r="O81" s="6"/>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="4"/>
       <c r="C82" s="6"/>
@@ -4606,7 +4613,7 @@
       <c r="N82" s="3"/>
       <c r="O82" s="6"/>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="4"/>
       <c r="C83" s="6"/>
@@ -4623,7 +4630,7 @@
       <c r="N83" s="3"/>
       <c r="O83" s="6"/>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="4"/>
       <c r="C84" s="6"/>
@@ -4640,7 +4647,7 @@
       <c r="N84" s="3"/>
       <c r="O84" s="6"/>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="4"/>
       <c r="C85" s="6"/>
@@ -4657,7 +4664,7 @@
       <c r="N85" s="3"/>
       <c r="O85" s="6"/>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="4"/>
       <c r="C86" s="6"/>
@@ -4674,7 +4681,7 @@
       <c r="N86" s="3"/>
       <c r="O86" s="6"/>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="4"/>
       <c r="C87" s="6"/>
@@ -4691,7 +4698,7 @@
       <c r="N87" s="3"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="4"/>
       <c r="C88" s="6"/>
@@ -4708,7 +4715,7 @@
       <c r="N88" s="3"/>
       <c r="O88" s="6"/>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="4"/>
       <c r="C89" s="6"/>
@@ -4725,7 +4732,7 @@
       <c r="N89" s="3"/>
       <c r="O89" s="6"/>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="4"/>
       <c r="C90" s="6"/>
@@ -4742,7 +4749,7 @@
       <c r="N90" s="3"/>
       <c r="O90" s="6"/>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="4"/>
       <c r="C91" s="6"/>
@@ -4759,7 +4766,7 @@
       <c r="N91" s="3"/>
       <c r="O91" s="6"/>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="4"/>
       <c r="C92" s="6"/>
@@ -4776,7 +4783,7 @@
       <c r="N92" s="3"/>
       <c r="O92" s="6"/>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="4"/>
       <c r="C93" s="6"/>
@@ -4795,12 +4802,12 @@
       <c r="N93" s="3"/>
       <c r="O93" s="6"/>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="4"/>
       <c r="C94" s="6"/>
       <c r="D94" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="2"/>
@@ -4814,7 +4821,7 @@
       <c r="N94" s="3"/>
       <c r="O94" s="6"/>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="4"/>
       <c r="C95" s="6"/>
@@ -4831,7 +4838,7 @@
       <c r="N95" s="3"/>
       <c r="O95" s="6"/>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="4"/>
       <c r="C96" s="6"/>
@@ -4848,7 +4855,7 @@
       <c r="N96" s="3"/>
       <c r="O96" s="6"/>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="4"/>
       <c r="C97" s="6"/>
@@ -4865,7 +4872,7 @@
       <c r="N97" s="3"/>
       <c r="O97" s="6"/>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="4"/>
       <c r="C98" s="6"/>
@@ -4882,7 +4889,7 @@
       <c r="N98" s="3"/>
       <c r="O98" s="6"/>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="4"/>
       <c r="C99" s="6"/>
@@ -4899,7 +4906,7 @@
       <c r="N99" s="3"/>
       <c r="O99" s="6"/>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="4"/>
       <c r="C100" s="6"/>
@@ -4916,7 +4923,7 @@
       <c r="N100" s="3"/>
       <c r="O100" s="6"/>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="4"/>
       <c r="C101" s="6"/>
@@ -4933,7 +4940,7 @@
       <c r="N101" s="3"/>
       <c r="O101" s="6"/>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="4"/>
       <c r="C102" s="6"/>
@@ -4950,7 +4957,7 @@
       <c r="N102" s="3"/>
       <c r="O102" s="6"/>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="4"/>
       <c r="C103" s="6"/>
@@ -4967,7 +4974,7 @@
       <c r="N103" s="3"/>
       <c r="O103" s="6"/>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="4"/>
       <c r="C104" s="6"/>
@@ -4984,7 +4991,7 @@
       <c r="N104" s="3"/>
       <c r="O104" s="6"/>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="4"/>
       <c r="C105" s="6"/>
@@ -5001,7 +5008,7 @@
       <c r="N105" s="3"/>
       <c r="O105" s="6"/>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="4"/>
       <c r="C106" s="6"/>
@@ -5018,7 +5025,7 @@
       <c r="N106" s="3"/>
       <c r="O106" s="6"/>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="4"/>
       <c r="C107" s="6"/>
@@ -5035,7 +5042,7 @@
       <c r="N107" s="3"/>
       <c r="O107" s="6"/>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="4"/>
       <c r="C108" s="6"/>
@@ -5052,7 +5059,7 @@
       <c r="N108" s="3"/>
       <c r="O108" s="6"/>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="4"/>
       <c r="C109" s="6"/>
@@ -5069,7 +5076,7 @@
       <c r="N109" s="3"/>
       <c r="O109" s="6"/>
     </row>
-    <row r="110" spans="1:15" ht="409.6">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="4"/>
       <c r="C110" s="6"/>
@@ -5086,7 +5093,7 @@
       <c r="N110" s="3"/>
       <c r="O110" s="6"/>
     </row>
-    <row r="111" spans="1:15" ht="409.6">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="4"/>
       <c r="C111" s="6"/>
@@ -5103,7 +5110,7 @@
       <c r="N111" s="3"/>
       <c r="O111" s="6"/>
     </row>
-    <row r="112" spans="1:15" ht="409.6">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="4"/>
       <c r="C112" s="6"/>
@@ -5120,7 +5127,7 @@
       <c r="N112" s="3"/>
       <c r="O112" s="6"/>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="4"/>
       <c r="C113" s="6"/>
@@ -5137,7 +5144,7 @@
       <c r="N113" s="3"/>
       <c r="O113" s="6"/>
     </row>
-    <row r="114" spans="1:15" ht="409.6">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="4"/>
       <c r="C114" s="6"/>
@@ -5154,7 +5161,7 @@
       <c r="N114" s="3"/>
       <c r="O114" s="6"/>
     </row>
-    <row r="115" spans="1:15" ht="409.6">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="4"/>
       <c r="C115" s="6"/>
@@ -5171,7 +5178,7 @@
       <c r="N115" s="3"/>
       <c r="O115" s="6"/>
     </row>
-    <row r="116" spans="1:15" ht="409.6">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="4"/>
       <c r="C116" s="6"/>
@@ -5188,7 +5195,7 @@
       <c r="N116" s="3"/>
       <c r="O116" s="6"/>
     </row>
-    <row r="117" spans="1:15" ht="409.6">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="4"/>
       <c r="C117" s="6"/>
@@ -5205,7 +5212,7 @@
       <c r="N117" s="3"/>
       <c r="O117" s="6"/>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="4"/>
       <c r="C118" s="6"/>
@@ -5222,7 +5229,7 @@
       <c r="N118" s="3"/>
       <c r="O118" s="6"/>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="4"/>
       <c r="C119" s="6"/>
@@ -5240,75 +5247,79 @@
       <c r="O119" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C119"/>
+  <autoFilter ref="C1:C119" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1"/>
-    <hyperlink ref="N2" r:id="rId2"/>
-    <hyperlink ref="J4" r:id="rId3" tooltip="View this job description" display="https://autodesk.taleo.net/careersection/careersection/candidateacquisition/flow.jsf"/>
-    <hyperlink ref="L9" r:id="rId4"/>
-    <hyperlink ref="M14" r:id="rId5"/>
-    <hyperlink ref="N14" r:id="rId6"/>
-    <hyperlink ref="N20" r:id="rId7"/>
-    <hyperlink ref="N21" r:id="rId8"/>
-    <hyperlink ref="M21" r:id="rId9"/>
-    <hyperlink ref="N23" r:id="rId10"/>
-    <hyperlink ref="M23" r:id="rId11"/>
-    <hyperlink ref="N25" r:id="rId12"/>
-    <hyperlink ref="N28" r:id="rId13"/>
-    <hyperlink ref="L28" r:id="rId14" display="https://career8.successfactors.com/portalcareer?_s.crb=kNBYkSysisIRZTdxfVciJ8DJuxM%253d"/>
-    <hyperlink ref="N31" r:id="rId15"/>
-    <hyperlink ref="M32" r:id="rId16"/>
-    <hyperlink ref="N32" r:id="rId17"/>
-    <hyperlink ref="N24" r:id="rId18"/>
-    <hyperlink ref="L26" r:id="rId19"/>
-    <hyperlink ref="M36" r:id="rId20"/>
-    <hyperlink ref="N36" r:id="rId21"/>
-    <hyperlink ref="M41" r:id="rId22"/>
-    <hyperlink ref="N41" r:id="rId23"/>
-    <hyperlink ref="K41" r:id="rId24"/>
-    <hyperlink ref="L41" display="https://garmin.taleo.net/careersection/iam/accessmanagement/login.jsf?redirectionURI=https%3A%2F%2Fgarmin.taleo.net%2Fcareersection%2F2012_garmin_exp_tech%2Fjobsearch.ftl%3Fftlcompclass%3DLoginComponent&amp;TARGET=https%3A%2F%2Fgarmin.taleo.net%2Fcareersectio"/>
-    <hyperlink ref="M46" r:id="rId25"/>
-    <hyperlink ref="N46" r:id="rId26"/>
-    <hyperlink ref="M47" r:id="rId27"/>
-    <hyperlink ref="N47" r:id="rId28"/>
-    <hyperlink ref="L50" r:id="rId29"/>
-    <hyperlink ref="L51" r:id="rId30"/>
-    <hyperlink ref="M54" r:id="rId31"/>
-    <hyperlink ref="N54" r:id="rId32"/>
-    <hyperlink ref="M55" r:id="rId33"/>
-    <hyperlink ref="N55" r:id="rId34"/>
-    <hyperlink ref="M57" r:id="rId35"/>
-    <hyperlink ref="N57" r:id="rId36"/>
-    <hyperlink ref="M62" r:id="rId37"/>
-    <hyperlink ref="N62" r:id="rId38"/>
-    <hyperlink ref="L62" r:id="rId39"/>
-    <hyperlink ref="M67" r:id="rId40"/>
-    <hyperlink ref="N67" r:id="rId41"/>
-    <hyperlink ref="M71" r:id="rId42"/>
-    <hyperlink ref="N71" r:id="rId43"/>
-    <hyperlink ref="M72" r:id="rId44" display="sarath.sund@gmail.com"/>
-    <hyperlink ref="N72" r:id="rId45"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J4" r:id="rId3" tooltip="View this job description" display="https://autodesk.taleo.net/careersection/careersection/candidateacquisition/flow.jsf" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="N14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="N20" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="N21" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="M21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="N23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="M23" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="N25" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="N28" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="L28" r:id="rId14" display="https://career8.successfactors.com/portalcareer?_s.crb=kNBYkSysisIRZTdxfVciJ8DJuxM%253d" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="N31" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="M32" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="N32" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="N24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="L26" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="M36" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="N36" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="M41" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="N41" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="K41" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="L41" display="https://garmin.taleo.net/careersection/iam/accessmanagement/login.jsf?redirectionURI=https%3A%2F%2Fgarmin.taleo.net%2Fcareersection%2F2012_garmin_exp_tech%2Fjobsearch.ftl%3Fftlcompclass%3DLoginComponent&amp;TARGET=https%3A%2F%2Fgarmin.taleo.net%2Fcareersectio" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="M46" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="N46" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="M47" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="N47" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="L50" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L51" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="M54" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="N54" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="M55" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="N55" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="M57" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="N57" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="M62" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="N62" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="L62" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="M67" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="N67" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="M71" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="N71" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="M72" r:id="rId44" display="sarath.sund@gmail.com" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="N72" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="L71" r:id="rId46" location="jobDetails=410516_5185" xr:uid="{6DA754AB-8E1A-404C-A18E-1675FF87B213}"/>
+    <hyperlink ref="L68" r:id="rId47" xr:uid="{4DCC1BC6-DA4A-44A5-A237-9DE01F1647C3}"/>
+    <hyperlink ref="M68" r:id="rId48" xr:uid="{D18D236A-14AD-436B-B1C2-FE8611B9E569}"/>
+    <hyperlink ref="N68" r:id="rId49" xr:uid="{D3A739E5-9A28-4728-B37E-624F5E59207E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId46"/>
+  <pageSetup orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D3:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:6">
+    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E3" s="9" t="s">
         <v>60</v>
       </c>
@@ -5316,7 +5327,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="4:6">
+    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>1</v>
       </c>
@@ -5327,7 +5338,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="4:6">
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>2</v>
       </c>
@@ -5338,7 +5349,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="4:6">
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>3</v>
       </c>
@@ -5349,7 +5360,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="4:6">
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>4</v>
       </c>
@@ -5357,7 +5368,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="4:6">
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>5</v>
       </c>
@@ -5365,7 +5376,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="4:6">
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>6</v>
       </c>
@@ -5373,7 +5384,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="4:6">
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>7</v>
       </c>
@@ -5381,7 +5392,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="4:6">
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>8</v>
       </c>
@@ -5389,7 +5400,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="4:6">
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>9</v>
       </c>
@@ -5397,7 +5408,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="4:6">
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>10</v>
       </c>
@@ -5405,7 +5416,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="4:6">
+    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>11</v>
       </c>
@@ -5413,7 +5424,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="4:6">
+    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>12</v>
       </c>
@@ -5421,7 +5432,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="4:6">
+    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D16">
         <v>13</v>
       </c>
@@ -5429,7 +5440,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>14</v>
       </c>
@@ -5437,7 +5448,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>15</v>
       </c>
@@ -5445,7 +5456,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>16</v>
       </c>
@@ -5453,7 +5464,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>17</v>
       </c>
@@ -5461,7 +5472,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="4:5">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>18</v>
       </c>
@@ -5469,7 +5480,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="4:5">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>19</v>
       </c>
@@ -5484,19 +5495,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="E1:G86"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="7" width="48.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:7" ht="15.75" thickBot="1">
+    <row r="1" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1" s="10" t="s">
         <v>0</v>
       </c>
@@ -5507,7 +5518,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="5:7" ht="16.5" thickTop="1" thickBot="1">
+    <row r="2" spans="5:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E2">
         <v>1</v>
       </c>
@@ -5518,7 +5529,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="5:7" ht="15.75" thickBot="1">
+    <row r="3" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E3">
         <v>2</v>
       </c>
@@ -5529,7 +5540,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="5:7" ht="15.75" thickBot="1">
+    <row r="4" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E4">
         <v>3</v>
       </c>
@@ -5540,7 +5551,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="5:7" ht="15.75" thickBot="1">
+    <row r="5" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E5">
         <v>4</v>
       </c>
@@ -5551,7 +5562,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="5:7" ht="15.75" thickBot="1">
+    <row r="6" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6">
         <v>5</v>
       </c>
@@ -5562,7 +5573,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="5:7" ht="15.75" thickBot="1">
+    <row r="7" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7">
         <v>6</v>
       </c>
@@ -5573,7 +5584,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="5:7" ht="15.75" thickBot="1">
+    <row r="8" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8">
         <v>7</v>
       </c>
@@ -5584,7 +5595,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:7" ht="15.75" thickBot="1">
+    <row r="9" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9">
         <v>8</v>
       </c>
@@ -5595,7 +5606,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:7" ht="15.75" thickBot="1">
+    <row r="10" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10">
         <v>9</v>
       </c>
@@ -5606,7 +5617,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="5:7" ht="15.75" thickBot="1">
+    <row r="11" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11">
         <v>10</v>
       </c>
@@ -5617,7 +5628,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="5:7" ht="15.75" thickBot="1">
+    <row r="12" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12">
         <v>11</v>
       </c>
@@ -5628,7 +5639,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="5:7" ht="15.75" thickBot="1">
+    <row r="13" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13">
         <v>12</v>
       </c>
@@ -5639,7 +5650,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="5:7" ht="15.75" thickBot="1">
+    <row r="14" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14">
         <v>13</v>
       </c>
@@ -5650,7 +5661,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="5:7" ht="15.75" thickBot="1">
+    <row r="15" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15">
         <v>14</v>
       </c>
@@ -5661,7 +5672,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="5:7" ht="15.75" thickBot="1">
+    <row r="16" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16">
         <v>15</v>
       </c>
@@ -5672,7 +5683,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="5:7" ht="15.75" thickBot="1">
+    <row r="17" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17">
         <v>16</v>
       </c>
@@ -5683,7 +5694,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="5:7" ht="15.75" thickBot="1">
+    <row r="18" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18">
         <v>17</v>
       </c>
@@ -5694,7 +5705,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="5:7" ht="15.75" thickBot="1">
+    <row r="19" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19">
         <v>18</v>
       </c>
@@ -5705,7 +5716,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="5:7" ht="15.75" thickBot="1">
+    <row r="20" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20">
         <v>19</v>
       </c>
@@ -5716,7 +5727,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="5:7" ht="15.75" thickBot="1">
+    <row r="21" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21">
         <v>20</v>
       </c>
@@ -5727,7 +5738,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="5:7" ht="15.75" thickBot="1">
+    <row r="22" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22">
         <v>21</v>
       </c>
@@ -5738,7 +5749,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="5:7" ht="15.75" thickBot="1">
+    <row r="23" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23">
         <v>22</v>
       </c>
@@ -5749,7 +5760,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="5:7" ht="15.75" thickBot="1">
+    <row r="24" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E24">
         <v>23</v>
       </c>
@@ -5760,7 +5771,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="5:7" ht="15.75" thickBot="1">
+    <row r="25" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E25">
         <v>24</v>
       </c>
@@ -5771,7 +5782,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="5:7" ht="15.75" thickBot="1">
+    <row r="26" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26">
         <v>25</v>
       </c>
@@ -5782,7 +5793,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="5:7" ht="15.75" thickBot="1">
+    <row r="27" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27">
         <v>26</v>
       </c>
@@ -5793,7 +5804,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="5:7" ht="15.75" thickBot="1">
+    <row r="28" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28">
         <v>27</v>
       </c>
@@ -5804,7 +5815,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="5:7" ht="15.75" thickBot="1">
+    <row r="29" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E29">
         <v>28</v>
       </c>
@@ -5815,7 +5826,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="5:7" ht="15.75" thickBot="1">
+    <row r="30" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E30">
         <v>29</v>
       </c>
@@ -5826,7 +5837,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="5:7" ht="15.75" thickBot="1">
+    <row r="31" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E31">
         <v>30</v>
       </c>
@@ -5837,7 +5848,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="5:7" ht="15.75" thickBot="1">
+    <row r="32" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E32">
         <v>31</v>
       </c>
@@ -5848,7 +5859,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="5:7" ht="15.75" thickBot="1">
+    <row r="33" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E33">
         <v>32</v>
       </c>
@@ -5859,7 +5870,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="5:7" ht="15.75" thickBot="1">
+    <row r="34" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E34">
         <v>33</v>
       </c>
@@ -5870,7 +5881,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="35" spans="5:7" ht="15.75" thickBot="1">
+    <row r="35" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E35">
         <v>34</v>
       </c>
@@ -5881,7 +5892,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="5:7" ht="15.75" thickBot="1">
+    <row r="36" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E36">
         <v>35</v>
       </c>
@@ -5892,7 +5903,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="5:7" ht="15.75" thickBot="1">
+    <row r="37" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E37">
         <v>36</v>
       </c>
@@ -5903,7 +5914,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="5:7" ht="15.75" thickBot="1">
+    <row r="38" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E38">
         <v>37</v>
       </c>
@@ -5914,7 +5925,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="5:7" ht="15.75" thickBot="1">
+    <row r="39" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E39">
         <v>38</v>
       </c>
@@ -5925,7 +5936,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="5:7" ht="15.75" thickBot="1">
+    <row r="40" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E40">
         <v>39</v>
       </c>
@@ -5936,7 +5947,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="41" spans="5:7" ht="15.75" thickBot="1">
+    <row r="41" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E41">
         <v>40</v>
       </c>
@@ -5947,7 +5958,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="5:7" ht="15.75" thickBot="1">
+    <row r="42" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E42">
         <v>41</v>
       </c>
@@ -5958,7 +5969,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="5:7" ht="15.75" thickBot="1">
+    <row r="43" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E43">
         <v>42</v>
       </c>
@@ -5969,7 +5980,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="44" spans="5:7" ht="15.75" thickBot="1">
+    <row r="44" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E44">
         <v>43</v>
       </c>
@@ -5980,7 +5991,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="5:7" ht="15.75" thickBot="1">
+    <row r="45" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E45">
         <v>44</v>
       </c>
@@ -5991,7 +6002,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="5:7" ht="15.75" thickBot="1">
+    <row r="46" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E46">
         <v>45</v>
       </c>
@@ -6002,7 +6013,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="5:7" ht="15.75" thickBot="1">
+    <row r="47" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47">
         <v>46</v>
       </c>
@@ -6013,7 +6024,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="48" spans="5:7" ht="15.75" thickBot="1">
+    <row r="48" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E48">
         <v>47</v>
       </c>
@@ -6024,7 +6035,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="49" spans="5:7" ht="15.75" thickBot="1">
+    <row r="49" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E49">
         <v>48</v>
       </c>
@@ -6035,7 +6046,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="5:7" ht="15.75" thickBot="1">
+    <row r="50" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E50">
         <v>49</v>
       </c>
@@ -6046,7 +6057,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="5:7" ht="15.75" thickBot="1">
+    <row r="51" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E51">
         <v>50</v>
       </c>
@@ -6057,7 +6068,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="52" spans="5:7" ht="15.75" thickBot="1">
+    <row r="52" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E52">
         <v>51</v>
       </c>
@@ -6068,7 +6079,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="53" spans="5:7" ht="15.75" thickBot="1">
+    <row r="53" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E53">
         <v>52</v>
       </c>
@@ -6079,7 +6090,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="54" spans="5:7" ht="15.75" thickBot="1">
+    <row r="54" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E54">
         <v>53</v>
       </c>
@@ -6090,7 +6101,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="55" spans="5:7" ht="15.75" thickBot="1">
+    <row r="55" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E55">
         <v>54</v>
       </c>
@@ -6101,7 +6112,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="5:7" ht="15.75" thickBot="1">
+    <row r="56" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E56">
         <v>55</v>
       </c>
@@ -6112,7 +6123,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="57" spans="5:7" ht="15.75" thickBot="1">
+    <row r="57" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E57">
         <v>56</v>
       </c>
@@ -6123,7 +6134,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="5:7" ht="15.75" thickBot="1">
+    <row r="58" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E58">
         <v>57</v>
       </c>
@@ -6134,7 +6145,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="59" spans="5:7" ht="15.75" thickBot="1">
+    <row r="59" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E59">
         <v>58</v>
       </c>
@@ -6145,7 +6156,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="60" spans="5:7" ht="15.75" thickBot="1">
+    <row r="60" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E60">
         <v>59</v>
       </c>
@@ -6156,7 +6167,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="61" spans="5:7" ht="15.75" thickBot="1">
+    <row r="61" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E61">
         <v>60</v>
       </c>
@@ -6167,7 +6178,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="62" spans="5:7" ht="15.75" thickBot="1">
+    <row r="62" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E62">
         <v>61</v>
       </c>
@@ -6178,7 +6189,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="5:7" ht="15.75" thickBot="1">
+    <row r="63" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E63">
         <v>62</v>
       </c>
@@ -6189,7 +6200,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="64" spans="5:7" ht="15.75" thickBot="1">
+    <row r="64" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E64">
         <v>63</v>
       </c>
@@ -6200,7 +6211,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="5:7" ht="15.75" thickBot="1">
+    <row r="65" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E65">
         <v>64</v>
       </c>
@@ -6211,7 +6222,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="66" spans="5:7" ht="15.75" thickBot="1">
+    <row r="66" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E66">
         <v>65</v>
       </c>
@@ -6222,7 +6233,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="67" spans="5:7" ht="15.75" thickBot="1">
+    <row r="67" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E67">
         <v>66</v>
       </c>
@@ -6233,7 +6244,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="5:7" ht="15.75" thickBot="1">
+    <row r="68" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E68">
         <v>67</v>
       </c>
@@ -6244,7 +6255,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="69" spans="5:7" ht="15.75" thickBot="1">
+    <row r="69" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E69">
         <v>68</v>
       </c>
@@ -6255,7 +6266,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="70" spans="5:7" ht="15.75" thickBot="1">
+    <row r="70" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E70">
         <v>69</v>
       </c>
@@ -6266,7 +6277,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="5:7" ht="15.75" thickBot="1">
+    <row r="71" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E71">
         <v>70</v>
       </c>
@@ -6277,7 +6288,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="72" spans="5:7" ht="15.75" thickBot="1">
+    <row r="72" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E72">
         <v>71</v>
       </c>
@@ -6288,7 +6299,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="73" spans="5:7" ht="15.75" thickBot="1">
+    <row r="73" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E73">
         <v>72</v>
       </c>
@@ -6299,7 +6310,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="5:7" ht="15.75" thickBot="1">
+    <row r="74" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E74">
         <v>73</v>
       </c>
@@ -6310,7 +6321,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="5:7" ht="15.75" thickBot="1">
+    <row r="75" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E75">
         <v>74</v>
       </c>
@@ -6321,7 +6332,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="5:7" ht="15.75" thickBot="1">
+    <row r="76" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E76">
         <v>75</v>
       </c>
@@ -6332,7 +6343,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="5:7" ht="15.75" thickBot="1">
+    <row r="77" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E77">
         <v>76</v>
       </c>
@@ -6343,7 +6354,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="5:7" ht="15.75" thickBot="1">
+    <row r="78" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E78">
         <v>77</v>
       </c>
@@ -6354,7 +6365,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="79" spans="5:7" ht="15.75" thickBot="1">
+    <row r="79" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E79">
         <v>78</v>
       </c>
@@ -6365,7 +6376,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="5:7" ht="15.75" thickBot="1">
+    <row r="80" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E80">
         <v>79</v>
       </c>
@@ -6376,7 +6387,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="5:7" ht="15.75" thickBot="1">
+    <row r="81" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E81">
         <v>80</v>
       </c>
@@ -6387,7 +6398,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="82" spans="5:7" ht="15.75" thickBot="1">
+    <row r="82" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E82">
         <v>81</v>
       </c>
@@ -6398,7 +6409,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="5:7" ht="15.75" thickBot="1">
+    <row r="83" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E83">
         <v>82</v>
       </c>
@@ -6409,7 +6420,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="84" spans="5:7" ht="15.75" thickBot="1">
+    <row r="84" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E84">
         <v>83</v>
       </c>
@@ -6420,7 +6431,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="85" spans="5:7" ht="15.75" thickBot="1">
+    <row r="85" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E85">
         <v>84</v>
       </c>
@@ -6431,201 +6442,201 @@
         <v>199</v>
       </c>
     </row>
-    <row r="86" spans="5:7" ht="15.75" thickBot="1">
+    <row r="86" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://www.forbes.com/companies/ibm/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G2" r:id="rId2" display="http://www.ibm.com/"/>
-    <hyperlink ref="F3" r:id="rId3" display="https://www.forbes.com/companies/dxc-technology/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G3" r:id="rId4" display="http://www.dxc.technology/"/>
-    <hyperlink ref="F4" r:id="rId5" display="https://www.forbes.com/companies/deloitte-touche-tohmatsu/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G4" r:id="rId6" display="http://www.deloitte.com/"/>
-    <hyperlink ref="F5" r:id="rId7" display="https://www.forbes.com/companies/cisco-systems/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G5" r:id="rId8" display="http://www.cisco.com/"/>
-    <hyperlink ref="F6" r:id="rId9" display="https://www.forbes.com/companies/accenture/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G6" r:id="rId10" display="http://www.accenture.com/"/>
-    <hyperlink ref="F7" r:id="rId11" display="https://www.forbes.com/companies/sap/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G7" r:id="rId12" display="http://www.sap.com/"/>
-    <hyperlink ref="F8" r:id="rId13" display="https://www.forbes.com/companies/pricewaterhousecoopers/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G8" r:id="rId14" display="http://www.pwc.com/"/>
-    <hyperlink ref="F9" r:id="rId15" display="https://www.forbes.com/companies/oracle/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G9" r:id="rId16" display="http://www.oracle.com/"/>
-    <hyperlink ref="F10" r:id="rId17" display="https://www.forbes.com/companies/mckinsey-company/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G10" r:id="rId18" display="http://www.mckinsey.com/"/>
-    <hyperlink ref="F11" r:id="rId19" display="https://www.forbes.com/companies/kpmg/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G11" r:id="rId20" display="http://www.kpmg.com/"/>
-    <hyperlink ref="F12" r:id="rId21" display="https://www.forbes.com/companies/infosys-consulting/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G12" r:id="rId22" display="http://www.infosys.com/"/>
-    <hyperlink ref="F13" r:id="rId23" display="https://www.forbes.com/companies/information-services-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G13" r:id="rId24" display="http://www.isg-one.com/"/>
-    <hyperlink ref="F14" r:id="rId25" display="https://www.forbes.com/companies/gartner/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G14" r:id="rId26" display="http://www.gartner.com/"/>
-    <hyperlink ref="F15" r:id="rId27" display="https://www.forbes.com/companies/ernst-young/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G15" r:id="rId28" display="http://www.ey.com/"/>
-    <hyperlink ref="F16" r:id="rId29" display="https://www.forbes.com/companies/boston-consulting-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G16" r:id="rId30" display="http://www.bcg.com/"/>
-    <hyperlink ref="F17" r:id="rId31" display="https://www.forbes.com/companies/booz-allen-hamilton/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G17" r:id="rId32" display="http://www.boozallen.com/"/>
-    <hyperlink ref="F18" r:id="rId33" display="https://www.forbes.com/companies/west-monroe-partners/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G18" r:id="rId34" display="http://www.westmonroepartners.com/"/>
-    <hyperlink ref="F19" r:id="rId35" display="https://www.forbes.com/companies/the-chartis-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G19" r:id="rId36" display="http://www.chartis.com/"/>
-    <hyperlink ref="F20" r:id="rId37" display="https://www.forbes.com/companies/tata-consultancy-services/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G20" r:id="rId38" display="http://www.tcs.com/"/>
-    <hyperlink ref="F21" r:id="rId39" display="https://www.forbes.com/companies/strategy/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G21" r:id="rId40" display="http://www.strategyand.pwc.com/"/>
-    <hyperlink ref="F22" r:id="rId41" display="https://www.forbes.com/companies/ssa-company/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G22" r:id="rId42" display="http://www.ssaandco.com/"/>
-    <hyperlink ref="F23" r:id="rId43" display="https://www.forbes.com/companies/slalom-consulting/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G23" r:id="rId44" display="http://www.slalom.com/"/>
-    <hyperlink ref="F24" r:id="rId45" display="https://www.forbes.com/companies/sapient/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G24" r:id="rId46" display="http://www.sapientconsulting.com/"/>
-    <hyperlink ref="F25" r:id="rId47" display="https://www.forbes.com/companies/roland-berger-strategy-consultants/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G25" r:id="rId48" display="http://www.rolandberger.com/"/>
-    <hyperlink ref="F26" r:id="rId49" display="https://www.forbes.com/companies/resources-global-professionals/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G26" r:id="rId50" display="http://www.rgp.com/"/>
-    <hyperlink ref="F27" r:id="rId51" display="https://www.forbes.com/companies/protiviti/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G27" r:id="rId52" display="http://www.protiviti.com/"/>
-    <hyperlink ref="F28" r:id="rId53" display="https://www.forbes.com/companies/point-b/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G28" r:id="rId54" display="http://www.pointb.com/"/>
-    <hyperlink ref="F29" r:id="rId55" display="https://www.forbes.com/companies/oliver-wyman/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G29" r:id="rId56" display="http://www.oliverwyman.com/"/>
-    <hyperlink ref="F30" r:id="rId57" display="https://www.forbes.com/companies/oasys-international/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G30" r:id="rId58" display="http://www.oasysic.com/"/>
-    <hyperlink ref="F31" r:id="rId59" display="https://www.forbes.com/companies/novantas/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G31" r:id="rId60" display="http://www.novantas.com/"/>
-    <hyperlink ref="F32" r:id="rId61" display="https://www.forbes.com/companies/north-highland/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G32" r:id="rId62" display="http://www.northhighland.com/"/>
-    <hyperlink ref="F33" r:id="rId63" display="https://www.forbes.com/companies/medmatica-consulting-associates/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G33" r:id="rId64" display="http://www.medmatica.com/"/>
-    <hyperlink ref="F34" r:id="rId65" display="https://www.forbes.com/companies/lockheed-martin/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G34" r:id="rId66" display="http://www.lockheedmartin.com/"/>
-    <hyperlink ref="F35" r:id="rId67" display="https://www.forbes.com/companies/leappoint/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G35" r:id="rId68" display="http://leappoint.com/"/>
-    <hyperlink ref="F36" r:id="rId69" display="https://www.forbes.com/companies/kurt-salmon/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G36" r:id="rId70" display="http://www.kurtsalmon.com/"/>
-    <hyperlink ref="F37" r:id="rId71" display="https://www.forbes.com/companies/jabian-consulting/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G37" r:id="rId72" display="http://www.jabian.com/"/>
-    <hyperlink ref="F38" r:id="rId73" display="https://www.forbes.com/companies/impact-advisors/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G38" r:id="rId74" display="http://www.impact-advisors.com/"/>
-    <hyperlink ref="F39" r:id="rId75" display="https://www.forbes.com/companies/ignyte-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G39" r:id="rId76" display="http://ignytegroup.com/"/>
-    <hyperlink ref="F40" r:id="rId77" display="https://www.forbes.com/companies/huron-consulting-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G40" r:id="rId78" display="http://www.huronconsultinggroup.com/"/>
-    <hyperlink ref="F41" r:id="rId79" display="https://www.forbes.com/companies/grant-thornton/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G41" r:id="rId80" display="http://www.grantthornton.com/"/>
-    <hyperlink ref="F42" r:id="rId81" display="https://www.forbes.com/companies/fti-consulting/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G42" r:id="rId82" display="http://www.fticonsulting.com/"/>
-    <hyperlink ref="F43" r:id="rId83" display="https://www.forbes.com/companies/forsythe-solutions-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G43" r:id="rId84" display="http://www.forsythe.com/"/>
-    <hyperlink ref="F44" r:id="rId85" display="https://www.forbes.com/companies/everest-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G44" r:id="rId86" display="http://www.everestgrp.com/"/>
-    <hyperlink ref="F45" r:id="rId87" display="https://www.forbes.com/companies/cumberland-consulting-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G45" r:id="rId88" display="http://www.cumberlandcg.com/"/>
-    <hyperlink ref="F46" r:id="rId89" display="https://www.forbes.com/companies/cognizant/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G46" r:id="rId90" display="http://www.cognizant.com/"/>
-    <hyperlink ref="F47" r:id="rId91" display="https://www.forbes.com/companies/clarkston-consulting/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G47" r:id="rId92" display="http://www.clarkstonconsulting.com/"/>
-    <hyperlink ref="F48" r:id="rId93" display="https://www.forbes.com/companies/cgn-global/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G48" r:id="rId94" display="http://www.cgnglobal.com/"/>
-    <hyperlink ref="F49" r:id="rId95" display="https://www.forbes.com/companies/censeo-consulting-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G49" r:id="rId96" display="http://www.censeoconsulting.com/"/>
-    <hyperlink ref="F50" r:id="rId97" display="https://www.forbes.com/companies/captech/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G50" r:id="rId98" display="http://www.captechconsulting.com/"/>
-    <hyperlink ref="F51" r:id="rId99" display="https://www.forbes.com/companies/capgemini-consulting/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G51" r:id="rId100" display="http://www.capgemini.com/"/>
-    <hyperlink ref="F52" r:id="rId101" display="https://www.forbes.com/companies/brattle-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G52" r:id="rId102" display="http://www.brattle.com/"/>
-    <hyperlink ref="F53" r:id="rId103" display="https://www.forbes.com/companies/bdo-usa/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G53" r:id="rId104" display="http://www.bdo.com/"/>
-    <hyperlink ref="F54" r:id="rId105" display="https://www.forbes.com/companies/bain-and-company/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G54" r:id="rId106" display="http://www.bain.com/"/>
-    <hyperlink ref="F55" r:id="rId107" display="https://www.forbes.com/companies/bae-systems/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G55" r:id="rId108" display="http://www.baesystems.com/"/>
-    <hyperlink ref="F56" r:id="rId109" display="https://www.forbes.com/companies/avasant/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G56" r:id="rId110" display="http://www.avasant.com/"/>
-    <hyperlink ref="F57" r:id="rId111" display="https://www.forbes.com/companies/at-kearney/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G57" r:id="rId112" display="http://www.atkearney.com/"/>
-    <hyperlink ref="F58" r:id="rId113" display="https://www.forbes.com/companies/arthur-d-little/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G58" r:id="rId114" display="http://www.adlittle.com/"/>
-    <hyperlink ref="F59" r:id="rId115" display="https://www.forbes.com/companies/archpoint/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G59" r:id="rId116" display="http://www.archpointconsulting.com/"/>
-    <hyperlink ref="F60" r:id="rId117" display="https://www.forbes.com/companies/appirio/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G60" r:id="rId118" display="http://www.appirio.com/"/>
-    <hyperlink ref="F61" r:id="rId119" display="https://www.forbes.com/companies/alixpartners/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G61" r:id="rId120" display="http://www.alixpartners.com/"/>
-    <hyperlink ref="F62" r:id="rId121" display="https://www.forbes.com/companies/microsoft/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G62" r:id="rId122" display="http://www.microsoft.com/"/>
-    <hyperlink ref="F63" r:id="rId123" display="https://www.forbes.com/companies/wipro/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G63" r:id="rId124" display="http://www.wipro.com/"/>
-    <hyperlink ref="F64" r:id="rId125" display="https://www.forbes.com/companies/virtusa/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G64" r:id="rId126" display="http://www.virtusa.com/"/>
-    <hyperlink ref="F65" r:id="rId127" display="https://www.forbes.com/companies/ntt-data-services/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G65" r:id="rId128" display="http://us.nttdata.com/"/>
-    <hyperlink ref="F66" r:id="rId129" display="https://www.forbes.com/companies/mckinnis-consulting-services/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G66" r:id="rId130" display="http://www.mckinnisconsulting.com/"/>
-    <hyperlink ref="F67" r:id="rId131" display="https://www.forbes.com/companies/hitachi-consulting/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G67" r:id="rId132" display="http://www.hitachiconsulting.com/"/>
-    <hyperlink ref="F68" r:id="rId133" display="https://www.forbes.com/companies/hcl-technologies/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G68" r:id="rId134" display="http://www.hcltech.com/"/>
-    <hyperlink ref="F69" r:id="rId135" display="https://www.forbes.com/companies/fujitsu-america/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G69" r:id="rId136" display="http://www.fujitsu.com/"/>
-    <hyperlink ref="F70" r:id="rId137" display="https://www.forbes.com/companies/bridge-solutions-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G70" r:id="rId138" display="http://bridgesgi.com/"/>
-    <hyperlink ref="F71" r:id="rId139" display="https://www.forbes.com/companies/blue-horseshoe-solutions/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G71" r:id="rId140" display="http://www.bhsolutions.com/"/>
-    <hyperlink ref="F72" r:id="rId141" display="https://www.forbes.com/companies/application-consulting-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G72" r:id="rId142" display="http://www.acgi.com/"/>
-    <hyperlink ref="F73" r:id="rId143" display="https://www.forbes.com/companies/simon-kucher-partners/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G73" r:id="rId144" display="http://www.simon-kucher.com/"/>
-    <hyperlink ref="F74" r:id="rId145" display="https://www.forbes.com/companies/navigant-consulting/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G74" r:id="rId146" display="http://www.navigant.com/"/>
-    <hyperlink ref="F75" r:id="rId147" display="https://www.forbes.com/companies/keystone-strategy/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G75" r:id="rId148" display="http://www.keystonestrategy.com/"/>
-    <hyperlink ref="F76" r:id="rId149" display="https://www.forbes.com/companies/kaiser-associates/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G76" r:id="rId150" display="http://www.kaiserassociates.com/"/>
-    <hyperlink ref="F77" r:id="rId151" display="https://www.forbes.com/companies/insight-sourcing-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G77" r:id="rId152" display="http://www.insightsourcing.com/"/>
-    <hyperlink ref="F78" r:id="rId153" display="https://www.forbes.com/companies/innosight/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G78" r:id="rId154" display="http://www.innosight.com/"/>
-    <hyperlink ref="F79" r:id="rId155" display="https://www.forbes.com/companies/ibb-consulting-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G79" r:id="rId156" display="http://www.ibbconsulting.com/"/>
-    <hyperlink ref="F80" r:id="rId157" display="https://www.forbes.com/companies/hay-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G80" r:id="rId158" display="http://www.haygroup.com/"/>
-    <hyperlink ref="F81" r:id="rId159" display="https://www.forbes.com/companies/cornerstone-research/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G81" r:id="rId160" display="http://www.cornerstone.com/"/>
-    <hyperlink ref="F82" r:id="rId161" display="https://www.forbes.com/companies/charles-river-associates/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G82" r:id="rId162" display="http://www.crai.com/"/>
-    <hyperlink ref="F83" r:id="rId163" display="https://www.forbes.com/companies/centric-consulting/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G83" r:id="rId164" display="http://www.centricconsulting.com/"/>
-    <hyperlink ref="F84" r:id="rId165" display="https://www.forbes.com/companies/bates-white/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G84" r:id="rId166" display="http://www.bateswhite.com/"/>
-    <hyperlink ref="F85" r:id="rId167" display="https://www.forbes.com/companies/avanade/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G85" r:id="rId168" display="http://www.avanade.com/"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://www.forbes.com/companies/ibm/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId2" display="http://www.ibm.com/" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="F3" r:id="rId3" display="https://www.forbes.com/companies/dxc-technology/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="G3" r:id="rId4" display="http://www.dxc.technology/" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="F4" r:id="rId5" display="https://www.forbes.com/companies/deloitte-touche-tohmatsu/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="G4" r:id="rId6" display="http://www.deloitte.com/" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="F5" r:id="rId7" display="https://www.forbes.com/companies/cisco-systems/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="G5" r:id="rId8" display="http://www.cisco.com/" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="F6" r:id="rId9" display="https://www.forbes.com/companies/accenture/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="G6" r:id="rId10" display="http://www.accenture.com/" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="F7" r:id="rId11" display="https://www.forbes.com/companies/sap/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="G7" r:id="rId12" display="http://www.sap.com/" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="F8" r:id="rId13" display="https://www.forbes.com/companies/pricewaterhousecoopers/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="G8" r:id="rId14" display="http://www.pwc.com/" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="F9" r:id="rId15" display="https://www.forbes.com/companies/oracle/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="G9" r:id="rId16" display="http://www.oracle.com/" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="F10" r:id="rId17" display="https://www.forbes.com/companies/mckinsey-company/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="G10" r:id="rId18" display="http://www.mckinsey.com/" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="F11" r:id="rId19" display="https://www.forbes.com/companies/kpmg/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="G11" r:id="rId20" display="http://www.kpmg.com/" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="F12" r:id="rId21" display="https://www.forbes.com/companies/infosys-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="G12" r:id="rId22" display="http://www.infosys.com/" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="F13" r:id="rId23" display="https://www.forbes.com/companies/information-services-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="G13" r:id="rId24" display="http://www.isg-one.com/" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="F14" r:id="rId25" display="https://www.forbes.com/companies/gartner/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="G14" r:id="rId26" display="http://www.gartner.com/" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="F15" r:id="rId27" display="https://www.forbes.com/companies/ernst-young/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="G15" r:id="rId28" display="http://www.ey.com/" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="F16" r:id="rId29" display="https://www.forbes.com/companies/boston-consulting-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="G16" r:id="rId30" display="http://www.bcg.com/" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="F17" r:id="rId31" display="https://www.forbes.com/companies/booz-allen-hamilton/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="G17" r:id="rId32" display="http://www.boozallen.com/" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="F18" r:id="rId33" display="https://www.forbes.com/companies/west-monroe-partners/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="G18" r:id="rId34" display="http://www.westmonroepartners.com/" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="F19" r:id="rId35" display="https://www.forbes.com/companies/the-chartis-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="G19" r:id="rId36" display="http://www.chartis.com/" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="F20" r:id="rId37" display="https://www.forbes.com/companies/tata-consultancy-services/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="G20" r:id="rId38" display="http://www.tcs.com/" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="F21" r:id="rId39" display="https://www.forbes.com/companies/strategy/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="G21" r:id="rId40" display="http://www.strategyand.pwc.com/" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="F22" r:id="rId41" display="https://www.forbes.com/companies/ssa-company/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="G22" r:id="rId42" display="http://www.ssaandco.com/" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="F23" r:id="rId43" display="https://www.forbes.com/companies/slalom-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="G23" r:id="rId44" display="http://www.slalom.com/" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="F24" r:id="rId45" display="https://www.forbes.com/companies/sapient/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="G24" r:id="rId46" display="http://www.sapientconsulting.com/" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="F25" r:id="rId47" display="https://www.forbes.com/companies/roland-berger-strategy-consultants/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="G25" r:id="rId48" display="http://www.rolandberger.com/" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="F26" r:id="rId49" display="https://www.forbes.com/companies/resources-global-professionals/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="G26" r:id="rId50" display="http://www.rgp.com/" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="F27" r:id="rId51" display="https://www.forbes.com/companies/protiviti/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="G27" r:id="rId52" display="http://www.protiviti.com/" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="F28" r:id="rId53" display="https://www.forbes.com/companies/point-b/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="G28" r:id="rId54" display="http://www.pointb.com/" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="F29" r:id="rId55" display="https://www.forbes.com/companies/oliver-wyman/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="G29" r:id="rId56" display="http://www.oliverwyman.com/" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
+    <hyperlink ref="F30" r:id="rId57" display="https://www.forbes.com/companies/oasys-international/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
+    <hyperlink ref="G30" r:id="rId58" display="http://www.oasysic.com/" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="F31" r:id="rId59" display="https://www.forbes.com/companies/novantas/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="G31" r:id="rId60" display="http://www.novantas.com/" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="F32" r:id="rId61" display="https://www.forbes.com/companies/north-highland/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
+    <hyperlink ref="G32" r:id="rId62" display="http://www.northhighland.com/" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
+    <hyperlink ref="F33" r:id="rId63" display="https://www.forbes.com/companies/medmatica-consulting-associates/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
+    <hyperlink ref="G33" r:id="rId64" display="http://www.medmatica.com/" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
+    <hyperlink ref="F34" r:id="rId65" display="https://www.forbes.com/companies/lockheed-martin/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
+    <hyperlink ref="G34" r:id="rId66" display="http://www.lockheedmartin.com/" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
+    <hyperlink ref="F35" r:id="rId67" display="https://www.forbes.com/companies/leappoint/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
+    <hyperlink ref="G35" r:id="rId68" display="http://leappoint.com/" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
+    <hyperlink ref="F36" r:id="rId69" display="https://www.forbes.com/companies/kurt-salmon/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
+    <hyperlink ref="G36" r:id="rId70" display="http://www.kurtsalmon.com/" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
+    <hyperlink ref="F37" r:id="rId71" display="https://www.forbes.com/companies/jabian-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
+    <hyperlink ref="G37" r:id="rId72" display="http://www.jabian.com/" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
+    <hyperlink ref="F38" r:id="rId73" display="https://www.forbes.com/companies/impact-advisors/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
+    <hyperlink ref="G38" r:id="rId74" display="http://www.impact-advisors.com/" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
+    <hyperlink ref="F39" r:id="rId75" display="https://www.forbes.com/companies/ignyte-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
+    <hyperlink ref="G39" r:id="rId76" display="http://ignytegroup.com/" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
+    <hyperlink ref="F40" r:id="rId77" display="https://www.forbes.com/companies/huron-consulting-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
+    <hyperlink ref="G40" r:id="rId78" display="http://www.huronconsultinggroup.com/" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
+    <hyperlink ref="F41" r:id="rId79" display="https://www.forbes.com/companies/grant-thornton/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
+    <hyperlink ref="G41" r:id="rId80" display="http://www.grantthornton.com/" xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
+    <hyperlink ref="F42" r:id="rId81" display="https://www.forbes.com/companies/fti-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000050000000}"/>
+    <hyperlink ref="G42" r:id="rId82" display="http://www.fticonsulting.com/" xr:uid="{00000000-0004-0000-0200-000051000000}"/>
+    <hyperlink ref="F43" r:id="rId83" display="https://www.forbes.com/companies/forsythe-solutions-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000052000000}"/>
+    <hyperlink ref="G43" r:id="rId84" display="http://www.forsythe.com/" xr:uid="{00000000-0004-0000-0200-000053000000}"/>
+    <hyperlink ref="F44" r:id="rId85" display="https://www.forbes.com/companies/everest-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000054000000}"/>
+    <hyperlink ref="G44" r:id="rId86" display="http://www.everestgrp.com/" xr:uid="{00000000-0004-0000-0200-000055000000}"/>
+    <hyperlink ref="F45" r:id="rId87" display="https://www.forbes.com/companies/cumberland-consulting-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000056000000}"/>
+    <hyperlink ref="G45" r:id="rId88" display="http://www.cumberlandcg.com/" xr:uid="{00000000-0004-0000-0200-000057000000}"/>
+    <hyperlink ref="F46" r:id="rId89" display="https://www.forbes.com/companies/cognizant/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000058000000}"/>
+    <hyperlink ref="G46" r:id="rId90" display="http://www.cognizant.com/" xr:uid="{00000000-0004-0000-0200-000059000000}"/>
+    <hyperlink ref="F47" r:id="rId91" display="https://www.forbes.com/companies/clarkston-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00005A000000}"/>
+    <hyperlink ref="G47" r:id="rId92" display="http://www.clarkstonconsulting.com/" xr:uid="{00000000-0004-0000-0200-00005B000000}"/>
+    <hyperlink ref="F48" r:id="rId93" display="https://www.forbes.com/companies/cgn-global/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00005C000000}"/>
+    <hyperlink ref="G48" r:id="rId94" display="http://www.cgnglobal.com/" xr:uid="{00000000-0004-0000-0200-00005D000000}"/>
+    <hyperlink ref="F49" r:id="rId95" display="https://www.forbes.com/companies/censeo-consulting-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00005E000000}"/>
+    <hyperlink ref="G49" r:id="rId96" display="http://www.censeoconsulting.com/" xr:uid="{00000000-0004-0000-0200-00005F000000}"/>
+    <hyperlink ref="F50" r:id="rId97" display="https://www.forbes.com/companies/captech/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000060000000}"/>
+    <hyperlink ref="G50" r:id="rId98" display="http://www.captechconsulting.com/" xr:uid="{00000000-0004-0000-0200-000061000000}"/>
+    <hyperlink ref="F51" r:id="rId99" display="https://www.forbes.com/companies/capgemini-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000062000000}"/>
+    <hyperlink ref="G51" r:id="rId100" display="http://www.capgemini.com/" xr:uid="{00000000-0004-0000-0200-000063000000}"/>
+    <hyperlink ref="F52" r:id="rId101" display="https://www.forbes.com/companies/brattle-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000064000000}"/>
+    <hyperlink ref="G52" r:id="rId102" display="http://www.brattle.com/" xr:uid="{00000000-0004-0000-0200-000065000000}"/>
+    <hyperlink ref="F53" r:id="rId103" display="https://www.forbes.com/companies/bdo-usa/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000066000000}"/>
+    <hyperlink ref="G53" r:id="rId104" display="http://www.bdo.com/" xr:uid="{00000000-0004-0000-0200-000067000000}"/>
+    <hyperlink ref="F54" r:id="rId105" display="https://www.forbes.com/companies/bain-and-company/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000068000000}"/>
+    <hyperlink ref="G54" r:id="rId106" display="http://www.bain.com/" xr:uid="{00000000-0004-0000-0200-000069000000}"/>
+    <hyperlink ref="F55" r:id="rId107" display="https://www.forbes.com/companies/bae-systems/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00006A000000}"/>
+    <hyperlink ref="G55" r:id="rId108" display="http://www.baesystems.com/" xr:uid="{00000000-0004-0000-0200-00006B000000}"/>
+    <hyperlink ref="F56" r:id="rId109" display="https://www.forbes.com/companies/avasant/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00006C000000}"/>
+    <hyperlink ref="G56" r:id="rId110" display="http://www.avasant.com/" xr:uid="{00000000-0004-0000-0200-00006D000000}"/>
+    <hyperlink ref="F57" r:id="rId111" display="https://www.forbes.com/companies/at-kearney/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00006E000000}"/>
+    <hyperlink ref="G57" r:id="rId112" display="http://www.atkearney.com/" xr:uid="{00000000-0004-0000-0200-00006F000000}"/>
+    <hyperlink ref="F58" r:id="rId113" display="https://www.forbes.com/companies/arthur-d-little/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000070000000}"/>
+    <hyperlink ref="G58" r:id="rId114" display="http://www.adlittle.com/" xr:uid="{00000000-0004-0000-0200-000071000000}"/>
+    <hyperlink ref="F59" r:id="rId115" display="https://www.forbes.com/companies/archpoint/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000072000000}"/>
+    <hyperlink ref="G59" r:id="rId116" display="http://www.archpointconsulting.com/" xr:uid="{00000000-0004-0000-0200-000073000000}"/>
+    <hyperlink ref="F60" r:id="rId117" display="https://www.forbes.com/companies/appirio/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000074000000}"/>
+    <hyperlink ref="G60" r:id="rId118" display="http://www.appirio.com/" xr:uid="{00000000-0004-0000-0200-000075000000}"/>
+    <hyperlink ref="F61" r:id="rId119" display="https://www.forbes.com/companies/alixpartners/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000076000000}"/>
+    <hyperlink ref="G61" r:id="rId120" display="http://www.alixpartners.com/" xr:uid="{00000000-0004-0000-0200-000077000000}"/>
+    <hyperlink ref="F62" r:id="rId121" display="https://www.forbes.com/companies/microsoft/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000078000000}"/>
+    <hyperlink ref="G62" r:id="rId122" display="http://www.microsoft.com/" xr:uid="{00000000-0004-0000-0200-000079000000}"/>
+    <hyperlink ref="F63" r:id="rId123" display="https://www.forbes.com/companies/wipro/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00007A000000}"/>
+    <hyperlink ref="G63" r:id="rId124" display="http://www.wipro.com/" xr:uid="{00000000-0004-0000-0200-00007B000000}"/>
+    <hyperlink ref="F64" r:id="rId125" display="https://www.forbes.com/companies/virtusa/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00007C000000}"/>
+    <hyperlink ref="G64" r:id="rId126" display="http://www.virtusa.com/" xr:uid="{00000000-0004-0000-0200-00007D000000}"/>
+    <hyperlink ref="F65" r:id="rId127" display="https://www.forbes.com/companies/ntt-data-services/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00007E000000}"/>
+    <hyperlink ref="G65" r:id="rId128" display="http://us.nttdata.com/" xr:uid="{00000000-0004-0000-0200-00007F000000}"/>
+    <hyperlink ref="F66" r:id="rId129" display="https://www.forbes.com/companies/mckinnis-consulting-services/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000080000000}"/>
+    <hyperlink ref="G66" r:id="rId130" display="http://www.mckinnisconsulting.com/" xr:uid="{00000000-0004-0000-0200-000081000000}"/>
+    <hyperlink ref="F67" r:id="rId131" display="https://www.forbes.com/companies/hitachi-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000082000000}"/>
+    <hyperlink ref="G67" r:id="rId132" display="http://www.hitachiconsulting.com/" xr:uid="{00000000-0004-0000-0200-000083000000}"/>
+    <hyperlink ref="F68" r:id="rId133" display="https://www.forbes.com/companies/hcl-technologies/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000084000000}"/>
+    <hyperlink ref="G68" r:id="rId134" display="http://www.hcltech.com/" xr:uid="{00000000-0004-0000-0200-000085000000}"/>
+    <hyperlink ref="F69" r:id="rId135" display="https://www.forbes.com/companies/fujitsu-america/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000086000000}"/>
+    <hyperlink ref="G69" r:id="rId136" display="http://www.fujitsu.com/" xr:uid="{00000000-0004-0000-0200-000087000000}"/>
+    <hyperlink ref="F70" r:id="rId137" display="https://www.forbes.com/companies/bridge-solutions-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000088000000}"/>
+    <hyperlink ref="G70" r:id="rId138" display="http://bridgesgi.com/" xr:uid="{00000000-0004-0000-0200-000089000000}"/>
+    <hyperlink ref="F71" r:id="rId139" display="https://www.forbes.com/companies/blue-horseshoe-solutions/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00008A000000}"/>
+    <hyperlink ref="G71" r:id="rId140" display="http://www.bhsolutions.com/" xr:uid="{00000000-0004-0000-0200-00008B000000}"/>
+    <hyperlink ref="F72" r:id="rId141" display="https://www.forbes.com/companies/application-consulting-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00008C000000}"/>
+    <hyperlink ref="G72" r:id="rId142" display="http://www.acgi.com/" xr:uid="{00000000-0004-0000-0200-00008D000000}"/>
+    <hyperlink ref="F73" r:id="rId143" display="https://www.forbes.com/companies/simon-kucher-partners/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00008E000000}"/>
+    <hyperlink ref="G73" r:id="rId144" display="http://www.simon-kucher.com/" xr:uid="{00000000-0004-0000-0200-00008F000000}"/>
+    <hyperlink ref="F74" r:id="rId145" display="https://www.forbes.com/companies/navigant-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000090000000}"/>
+    <hyperlink ref="G74" r:id="rId146" display="http://www.navigant.com/" xr:uid="{00000000-0004-0000-0200-000091000000}"/>
+    <hyperlink ref="F75" r:id="rId147" display="https://www.forbes.com/companies/keystone-strategy/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000092000000}"/>
+    <hyperlink ref="G75" r:id="rId148" display="http://www.keystonestrategy.com/" xr:uid="{00000000-0004-0000-0200-000093000000}"/>
+    <hyperlink ref="F76" r:id="rId149" display="https://www.forbes.com/companies/kaiser-associates/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000094000000}"/>
+    <hyperlink ref="G76" r:id="rId150" display="http://www.kaiserassociates.com/" xr:uid="{00000000-0004-0000-0200-000095000000}"/>
+    <hyperlink ref="F77" r:id="rId151" display="https://www.forbes.com/companies/insight-sourcing-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000096000000}"/>
+    <hyperlink ref="G77" r:id="rId152" display="http://www.insightsourcing.com/" xr:uid="{00000000-0004-0000-0200-000097000000}"/>
+    <hyperlink ref="F78" r:id="rId153" display="https://www.forbes.com/companies/innosight/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000098000000}"/>
+    <hyperlink ref="G78" r:id="rId154" display="http://www.innosight.com/" xr:uid="{00000000-0004-0000-0200-000099000000}"/>
+    <hyperlink ref="F79" r:id="rId155" display="https://www.forbes.com/companies/ibb-consulting-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00009A000000}"/>
+    <hyperlink ref="G79" r:id="rId156" display="http://www.ibbconsulting.com/" xr:uid="{00000000-0004-0000-0200-00009B000000}"/>
+    <hyperlink ref="F80" r:id="rId157" display="https://www.forbes.com/companies/hay-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00009C000000}"/>
+    <hyperlink ref="G80" r:id="rId158" display="http://www.haygroup.com/" xr:uid="{00000000-0004-0000-0200-00009D000000}"/>
+    <hyperlink ref="F81" r:id="rId159" display="https://www.forbes.com/companies/cornerstone-research/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00009E000000}"/>
+    <hyperlink ref="G81" r:id="rId160" display="http://www.cornerstone.com/" xr:uid="{00000000-0004-0000-0200-00009F000000}"/>
+    <hyperlink ref="F82" r:id="rId161" display="https://www.forbes.com/companies/charles-river-associates/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-0000A0000000}"/>
+    <hyperlink ref="G82" r:id="rId162" display="http://www.crai.com/" xr:uid="{00000000-0004-0000-0200-0000A1000000}"/>
+    <hyperlink ref="F83" r:id="rId163" display="https://www.forbes.com/companies/centric-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-0000A2000000}"/>
+    <hyperlink ref="G83" r:id="rId164" display="http://www.centricconsulting.com/" xr:uid="{00000000-0004-0000-0200-0000A3000000}"/>
+    <hyperlink ref="F84" r:id="rId165" display="https://www.forbes.com/companies/bates-white/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-0000A4000000}"/>
+    <hyperlink ref="G84" r:id="rId166" display="http://www.bateswhite.com/" xr:uid="{00000000-0004-0000-0200-0000A5000000}"/>
+    <hyperlink ref="F85" r:id="rId167" display="https://www.forbes.com/companies/avanade/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-0000A6000000}"/>
+    <hyperlink ref="G85" r:id="rId168" display="http://www.avanade.com/" xr:uid="{00000000-0004-0000-0200-0000A7000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D2:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.5703125" customWidth="1"/>
     <col min="6" max="6" width="55.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:6" ht="31.5">
+    <row r="2" spans="4:6" ht="34.5" x14ac:dyDescent="0.25">
       <c r="D2" s="12" t="s">
         <v>87</v>
       </c>
@@ -6636,7 +6647,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="4:6">
+    <row r="3" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D3" s="13">
         <v>1</v>
       </c>
@@ -6647,7 +6658,7 @@
         <v>17310000000</v>
       </c>
     </row>
-    <row r="4" spans="4:6">
+    <row r="4" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D4" s="13">
         <v>2</v>
       </c>
@@ -6658,7 +6669,7 @@
         <v>15460000000</v>
       </c>
     </row>
-    <row r="5" spans="4:6">
+    <row r="5" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D5" s="13">
         <v>3</v>
       </c>
@@ -6669,7 +6680,7 @@
         <v>14930000000</v>
       </c>
     </row>
-    <row r="6" spans="4:6">
+    <row r="6" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="13">
         <v>4</v>
       </c>
@@ -6680,7 +6691,7 @@
         <v>14810000000</v>
       </c>
     </row>
-    <row r="7" spans="4:6">
+    <row r="7" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D7" s="13">
         <v>5</v>
       </c>
@@ -6691,7 +6702,7 @@
         <v>13350000000</v>
       </c>
     </row>
-    <row r="8" spans="4:6">
+    <row r="8" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D8" s="13">
         <v>6</v>
       </c>
@@ -6702,7 +6713,7 @@
         <v>12253000000</v>
       </c>
     </row>
-    <row r="9" spans="4:6">
+    <row r="9" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="13">
         <v>7</v>
       </c>
@@ -6713,7 +6724,7 @@
         <v>12000000000</v>
       </c>
     </row>
-    <row r="10" spans="4:6">
+    <row r="10" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D10" s="13">
         <v>8</v>
       </c>
@@ -6724,7 +6735,7 @@
         <v>11600000000</v>
       </c>
     </row>
-    <row r="11" spans="4:6">
+    <row r="11" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D11" s="13">
         <v>9</v>
       </c>
@@ -6735,7 +6746,7 @@
         <v>10210000000</v>
       </c>
     </row>
-    <row r="12" spans="4:6">
+    <row r="12" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D12" s="13">
         <v>10</v>
       </c>
@@ -6746,7 +6757,7 @@
         <v>10180000000</v>
       </c>
     </row>
-    <row r="13" spans="4:6">
+    <row r="13" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D13" s="13">
         <v>11</v>
       </c>
@@ -6757,7 +6768,7 @@
         <v>8800000000</v>
       </c>
     </row>
-    <row r="14" spans="4:6">
+    <row r="14" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D14" s="13">
         <v>12</v>
       </c>
@@ -6768,7 +6779,7 @@
         <v>8500000000</v>
       </c>
     </row>
-    <row r="15" spans="4:6">
+    <row r="15" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D15" s="13">
         <v>13</v>
       </c>
@@ -6779,7 +6790,7 @@
         <v>7882000000</v>
       </c>
     </row>
-    <row r="16" spans="4:6">
+    <row r="16" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D16" s="13">
         <v>14</v>
       </c>
@@ -6790,7 +6801,7 @@
         <v>6300000000</v>
       </c>
     </row>
-    <row r="17" spans="4:6">
+    <row r="17" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D17" s="13">
         <v>15</v>
       </c>
@@ -6801,7 +6812,7 @@
         <v>6100000000</v>
       </c>
     </row>
-    <row r="18" spans="4:6">
+    <row r="18" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D18" s="13">
         <v>16</v>
       </c>
@@ -6812,7 +6823,7 @@
         <v>4300000000</v>
       </c>
     </row>
-    <row r="19" spans="4:6">
+    <row r="19" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D19" s="13">
         <v>17</v>
       </c>
@@ -6823,7 +6834,7 @@
         <v>4200000000</v>
       </c>
     </row>
-    <row r="20" spans="4:6">
+    <row r="20" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D20" s="13">
         <v>18</v>
       </c>
@@ -6834,7 +6845,7 @@
         <v>3870000000</v>
       </c>
     </row>
-    <row r="21" spans="4:6">
+    <row r="21" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D21" s="13">
         <v>19</v>
       </c>
@@ -6845,7 +6856,7 @@
         <v>3566000000</v>
       </c>
     </row>
-    <row r="22" spans="4:6">
+    <row r="22" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D22" s="13">
         <v>20</v>
       </c>
@@ -6856,7 +6867,7 @@
         <v>3358000000</v>
       </c>
     </row>
-    <row r="23" spans="4:6">
+    <row r="23" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D23" s="13">
         <v>21</v>
       </c>
@@ -6867,7 +6878,7 @@
         <v>3300000000</v>
       </c>
     </row>
-    <row r="24" spans="4:6">
+    <row r="24" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D24" s="13">
         <v>22</v>
       </c>
@@ -6878,7 +6889,7 @@
         <v>2813000000</v>
       </c>
     </row>
-    <row r="25" spans="4:6">
+    <row r="25" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D25" s="13">
         <v>23</v>
       </c>
@@ -6889,7 +6900,7 @@
         <v>2000000000</v>
       </c>
     </row>
-    <row r="26" spans="4:6">
+    <row r="26" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D26" s="13">
         <v>24</v>
       </c>
@@ -6900,7 +6911,7 @@
         <v>1800000000</v>
       </c>
     </row>
-    <row r="27" spans="4:6">
+    <row r="27" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D27" s="13">
         <v>25</v>
       </c>
@@ -6911,7 +6922,7 @@
         <v>1800000000</v>
       </c>
     </row>
-    <row r="28" spans="4:6">
+    <row r="28" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D28" s="13">
         <v>26</v>
       </c>
@@ -6922,7 +6933,7 @@
         <v>1700000000</v>
       </c>
     </row>
-    <row r="29" spans="4:6">
+    <row r="29" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D29" s="13">
         <v>27</v>
       </c>
@@ -6933,7 +6944,7 @@
         <v>1410000000</v>
       </c>
     </row>
-    <row r="30" spans="4:6">
+    <row r="30" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D30" s="13">
         <v>28</v>
       </c>
@@ -6944,7 +6955,7 @@
         <v>1400000000</v>
       </c>
     </row>
-    <row r="31" spans="4:6">
+    <row r="31" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D31" s="13">
         <v>29</v>
       </c>
@@ -6955,7 +6966,7 @@
         <v>1305000000</v>
       </c>
     </row>
-    <row r="32" spans="4:6">
+    <row r="32" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D32" s="13">
         <v>30</v>
       </c>
@@ -6966,7 +6977,7 @@
         <v>1300000000</v>
       </c>
     </row>
-    <row r="33" spans="4:6">
+    <row r="33" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D33" s="13">
         <v>31</v>
       </c>
@@ -6977,7 +6988,7 @@
         <v>1300000000</v>
       </c>
     </row>
-    <row r="34" spans="4:6">
+    <row r="34" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D34" s="13">
         <v>32</v>
       </c>
@@ -6988,7 +6999,7 @@
         <v>1190000000</v>
       </c>
     </row>
-    <row r="35" spans="4:6">
+    <row r="35" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D35" s="13">
         <v>33</v>
       </c>
@@ -6999,7 +7010,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="36" spans="4:6">
+    <row r="36" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D36" s="13">
         <v>34</v>
       </c>
@@ -7010,7 +7021,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="37" spans="4:6">
+    <row r="37" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D37" s="13">
         <v>35</v>
       </c>
@@ -7021,7 +7032,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="38" spans="4:6">
+    <row r="38" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D38" s="13">
         <v>36</v>
       </c>
@@ -7032,7 +7043,7 @@
         <v>816000000</v>
       </c>
     </row>
-    <row r="39" spans="4:6">
+    <row r="39" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D39" s="13">
         <v>37</v>
       </c>
@@ -7043,7 +7054,7 @@
         <v>797700000</v>
       </c>
     </row>
-    <row r="40" spans="4:6">
+    <row r="40" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D40" s="13">
         <v>38</v>
       </c>
@@ -7054,7 +7065,7 @@
         <v>781800000</v>
       </c>
     </row>
-    <row r="41" spans="4:6">
+    <row r="41" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D41" s="13">
         <v>39</v>
       </c>
@@ -7065,7 +7076,7 @@
         <v>767000000</v>
       </c>
     </row>
-    <row r="42" spans="4:6">
+    <row r="42" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D42" s="13">
         <v>40</v>
       </c>
@@ -7076,7 +7087,7 @@
         <v>600000000</v>
       </c>
     </row>
-    <row r="43" spans="4:6">
+    <row r="43" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D43" s="13">
         <v>41</v>
       </c>
@@ -7087,7 +7098,7 @@
         <v>600000000</v>
       </c>
     </row>
-    <row r="44" spans="4:6">
+    <row r="44" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D44" s="13">
         <v>42</v>
       </c>
@@ -7098,7 +7109,7 @@
         <v>556000000</v>
       </c>
     </row>
-    <row r="45" spans="4:6">
+    <row r="45" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D45" s="13">
         <v>43</v>
       </c>
@@ -7109,7 +7120,7 @@
         <v>525000000</v>
       </c>
     </row>
-    <row r="46" spans="4:6">
+    <row r="46" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D46" s="13">
         <v>44</v>
       </c>
@@ -7120,7 +7131,7 @@
         <v>500000000</v>
       </c>
     </row>
-    <row r="47" spans="4:6">
+    <row r="47" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D47" s="13">
         <v>45</v>
       </c>
@@ -7131,7 +7142,7 @@
         <v>487000000</v>
       </c>
     </row>
-    <row r="48" spans="4:6">
+    <row r="48" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D48" s="13">
         <v>46</v>
       </c>
@@ -7142,7 +7153,7 @@
         <v>311000000</v>
       </c>
     </row>
-    <row r="49" spans="4:6">
+    <row r="49" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D49" s="13">
         <v>47</v>
       </c>
@@ -7153,7 +7164,7 @@
         <v>239200000</v>
       </c>
     </row>
-    <row r="50" spans="4:6">
+    <row r="50" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D50" s="13">
         <v>48</v>
       </c>
@@ -7164,7 +7175,7 @@
         <v>200000000</v>
       </c>
     </row>
-    <row r="51" spans="4:6">
+    <row r="51" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D51" s="13">
         <v>49</v>
       </c>
@@ -7175,7 +7186,7 @@
         <v>162000000</v>
       </c>
     </row>
-    <row r="52" spans="4:6">
+    <row r="52" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D52" s="15">
         <v>50</v>
       </c>
@@ -7192,16 +7203,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="7:7">
+    <row r="7" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>86</v>
       </c>

--- a/Companies_Apply_Status_Sheet.xlsx
+++ b/Companies_Apply_Status_Sheet.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF8E005-FF79-4A18-8A09-0003B0D06757}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="10725"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$161</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="582">
   <si>
     <t>SLNo</t>
   </si>
@@ -1632,15 +1631,201 @@
 other questions****
 SB: used the exsiting account and completed thee process</t>
   </si>
+  <si>
+    <t>Penny Mac</t>
+  </si>
+  <si>
+    <t>https://careers-pennymac.icims.com/jobs/8005/sr-proj-mgr/login?mobile=false&amp;width=1110&amp;height=500&amp;bga=true&amp;needsRedirect=false&amp;jan1offset=330&amp;jun1offset=330</t>
+  </si>
+  <si>
+    <t>Westlake, CA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/856785126/</t>
+  </si>
+  <si>
+    <t>Requisition ID 18-8005</t>
+  </si>
+  <si>
+    <t>Sr PM</t>
+  </si>
+  <si>
+    <t>CA-Agoura Hills</t>
+  </si>
+  <si>
+    <t>https://careers-pennymac.icims.com/jobs/8589/sr-proj-mgr/job</t>
+  </si>
+  <si>
+    <t>18-8589</t>
+  </si>
+  <si>
+    <t>Morpark, CA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/990779715/?eBP=CwEAAAFnmDB9mVUV0kFGVqV5fSoRGmOtf2_QLA82nDgQ4Pa8xADmpTHqG87sXKZeIuJpkxNwdzI6kBITZc-MlV8MQTga9cA1ViU93oXDfr3Zv34RoGMRGeBrHkhA15HFMdtSubjhdUDwcoE4vrY4w--kNg_ilg58rpcjuF3IsPWqS21L8HIKqEDijiAc-W8PybAti_oJfC6PpSWyo63dRVTYYz_m51bhLgF5mXUkPMQHaDabctS_cSVIKBEvp43msClSul6Gu5YUa-0izOp1Eqe7LPvxr5mlFxg4qGgYf61WZSVFL7IwvjwudZX1o5n7ABNUAp3rttcF6bu4Rjj-GDB0tkBXArsOpLMPhXOOBckpnxkNbaMrWuw-XxdfYwkN9XEJlnTxU5Y&amp;recommendedFlavor=HIDDEN_GEM&amp;refId=14c34f7d-6736-4f28-b167-9c1a469a3124&amp;trk=d_flagship3_job_details</t>
+  </si>
+  <si>
+    <t>Requisition ID 18-8667</t>
+  </si>
+  <si>
+    <t>https://careers-pennymac.icims.com/jobs/8667/proj-mgr/job?mode=submit_apply</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/967771137/?eBP=NotAvailableFromVoyagerAPI&amp;recommendedFlavor=SCHOOL_RECRUIT&amp;refId=7b4a731f-3d2c-434a-9d33-08ea8587959f&amp;trk=d_flagship3_job_details</t>
+  </si>
+  <si>
+    <t>Culver, CA</t>
+  </si>
+  <si>
+    <t>https://jobs.apple.com/en-us/details/113681065/technical-program-manager?team=MKTG</t>
+  </si>
+  <si>
+    <t>**Requires apple creds*</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/978219644/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/978980234/?eBP=CwEAAAFnmE6ykGQHwQFEIUW1aDdlHiKetyD1w4kijr6WUWhnYNfasqZmbsN6Ov84gAm28pJhZjgQHY3oHmF8qytskhaM1h5Ia1JTuUbSPqw9GlNHEh4hc5zTc9GR4EMm_6KjVm2pZEjs-acr27LL7dC84D2zkMkoIV6EBMLRNrZXmg8D-y6uZwSkRG2pFn-RYYWb6ma-9ow8aZju82r6ES9VVc4YL8qJ0IamMFitCkZja7VA8pZ4E1V7F0c3FYgb0Vm1WqXvcAwbEPcoRdGNLPrTqjymZsFEWZK8D8B_RTZRwLz7E-Ug8i4JTtUy1O15m7BON7wjwyYNetm1hxTmqj6zeKktymn-Whq5fg&amp;recommendedFlavor=HIDDEN_GEM&amp;refId=8fccecb4-c9bf-40bb-9e71-40fa919ebc0c&amp;trk=d_flagship3_job_details</t>
+  </si>
+  <si>
+    <t>Carlson Wagonlit Travel</t>
+  </si>
+  <si>
+    <t>Woodland hills,CA</t>
+  </si>
+  <si>
+    <t>https://cwt.taleo.net/careersection/ex/jobdetail.ftl?job=180004FK&amp;lang=en&amp;src=LinkedIn</t>
+  </si>
+  <si>
+    <t>Job Number: 180004FK</t>
+  </si>
+  <si>
+    <t>**3 referral - Robert Wallgren, Aditya Agashe**</t>
+  </si>
+  <si>
+    <t>Internet Brands</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/993494199/</t>
+  </si>
+  <si>
+    <t>http://jobs.jobvite.com/careers/internetbrands/job/oMeE7fwv/apply?__jvst=Job%20Board&amp;__jvsd=LinkedIn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cognizant </t>
+  </si>
+  <si>
+    <t>El Segundo, CA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/994722284/?eBP=CwEAAAFnmGc7huGgN4jxQKhsOJ_JIykv0bz9owGfzbkqMwTkvyL3iFHDh6_11wBc5_JCs6q2D0xfOXfJlOGhbOLOQ1LFV9GuWHAb8FviDFYrwanZUFIezusUY2DPUwTCLnWsSQJ7sN9Qcbq6vc8r9HNEHW3Wx4ixo_rPu37G-vLQiz8hsfamR35fB-1wdLZx4Uzt5wV5caJcNekQc29CmuzCbH_Ls5b5eai2sTNlX0CMtzIauuetEJyKFy5iNH5zjcjg4VuWCkshM_NONjuMTpLG_QpdegWXYydR1-upDHOI1yt09iWlF6OyztpZBJu5H4lae6t-XejdTs3G38vD4GEOGqdtbJGfzudXc0cnXm-bLtOiTHXgb8bbPBXXX3S35XvcJmBooi8sug&amp;recommendedFlavor=IN_NETWORK&amp;refId=b489414b-dd02-4118-90ac-9fb67a391154&amp;trk=d_flagship3_job_details</t>
+  </si>
+  <si>
+    <t>**Abhishek Pandya - Assoc Direc in California**</t>
+  </si>
+  <si>
+    <t>Tala</t>
+  </si>
+  <si>
+    <t>Santa Monica,CA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/998995442/</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.getrake.io/tala/jobs/968221?gh_jid=968221&amp;gh_src=f3cf339d1</t>
+  </si>
+  <si>
+    <t>**other questions</t>
+  </si>
+  <si>
+    <t>Insight Global</t>
+  </si>
+  <si>
+    <t>Greater LA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/1002696919/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/998950228/?trk=easyapply_alsoViewedJobs</t>
+  </si>
+  <si>
+    <t>Jr PM</t>
+  </si>
+  <si>
+    <t>Hulu</t>
+  </si>
+  <si>
+    <t>Tech Prog M</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/993499180/?eBP=CwEAAAFnmHkVKAokhyAo_Q5cxm9M0av-VksZj6RkZN9z15TUCevb-Bcxkaw8miukFyGYt940qY-nC3zO6mi3ovuF41f5U78DdQDubb1GZRJkW18aBoH-mR0lLo5elsrasMkL34XO4vPA7qQWKDuRra9HGfNG8D04vZTvd2PQn4nKjea1j9Zwdu4hw6d40QmK-hec0VmOmCb5d6EHCaFdNxWDDyHcXejeK9qMP9ZlEPvliGT3qteQ8b0QZyGr5C5QEVnPB55Lqcs8U50ak6tAQQVxUVB86s9mfHrKNEdnj0wY5gVg3OhmCZJM-eA8fh8r8JB-doFataqXNAGjUfB-VYx-KuBZd9MytPlY7zjLGo0Z-TlV_eJWgjtun32UCXpOisvF93FcARc&amp;recommendedFlavor=HIDDEN_GEM&amp;refId=00e35387-eb72-4a56-a867-b37b9983c353&amp;trk=d_flagship3_job_details</t>
+  </si>
+  <si>
+    <t>https://www.hulu.com/jobs/positions/o0jx8fw8/apply</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>PM II</t>
+  </si>
+  <si>
+    <t>Long Beach, CA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/1001980821/?eBP=CwEAAAFnmHncP_cGOVOTxNlZ9aKVuUp5BdQbbXoefkQOebYWfg8eeBRNiw5TMe8AYgxNYnL5sBEzA8l9xf7zkeFp5keNekF0yP7LlmVD11Rdv8Gu3dJkLWMoPmYAi33zoZPZxfuofezVOTjfm4hVthswNG8bpY9yNGN_oK-vuR8mXTg3ti7WI3UXxL7zJ8LY8oEFOrJYgUSxRM2cBGInqSmp1DU7BmW8YcpXAow8vRGHl8Uk-csM0Y8ICn19osYymmoGOsV7qCKgMZXFX72Egi8tNLRmI97EMUNr6xNS2QgFc6BnU8hiPoSqNU7NDTbFwZnQ-jKU-_vfXY3632umsIspJxVa9Bv96wLyM8k&amp;recommendedFlavor=HIDDEN_GEM&amp;refId=5300d21a-02f9-42a7-b0ea-1b3251852d06&amp;trk=d_flagship3_job_details</t>
+  </si>
+  <si>
+    <t>https://sjobs.brassring.com/TGnewUI/Search/Home/Home?partnerid=11480&amp;siteid=5138#home</t>
+  </si>
+  <si>
+    <t>Unisys</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/969437153/?eBP=CwEAAAFnmI5h3tY3URog-ItSFKvQhClqwOhn_wi2GuS5M0-2FYOiEyiY64IvZiOtDduqtH_8GksWPIR07ezWicWwQ4QqLHUKF2dgrDbpNlCEE5nkwULRwKDvhbEH8wYB5JDTKlW_1JSWwr3uAvR2gFtVxfznLoIrYoO1OJURlMdpI-QMHiGMHZKT-dO7VoBBAlTDOk5zCWsT5kMBkOZyJNMmSfAWanwwcIJT9k2DcqPJ9-2GwyiQVSAgoORBlAoAotCoHWV6mEGHkSlu_d7n4NpibAlQmzUNdzXd33-A0Ir-XXL7PKjViUa38ik9_TV0k8u1cogjQzkqxbLpbZw8XX8N7pYgPpmxxF75SGvJJ0iygmp1tEER05ec1SwoKy3MfybT6FSLK5WJYQ&amp;recommendedFlavor=SCHOOL_RECRUIT&amp;refId=422fe8ac-cd67-4f12-bf18-982e402cb831&amp;trk=d_flagship3_job_details</t>
+  </si>
+  <si>
+    <t>Cloud Reach</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/1004273381/</t>
+  </si>
+  <si>
+    <t>**Brad Campbell**</t>
+  </si>
+  <si>
+    <t>Phy, Pennsylvania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarivate Analytics </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/962762719/</t>
+  </si>
+  <si>
+    <t>, PA</t>
+  </si>
+  <si>
+    <t>https://clarivate.wd3.myworkdayjobs.com/en-US/Clarivate_Careers/job/USA---Philadelphia-PA/Product-Manager--Platform-Services_JREQ103180?source=Linkedin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2137,23 +2322,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="J72" sqref="J72"/>
+      <selection pane="topRight" activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
@@ -2171,7 +2356,7 @@
     <col min="15" max="15" width="30.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2218,7 +2403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2251,7 +2436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="2"/>
       <c r="B3" s="4">
         <v>43385</v>
@@ -2278,7 +2463,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="45">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="6" t="s">
@@ -2305,7 +2490,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="6" t="s">
@@ -2328,7 +2513,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
@@ -2351,7 +2536,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="6" t="s">
@@ -2370,7 +2555,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="6" t="s">
@@ -2393,7 +2578,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="45">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="6" t="s">
@@ -2418,7 +2603,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="45">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="6" t="s">
@@ -2443,7 +2628,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
@@ -2466,7 +2651,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="6" t="s">
@@ -2489,7 +2674,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="6" t="s">
@@ -2512,7 +2697,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="2"/>
       <c r="B14" s="4">
         <v>43430</v>
@@ -2539,7 +2724,7 @@
       </c>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="2"/>
       <c r="B15" s="4">
         <v>43430</v>
@@ -2564,7 +2749,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="2"/>
       <c r="B16" s="4">
         <v>43430</v>
@@ -2589,7 +2774,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="2"/>
       <c r="B17" s="4">
         <v>43430</v>
@@ -2614,7 +2799,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="2"/>
       <c r="B18" s="4">
         <v>43430</v>
@@ -2639,7 +2824,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="60">
       <c r="A19" s="2"/>
       <c r="B19" s="4">
         <v>43430</v>
@@ -2666,7 +2851,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="6"/>
     </row>
-    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="30">
       <c r="A20" s="2"/>
       <c r="B20" s="4">
         <v>43430</v>
@@ -2697,7 +2882,7 @@
       </c>
       <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="45">
       <c r="A21" s="2"/>
       <c r="B21" s="4">
         <v>43430</v>
@@ -2728,7 +2913,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="2"/>
       <c r="B22" s="4">
         <v>43430</v>
@@ -2753,7 +2938,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="6"/>
     </row>
-    <row r="23" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="60">
       <c r="A23" s="2"/>
       <c r="B23" s="4">
         <v>43430</v>
@@ -2788,7 +2973,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="49.5" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="4">
         <v>43431</v>
@@ -2823,7 +3008,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="49.5" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="4">
         <v>43430</v>
@@ -2858,7 +3043,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="75">
       <c r="A26" s="2"/>
       <c r="B26" s="4">
         <v>43430</v>
@@ -2891,7 +3076,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="25" customFormat="1" ht="75">
       <c r="A27" s="22"/>
       <c r="B27" s="23">
         <v>43430</v>
@@ -2924,7 +3109,7 @@
       <c r="N27" s="22"/>
       <c r="O27" s="24"/>
     </row>
-    <row r="28" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="120">
       <c r="A28" s="2"/>
       <c r="B28" s="4">
         <v>43430</v>
@@ -2957,7 +3142,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="90">
       <c r="A29" s="2"/>
       <c r="B29" s="4">
         <v>43431</v>
@@ -2986,7 +3171,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="45">
       <c r="A30" s="2"/>
       <c r="B30" s="4">
         <v>43431</v>
@@ -3015,7 +3200,7 @@
       <c r="N30" s="3"/>
       <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="105">
       <c r="A31" s="2"/>
       <c r="B31" s="4">
         <v>43431</v>
@@ -3048,7 +3233,7 @@
       </c>
       <c r="O31" s="6"/>
     </row>
-    <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="30">
       <c r="A32" s="2"/>
       <c r="B32" s="4">
         <v>43431</v>
@@ -3083,7 +3268,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="45">
       <c r="A33" s="2"/>
       <c r="B33" s="4">
         <v>43431</v>
@@ -3110,7 +3295,7 @@
       <c r="N33" s="3"/>
       <c r="O33" s="6"/>
     </row>
-    <row r="34" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="75">
       <c r="A34" s="2"/>
       <c r="B34" s="4">
         <v>43431</v>
@@ -3139,7 +3324,7 @@
       <c r="N34" s="3"/>
       <c r="O34" s="6"/>
     </row>
-    <row r="35" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="75">
       <c r="A35" s="2"/>
       <c r="B35" s="4">
         <v>43431</v>
@@ -3170,7 +3355,7 @@
       <c r="N35" s="3"/>
       <c r="O35" s="6"/>
     </row>
-    <row r="36" spans="1:15" ht="255" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="255">
       <c r="A36" s="2"/>
       <c r="B36" s="4">
         <v>43431</v>
@@ -3207,7 +3392,7 @@
       </c>
       <c r="O36" s="6"/>
     </row>
-    <row r="37" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="60">
       <c r="A37" s="2"/>
       <c r="B37" s="4">
         <v>43432</v>
@@ -3238,7 +3423,7 @@
       <c r="N37" s="3"/>
       <c r="O37" s="6"/>
     </row>
-    <row r="38" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="60">
       <c r="A38" s="2"/>
       <c r="B38" s="4">
         <v>43432</v>
@@ -3267,7 +3452,7 @@
       <c r="N38" s="3"/>
       <c r="O38" s="6"/>
     </row>
-    <row r="39" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="60">
       <c r="A39" s="2"/>
       <c r="B39" s="4">
         <v>43432</v>
@@ -3296,7 +3481,7 @@
       <c r="N39" s="3"/>
       <c r="O39" s="6"/>
     </row>
-    <row r="40" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="60">
       <c r="A40" s="2"/>
       <c r="B40" s="4">
         <v>43432</v>
@@ -3325,7 +3510,7 @@
       <c r="N40" s="3"/>
       <c r="O40" s="6"/>
     </row>
-    <row r="41" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="135">
       <c r="A41" s="2"/>
       <c r="B41" s="4">
         <v>43432</v>
@@ -3360,7 +3545,7 @@
       </c>
       <c r="O41" s="6"/>
     </row>
-    <row r="42" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="60">
       <c r="A42" s="2"/>
       <c r="B42" s="4">
         <v>43432</v>
@@ -3391,7 +3576,7 @@
       <c r="N42" s="3"/>
       <c r="O42" s="6"/>
     </row>
-    <row r="43" spans="1:15" ht="60.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="60.75">
       <c r="A43" s="2"/>
       <c r="B43" s="4">
         <v>43432</v>
@@ -3424,7 +3609,7 @@
       <c r="N43" s="3"/>
       <c r="O43" s="6"/>
     </row>
-    <row r="44" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="60">
       <c r="A44" s="2"/>
       <c r="B44" s="4">
         <v>43432</v>
@@ -3453,7 +3638,7 @@
       <c r="N44" s="3"/>
       <c r="O44" s="6"/>
     </row>
-    <row r="45" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="75">
       <c r="A45" s="2"/>
       <c r="B45" s="4">
         <v>43432</v>
@@ -3482,7 +3667,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="6"/>
     </row>
-    <row r="46" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="45">
       <c r="A46" s="2"/>
       <c r="B46" s="4">
         <v>43432</v>
@@ -3519,7 +3704,7 @@
       </c>
       <c r="O46" s="6"/>
     </row>
-    <row r="47" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="51" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="4">
         <v>43433</v>
@@ -3556,7 +3741,7 @@
       </c>
       <c r="O47" s="6"/>
     </row>
-    <row r="48" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="30">
       <c r="A48" s="2"/>
       <c r="B48" s="4">
         <v>43433</v>
@@ -3587,7 +3772,7 @@
       <c r="N48" s="3"/>
       <c r="O48" s="6"/>
     </row>
-    <row r="49" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="30">
       <c r="A49" s="2"/>
       <c r="B49" s="4">
         <v>43433</v>
@@ -3618,7 +3803,7 @@
       <c r="N49" s="3"/>
       <c r="O49" s="6"/>
     </row>
-    <row r="50" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="30">
       <c r="A50" s="2"/>
       <c r="B50" s="4">
         <v>43433</v>
@@ -3649,7 +3834,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="6"/>
     </row>
-    <row r="51" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="30">
       <c r="A51" s="2"/>
       <c r="B51" s="4">
         <v>43433</v>
@@ -3678,7 +3863,7 @@
       <c r="N51" s="3"/>
       <c r="O51" s="6"/>
     </row>
-    <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="30">
       <c r="A52" s="2"/>
       <c r="B52" s="4">
         <v>43433</v>
@@ -3707,7 +3892,7 @@
       <c r="N52" s="3"/>
       <c r="O52" s="6"/>
     </row>
-    <row r="53" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="45">
       <c r="A53" s="2"/>
       <c r="B53" s="4">
         <v>43433</v>
@@ -3736,7 +3921,7 @@
       <c r="N53" s="3"/>
       <c r="O53" s="6"/>
     </row>
-    <row r="54" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="90">
       <c r="A54" s="2"/>
       <c r="B54" s="4">
         <v>43433</v>
@@ -3769,7 +3954,7 @@
       </c>
       <c r="O54" s="6"/>
     </row>
-    <row r="55" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="90">
       <c r="A55" s="2"/>
       <c r="B55" s="4">
         <v>43434</v>
@@ -3804,7 +3989,7 @@
       </c>
       <c r="O55" s="6"/>
     </row>
-    <row r="56" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="60">
       <c r="A56" s="2"/>
       <c r="B56" s="4">
         <v>43434</v>
@@ -3833,7 +4018,7 @@
       <c r="N56" s="3"/>
       <c r="O56" s="6"/>
     </row>
-    <row r="57" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="42.75" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" s="4">
         <v>43434</v>
@@ -3868,7 +4053,7 @@
       </c>
       <c r="O57" s="6"/>
     </row>
-    <row r="58" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="60">
       <c r="A58" s="2"/>
       <c r="B58" s="4">
         <v>43434</v>
@@ -3897,7 +4082,7 @@
       <c r="N58" s="3"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="42" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="4">
         <v>43434</v>
@@ -3926,7 +4111,7 @@
       <c r="N59" s="3"/>
       <c r="O59" s="6"/>
     </row>
-    <row r="60" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="60">
       <c r="A60" s="2"/>
       <c r="B60" s="4">
         <v>43434</v>
@@ -3955,7 +4140,7 @@
       <c r="N60" s="3"/>
       <c r="O60" s="6"/>
     </row>
-    <row r="61" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="60">
       <c r="A61" s="2"/>
       <c r="B61" s="4">
         <v>43434</v>
@@ -3986,7 +4171,7 @@
       <c r="N61" s="3"/>
       <c r="O61" s="6"/>
     </row>
-    <row r="62" spans="1:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="43.5" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" s="28">
         <v>43434</v>
@@ -4021,7 +4206,7 @@
       </c>
       <c r="O62" s="6"/>
     </row>
-    <row r="63" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="75">
       <c r="A63" s="2"/>
       <c r="B63" s="4">
         <v>43434</v>
@@ -4050,7 +4235,7 @@
       <c r="N63" s="3"/>
       <c r="O63" s="6"/>
     </row>
-    <row r="64" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="51" customHeight="1">
       <c r="A64" s="2"/>
       <c r="B64" s="4">
         <v>43434</v>
@@ -4077,7 +4262,7 @@
       <c r="N64" s="3"/>
       <c r="O64" s="6"/>
     </row>
-    <row r="65" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="51" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="4">
         <v>43434</v>
@@ -4108,7 +4293,7 @@
       <c r="N65" s="3"/>
       <c r="O65" s="6"/>
     </row>
-    <row r="66" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="30">
       <c r="A66" s="2"/>
       <c r="B66" s="4">
         <v>43434</v>
@@ -4137,7 +4322,7 @@
       <c r="N66" s="3"/>
       <c r="O66" s="6"/>
     </row>
-    <row r="67" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="40.5" customHeight="1">
       <c r="A67" s="2"/>
       <c r="B67" s="4">
         <v>43434</v>
@@ -4172,7 +4357,7 @@
       </c>
       <c r="O67" s="6"/>
     </row>
-    <row r="68" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="75">
       <c r="A68" s="2"/>
       <c r="B68" s="28">
         <v>43441</v>
@@ -4209,7 +4394,7 @@
       </c>
       <c r="O68" s="6"/>
     </row>
-    <row r="69" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="45">
       <c r="A69" s="2"/>
       <c r="B69" s="4">
         <v>43441</v>
@@ -4242,7 +4427,7 @@
       <c r="N69" s="3"/>
       <c r="O69" s="6"/>
     </row>
-    <row r="70" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="45">
       <c r="A70" s="2"/>
       <c r="B70" s="4">
         <v>43441</v>
@@ -4275,7 +4460,7 @@
       <c r="N70" s="3"/>
       <c r="O70" s="6"/>
     </row>
-    <row r="71" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="45.75" customHeight="1">
       <c r="A71" s="2"/>
       <c r="B71" s="28">
         <v>43441</v>
@@ -4310,7 +4495,7 @@
       </c>
       <c r="O71" s="6"/>
     </row>
-    <row r="72" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="60">
       <c r="A72" s="2"/>
       <c r="B72" s="4">
         <v>43441</v>
@@ -4347,7 +4532,7 @@
       </c>
       <c r="O72" s="6"/>
     </row>
-    <row r="73" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="45">
       <c r="A73" s="2"/>
       <c r="B73" s="4">
         <v>43441</v>
@@ -4378,7 +4563,7 @@
       <c r="N73" s="3"/>
       <c r="O73" s="6"/>
     </row>
-    <row r="74" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="45">
       <c r="A74" s="2"/>
       <c r="B74" s="4">
         <v>43441</v>
@@ -4407,7 +4592,7 @@
       <c r="N74" s="3"/>
       <c r="O74" s="6"/>
     </row>
-    <row r="75" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="48" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="4">
         <v>43441</v>
@@ -4438,7 +4623,7 @@
       <c r="N75" s="3"/>
       <c r="O75" s="6"/>
     </row>
-    <row r="76" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="41.25" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="4">
         <v>43441</v>
@@ -4469,7 +4654,7 @@
       <c r="N76" s="3"/>
       <c r="O76" s="6"/>
     </row>
-    <row r="77" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="30">
       <c r="A77" s="2"/>
       <c r="B77" s="4">
         <v>43441</v>
@@ -4500,7 +4685,7 @@
       <c r="N77" s="3"/>
       <c r="O77" s="6"/>
     </row>
-    <row r="78" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="45">
       <c r="A78" s="2"/>
       <c r="B78" s="4">
         <v>43441</v>
@@ -4531,7 +4716,7 @@
       <c r="N78" s="3"/>
       <c r="O78" s="6"/>
     </row>
-    <row r="79" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="54" customHeight="1">
       <c r="A79" s="2"/>
       <c r="B79" s="4">
         <v>43441</v>
@@ -4562,283 +4747,527 @@
       <c r="N79" s="3"/>
       <c r="O79" s="6"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="42" customHeight="1">
       <c r="A80" s="2"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="2"/>
+      <c r="B80" s="4">
+        <v>43444</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="3"/>
+      <c r="J80" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>290</v>
+      </c>
       <c r="O80" s="6"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="45">
       <c r="A81" s="2"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="2"/>
+      <c r="B81" s="4">
+        <v>43444</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
+      <c r="J81" s="2" t="s">
+        <v>528</v>
+      </c>
       <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="3"/>
+      <c r="L81" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>290</v>
+      </c>
       <c r="O81" s="6"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="48" customHeight="1">
       <c r="A82" s="2"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="2"/>
+      <c r="B82" s="4">
+        <v>43444</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="3"/>
+      <c r="J82" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N82" s="3" t="s">
+        <v>290</v>
+      </c>
       <c r="O82" s="6"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="38.25" customHeight="1">
       <c r="A83" s="2"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
+      <c r="B83" s="4">
+        <v>43444</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="E83" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="F83" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>536</v>
+      </c>
       <c r="M83" s="2"/>
       <c r="N83" s="3"/>
       <c r="O83" s="6"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="45">
       <c r="A84" s="2"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="6"/>
+      <c r="B84" s="4">
+        <v>43444</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="F84" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>538</v>
+      </c>
       <c r="L84" s="6"/>
       <c r="M84" s="2"/>
       <c r="N84" s="3"/>
       <c r="O84" s="6"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="46.5" customHeight="1">
       <c r="A85" s="2"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="2"/>
+      <c r="B85" s="4">
+        <v>43444</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="3"/>
+      <c r="J85" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="L85" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N85" s="3" t="s">
+        <v>272</v>
+      </c>
       <c r="O85" s="6"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="45">
       <c r="A86" s="2"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="2"/>
+      <c r="B86" s="4">
+        <v>43444</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
+      <c r="K86" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="L86" s="8" t="s">
+        <v>547</v>
+      </c>
       <c r="M86" s="2"/>
       <c r="N86" s="3"/>
       <c r="O86" s="6"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="45">
       <c r="A87" s="2"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="2"/>
+      <c r="B87" s="4">
+        <v>43444</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="6"/>
+      <c r="J87" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>550</v>
+      </c>
       <c r="L87" s="6"/>
       <c r="M87" s="2"/>
       <c r="N87" s="3"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="45">
       <c r="A88" s="2"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="2"/>
+      <c r="B88" s="4">
+        <v>43444</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
+      <c r="J88" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>555</v>
+      </c>
       <c r="M88" s="2"/>
       <c r="N88" s="3"/>
       <c r="O88" s="6"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="30">
       <c r="A89" s="2"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="2"/>
+      <c r="B89" s="4">
+        <v>43444</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
-      <c r="K89" s="6"/>
+      <c r="K89" s="6" t="s">
+        <v>559</v>
+      </c>
       <c r="L89" s="6"/>
       <c r="M89" s="2"/>
       <c r="N89" s="3"/>
       <c r="O89" s="6"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="30">
       <c r="A90" s="2"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="2"/>
+      <c r="B90" s="4">
+        <v>43444</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
-      <c r="K90" s="6"/>
+      <c r="K90" s="6" t="s">
+        <v>560</v>
+      </c>
       <c r="L90" s="6"/>
       <c r="M90" s="2"/>
       <c r="N90" s="3"/>
       <c r="O90" s="6"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="44.25" customHeight="1">
       <c r="A91" s="2"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="2"/>
+      <c r="B91" s="4">
+        <v>43444</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
+      <c r="K91" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>565</v>
+      </c>
       <c r="M91" s="2"/>
       <c r="N91" s="3"/>
       <c r="O91" s="6"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="63" customHeight="1">
       <c r="A92" s="2"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="2"/>
+      <c r="B92" s="4">
+        <v>43444</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="3"/>
+      <c r="K92" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>272</v>
+      </c>
       <c r="O92" s="6"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="30">
       <c r="A93" s="2"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="6"/>
+      <c r="B93" s="4">
+        <v>43444</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>571</v>
+      </c>
       <c r="D93" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="E93" s="6"/>
-      <c r="F93" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
-      <c r="K93" s="6"/>
+      <c r="K93" s="6" t="s">
+        <v>573</v>
+      </c>
       <c r="L93" s="6"/>
       <c r="M93" s="2"/>
       <c r="N93" s="3"/>
       <c r="O93" s="6"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="45">
       <c r="A94" s="2"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="6"/>
+      <c r="B94" s="4">
+        <v>43444</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="D94" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="E94" s="6"/>
-      <c r="F94" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="6"/>
+      <c r="J94" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>575</v>
+      </c>
       <c r="L94" s="6"/>
       <c r="M94" s="2"/>
       <c r="N94" s="3"/>
       <c r="O94" s="6"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="30">
       <c r="A95" s="2"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="2"/>
+      <c r="B95" s="4">
+        <v>43444</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>581</v>
+      </c>
       <c r="M95" s="2"/>
       <c r="N95" s="3"/>
       <c r="O95" s="6"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15">
       <c r="A96" s="2"/>
       <c r="B96" s="4"/>
       <c r="C96" s="6"/>
@@ -4855,7 +5284,7 @@
       <c r="N96" s="3"/>
       <c r="O96" s="6"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15">
       <c r="A97" s="2"/>
       <c r="B97" s="4"/>
       <c r="C97" s="6"/>
@@ -4872,7 +5301,7 @@
       <c r="N97" s="3"/>
       <c r="O97" s="6"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15">
       <c r="A98" s="2"/>
       <c r="B98" s="4"/>
       <c r="C98" s="6"/>
@@ -4889,7 +5318,7 @@
       <c r="N98" s="3"/>
       <c r="O98" s="6"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15">
       <c r="A99" s="2"/>
       <c r="B99" s="4"/>
       <c r="C99" s="6"/>
@@ -4906,7 +5335,7 @@
       <c r="N99" s="3"/>
       <c r="O99" s="6"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15">
       <c r="A100" s="2"/>
       <c r="B100" s="4"/>
       <c r="C100" s="6"/>
@@ -4923,7 +5352,7 @@
       <c r="N100" s="3"/>
       <c r="O100" s="6"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15">
       <c r="A101" s="2"/>
       <c r="B101" s="4"/>
       <c r="C101" s="6"/>
@@ -4940,7 +5369,7 @@
       <c r="N101" s="3"/>
       <c r="O101" s="6"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15">
       <c r="A102" s="2"/>
       <c r="B102" s="4"/>
       <c r="C102" s="6"/>
@@ -4957,7 +5386,7 @@
       <c r="N102" s="3"/>
       <c r="O102" s="6"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15">
       <c r="A103" s="2"/>
       <c r="B103" s="4"/>
       <c r="C103" s="6"/>
@@ -4974,7 +5403,7 @@
       <c r="N103" s="3"/>
       <c r="O103" s="6"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15">
       <c r="A104" s="2"/>
       <c r="B104" s="4"/>
       <c r="C104" s="6"/>
@@ -4991,7 +5420,7 @@
       <c r="N104" s="3"/>
       <c r="O104" s="6"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15">
       <c r="A105" s="2"/>
       <c r="B105" s="4"/>
       <c r="C105" s="6"/>
@@ -5008,7 +5437,7 @@
       <c r="N105" s="3"/>
       <c r="O105" s="6"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15">
       <c r="A106" s="2"/>
       <c r="B106" s="4"/>
       <c r="C106" s="6"/>
@@ -5025,7 +5454,7 @@
       <c r="N106" s="3"/>
       <c r="O106" s="6"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15">
       <c r="A107" s="2"/>
       <c r="B107" s="4"/>
       <c r="C107" s="6"/>
@@ -5042,7 +5471,7 @@
       <c r="N107" s="3"/>
       <c r="O107" s="6"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15">
       <c r="A108" s="2"/>
       <c r="B108" s="4"/>
       <c r="C108" s="6"/>
@@ -5059,7 +5488,7 @@
       <c r="N108" s="3"/>
       <c r="O108" s="6"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15">
       <c r="A109" s="2"/>
       <c r="B109" s="4"/>
       <c r="C109" s="6"/>
@@ -5076,7 +5505,7 @@
       <c r="N109" s="3"/>
       <c r="O109" s="6"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15">
       <c r="A110" s="2"/>
       <c r="B110" s="4"/>
       <c r="C110" s="6"/>
@@ -5093,7 +5522,7 @@
       <c r="N110" s="3"/>
       <c r="O110" s="6"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15">
       <c r="A111" s="2"/>
       <c r="B111" s="4"/>
       <c r="C111" s="6"/>
@@ -5110,7 +5539,7 @@
       <c r="N111" s="3"/>
       <c r="O111" s="6"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15">
       <c r="A112" s="2"/>
       <c r="B112" s="4"/>
       <c r="C112" s="6"/>
@@ -5127,7 +5556,7 @@
       <c r="N112" s="3"/>
       <c r="O112" s="6"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15">
       <c r="A113" s="2"/>
       <c r="B113" s="4"/>
       <c r="C113" s="6"/>
@@ -5144,7 +5573,7 @@
       <c r="N113" s="3"/>
       <c r="O113" s="6"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15">
       <c r="A114" s="2"/>
       <c r="B114" s="4"/>
       <c r="C114" s="6"/>
@@ -5161,7 +5590,7 @@
       <c r="N114" s="3"/>
       <c r="O114" s="6"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15">
       <c r="A115" s="2"/>
       <c r="B115" s="4"/>
       <c r="C115" s="6"/>
@@ -5178,7 +5607,7 @@
       <c r="N115" s="3"/>
       <c r="O115" s="6"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15">
       <c r="A116" s="2"/>
       <c r="B116" s="4"/>
       <c r="C116" s="6"/>
@@ -5195,7 +5624,7 @@
       <c r="N116" s="3"/>
       <c r="O116" s="6"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15">
       <c r="A117" s="2"/>
       <c r="B117" s="4"/>
       <c r="C117" s="6"/>
@@ -5212,7 +5641,7 @@
       <c r="N117" s="3"/>
       <c r="O117" s="6"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15">
       <c r="A118" s="2"/>
       <c r="B118" s="4"/>
       <c r="C118" s="6"/>
@@ -5229,7 +5658,7 @@
       <c r="N118" s="3"/>
       <c r="O118" s="6"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15">
       <c r="A119" s="2"/>
       <c r="B119" s="4"/>
       <c r="C119" s="6"/>
@@ -5246,80 +5675,805 @@
       <c r="N119" s="3"/>
       <c r="O119" s="6"/>
     </row>
+    <row r="120" spans="1:15">
+      <c r="A120" s="2"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="6"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="3"/>
+      <c r="O120" s="6"/>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" s="2"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="6"/>
+      <c r="L121" s="6"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="6"/>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" s="2"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="6"/>
+      <c r="L122" s="6"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="3"/>
+      <c r="O122" s="6"/>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" s="2"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="6"/>
+      <c r="L123" s="6"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="3"/>
+      <c r="O123" s="6"/>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" s="2"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="6"/>
+      <c r="L124" s="6"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="3"/>
+      <c r="O124" s="6"/>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" s="2"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="6"/>
+      <c r="L125" s="6"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="3"/>
+      <c r="O125" s="6"/>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" s="2"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="6"/>
+      <c r="L126" s="6"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="3"/>
+      <c r="O126" s="6"/>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="2"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="6"/>
+      <c r="L127" s="6"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="3"/>
+      <c r="O127" s="6"/>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" s="2"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="6"/>
+      <c r="L128" s="6"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="3"/>
+      <c r="O128" s="6"/>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" s="2"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="6"/>
+      <c r="L129" s="6"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="3"/>
+      <c r="O129" s="6"/>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" s="2"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="6"/>
+      <c r="L130" s="6"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="3"/>
+      <c r="O130" s="6"/>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" s="2"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="6"/>
+      <c r="L131" s="6"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="3"/>
+      <c r="O131" s="6"/>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" s="2"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="6"/>
+      <c r="L132" s="6"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="3"/>
+      <c r="O132" s="6"/>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" s="2"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="6"/>
+      <c r="L133" s="6"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="3"/>
+      <c r="O133" s="6"/>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" s="2"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="6"/>
+      <c r="L134" s="6"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="3"/>
+      <c r="O134" s="6"/>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" s="2"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E135" s="6"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="6"/>
+      <c r="L135" s="6"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="3"/>
+      <c r="O135" s="6"/>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" s="2"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E136" s="6"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="6"/>
+      <c r="L136" s="6"/>
+      <c r="M136" s="2"/>
+      <c r="N136" s="3"/>
+      <c r="O136" s="6"/>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" s="2"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="6"/>
+      <c r="L137" s="6"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="3"/>
+      <c r="O137" s="6"/>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" s="2"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="6"/>
+      <c r="L138" s="6"/>
+      <c r="M138" s="2"/>
+      <c r="N138" s="3"/>
+      <c r="O138" s="6"/>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" s="2"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="6"/>
+      <c r="L139" s="6"/>
+      <c r="M139" s="2"/>
+      <c r="N139" s="3"/>
+      <c r="O139" s="6"/>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140" s="2"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="6"/>
+      <c r="L140" s="6"/>
+      <c r="M140" s="2"/>
+      <c r="N140" s="3"/>
+      <c r="O140" s="6"/>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141" s="2"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="6"/>
+      <c r="L141" s="6"/>
+      <c r="M141" s="2"/>
+      <c r="N141" s="3"/>
+      <c r="O141" s="6"/>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142" s="2"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="6"/>
+      <c r="L142" s="6"/>
+      <c r="M142" s="2"/>
+      <c r="N142" s="3"/>
+      <c r="O142" s="6"/>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143" s="2"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="6"/>
+      <c r="L143" s="6"/>
+      <c r="M143" s="2"/>
+      <c r="N143" s="3"/>
+      <c r="O143" s="6"/>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" s="2"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="6"/>
+      <c r="L144" s="6"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="3"/>
+      <c r="O144" s="6"/>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="A145" s="2"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="6"/>
+      <c r="L145" s="6"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="3"/>
+      <c r="O145" s="6"/>
+    </row>
+    <row r="146" spans="1:15">
+      <c r="A146" s="2"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="6"/>
+      <c r="L146" s="6"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="3"/>
+      <c r="O146" s="6"/>
+    </row>
+    <row r="147" spans="1:15">
+      <c r="A147" s="2"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="6"/>
+      <c r="L147" s="6"/>
+      <c r="M147" s="2"/>
+      <c r="N147" s="3"/>
+      <c r="O147" s="6"/>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="A148" s="2"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="6"/>
+      <c r="L148" s="6"/>
+      <c r="M148" s="2"/>
+      <c r="N148" s="3"/>
+      <c r="O148" s="6"/>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149" s="2"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="6"/>
+      <c r="L149" s="6"/>
+      <c r="M149" s="2"/>
+      <c r="N149" s="3"/>
+      <c r="O149" s="6"/>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="A150" s="2"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="6"/>
+      <c r="L150" s="6"/>
+      <c r="M150" s="2"/>
+      <c r="N150" s="3"/>
+      <c r="O150" s="6"/>
+    </row>
+    <row r="151" spans="1:15">
+      <c r="A151" s="2"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="6"/>
+      <c r="L151" s="6"/>
+      <c r="M151" s="2"/>
+      <c r="N151" s="3"/>
+      <c r="O151" s="6"/>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="A152" s="2"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="6"/>
+      <c r="L152" s="6"/>
+      <c r="M152" s="2"/>
+      <c r="N152" s="3"/>
+      <c r="O152" s="6"/>
+    </row>
+    <row r="153" spans="1:15">
+      <c r="A153" s="2"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
+      <c r="K153" s="6"/>
+      <c r="L153" s="6"/>
+      <c r="M153" s="2"/>
+      <c r="N153" s="3"/>
+      <c r="O153" s="6"/>
+    </row>
+    <row r="154" spans="1:15">
+      <c r="A154" s="2"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="6"/>
+      <c r="L154" s="6"/>
+      <c r="M154" s="2"/>
+      <c r="N154" s="3"/>
+      <c r="O154" s="6"/>
+    </row>
+    <row r="155" spans="1:15">
+      <c r="A155" s="2"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="6"/>
+      <c r="L155" s="6"/>
+      <c r="M155" s="2"/>
+      <c r="N155" s="3"/>
+      <c r="O155" s="6"/>
+    </row>
+    <row r="156" spans="1:15">
+      <c r="A156" s="2"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
+      <c r="K156" s="6"/>
+      <c r="L156" s="6"/>
+      <c r="M156" s="2"/>
+      <c r="N156" s="3"/>
+      <c r="O156" s="6"/>
+    </row>
+    <row r="157" spans="1:15">
+      <c r="A157" s="2"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
+      <c r="K157" s="6"/>
+      <c r="L157" s="6"/>
+      <c r="M157" s="2"/>
+      <c r="N157" s="3"/>
+      <c r="O157" s="6"/>
+    </row>
+    <row r="158" spans="1:15">
+      <c r="A158" s="2"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="6"/>
+      <c r="L158" s="6"/>
+      <c r="M158" s="2"/>
+      <c r="N158" s="3"/>
+      <c r="O158" s="6"/>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="A159" s="2"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="6"/>
+      <c r="L159" s="6"/>
+      <c r="M159" s="2"/>
+      <c r="N159" s="3"/>
+      <c r="O159" s="6"/>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="A160" s="2"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2"/>
+      <c r="K160" s="6"/>
+      <c r="L160" s="6"/>
+      <c r="M160" s="2"/>
+      <c r="N160" s="3"/>
+      <c r="O160" s="6"/>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="A161" s="2"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+      <c r="J161" s="2"/>
+      <c r="K161" s="6"/>
+      <c r="L161" s="6"/>
+      <c r="M161" s="2"/>
+      <c r="N161" s="3"/>
+      <c r="O161" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C119" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="C1:C161"/>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="N2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J4" r:id="rId3" tooltip="View this job description" display="https://autodesk.taleo.net/careersection/careersection/candidateacquisition/flow.jsf" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="L9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="M14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="N14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="N20" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="N21" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="M21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="N23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="M23" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="N25" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="N28" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="L28" r:id="rId14" display="https://career8.successfactors.com/portalcareer?_s.crb=kNBYkSysisIRZTdxfVciJ8DJuxM%253d" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="N31" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="M32" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="N32" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="N24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="L26" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="M36" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="N36" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="M41" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="N41" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="K41" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="L41" display="https://garmin.taleo.net/careersection/iam/accessmanagement/login.jsf?redirectionURI=https%3A%2F%2Fgarmin.taleo.net%2Fcareersection%2F2012_garmin_exp_tech%2Fjobsearch.ftl%3Fftlcompclass%3DLoginComponent&amp;TARGET=https%3A%2F%2Fgarmin.taleo.net%2Fcareersectio" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="M46" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="N46" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="M47" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="N47" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="L50" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="L51" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="M54" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="N54" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="M55" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="N55" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="M57" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="N57" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="M62" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="N62" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="L62" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="M67" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="N67" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="M71" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="N71" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="M72" r:id="rId44" display="sarath.sund@gmail.com" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="N72" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="L71" r:id="rId46" location="jobDetails=410516_5185" xr:uid="{6DA754AB-8E1A-404C-A18E-1675FF87B213}"/>
-    <hyperlink ref="L68" r:id="rId47" xr:uid="{4DCC1BC6-DA4A-44A5-A237-9DE01F1647C3}"/>
-    <hyperlink ref="M68" r:id="rId48" xr:uid="{D18D236A-14AD-436B-B1C2-FE8611B9E569}"/>
-    <hyperlink ref="N68" r:id="rId49" xr:uid="{D3A739E5-9A28-4728-B37E-624F5E59207E}"/>
+    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="N2" r:id="rId2"/>
+    <hyperlink ref="J4" r:id="rId3" tooltip="View this job description" display="https://autodesk.taleo.net/careersection/careersection/candidateacquisition/flow.jsf"/>
+    <hyperlink ref="L9" r:id="rId4"/>
+    <hyperlink ref="M14" r:id="rId5"/>
+    <hyperlink ref="N14" r:id="rId6"/>
+    <hyperlink ref="N20" r:id="rId7"/>
+    <hyperlink ref="N21" r:id="rId8"/>
+    <hyperlink ref="M21" r:id="rId9"/>
+    <hyperlink ref="N23" r:id="rId10"/>
+    <hyperlink ref="M23" r:id="rId11"/>
+    <hyperlink ref="N25" r:id="rId12"/>
+    <hyperlink ref="N28" r:id="rId13"/>
+    <hyperlink ref="L28" r:id="rId14" display="https://career8.successfactors.com/portalcareer?_s.crb=kNBYkSysisIRZTdxfVciJ8DJuxM%253d"/>
+    <hyperlink ref="N31" r:id="rId15"/>
+    <hyperlink ref="M32" r:id="rId16"/>
+    <hyperlink ref="N32" r:id="rId17"/>
+    <hyperlink ref="N24" r:id="rId18"/>
+    <hyperlink ref="L26" r:id="rId19"/>
+    <hyperlink ref="M36" r:id="rId20"/>
+    <hyperlink ref="N36" r:id="rId21"/>
+    <hyperlink ref="M41" r:id="rId22"/>
+    <hyperlink ref="N41" r:id="rId23"/>
+    <hyperlink ref="K41" r:id="rId24"/>
+    <hyperlink ref="L41" display="https://garmin.taleo.net/careersection/iam/accessmanagement/login.jsf?redirectionURI=https%3A%2F%2Fgarmin.taleo.net%2Fcareersection%2F2012_garmin_exp_tech%2Fjobsearch.ftl%3Fftlcompclass%3DLoginComponent&amp;TARGET=https%3A%2F%2Fgarmin.taleo.net%2Fcareersectio"/>
+    <hyperlink ref="M46" r:id="rId25"/>
+    <hyperlink ref="N46" r:id="rId26"/>
+    <hyperlink ref="M47" r:id="rId27"/>
+    <hyperlink ref="N47" r:id="rId28"/>
+    <hyperlink ref="L50" r:id="rId29"/>
+    <hyperlink ref="L51" r:id="rId30"/>
+    <hyperlink ref="M54" r:id="rId31"/>
+    <hyperlink ref="N54" r:id="rId32"/>
+    <hyperlink ref="M55" r:id="rId33"/>
+    <hyperlink ref="N55" r:id="rId34"/>
+    <hyperlink ref="M57" r:id="rId35"/>
+    <hyperlink ref="N57" r:id="rId36"/>
+    <hyperlink ref="M62" r:id="rId37"/>
+    <hyperlink ref="N62" r:id="rId38"/>
+    <hyperlink ref="L62" r:id="rId39"/>
+    <hyperlink ref="M67" r:id="rId40"/>
+    <hyperlink ref="N67" r:id="rId41"/>
+    <hyperlink ref="M71" r:id="rId42"/>
+    <hyperlink ref="N71" r:id="rId43"/>
+    <hyperlink ref="M72" r:id="rId44" display="sarath.sund@gmail.com"/>
+    <hyperlink ref="N72" r:id="rId45"/>
+    <hyperlink ref="L71" r:id="rId46" location="jobDetails=410516_5185"/>
+    <hyperlink ref="L68" r:id="rId47"/>
+    <hyperlink ref="M68" r:id="rId48"/>
+    <hyperlink ref="N68" r:id="rId49"/>
+    <hyperlink ref="N80" r:id="rId50"/>
+    <hyperlink ref="N81" r:id="rId51"/>
+    <hyperlink ref="N82" r:id="rId52"/>
+    <hyperlink ref="N85" r:id="rId53"/>
+    <hyperlink ref="L86" r:id="rId54"/>
+    <hyperlink ref="M92" r:id="rId55"/>
+    <hyperlink ref="N92" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId50"/>
+  <pageSetup orientation="portrait" r:id="rId57"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:6">
       <c r="E3" s="9" t="s">
         <v>60</v>
       </c>
@@ -5327,7 +6481,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:6">
       <c r="D4">
         <v>1</v>
       </c>
@@ -5338,7 +6492,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:6">
       <c r="D5">
         <v>2</v>
       </c>
@@ -5349,7 +6503,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:6">
       <c r="D6">
         <v>3</v>
       </c>
@@ -5360,7 +6514,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:6">
       <c r="D7">
         <v>4</v>
       </c>
@@ -5368,7 +6522,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:6">
       <c r="D8">
         <v>5</v>
       </c>
@@ -5376,7 +6530,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:6">
       <c r="D9">
         <v>6</v>
       </c>
@@ -5384,7 +6538,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:6">
       <c r="D10">
         <v>7</v>
       </c>
@@ -5392,7 +6546,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:6">
       <c r="D11">
         <v>8</v>
       </c>
@@ -5400,7 +6554,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:6">
       <c r="D12">
         <v>9</v>
       </c>
@@ -5408,7 +6562,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:6">
       <c r="D13">
         <v>10</v>
       </c>
@@ -5416,7 +6570,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:6">
       <c r="D14">
         <v>11</v>
       </c>
@@ -5424,7 +6578,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:6">
       <c r="D15">
         <v>12</v>
       </c>
@@ -5432,7 +6586,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:6">
       <c r="D16">
         <v>13</v>
       </c>
@@ -5440,7 +6594,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5">
       <c r="D17">
         <v>14</v>
       </c>
@@ -5448,7 +6602,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:5">
       <c r="D18">
         <v>15</v>
       </c>
@@ -5456,7 +6610,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:5">
       <c r="D19">
         <v>16</v>
       </c>
@@ -5464,7 +6618,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:5">
       <c r="D20">
         <v>17</v>
       </c>
@@ -5472,7 +6626,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:5">
       <c r="D21">
         <v>18</v>
       </c>
@@ -5480,7 +6634,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:5">
       <c r="D22">
         <v>19</v>
       </c>
@@ -5495,19 +6649,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:G86"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="7" width="48.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="5:7" ht="15.75" thickBot="1">
       <c r="E1" s="10" t="s">
         <v>0</v>
       </c>
@@ -5518,7 +6672,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="5:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="5:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="E2">
         <v>1</v>
       </c>
@@ -5529,7 +6683,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:7" ht="15.75" thickBot="1">
       <c r="E3">
         <v>2</v>
       </c>
@@ -5540,7 +6694,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:7" ht="15.75" thickBot="1">
       <c r="E4">
         <v>3</v>
       </c>
@@ -5551,7 +6705,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:7" ht="15.75" thickBot="1">
       <c r="E5">
         <v>4</v>
       </c>
@@ -5562,7 +6716,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:7" ht="15.75" thickBot="1">
       <c r="E6">
         <v>5</v>
       </c>
@@ -5573,7 +6727,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:7" ht="15.75" thickBot="1">
       <c r="E7">
         <v>6</v>
       </c>
@@ -5584,7 +6738,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:7" ht="15.75" thickBot="1">
       <c r="E8">
         <v>7</v>
       </c>
@@ -5595,7 +6749,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:7" ht="15.75" thickBot="1">
       <c r="E9">
         <v>8</v>
       </c>
@@ -5606,7 +6760,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:7" ht="15.75" thickBot="1">
       <c r="E10">
         <v>9</v>
       </c>
@@ -5617,7 +6771,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:7" ht="15.75" thickBot="1">
       <c r="E11">
         <v>10</v>
       </c>
@@ -5628,7 +6782,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:7" ht="15.75" thickBot="1">
       <c r="E12">
         <v>11</v>
       </c>
@@ -5639,7 +6793,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:7" ht="15.75" thickBot="1">
       <c r="E13">
         <v>12</v>
       </c>
@@ -5650,7 +6804,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:7" ht="15.75" thickBot="1">
       <c r="E14">
         <v>13</v>
       </c>
@@ -5661,7 +6815,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:7" ht="15.75" thickBot="1">
       <c r="E15">
         <v>14</v>
       </c>
@@ -5672,7 +6826,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:7" ht="15.75" thickBot="1">
       <c r="E16">
         <v>15</v>
       </c>
@@ -5683,7 +6837,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:7" ht="15.75" thickBot="1">
       <c r="E17">
         <v>16</v>
       </c>
@@ -5694,7 +6848,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:7" ht="15.75" thickBot="1">
       <c r="E18">
         <v>17</v>
       </c>
@@ -5705,7 +6859,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:7" ht="15.75" thickBot="1">
       <c r="E19">
         <v>18</v>
       </c>
@@ -5716,7 +6870,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:7" ht="15.75" thickBot="1">
       <c r="E20">
         <v>19</v>
       </c>
@@ -5727,7 +6881,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:7" ht="15.75" thickBot="1">
       <c r="E21">
         <v>20</v>
       </c>
@@ -5738,7 +6892,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:7" ht="15.75" thickBot="1">
       <c r="E22">
         <v>21</v>
       </c>
@@ -5749,7 +6903,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:7" ht="15.75" thickBot="1">
       <c r="E23">
         <v>22</v>
       </c>
@@ -5760,7 +6914,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:7" ht="15.75" thickBot="1">
       <c r="E24">
         <v>23</v>
       </c>
@@ -5771,7 +6925,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:7" ht="15.75" thickBot="1">
       <c r="E25">
         <v>24</v>
       </c>
@@ -5782,7 +6936,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:7" ht="15.75" thickBot="1">
       <c r="E26">
         <v>25</v>
       </c>
@@ -5793,7 +6947,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:7" ht="15.75" thickBot="1">
       <c r="E27">
         <v>26</v>
       </c>
@@ -5804,7 +6958,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:7" ht="15.75" thickBot="1">
       <c r="E28">
         <v>27</v>
       </c>
@@ -5815,7 +6969,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:7" ht="15.75" thickBot="1">
       <c r="E29">
         <v>28</v>
       </c>
@@ -5826,7 +6980,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:7" ht="15.75" thickBot="1">
       <c r="E30">
         <v>29</v>
       </c>
@@ -5837,7 +6991,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:7" ht="15.75" thickBot="1">
       <c r="E31">
         <v>30</v>
       </c>
@@ -5848,7 +7002,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:7" ht="15.75" thickBot="1">
       <c r="E32">
         <v>31</v>
       </c>
@@ -5859,7 +7013,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:7" ht="15.75" thickBot="1">
       <c r="E33">
         <v>32</v>
       </c>
@@ -5870,7 +7024,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:7" ht="15.75" thickBot="1">
       <c r="E34">
         <v>33</v>
       </c>
@@ -5881,7 +7035,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="35" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:7" ht="15.75" thickBot="1">
       <c r="E35">
         <v>34</v>
       </c>
@@ -5892,7 +7046,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:7" ht="15.75" thickBot="1">
       <c r="E36">
         <v>35</v>
       </c>
@@ -5903,7 +7057,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:7" ht="15.75" thickBot="1">
       <c r="E37">
         <v>36</v>
       </c>
@@ -5914,7 +7068,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:7" ht="15.75" thickBot="1">
       <c r="E38">
         <v>37</v>
       </c>
@@ -5925,7 +7079,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:7" ht="15.75" thickBot="1">
       <c r="E39">
         <v>38</v>
       </c>
@@ -5936,7 +7090,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:7" ht="15.75" thickBot="1">
       <c r="E40">
         <v>39</v>
       </c>
@@ -5947,7 +7101,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="41" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:7" ht="15.75" thickBot="1">
       <c r="E41">
         <v>40</v>
       </c>
@@ -5958,7 +7112,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:7" ht="15.75" thickBot="1">
       <c r="E42">
         <v>41</v>
       </c>
@@ -5969,7 +7123,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:7" ht="15.75" thickBot="1">
       <c r="E43">
         <v>42</v>
       </c>
@@ -5980,7 +7134,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="44" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:7" ht="15.75" thickBot="1">
       <c r="E44">
         <v>43</v>
       </c>
@@ -5991,7 +7145,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:7" ht="15.75" thickBot="1">
       <c r="E45">
         <v>44</v>
       </c>
@@ -6002,7 +7156,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:7" ht="15.75" thickBot="1">
       <c r="E46">
         <v>45</v>
       </c>
@@ -6013,7 +7167,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:7" ht="15.75" thickBot="1">
       <c r="E47">
         <v>46</v>
       </c>
@@ -6024,7 +7178,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="48" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:7" ht="15.75" thickBot="1">
       <c r="E48">
         <v>47</v>
       </c>
@@ -6035,7 +7189,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="49" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:7" ht="15.75" thickBot="1">
       <c r="E49">
         <v>48</v>
       </c>
@@ -6046,7 +7200,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:7" ht="15.75" thickBot="1">
       <c r="E50">
         <v>49</v>
       </c>
@@ -6057,7 +7211,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:7" ht="15.75" thickBot="1">
       <c r="E51">
         <v>50</v>
       </c>
@@ -6068,7 +7222,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="52" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:7" ht="15.75" thickBot="1">
       <c r="E52">
         <v>51</v>
       </c>
@@ -6079,7 +7233,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="53" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:7" ht="15.75" thickBot="1">
       <c r="E53">
         <v>52</v>
       </c>
@@ -6090,7 +7244,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="54" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:7" ht="15.75" thickBot="1">
       <c r="E54">
         <v>53</v>
       </c>
@@ -6101,7 +7255,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="55" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:7" ht="15.75" thickBot="1">
       <c r="E55">
         <v>54</v>
       </c>
@@ -6112,7 +7266,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:7" ht="15.75" thickBot="1">
       <c r="E56">
         <v>55</v>
       </c>
@@ -6123,7 +7277,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="57" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:7" ht="15.75" thickBot="1">
       <c r="E57">
         <v>56</v>
       </c>
@@ -6134,7 +7288,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:7" ht="15.75" thickBot="1">
       <c r="E58">
         <v>57</v>
       </c>
@@ -6145,7 +7299,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="59" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:7" ht="15.75" thickBot="1">
       <c r="E59">
         <v>58</v>
       </c>
@@ -6156,7 +7310,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="60" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:7" ht="15.75" thickBot="1">
       <c r="E60">
         <v>59</v>
       </c>
@@ -6167,7 +7321,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="61" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:7" ht="15.75" thickBot="1">
       <c r="E61">
         <v>60</v>
       </c>
@@ -6178,7 +7332,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="62" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:7" ht="15.75" thickBot="1">
       <c r="E62">
         <v>61</v>
       </c>
@@ -6189,7 +7343,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:7" ht="15.75" thickBot="1">
       <c r="E63">
         <v>62</v>
       </c>
@@ -6200,7 +7354,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="64" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:7" ht="15.75" thickBot="1">
       <c r="E64">
         <v>63</v>
       </c>
@@ -6211,7 +7365,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:7" ht="15.75" thickBot="1">
       <c r="E65">
         <v>64</v>
       </c>
@@ -6222,7 +7376,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="66" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:7" ht="15.75" thickBot="1">
       <c r="E66">
         <v>65</v>
       </c>
@@ -6233,7 +7387,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="67" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:7" ht="15.75" thickBot="1">
       <c r="E67">
         <v>66</v>
       </c>
@@ -6244,7 +7398,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:7" ht="15.75" thickBot="1">
       <c r="E68">
         <v>67</v>
       </c>
@@ -6255,7 +7409,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="69" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:7" ht="15.75" thickBot="1">
       <c r="E69">
         <v>68</v>
       </c>
@@ -6266,7 +7420,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="70" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:7" ht="15.75" thickBot="1">
       <c r="E70">
         <v>69</v>
       </c>
@@ -6277,7 +7431,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:7" ht="15.75" thickBot="1">
       <c r="E71">
         <v>70</v>
       </c>
@@ -6288,7 +7442,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="72" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:7" ht="15.75" thickBot="1">
       <c r="E72">
         <v>71</v>
       </c>
@@ -6299,7 +7453,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="73" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:7" ht="15.75" thickBot="1">
       <c r="E73">
         <v>72</v>
       </c>
@@ -6310,7 +7464,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:7" ht="15.75" thickBot="1">
       <c r="E74">
         <v>73</v>
       </c>
@@ -6321,7 +7475,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:7" ht="15.75" thickBot="1">
       <c r="E75">
         <v>74</v>
       </c>
@@ -6332,7 +7486,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:7" ht="15.75" thickBot="1">
       <c r="E76">
         <v>75</v>
       </c>
@@ -6343,7 +7497,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:7" ht="15.75" thickBot="1">
       <c r="E77">
         <v>76</v>
       </c>
@@ -6354,7 +7508,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:7" ht="15.75" thickBot="1">
       <c r="E78">
         <v>77</v>
       </c>
@@ -6365,7 +7519,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="79" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:7" ht="15.75" thickBot="1">
       <c r="E79">
         <v>78</v>
       </c>
@@ -6376,7 +7530,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:7" ht="15.75" thickBot="1">
       <c r="E80">
         <v>79</v>
       </c>
@@ -6387,7 +7541,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:7" ht="15.75" thickBot="1">
       <c r="E81">
         <v>80</v>
       </c>
@@ -6398,7 +7552,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="82" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:7" ht="15.75" thickBot="1">
       <c r="E82">
         <v>81</v>
       </c>
@@ -6409,7 +7563,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:7" ht="15.75" thickBot="1">
       <c r="E83">
         <v>82</v>
       </c>
@@ -6420,7 +7574,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="84" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:7" ht="15.75" thickBot="1">
       <c r="E84">
         <v>83</v>
       </c>
@@ -6431,7 +7585,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="85" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:7" ht="15.75" thickBot="1">
       <c r="E85">
         <v>84</v>
       </c>
@@ -6442,201 +7596,201 @@
         <v>199</v>
       </c>
     </row>
-    <row r="86" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:7" ht="15.75" thickBot="1">
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://www.forbes.com/companies/ibm/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="G2" r:id="rId2" display="http://www.ibm.com/" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="F3" r:id="rId3" display="https://www.forbes.com/companies/dxc-technology/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="G3" r:id="rId4" display="http://www.dxc.technology/" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="F4" r:id="rId5" display="https://www.forbes.com/companies/deloitte-touche-tohmatsu/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="G4" r:id="rId6" display="http://www.deloitte.com/" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="F5" r:id="rId7" display="https://www.forbes.com/companies/cisco-systems/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="G5" r:id="rId8" display="http://www.cisco.com/" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="F6" r:id="rId9" display="https://www.forbes.com/companies/accenture/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="G6" r:id="rId10" display="http://www.accenture.com/" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="F7" r:id="rId11" display="https://www.forbes.com/companies/sap/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="G7" r:id="rId12" display="http://www.sap.com/" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="F8" r:id="rId13" display="https://www.forbes.com/companies/pricewaterhousecoopers/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="G8" r:id="rId14" display="http://www.pwc.com/" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="F9" r:id="rId15" display="https://www.forbes.com/companies/oracle/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="G9" r:id="rId16" display="http://www.oracle.com/" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="F10" r:id="rId17" display="https://www.forbes.com/companies/mckinsey-company/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="G10" r:id="rId18" display="http://www.mckinsey.com/" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="F11" r:id="rId19" display="https://www.forbes.com/companies/kpmg/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="G11" r:id="rId20" display="http://www.kpmg.com/" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="F12" r:id="rId21" display="https://www.forbes.com/companies/infosys-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="G12" r:id="rId22" display="http://www.infosys.com/" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="F13" r:id="rId23" display="https://www.forbes.com/companies/information-services-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="G13" r:id="rId24" display="http://www.isg-one.com/" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="F14" r:id="rId25" display="https://www.forbes.com/companies/gartner/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="G14" r:id="rId26" display="http://www.gartner.com/" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="F15" r:id="rId27" display="https://www.forbes.com/companies/ernst-young/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="G15" r:id="rId28" display="http://www.ey.com/" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="F16" r:id="rId29" display="https://www.forbes.com/companies/boston-consulting-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="G16" r:id="rId30" display="http://www.bcg.com/" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="F17" r:id="rId31" display="https://www.forbes.com/companies/booz-allen-hamilton/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="G17" r:id="rId32" display="http://www.boozallen.com/" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="F18" r:id="rId33" display="https://www.forbes.com/companies/west-monroe-partners/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="G18" r:id="rId34" display="http://www.westmonroepartners.com/" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="F19" r:id="rId35" display="https://www.forbes.com/companies/the-chartis-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="G19" r:id="rId36" display="http://www.chartis.com/" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink ref="F20" r:id="rId37" display="https://www.forbes.com/companies/tata-consultancy-services/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink ref="G20" r:id="rId38" display="http://www.tcs.com/" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink ref="F21" r:id="rId39" display="https://www.forbes.com/companies/strategy/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink ref="G21" r:id="rId40" display="http://www.strategyand.pwc.com/" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink ref="F22" r:id="rId41" display="https://www.forbes.com/companies/ssa-company/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="G22" r:id="rId42" display="http://www.ssaandco.com/" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="F23" r:id="rId43" display="https://www.forbes.com/companies/slalom-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="G23" r:id="rId44" display="http://www.slalom.com/" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="F24" r:id="rId45" display="https://www.forbes.com/companies/sapient/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="G24" r:id="rId46" display="http://www.sapientconsulting.com/" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="F25" r:id="rId47" display="https://www.forbes.com/companies/roland-berger-strategy-consultants/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="G25" r:id="rId48" display="http://www.rolandberger.com/" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="F26" r:id="rId49" display="https://www.forbes.com/companies/resources-global-professionals/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="G26" r:id="rId50" display="http://www.rgp.com/" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink ref="F27" r:id="rId51" display="https://www.forbes.com/companies/protiviti/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
-    <hyperlink ref="G27" r:id="rId52" display="http://www.protiviti.com/" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
-    <hyperlink ref="F28" r:id="rId53" display="https://www.forbes.com/companies/point-b/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
-    <hyperlink ref="G28" r:id="rId54" display="http://www.pointb.com/" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
-    <hyperlink ref="F29" r:id="rId55" display="https://www.forbes.com/companies/oliver-wyman/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
-    <hyperlink ref="G29" r:id="rId56" display="http://www.oliverwyman.com/" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
-    <hyperlink ref="F30" r:id="rId57" display="https://www.forbes.com/companies/oasys-international/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
-    <hyperlink ref="G30" r:id="rId58" display="http://www.oasysic.com/" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
-    <hyperlink ref="F31" r:id="rId59" display="https://www.forbes.com/companies/novantas/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
-    <hyperlink ref="G31" r:id="rId60" display="http://www.novantas.com/" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
-    <hyperlink ref="F32" r:id="rId61" display="https://www.forbes.com/companies/north-highland/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
-    <hyperlink ref="G32" r:id="rId62" display="http://www.northhighland.com/" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
-    <hyperlink ref="F33" r:id="rId63" display="https://www.forbes.com/companies/medmatica-consulting-associates/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
-    <hyperlink ref="G33" r:id="rId64" display="http://www.medmatica.com/" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
-    <hyperlink ref="F34" r:id="rId65" display="https://www.forbes.com/companies/lockheed-martin/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
-    <hyperlink ref="G34" r:id="rId66" display="http://www.lockheedmartin.com/" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
-    <hyperlink ref="F35" r:id="rId67" display="https://www.forbes.com/companies/leappoint/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
-    <hyperlink ref="G35" r:id="rId68" display="http://leappoint.com/" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
-    <hyperlink ref="F36" r:id="rId69" display="https://www.forbes.com/companies/kurt-salmon/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
-    <hyperlink ref="G36" r:id="rId70" display="http://www.kurtsalmon.com/" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
-    <hyperlink ref="F37" r:id="rId71" display="https://www.forbes.com/companies/jabian-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
-    <hyperlink ref="G37" r:id="rId72" display="http://www.jabian.com/" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
-    <hyperlink ref="F38" r:id="rId73" display="https://www.forbes.com/companies/impact-advisors/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
-    <hyperlink ref="G38" r:id="rId74" display="http://www.impact-advisors.com/" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
-    <hyperlink ref="F39" r:id="rId75" display="https://www.forbes.com/companies/ignyte-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
-    <hyperlink ref="G39" r:id="rId76" display="http://ignytegroup.com/" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
-    <hyperlink ref="F40" r:id="rId77" display="https://www.forbes.com/companies/huron-consulting-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
-    <hyperlink ref="G40" r:id="rId78" display="http://www.huronconsultinggroup.com/" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
-    <hyperlink ref="F41" r:id="rId79" display="https://www.forbes.com/companies/grant-thornton/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
-    <hyperlink ref="G41" r:id="rId80" display="http://www.grantthornton.com/" xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
-    <hyperlink ref="F42" r:id="rId81" display="https://www.forbes.com/companies/fti-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000050000000}"/>
-    <hyperlink ref="G42" r:id="rId82" display="http://www.fticonsulting.com/" xr:uid="{00000000-0004-0000-0200-000051000000}"/>
-    <hyperlink ref="F43" r:id="rId83" display="https://www.forbes.com/companies/forsythe-solutions-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000052000000}"/>
-    <hyperlink ref="G43" r:id="rId84" display="http://www.forsythe.com/" xr:uid="{00000000-0004-0000-0200-000053000000}"/>
-    <hyperlink ref="F44" r:id="rId85" display="https://www.forbes.com/companies/everest-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000054000000}"/>
-    <hyperlink ref="G44" r:id="rId86" display="http://www.everestgrp.com/" xr:uid="{00000000-0004-0000-0200-000055000000}"/>
-    <hyperlink ref="F45" r:id="rId87" display="https://www.forbes.com/companies/cumberland-consulting-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000056000000}"/>
-    <hyperlink ref="G45" r:id="rId88" display="http://www.cumberlandcg.com/" xr:uid="{00000000-0004-0000-0200-000057000000}"/>
-    <hyperlink ref="F46" r:id="rId89" display="https://www.forbes.com/companies/cognizant/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000058000000}"/>
-    <hyperlink ref="G46" r:id="rId90" display="http://www.cognizant.com/" xr:uid="{00000000-0004-0000-0200-000059000000}"/>
-    <hyperlink ref="F47" r:id="rId91" display="https://www.forbes.com/companies/clarkston-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00005A000000}"/>
-    <hyperlink ref="G47" r:id="rId92" display="http://www.clarkstonconsulting.com/" xr:uid="{00000000-0004-0000-0200-00005B000000}"/>
-    <hyperlink ref="F48" r:id="rId93" display="https://www.forbes.com/companies/cgn-global/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00005C000000}"/>
-    <hyperlink ref="G48" r:id="rId94" display="http://www.cgnglobal.com/" xr:uid="{00000000-0004-0000-0200-00005D000000}"/>
-    <hyperlink ref="F49" r:id="rId95" display="https://www.forbes.com/companies/censeo-consulting-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00005E000000}"/>
-    <hyperlink ref="G49" r:id="rId96" display="http://www.censeoconsulting.com/" xr:uid="{00000000-0004-0000-0200-00005F000000}"/>
-    <hyperlink ref="F50" r:id="rId97" display="https://www.forbes.com/companies/captech/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000060000000}"/>
-    <hyperlink ref="G50" r:id="rId98" display="http://www.captechconsulting.com/" xr:uid="{00000000-0004-0000-0200-000061000000}"/>
-    <hyperlink ref="F51" r:id="rId99" display="https://www.forbes.com/companies/capgemini-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000062000000}"/>
-    <hyperlink ref="G51" r:id="rId100" display="http://www.capgemini.com/" xr:uid="{00000000-0004-0000-0200-000063000000}"/>
-    <hyperlink ref="F52" r:id="rId101" display="https://www.forbes.com/companies/brattle-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000064000000}"/>
-    <hyperlink ref="G52" r:id="rId102" display="http://www.brattle.com/" xr:uid="{00000000-0004-0000-0200-000065000000}"/>
-    <hyperlink ref="F53" r:id="rId103" display="https://www.forbes.com/companies/bdo-usa/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000066000000}"/>
-    <hyperlink ref="G53" r:id="rId104" display="http://www.bdo.com/" xr:uid="{00000000-0004-0000-0200-000067000000}"/>
-    <hyperlink ref="F54" r:id="rId105" display="https://www.forbes.com/companies/bain-and-company/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000068000000}"/>
-    <hyperlink ref="G54" r:id="rId106" display="http://www.bain.com/" xr:uid="{00000000-0004-0000-0200-000069000000}"/>
-    <hyperlink ref="F55" r:id="rId107" display="https://www.forbes.com/companies/bae-systems/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00006A000000}"/>
-    <hyperlink ref="G55" r:id="rId108" display="http://www.baesystems.com/" xr:uid="{00000000-0004-0000-0200-00006B000000}"/>
-    <hyperlink ref="F56" r:id="rId109" display="https://www.forbes.com/companies/avasant/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00006C000000}"/>
-    <hyperlink ref="G56" r:id="rId110" display="http://www.avasant.com/" xr:uid="{00000000-0004-0000-0200-00006D000000}"/>
-    <hyperlink ref="F57" r:id="rId111" display="https://www.forbes.com/companies/at-kearney/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00006E000000}"/>
-    <hyperlink ref="G57" r:id="rId112" display="http://www.atkearney.com/" xr:uid="{00000000-0004-0000-0200-00006F000000}"/>
-    <hyperlink ref="F58" r:id="rId113" display="https://www.forbes.com/companies/arthur-d-little/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000070000000}"/>
-    <hyperlink ref="G58" r:id="rId114" display="http://www.adlittle.com/" xr:uid="{00000000-0004-0000-0200-000071000000}"/>
-    <hyperlink ref="F59" r:id="rId115" display="https://www.forbes.com/companies/archpoint/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000072000000}"/>
-    <hyperlink ref="G59" r:id="rId116" display="http://www.archpointconsulting.com/" xr:uid="{00000000-0004-0000-0200-000073000000}"/>
-    <hyperlink ref="F60" r:id="rId117" display="https://www.forbes.com/companies/appirio/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000074000000}"/>
-    <hyperlink ref="G60" r:id="rId118" display="http://www.appirio.com/" xr:uid="{00000000-0004-0000-0200-000075000000}"/>
-    <hyperlink ref="F61" r:id="rId119" display="https://www.forbes.com/companies/alixpartners/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000076000000}"/>
-    <hyperlink ref="G61" r:id="rId120" display="http://www.alixpartners.com/" xr:uid="{00000000-0004-0000-0200-000077000000}"/>
-    <hyperlink ref="F62" r:id="rId121" display="https://www.forbes.com/companies/microsoft/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000078000000}"/>
-    <hyperlink ref="G62" r:id="rId122" display="http://www.microsoft.com/" xr:uid="{00000000-0004-0000-0200-000079000000}"/>
-    <hyperlink ref="F63" r:id="rId123" display="https://www.forbes.com/companies/wipro/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00007A000000}"/>
-    <hyperlink ref="G63" r:id="rId124" display="http://www.wipro.com/" xr:uid="{00000000-0004-0000-0200-00007B000000}"/>
-    <hyperlink ref="F64" r:id="rId125" display="https://www.forbes.com/companies/virtusa/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00007C000000}"/>
-    <hyperlink ref="G64" r:id="rId126" display="http://www.virtusa.com/" xr:uid="{00000000-0004-0000-0200-00007D000000}"/>
-    <hyperlink ref="F65" r:id="rId127" display="https://www.forbes.com/companies/ntt-data-services/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00007E000000}"/>
-    <hyperlink ref="G65" r:id="rId128" display="http://us.nttdata.com/" xr:uid="{00000000-0004-0000-0200-00007F000000}"/>
-    <hyperlink ref="F66" r:id="rId129" display="https://www.forbes.com/companies/mckinnis-consulting-services/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000080000000}"/>
-    <hyperlink ref="G66" r:id="rId130" display="http://www.mckinnisconsulting.com/" xr:uid="{00000000-0004-0000-0200-000081000000}"/>
-    <hyperlink ref="F67" r:id="rId131" display="https://www.forbes.com/companies/hitachi-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000082000000}"/>
-    <hyperlink ref="G67" r:id="rId132" display="http://www.hitachiconsulting.com/" xr:uid="{00000000-0004-0000-0200-000083000000}"/>
-    <hyperlink ref="F68" r:id="rId133" display="https://www.forbes.com/companies/hcl-technologies/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000084000000}"/>
-    <hyperlink ref="G68" r:id="rId134" display="http://www.hcltech.com/" xr:uid="{00000000-0004-0000-0200-000085000000}"/>
-    <hyperlink ref="F69" r:id="rId135" display="https://www.forbes.com/companies/fujitsu-america/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000086000000}"/>
-    <hyperlink ref="G69" r:id="rId136" display="http://www.fujitsu.com/" xr:uid="{00000000-0004-0000-0200-000087000000}"/>
-    <hyperlink ref="F70" r:id="rId137" display="https://www.forbes.com/companies/bridge-solutions-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000088000000}"/>
-    <hyperlink ref="G70" r:id="rId138" display="http://bridgesgi.com/" xr:uid="{00000000-0004-0000-0200-000089000000}"/>
-    <hyperlink ref="F71" r:id="rId139" display="https://www.forbes.com/companies/blue-horseshoe-solutions/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00008A000000}"/>
-    <hyperlink ref="G71" r:id="rId140" display="http://www.bhsolutions.com/" xr:uid="{00000000-0004-0000-0200-00008B000000}"/>
-    <hyperlink ref="F72" r:id="rId141" display="https://www.forbes.com/companies/application-consulting-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00008C000000}"/>
-    <hyperlink ref="G72" r:id="rId142" display="http://www.acgi.com/" xr:uid="{00000000-0004-0000-0200-00008D000000}"/>
-    <hyperlink ref="F73" r:id="rId143" display="https://www.forbes.com/companies/simon-kucher-partners/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00008E000000}"/>
-    <hyperlink ref="G73" r:id="rId144" display="http://www.simon-kucher.com/" xr:uid="{00000000-0004-0000-0200-00008F000000}"/>
-    <hyperlink ref="F74" r:id="rId145" display="https://www.forbes.com/companies/navigant-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000090000000}"/>
-    <hyperlink ref="G74" r:id="rId146" display="http://www.navigant.com/" xr:uid="{00000000-0004-0000-0200-000091000000}"/>
-    <hyperlink ref="F75" r:id="rId147" display="https://www.forbes.com/companies/keystone-strategy/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000092000000}"/>
-    <hyperlink ref="G75" r:id="rId148" display="http://www.keystonestrategy.com/" xr:uid="{00000000-0004-0000-0200-000093000000}"/>
-    <hyperlink ref="F76" r:id="rId149" display="https://www.forbes.com/companies/kaiser-associates/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000094000000}"/>
-    <hyperlink ref="G76" r:id="rId150" display="http://www.kaiserassociates.com/" xr:uid="{00000000-0004-0000-0200-000095000000}"/>
-    <hyperlink ref="F77" r:id="rId151" display="https://www.forbes.com/companies/insight-sourcing-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000096000000}"/>
-    <hyperlink ref="G77" r:id="rId152" display="http://www.insightsourcing.com/" xr:uid="{00000000-0004-0000-0200-000097000000}"/>
-    <hyperlink ref="F78" r:id="rId153" display="https://www.forbes.com/companies/innosight/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000098000000}"/>
-    <hyperlink ref="G78" r:id="rId154" display="http://www.innosight.com/" xr:uid="{00000000-0004-0000-0200-000099000000}"/>
-    <hyperlink ref="F79" r:id="rId155" display="https://www.forbes.com/companies/ibb-consulting-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00009A000000}"/>
-    <hyperlink ref="G79" r:id="rId156" display="http://www.ibbconsulting.com/" xr:uid="{00000000-0004-0000-0200-00009B000000}"/>
-    <hyperlink ref="F80" r:id="rId157" display="https://www.forbes.com/companies/hay-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00009C000000}"/>
-    <hyperlink ref="G80" r:id="rId158" display="http://www.haygroup.com/" xr:uid="{00000000-0004-0000-0200-00009D000000}"/>
-    <hyperlink ref="F81" r:id="rId159" display="https://www.forbes.com/companies/cornerstone-research/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00009E000000}"/>
-    <hyperlink ref="G81" r:id="rId160" display="http://www.cornerstone.com/" xr:uid="{00000000-0004-0000-0200-00009F000000}"/>
-    <hyperlink ref="F82" r:id="rId161" display="https://www.forbes.com/companies/charles-river-associates/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-0000A0000000}"/>
-    <hyperlink ref="G82" r:id="rId162" display="http://www.crai.com/" xr:uid="{00000000-0004-0000-0200-0000A1000000}"/>
-    <hyperlink ref="F83" r:id="rId163" display="https://www.forbes.com/companies/centric-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-0000A2000000}"/>
-    <hyperlink ref="G83" r:id="rId164" display="http://www.centricconsulting.com/" xr:uid="{00000000-0004-0000-0200-0000A3000000}"/>
-    <hyperlink ref="F84" r:id="rId165" display="https://www.forbes.com/companies/bates-white/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-0000A4000000}"/>
-    <hyperlink ref="G84" r:id="rId166" display="http://www.bateswhite.com/" xr:uid="{00000000-0004-0000-0200-0000A5000000}"/>
-    <hyperlink ref="F85" r:id="rId167" display="https://www.forbes.com/companies/avanade/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-0000A6000000}"/>
-    <hyperlink ref="G85" r:id="rId168" display="http://www.avanade.com/" xr:uid="{00000000-0004-0000-0200-0000A7000000}"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://www.forbes.com/companies/ibm/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G2" r:id="rId2" display="http://www.ibm.com/"/>
+    <hyperlink ref="F3" r:id="rId3" display="https://www.forbes.com/companies/dxc-technology/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G3" r:id="rId4" display="http://www.dxc.technology/"/>
+    <hyperlink ref="F4" r:id="rId5" display="https://www.forbes.com/companies/deloitte-touche-tohmatsu/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G4" r:id="rId6" display="http://www.deloitte.com/"/>
+    <hyperlink ref="F5" r:id="rId7" display="https://www.forbes.com/companies/cisco-systems/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G5" r:id="rId8" display="http://www.cisco.com/"/>
+    <hyperlink ref="F6" r:id="rId9" display="https://www.forbes.com/companies/accenture/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G6" r:id="rId10" display="http://www.accenture.com/"/>
+    <hyperlink ref="F7" r:id="rId11" display="https://www.forbes.com/companies/sap/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G7" r:id="rId12" display="http://www.sap.com/"/>
+    <hyperlink ref="F8" r:id="rId13" display="https://www.forbes.com/companies/pricewaterhousecoopers/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G8" r:id="rId14" display="http://www.pwc.com/"/>
+    <hyperlink ref="F9" r:id="rId15" display="https://www.forbes.com/companies/oracle/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G9" r:id="rId16" display="http://www.oracle.com/"/>
+    <hyperlink ref="F10" r:id="rId17" display="https://www.forbes.com/companies/mckinsey-company/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G10" r:id="rId18" display="http://www.mckinsey.com/"/>
+    <hyperlink ref="F11" r:id="rId19" display="https://www.forbes.com/companies/kpmg/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G11" r:id="rId20" display="http://www.kpmg.com/"/>
+    <hyperlink ref="F12" r:id="rId21" display="https://www.forbes.com/companies/infosys-consulting/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G12" r:id="rId22" display="http://www.infosys.com/"/>
+    <hyperlink ref="F13" r:id="rId23" display="https://www.forbes.com/companies/information-services-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G13" r:id="rId24" display="http://www.isg-one.com/"/>
+    <hyperlink ref="F14" r:id="rId25" display="https://www.forbes.com/companies/gartner/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G14" r:id="rId26" display="http://www.gartner.com/"/>
+    <hyperlink ref="F15" r:id="rId27" display="https://www.forbes.com/companies/ernst-young/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G15" r:id="rId28" display="http://www.ey.com/"/>
+    <hyperlink ref="F16" r:id="rId29" display="https://www.forbes.com/companies/boston-consulting-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G16" r:id="rId30" display="http://www.bcg.com/"/>
+    <hyperlink ref="F17" r:id="rId31" display="https://www.forbes.com/companies/booz-allen-hamilton/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G17" r:id="rId32" display="http://www.boozallen.com/"/>
+    <hyperlink ref="F18" r:id="rId33" display="https://www.forbes.com/companies/west-monroe-partners/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G18" r:id="rId34" display="http://www.westmonroepartners.com/"/>
+    <hyperlink ref="F19" r:id="rId35" display="https://www.forbes.com/companies/the-chartis-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G19" r:id="rId36" display="http://www.chartis.com/"/>
+    <hyperlink ref="F20" r:id="rId37" display="https://www.forbes.com/companies/tata-consultancy-services/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G20" r:id="rId38" display="http://www.tcs.com/"/>
+    <hyperlink ref="F21" r:id="rId39" display="https://www.forbes.com/companies/strategy/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G21" r:id="rId40" display="http://www.strategyand.pwc.com/"/>
+    <hyperlink ref="F22" r:id="rId41" display="https://www.forbes.com/companies/ssa-company/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G22" r:id="rId42" display="http://www.ssaandco.com/"/>
+    <hyperlink ref="F23" r:id="rId43" display="https://www.forbes.com/companies/slalom-consulting/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G23" r:id="rId44" display="http://www.slalom.com/"/>
+    <hyperlink ref="F24" r:id="rId45" display="https://www.forbes.com/companies/sapient/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G24" r:id="rId46" display="http://www.sapientconsulting.com/"/>
+    <hyperlink ref="F25" r:id="rId47" display="https://www.forbes.com/companies/roland-berger-strategy-consultants/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G25" r:id="rId48" display="http://www.rolandberger.com/"/>
+    <hyperlink ref="F26" r:id="rId49" display="https://www.forbes.com/companies/resources-global-professionals/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G26" r:id="rId50" display="http://www.rgp.com/"/>
+    <hyperlink ref="F27" r:id="rId51" display="https://www.forbes.com/companies/protiviti/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G27" r:id="rId52" display="http://www.protiviti.com/"/>
+    <hyperlink ref="F28" r:id="rId53" display="https://www.forbes.com/companies/point-b/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G28" r:id="rId54" display="http://www.pointb.com/"/>
+    <hyperlink ref="F29" r:id="rId55" display="https://www.forbes.com/companies/oliver-wyman/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G29" r:id="rId56" display="http://www.oliverwyman.com/"/>
+    <hyperlink ref="F30" r:id="rId57" display="https://www.forbes.com/companies/oasys-international/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G30" r:id="rId58" display="http://www.oasysic.com/"/>
+    <hyperlink ref="F31" r:id="rId59" display="https://www.forbes.com/companies/novantas/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G31" r:id="rId60" display="http://www.novantas.com/"/>
+    <hyperlink ref="F32" r:id="rId61" display="https://www.forbes.com/companies/north-highland/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G32" r:id="rId62" display="http://www.northhighland.com/"/>
+    <hyperlink ref="F33" r:id="rId63" display="https://www.forbes.com/companies/medmatica-consulting-associates/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G33" r:id="rId64" display="http://www.medmatica.com/"/>
+    <hyperlink ref="F34" r:id="rId65" display="https://www.forbes.com/companies/lockheed-martin/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G34" r:id="rId66" display="http://www.lockheedmartin.com/"/>
+    <hyperlink ref="F35" r:id="rId67" display="https://www.forbes.com/companies/leappoint/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G35" r:id="rId68" display="http://leappoint.com/"/>
+    <hyperlink ref="F36" r:id="rId69" display="https://www.forbes.com/companies/kurt-salmon/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G36" r:id="rId70" display="http://www.kurtsalmon.com/"/>
+    <hyperlink ref="F37" r:id="rId71" display="https://www.forbes.com/companies/jabian-consulting/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G37" r:id="rId72" display="http://www.jabian.com/"/>
+    <hyperlink ref="F38" r:id="rId73" display="https://www.forbes.com/companies/impact-advisors/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G38" r:id="rId74" display="http://www.impact-advisors.com/"/>
+    <hyperlink ref="F39" r:id="rId75" display="https://www.forbes.com/companies/ignyte-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G39" r:id="rId76" display="http://ignytegroup.com/"/>
+    <hyperlink ref="F40" r:id="rId77" display="https://www.forbes.com/companies/huron-consulting-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G40" r:id="rId78" display="http://www.huronconsultinggroup.com/"/>
+    <hyperlink ref="F41" r:id="rId79" display="https://www.forbes.com/companies/grant-thornton/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G41" r:id="rId80" display="http://www.grantthornton.com/"/>
+    <hyperlink ref="F42" r:id="rId81" display="https://www.forbes.com/companies/fti-consulting/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G42" r:id="rId82" display="http://www.fticonsulting.com/"/>
+    <hyperlink ref="F43" r:id="rId83" display="https://www.forbes.com/companies/forsythe-solutions-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G43" r:id="rId84" display="http://www.forsythe.com/"/>
+    <hyperlink ref="F44" r:id="rId85" display="https://www.forbes.com/companies/everest-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G44" r:id="rId86" display="http://www.everestgrp.com/"/>
+    <hyperlink ref="F45" r:id="rId87" display="https://www.forbes.com/companies/cumberland-consulting-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G45" r:id="rId88" display="http://www.cumberlandcg.com/"/>
+    <hyperlink ref="F46" r:id="rId89" display="https://www.forbes.com/companies/cognizant/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G46" r:id="rId90" display="http://www.cognizant.com/"/>
+    <hyperlink ref="F47" r:id="rId91" display="https://www.forbes.com/companies/clarkston-consulting/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G47" r:id="rId92" display="http://www.clarkstonconsulting.com/"/>
+    <hyperlink ref="F48" r:id="rId93" display="https://www.forbes.com/companies/cgn-global/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G48" r:id="rId94" display="http://www.cgnglobal.com/"/>
+    <hyperlink ref="F49" r:id="rId95" display="https://www.forbes.com/companies/censeo-consulting-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G49" r:id="rId96" display="http://www.censeoconsulting.com/"/>
+    <hyperlink ref="F50" r:id="rId97" display="https://www.forbes.com/companies/captech/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G50" r:id="rId98" display="http://www.captechconsulting.com/"/>
+    <hyperlink ref="F51" r:id="rId99" display="https://www.forbes.com/companies/capgemini-consulting/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G51" r:id="rId100" display="http://www.capgemini.com/"/>
+    <hyperlink ref="F52" r:id="rId101" display="https://www.forbes.com/companies/brattle-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G52" r:id="rId102" display="http://www.brattle.com/"/>
+    <hyperlink ref="F53" r:id="rId103" display="https://www.forbes.com/companies/bdo-usa/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G53" r:id="rId104" display="http://www.bdo.com/"/>
+    <hyperlink ref="F54" r:id="rId105" display="https://www.forbes.com/companies/bain-and-company/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G54" r:id="rId106" display="http://www.bain.com/"/>
+    <hyperlink ref="F55" r:id="rId107" display="https://www.forbes.com/companies/bae-systems/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G55" r:id="rId108" display="http://www.baesystems.com/"/>
+    <hyperlink ref="F56" r:id="rId109" display="https://www.forbes.com/companies/avasant/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G56" r:id="rId110" display="http://www.avasant.com/"/>
+    <hyperlink ref="F57" r:id="rId111" display="https://www.forbes.com/companies/at-kearney/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G57" r:id="rId112" display="http://www.atkearney.com/"/>
+    <hyperlink ref="F58" r:id="rId113" display="https://www.forbes.com/companies/arthur-d-little/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G58" r:id="rId114" display="http://www.adlittle.com/"/>
+    <hyperlink ref="F59" r:id="rId115" display="https://www.forbes.com/companies/archpoint/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G59" r:id="rId116" display="http://www.archpointconsulting.com/"/>
+    <hyperlink ref="F60" r:id="rId117" display="https://www.forbes.com/companies/appirio/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G60" r:id="rId118" display="http://www.appirio.com/"/>
+    <hyperlink ref="F61" r:id="rId119" display="https://www.forbes.com/companies/alixpartners/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G61" r:id="rId120" display="http://www.alixpartners.com/"/>
+    <hyperlink ref="F62" r:id="rId121" display="https://www.forbes.com/companies/microsoft/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G62" r:id="rId122" display="http://www.microsoft.com/"/>
+    <hyperlink ref="F63" r:id="rId123" display="https://www.forbes.com/companies/wipro/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G63" r:id="rId124" display="http://www.wipro.com/"/>
+    <hyperlink ref="F64" r:id="rId125" display="https://www.forbes.com/companies/virtusa/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G64" r:id="rId126" display="http://www.virtusa.com/"/>
+    <hyperlink ref="F65" r:id="rId127" display="https://www.forbes.com/companies/ntt-data-services/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G65" r:id="rId128" display="http://us.nttdata.com/"/>
+    <hyperlink ref="F66" r:id="rId129" display="https://www.forbes.com/companies/mckinnis-consulting-services/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G66" r:id="rId130" display="http://www.mckinnisconsulting.com/"/>
+    <hyperlink ref="F67" r:id="rId131" display="https://www.forbes.com/companies/hitachi-consulting/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G67" r:id="rId132" display="http://www.hitachiconsulting.com/"/>
+    <hyperlink ref="F68" r:id="rId133" display="https://www.forbes.com/companies/hcl-technologies/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G68" r:id="rId134" display="http://www.hcltech.com/"/>
+    <hyperlink ref="F69" r:id="rId135" display="https://www.forbes.com/companies/fujitsu-america/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G69" r:id="rId136" display="http://www.fujitsu.com/"/>
+    <hyperlink ref="F70" r:id="rId137" display="https://www.forbes.com/companies/bridge-solutions-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G70" r:id="rId138" display="http://bridgesgi.com/"/>
+    <hyperlink ref="F71" r:id="rId139" display="https://www.forbes.com/companies/blue-horseshoe-solutions/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G71" r:id="rId140" display="http://www.bhsolutions.com/"/>
+    <hyperlink ref="F72" r:id="rId141" display="https://www.forbes.com/companies/application-consulting-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G72" r:id="rId142" display="http://www.acgi.com/"/>
+    <hyperlink ref="F73" r:id="rId143" display="https://www.forbes.com/companies/simon-kucher-partners/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G73" r:id="rId144" display="http://www.simon-kucher.com/"/>
+    <hyperlink ref="F74" r:id="rId145" display="https://www.forbes.com/companies/navigant-consulting/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G74" r:id="rId146" display="http://www.navigant.com/"/>
+    <hyperlink ref="F75" r:id="rId147" display="https://www.forbes.com/companies/keystone-strategy/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G75" r:id="rId148" display="http://www.keystonestrategy.com/"/>
+    <hyperlink ref="F76" r:id="rId149" display="https://www.forbes.com/companies/kaiser-associates/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G76" r:id="rId150" display="http://www.kaiserassociates.com/"/>
+    <hyperlink ref="F77" r:id="rId151" display="https://www.forbes.com/companies/insight-sourcing-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G77" r:id="rId152" display="http://www.insightsourcing.com/"/>
+    <hyperlink ref="F78" r:id="rId153" display="https://www.forbes.com/companies/innosight/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G78" r:id="rId154" display="http://www.innosight.com/"/>
+    <hyperlink ref="F79" r:id="rId155" display="https://www.forbes.com/companies/ibb-consulting-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G79" r:id="rId156" display="http://www.ibbconsulting.com/"/>
+    <hyperlink ref="F80" r:id="rId157" display="https://www.forbes.com/companies/hay-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G80" r:id="rId158" display="http://www.haygroup.com/"/>
+    <hyperlink ref="F81" r:id="rId159" display="https://www.forbes.com/companies/cornerstone-research/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G81" r:id="rId160" display="http://www.cornerstone.com/"/>
+    <hyperlink ref="F82" r:id="rId161" display="https://www.forbes.com/companies/charles-river-associates/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G82" r:id="rId162" display="http://www.crai.com/"/>
+    <hyperlink ref="F83" r:id="rId163" display="https://www.forbes.com/companies/centric-consulting/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G83" r:id="rId164" display="http://www.centricconsulting.com/"/>
+    <hyperlink ref="F84" r:id="rId165" display="https://www.forbes.com/companies/bates-white/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G84" r:id="rId166" display="http://www.bateswhite.com/"/>
+    <hyperlink ref="F85" r:id="rId167" display="https://www.forbes.com/companies/avanade/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G85" r:id="rId168" display="http://www.avanade.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.5703125" customWidth="1"/>
     <col min="6" max="6" width="55.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:6" ht="34.5">
       <c r="D2" s="12" t="s">
         <v>87</v>
       </c>
@@ -6647,7 +7801,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:6" ht="15.75">
       <c r="D3" s="13">
         <v>1</v>
       </c>
@@ -6658,7 +7812,7 @@
         <v>17310000000</v>
       </c>
     </row>
-    <row r="4" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:6" ht="15.75">
       <c r="D4" s="13">
         <v>2</v>
       </c>
@@ -6669,7 +7823,7 @@
         <v>15460000000</v>
       </c>
     </row>
-    <row r="5" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:6" ht="15.75">
       <c r="D5" s="13">
         <v>3</v>
       </c>
@@ -6680,7 +7834,7 @@
         <v>14930000000</v>
       </c>
     </row>
-    <row r="6" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:6" ht="15.75">
       <c r="D6" s="13">
         <v>4</v>
       </c>
@@ -6691,7 +7845,7 @@
         <v>14810000000</v>
       </c>
     </row>
-    <row r="7" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:6" ht="15.75">
       <c r="D7" s="13">
         <v>5</v>
       </c>
@@ -6702,7 +7856,7 @@
         <v>13350000000</v>
       </c>
     </row>
-    <row r="8" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:6" ht="15.75">
       <c r="D8" s="13">
         <v>6</v>
       </c>
@@ -6713,7 +7867,7 @@
         <v>12253000000</v>
       </c>
     </row>
-    <row r="9" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:6" ht="15.75">
       <c r="D9" s="13">
         <v>7</v>
       </c>
@@ -6724,7 +7878,7 @@
         <v>12000000000</v>
       </c>
     </row>
-    <row r="10" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:6" ht="15.75">
       <c r="D10" s="13">
         <v>8</v>
       </c>
@@ -6735,7 +7889,7 @@
         <v>11600000000</v>
       </c>
     </row>
-    <row r="11" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:6" ht="15.75">
       <c r="D11" s="13">
         <v>9</v>
       </c>
@@ -6746,7 +7900,7 @@
         <v>10210000000</v>
       </c>
     </row>
-    <row r="12" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:6" ht="15.75">
       <c r="D12" s="13">
         <v>10</v>
       </c>
@@ -6757,7 +7911,7 @@
         <v>10180000000</v>
       </c>
     </row>
-    <row r="13" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:6" ht="15.75">
       <c r="D13" s="13">
         <v>11</v>
       </c>
@@ -6768,7 +7922,7 @@
         <v>8800000000</v>
       </c>
     </row>
-    <row r="14" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:6" ht="15.75">
       <c r="D14" s="13">
         <v>12</v>
       </c>
@@ -6779,7 +7933,7 @@
         <v>8500000000</v>
       </c>
     </row>
-    <row r="15" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:6" ht="15.75">
       <c r="D15" s="13">
         <v>13</v>
       </c>
@@ -6790,7 +7944,7 @@
         <v>7882000000</v>
       </c>
     </row>
-    <row r="16" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:6" ht="15.75">
       <c r="D16" s="13">
         <v>14</v>
       </c>
@@ -6801,7 +7955,7 @@
         <v>6300000000</v>
       </c>
     </row>
-    <row r="17" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" ht="15.75">
       <c r="D17" s="13">
         <v>15</v>
       </c>
@@ -6812,7 +7966,7 @@
         <v>6100000000</v>
       </c>
     </row>
-    <row r="18" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:6" ht="15.75">
       <c r="D18" s="13">
         <v>16</v>
       </c>
@@ -6823,7 +7977,7 @@
         <v>4300000000</v>
       </c>
     </row>
-    <row r="19" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:6" ht="15.75">
       <c r="D19" s="13">
         <v>17</v>
       </c>
@@ -6834,7 +7988,7 @@
         <v>4200000000</v>
       </c>
     </row>
-    <row r="20" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:6" ht="15.75">
       <c r="D20" s="13">
         <v>18</v>
       </c>
@@ -6845,7 +7999,7 @@
         <v>3870000000</v>
       </c>
     </row>
-    <row r="21" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:6" ht="15.75">
       <c r="D21" s="13">
         <v>19</v>
       </c>
@@ -6856,7 +8010,7 @@
         <v>3566000000</v>
       </c>
     </row>
-    <row r="22" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:6" ht="15.75">
       <c r="D22" s="13">
         <v>20</v>
       </c>
@@ -6867,7 +8021,7 @@
         <v>3358000000</v>
       </c>
     </row>
-    <row r="23" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:6" ht="15.75">
       <c r="D23" s="13">
         <v>21</v>
       </c>
@@ -6878,7 +8032,7 @@
         <v>3300000000</v>
       </c>
     </row>
-    <row r="24" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:6" ht="15.75">
       <c r="D24" s="13">
         <v>22</v>
       </c>
@@ -6889,7 +8043,7 @@
         <v>2813000000</v>
       </c>
     </row>
-    <row r="25" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:6" ht="15.75">
       <c r="D25" s="13">
         <v>23</v>
       </c>
@@ -6900,7 +8054,7 @@
         <v>2000000000</v>
       </c>
     </row>
-    <row r="26" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:6" ht="15.75">
       <c r="D26" s="13">
         <v>24</v>
       </c>
@@ -6911,7 +8065,7 @@
         <v>1800000000</v>
       </c>
     </row>
-    <row r="27" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:6" ht="15.75">
       <c r="D27" s="13">
         <v>25</v>
       </c>
@@ -6922,7 +8076,7 @@
         <v>1800000000</v>
       </c>
     </row>
-    <row r="28" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:6" ht="15.75">
       <c r="D28" s="13">
         <v>26</v>
       </c>
@@ -6933,7 +8087,7 @@
         <v>1700000000</v>
       </c>
     </row>
-    <row r="29" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:6" ht="15.75">
       <c r="D29" s="13">
         <v>27</v>
       </c>
@@ -6944,7 +8098,7 @@
         <v>1410000000</v>
       </c>
     </row>
-    <row r="30" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:6" ht="15.75">
       <c r="D30" s="13">
         <v>28</v>
       </c>
@@ -6955,7 +8109,7 @@
         <v>1400000000</v>
       </c>
     </row>
-    <row r="31" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:6">
       <c r="D31" s="13">
         <v>29</v>
       </c>
@@ -6966,7 +8120,7 @@
         <v>1305000000</v>
       </c>
     </row>
-    <row r="32" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:6">
       <c r="D32" s="13">
         <v>30</v>
       </c>
@@ -6977,7 +8131,7 @@
         <v>1300000000</v>
       </c>
     </row>
-    <row r="33" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:6">
       <c r="D33" s="13">
         <v>31</v>
       </c>
@@ -6988,7 +8142,7 @@
         <v>1300000000</v>
       </c>
     </row>
-    <row r="34" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:6">
       <c r="D34" s="13">
         <v>32</v>
       </c>
@@ -6999,7 +8153,7 @@
         <v>1190000000</v>
       </c>
     </row>
-    <row r="35" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:6">
       <c r="D35" s="13">
         <v>33</v>
       </c>
@@ -7010,7 +8164,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="36" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:6">
       <c r="D36" s="13">
         <v>34</v>
       </c>
@@ -7021,7 +8175,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="37" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:6">
       <c r="D37" s="13">
         <v>35</v>
       </c>
@@ -7032,7 +8186,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="38" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:6">
       <c r="D38" s="13">
         <v>36</v>
       </c>
@@ -7043,7 +8197,7 @@
         <v>816000000</v>
       </c>
     </row>
-    <row r="39" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:6">
       <c r="D39" s="13">
         <v>37</v>
       </c>
@@ -7054,7 +8208,7 @@
         <v>797700000</v>
       </c>
     </row>
-    <row r="40" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:6">
       <c r="D40" s="13">
         <v>38</v>
       </c>
@@ -7065,7 +8219,7 @@
         <v>781800000</v>
       </c>
     </row>
-    <row r="41" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:6">
       <c r="D41" s="13">
         <v>39</v>
       </c>
@@ -7076,7 +8230,7 @@
         <v>767000000</v>
       </c>
     </row>
-    <row r="42" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:6">
       <c r="D42" s="13">
         <v>40</v>
       </c>
@@ -7087,7 +8241,7 @@
         <v>600000000</v>
       </c>
     </row>
-    <row r="43" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:6">
       <c r="D43" s="13">
         <v>41</v>
       </c>
@@ -7098,7 +8252,7 @@
         <v>600000000</v>
       </c>
     </row>
-    <row r="44" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:6">
       <c r="D44" s="13">
         <v>42</v>
       </c>
@@ -7109,7 +8263,7 @@
         <v>556000000</v>
       </c>
     </row>
-    <row r="45" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:6">
       <c r="D45" s="13">
         <v>43</v>
       </c>
@@ -7120,7 +8274,7 @@
         <v>525000000</v>
       </c>
     </row>
-    <row r="46" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:6">
       <c r="D46" s="13">
         <v>44</v>
       </c>
@@ -7131,7 +8285,7 @@
         <v>500000000</v>
       </c>
     </row>
-    <row r="47" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:6">
       <c r="D47" s="13">
         <v>45</v>
       </c>
@@ -7142,7 +8296,7 @@
         <v>487000000</v>
       </c>
     </row>
-    <row r="48" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:6">
       <c r="D48" s="13">
         <v>46</v>
       </c>
@@ -7153,7 +8307,7 @@
         <v>311000000</v>
       </c>
     </row>
-    <row r="49" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:6">
       <c r="D49" s="13">
         <v>47</v>
       </c>
@@ -7164,7 +8318,7 @@
         <v>239200000</v>
       </c>
     </row>
-    <row r="50" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:6">
       <c r="D50" s="13">
         <v>48</v>
       </c>
@@ -7175,7 +8329,7 @@
         <v>200000000</v>
       </c>
     </row>
-    <row r="51" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:6">
       <c r="D51" s="13">
         <v>49</v>
       </c>
@@ -7186,7 +8340,7 @@
         <v>162000000</v>
       </c>
     </row>
-    <row r="52" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:6">
       <c r="D52" s="15">
         <v>50</v>
       </c>
@@ -7203,16 +8357,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="7" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="7:7">
       <c r="G7" t="s">
         <v>86</v>
       </c>

--- a/Companies_Apply_Status_Sheet.xlsx
+++ b/Companies_Apply_Status_Sheet.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99C43B9-CF2B-4AFF-9AEC-8332C20A8FCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="10725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1616,9 +1617,6 @@
     <t>https://vhr-osvhr.wd1.myworkdayjobs.com/OSV_External_Career_Site/job/US-TX-Dallas/Project-Manager_REQ-2018-404?source=LinkedIn</t>
   </si>
   <si>
-    <t>blank page</t>
-  </si>
-  <si>
     <t>unable to upload resume
 SB: Submitted might be due to access issues</t>
   </si>
@@ -1725,9 +1723,6 @@
     <t>https://www.linkedin.com/jobs/view/994722284/?eBP=CwEAAAFnmGc7huGgN4jxQKhsOJ_JIykv0bz9owGfzbkqMwTkvyL3iFHDh6_11wBc5_JCs6q2D0xfOXfJlOGhbOLOQ1LFV9GuWHAb8FviDFYrwanZUFIezusUY2DPUwTCLnWsSQJ7sN9Qcbq6vc8r9HNEHW3Wx4ixo_rPu37G-vLQiz8hsfamR35fB-1wdLZx4Uzt5wV5caJcNekQc29CmuzCbH_Ls5b5eai2sTNlX0CMtzIauuetEJyKFy5iNH5zjcjg4VuWCkshM_NONjuMTpLG_QpdegWXYydR1-upDHOI1yt09iWlF6OyztpZBJu5H4lae6t-XejdTs3G38vD4GEOGqdtbJGfzudXc0cnXm-bLtOiTHXgb8bbPBXXX3S35XvcJmBooi8sug&amp;recommendedFlavor=IN_NETWORK&amp;refId=b489414b-dd02-4118-90ac-9fb67a391154&amp;trk=d_flagship3_job_details</t>
   </si>
   <si>
-    <t>**Abhishek Pandya - Assoc Direc in California**</t>
-  </si>
-  <si>
     <t>Tala</t>
   </si>
   <si>
@@ -1740,9 +1735,6 @@
     <t>https://boards.greenhouse.getrake.io/tala/jobs/968221?gh_jid=968221&amp;gh_src=f3cf339d1</t>
   </si>
   <si>
-    <t>**other questions</t>
-  </si>
-  <si>
     <t>Insight Global</t>
   </si>
   <si>
@@ -1800,9 +1792,6 @@
     <t>https://www.linkedin.com/jobs/view/1004273381/</t>
   </si>
   <si>
-    <t>**Brad Campbell**</t>
-  </si>
-  <si>
     <t>Phy, Pennsylvania</t>
   </si>
   <si>
@@ -1816,16 +1805,32 @@
   </si>
   <si>
     <t>https://clarivate.wd3.myworkdayjobs.com/en-US/Clarivate_Careers/job/USA---Philadelphia-PA/Product-Manager--Platform-Services_JREQ103180?source=Linkedin</t>
+  </si>
+  <si>
+    <t>**other questions
+Cannot be applied program management is over than project management..</t>
+  </si>
+  <si>
+    <t>**Brad Campbell**
+Applied</t>
+  </si>
+  <si>
+    <t>**Abhishek Pandya - Assoc Direc in California**
+Cogn wont sponse</t>
+  </si>
+  <si>
+    <t>blank page
+applied</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1885,6 +1890,13 @@
       <color rgb="FF565A5C"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1988,7 +2000,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2049,6 +2061,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2322,23 +2339,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="E99" sqref="E99"/>
+      <selection pane="topRight" activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
@@ -2356,7 +2373,7 @@
     <col min="15" max="15" width="30.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2403,7 +2420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2436,7 +2453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="4">
         <v>43385</v>
@@ -2463,7 +2480,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="45">
+    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="6" t="s">
@@ -2490,7 +2507,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="6" t="s">
@@ -2513,7 +2530,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
@@ -2536,7 +2553,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="6" t="s">
@@ -2555,7 +2572,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="6" t="s">
@@ -2578,7 +2595,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:15" ht="45">
+    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="6" t="s">
@@ -2603,7 +2620,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:15" ht="45">
+    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="6" t="s">
@@ -2628,7 +2645,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
@@ -2651,7 +2668,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="6" t="s">
@@ -2674,7 +2691,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="6" t="s">
@@ -2697,7 +2714,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="4">
         <v>43430</v>
@@ -2724,7 +2741,7 @@
       </c>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="4">
         <v>43430</v>
@@ -2749,7 +2766,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="4">
         <v>43430</v>
@@ -2774,7 +2791,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="4">
         <v>43430</v>
@@ -2799,7 +2816,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="4">
         <v>43430</v>
@@ -2824,7 +2841,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" ht="60">
+    <row r="19" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="4">
         <v>43430</v>
@@ -2851,7 +2868,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="6"/>
     </row>
-    <row r="20" spans="1:15" ht="30">
+    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="4">
         <v>43430</v>
@@ -2882,7 +2899,7 @@
       </c>
       <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="1:15" ht="45">
+    <row r="21" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="4">
         <v>43430</v>
@@ -2913,7 +2930,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="4">
         <v>43430</v>
@@ -2938,7 +2955,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="6"/>
     </row>
-    <row r="23" spans="1:15" ht="60">
+    <row r="23" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="4">
         <v>43430</v>
@@ -2973,7 +2990,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="49.5" customHeight="1">
+    <row r="24" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="4">
         <v>43431</v>
@@ -3008,7 +3025,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="49.5" customHeight="1">
+    <row r="25" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="4">
         <v>43430</v>
@@ -3043,7 +3060,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="75">
+    <row r="26" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="4">
         <v>43430</v>
@@ -3076,7 +3093,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="25" customFormat="1" ht="75">
+    <row r="27" spans="1:15" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="23">
         <v>43430</v>
@@ -3109,7 +3126,7 @@
       <c r="N27" s="22"/>
       <c r="O27" s="24"/>
     </row>
-    <row r="28" spans="1:15" ht="120">
+    <row r="28" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="4">
         <v>43430</v>
@@ -3142,7 +3159,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="90">
+    <row r="29" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="4">
         <v>43431</v>
@@ -3171,7 +3188,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" ht="45">
+    <row r="30" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="4">
         <v>43431</v>
@@ -3200,7 +3217,7 @@
       <c r="N30" s="3"/>
       <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="1:15" ht="105">
+    <row r="31" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="4">
         <v>43431</v>
@@ -3233,7 +3250,7 @@
       </c>
       <c r="O31" s="6"/>
     </row>
-    <row r="32" spans="1:15" ht="30">
+    <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="4">
         <v>43431</v>
@@ -3268,7 +3285,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="45">
+    <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="4">
         <v>43431</v>
@@ -3295,7 +3312,7 @@
       <c r="N33" s="3"/>
       <c r="O33" s="6"/>
     </row>
-    <row r="34" spans="1:15" ht="75">
+    <row r="34" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="4">
         <v>43431</v>
@@ -3324,7 +3341,7 @@
       <c r="N34" s="3"/>
       <c r="O34" s="6"/>
     </row>
-    <row r="35" spans="1:15" ht="75">
+    <row r="35" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="4">
         <v>43431</v>
@@ -3355,7 +3372,7 @@
       <c r="N35" s="3"/>
       <c r="O35" s="6"/>
     </row>
-    <row r="36" spans="1:15" ht="255">
+    <row r="36" spans="1:15" ht="255" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="4">
         <v>43431</v>
@@ -3392,7 +3409,7 @@
       </c>
       <c r="O36" s="6"/>
     </row>
-    <row r="37" spans="1:15" ht="60">
+    <row r="37" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="4">
         <v>43432</v>
@@ -3423,7 +3440,7 @@
       <c r="N37" s="3"/>
       <c r="O37" s="6"/>
     </row>
-    <row r="38" spans="1:15" ht="60">
+    <row r="38" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="4">
         <v>43432</v>
@@ -3452,7 +3469,7 @@
       <c r="N38" s="3"/>
       <c r="O38" s="6"/>
     </row>
-    <row r="39" spans="1:15" ht="60">
+    <row r="39" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="4">
         <v>43432</v>
@@ -3481,7 +3498,7 @@
       <c r="N39" s="3"/>
       <c r="O39" s="6"/>
     </row>
-    <row r="40" spans="1:15" ht="60">
+    <row r="40" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="4">
         <v>43432</v>
@@ -3510,7 +3527,7 @@
       <c r="N40" s="3"/>
       <c r="O40" s="6"/>
     </row>
-    <row r="41" spans="1:15" ht="135">
+    <row r="41" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="4">
         <v>43432</v>
@@ -3545,7 +3562,7 @@
       </c>
       <c r="O41" s="6"/>
     </row>
-    <row r="42" spans="1:15" ht="60">
+    <row r="42" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="4">
         <v>43432</v>
@@ -3576,7 +3593,7 @@
       <c r="N42" s="3"/>
       <c r="O42" s="6"/>
     </row>
-    <row r="43" spans="1:15" ht="60.75">
+    <row r="43" spans="1:15" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="4">
         <v>43432</v>
@@ -3609,7 +3626,7 @@
       <c r="N43" s="3"/>
       <c r="O43" s="6"/>
     </row>
-    <row r="44" spans="1:15" ht="60">
+    <row r="44" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="4">
         <v>43432</v>
@@ -3638,7 +3655,7 @@
       <c r="N44" s="3"/>
       <c r="O44" s="6"/>
     </row>
-    <row r="45" spans="1:15" ht="75">
+    <row r="45" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="4">
         <v>43432</v>
@@ -3667,7 +3684,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="6"/>
     </row>
-    <row r="46" spans="1:15" ht="45">
+    <row r="46" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="4">
         <v>43432</v>
@@ -3704,7 +3721,7 @@
       </c>
       <c r="O46" s="6"/>
     </row>
-    <row r="47" spans="1:15" ht="51" customHeight="1">
+    <row r="47" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="4">
         <v>43433</v>
@@ -3741,7 +3758,7 @@
       </c>
       <c r="O47" s="6"/>
     </row>
-    <row r="48" spans="1:15" ht="30">
+    <row r="48" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="4">
         <v>43433</v>
@@ -3772,7 +3789,7 @@
       <c r="N48" s="3"/>
       <c r="O48" s="6"/>
     </row>
-    <row r="49" spans="1:15" ht="30">
+    <row r="49" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="4">
         <v>43433</v>
@@ -3803,7 +3820,7 @@
       <c r="N49" s="3"/>
       <c r="O49" s="6"/>
     </row>
-    <row r="50" spans="1:15" ht="30">
+    <row r="50" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="4">
         <v>43433</v>
@@ -3834,7 +3851,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="6"/>
     </row>
-    <row r="51" spans="1:15" ht="30">
+    <row r="51" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="4">
         <v>43433</v>
@@ -3863,7 +3880,7 @@
       <c r="N51" s="3"/>
       <c r="O51" s="6"/>
     </row>
-    <row r="52" spans="1:15" ht="30">
+    <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="4">
         <v>43433</v>
@@ -3892,7 +3909,7 @@
       <c r="N52" s="3"/>
       <c r="O52" s="6"/>
     </row>
-    <row r="53" spans="1:15" ht="45">
+    <row r="53" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="4">
         <v>43433</v>
@@ -3921,7 +3938,7 @@
       <c r="N53" s="3"/>
       <c r="O53" s="6"/>
     </row>
-    <row r="54" spans="1:15" ht="90">
+    <row r="54" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="4">
         <v>43433</v>
@@ -3954,7 +3971,7 @@
       </c>
       <c r="O54" s="6"/>
     </row>
-    <row r="55" spans="1:15" ht="90">
+    <row r="55" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="4">
         <v>43434</v>
@@ -3989,7 +4006,7 @@
       </c>
       <c r="O55" s="6"/>
     </row>
-    <row r="56" spans="1:15" ht="60">
+    <row r="56" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="4">
         <v>43434</v>
@@ -4018,7 +4035,7 @@
       <c r="N56" s="3"/>
       <c r="O56" s="6"/>
     </row>
-    <row r="57" spans="1:15" ht="42.75" customHeight="1">
+    <row r="57" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="4">
         <v>43434</v>
@@ -4053,7 +4070,7 @@
       </c>
       <c r="O57" s="6"/>
     </row>
-    <row r="58" spans="1:15" ht="60">
+    <row r="58" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="4">
         <v>43434</v>
@@ -4082,7 +4099,7 @@
       <c r="N58" s="3"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" ht="42" customHeight="1">
+    <row r="59" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="4">
         <v>43434</v>
@@ -4111,7 +4128,7 @@
       <c r="N59" s="3"/>
       <c r="O59" s="6"/>
     </row>
-    <row r="60" spans="1:15" ht="60">
+    <row r="60" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="4">
         <v>43434</v>
@@ -4140,7 +4157,7 @@
       <c r="N60" s="3"/>
       <c r="O60" s="6"/>
     </row>
-    <row r="61" spans="1:15" ht="60">
+    <row r="61" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="4">
         <v>43434</v>
@@ -4171,7 +4188,7 @@
       <c r="N61" s="3"/>
       <c r="O61" s="6"/>
     </row>
-    <row r="62" spans="1:15" ht="43.5" customHeight="1">
+    <row r="62" spans="1:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="28">
         <v>43434</v>
@@ -4190,7 +4207,7 @@
       <c r="H62" s="29"/>
       <c r="I62" s="29"/>
       <c r="J62" s="26" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K62" s="6" t="s">
         <v>448</v>
@@ -4206,7 +4223,7 @@
       </c>
       <c r="O62" s="6"/>
     </row>
-    <row r="63" spans="1:15" ht="75">
+    <row r="63" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="4">
         <v>43434</v>
@@ -4235,7 +4252,7 @@
       <c r="N63" s="3"/>
       <c r="O63" s="6"/>
     </row>
-    <row r="64" spans="1:15" ht="51" customHeight="1">
+    <row r="64" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="4">
         <v>43434</v>
@@ -4262,7 +4279,7 @@
       <c r="N64" s="3"/>
       <c r="O64" s="6"/>
     </row>
-    <row r="65" spans="1:15" ht="51" customHeight="1">
+    <row r="65" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="4">
         <v>43434</v>
@@ -4293,7 +4310,7 @@
       <c r="N65" s="3"/>
       <c r="O65" s="6"/>
     </row>
-    <row r="66" spans="1:15" ht="30">
+    <row r="66" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="4">
         <v>43434</v>
@@ -4322,7 +4339,7 @@
       <c r="N66" s="3"/>
       <c r="O66" s="6"/>
     </row>
-    <row r="67" spans="1:15" ht="40.5" customHeight="1">
+    <row r="67" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="4">
         <v>43434</v>
@@ -4357,7 +4374,7 @@
       </c>
       <c r="O67" s="6"/>
     </row>
-    <row r="68" spans="1:15" ht="75">
+    <row r="68" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="28">
         <v>43441</v>
@@ -4378,7 +4395,7 @@
       <c r="H68" s="29"/>
       <c r="I68" s="29"/>
       <c r="J68" s="26" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K68" s="6" t="s">
         <v>472</v>
@@ -4394,7 +4411,7 @@
       </c>
       <c r="O68" s="6"/>
     </row>
-    <row r="69" spans="1:15" ht="45">
+    <row r="69" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="4">
         <v>43441</v>
@@ -4427,7 +4444,7 @@
       <c r="N69" s="3"/>
       <c r="O69" s="6"/>
     </row>
-    <row r="70" spans="1:15" ht="45">
+    <row r="70" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="4">
         <v>43441</v>
@@ -4460,7 +4477,7 @@
       <c r="N70" s="3"/>
       <c r="O70" s="6"/>
     </row>
-    <row r="71" spans="1:15" ht="45.75" customHeight="1">
+    <row r="71" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="28">
         <v>43441</v>
@@ -4479,7 +4496,7 @@
       <c r="H71" s="29"/>
       <c r="I71" s="29"/>
       <c r="J71" s="26" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K71" s="6" t="s">
         <v>483</v>
@@ -4495,7 +4512,7 @@
       </c>
       <c r="O71" s="6"/>
     </row>
-    <row r="72" spans="1:15" ht="60">
+    <row r="72" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="4">
         <v>43441</v>
@@ -4516,7 +4533,7 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="26" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K72" s="6" t="s">
         <v>492</v>
@@ -4532,7 +4549,7 @@
       </c>
       <c r="O72" s="6"/>
     </row>
-    <row r="73" spans="1:15" ht="45">
+    <row r="73" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="4">
         <v>43441</v>
@@ -4563,7 +4580,7 @@
       <c r="N73" s="3"/>
       <c r="O73" s="6"/>
     </row>
-    <row r="74" spans="1:15" ht="45">
+    <row r="74" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="4">
         <v>43441</v>
@@ -4592,7 +4609,7 @@
       <c r="N74" s="3"/>
       <c r="O74" s="6"/>
     </row>
-    <row r="75" spans="1:15" ht="48" customHeight="1">
+    <row r="75" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="4">
         <v>43441</v>
@@ -4623,7 +4640,7 @@
       <c r="N75" s="3"/>
       <c r="O75" s="6"/>
     </row>
-    <row r="76" spans="1:15" ht="41.25" customHeight="1">
+    <row r="76" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="4">
         <v>43441</v>
@@ -4654,7 +4671,7 @@
       <c r="N76" s="3"/>
       <c r="O76" s="6"/>
     </row>
-    <row r="77" spans="1:15" ht="30">
+    <row r="77" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="4">
         <v>43441</v>
@@ -4685,7 +4702,7 @@
       <c r="N77" s="3"/>
       <c r="O77" s="6"/>
     </row>
-    <row r="78" spans="1:15" ht="45">
+    <row r="78" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="4">
         <v>43441</v>
@@ -4716,50 +4733,50 @@
       <c r="N78" s="3"/>
       <c r="O78" s="6"/>
     </row>
-    <row r="79" spans="1:15" ht="54" customHeight="1">
+    <row r="79" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
-      <c r="B79" s="4">
+      <c r="B79" s="28">
         <v>43441</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C79" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="D79" s="18" t="s">
+      <c r="D79" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E79" s="19" t="s">
+      <c r="E79" s="26" t="s">
         <v>513</v>
       </c>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18" t="s">
-        <v>516</v>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="26" t="s">
+        <v>581</v>
       </c>
       <c r="K79" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="L79" s="6" t="s">
+      <c r="L79" s="8" t="s">
         <v>515</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="3"/>
       <c r="O79" s="6"/>
     </row>
-    <row r="80" spans="1:15" ht="42" customHeight="1">
+    <row r="80" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="4">
         <v>43444</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>279</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>27</v>
@@ -4768,13 +4785,13 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>13</v>
@@ -4784,19 +4801,19 @@
       </c>
       <c r="O80" s="6"/>
     </row>
-    <row r="81" spans="1:15" ht="45">
+    <row r="81" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="4">
         <v>43444</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E81" s="6" t="s">
         <v>525</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>526</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>27</v>
@@ -4805,11 +4822,11 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K81" s="6"/>
       <c r="L81" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>13</v>
@@ -4819,19 +4836,19 @@
       </c>
       <c r="O81" s="6"/>
     </row>
-    <row r="82" spans="1:15" ht="48" customHeight="1">
+    <row r="82" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="4">
         <v>43444</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>27</v>
@@ -4840,13 +4857,13 @@
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="L82" s="6" t="s">
         <v>531</v>
-      </c>
-      <c r="K82" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="L82" s="6" t="s">
-        <v>532</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>13</v>
@@ -4856,19 +4873,19 @@
       </c>
       <c r="O82" s="6"/>
     </row>
-    <row r="83" spans="1:15" ht="38.25" customHeight="1">
+    <row r="83" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="4">
         <v>43444</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D83" s="18" t="s">
         <v>279</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F83" s="18" t="s">
         <v>27</v>
@@ -4877,62 +4894,62 @@
       <c r="H83" s="18"/>
       <c r="I83" s="18"/>
       <c r="J83" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="3"/>
       <c r="O83" s="6"/>
     </row>
-    <row r="84" spans="1:15" ht="45">
+    <row r="84" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
-      <c r="B84" s="4">
+      <c r="B84" s="28">
         <v>43444</v>
       </c>
-      <c r="C84" s="19" t="s">
+      <c r="C84" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D84" s="18" t="s">
-        <v>525</v>
-      </c>
-      <c r="E84" s="19" t="s">
+      <c r="D84" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="E84" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="F84" s="18" t="s">
+      <c r="F84" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18" t="s">
-        <v>544</v>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29" t="s">
+        <v>543</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L84" s="6"/>
       <c r="M84" s="2"/>
       <c r="N84" s="3"/>
       <c r="O84" s="6"/>
     </row>
-    <row r="85" spans="1:15" ht="46.5" customHeight="1">
+    <row r="85" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="4">
         <v>43444</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>27</v>
@@ -4941,13 +4958,13 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>13</v>
@@ -4957,13 +4974,13 @@
       </c>
       <c r="O85" s="6"/>
     </row>
-    <row r="86" spans="1:15" ht="45">
+    <row r="86" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="4">
         <v>43444</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>279</v>
@@ -4979,92 +4996,92 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="L86" s="8" t="s">
         <v>546</v>
-      </c>
-      <c r="L86" s="8" t="s">
-        <v>547</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="3"/>
       <c r="O86" s="6"/>
     </row>
-    <row r="87" spans="1:15" ht="45">
+    <row r="87" spans="1:15" ht="240" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
-      <c r="B87" s="4">
+      <c r="B87" s="28">
         <v>43444</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="D87" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" s="26" t="s">
         <v>548</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E87" s="6" t="s">
+      <c r="F87" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="26" t="s">
+        <v>580</v>
+      </c>
+      <c r="K87" s="6" t="s">
         <v>549</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="18" t="s">
-        <v>551</v>
-      </c>
-      <c r="K87" s="6" t="s">
-        <v>550</v>
       </c>
       <c r="L87" s="6"/>
       <c r="M87" s="2"/>
       <c r="N87" s="3"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="1:15" ht="45">
+    <row r="88" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
-      <c r="B88" s="4">
+      <c r="B88" s="30">
         <v>43444</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="31" t="s">
+        <v>550</v>
+      </c>
+      <c r="D88" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="E88" s="31" t="s">
+        <v>551</v>
+      </c>
+      <c r="F88" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="31" t="s">
+        <v>578</v>
+      </c>
+      <c r="K88" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="E88" s="6" t="s">
+      <c r="L88" s="8" t="s">
         <v>553</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="18" t="s">
-        <v>556</v>
-      </c>
-      <c r="K88" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="L88" s="6" t="s">
-        <v>555</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="3"/>
       <c r="O88" s="6"/>
     </row>
-    <row r="89" spans="1:15" ht="30">
+    <row r="89" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="4">
         <v>43444</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>31</v>
@@ -5074,23 +5091,23 @@
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="L89" s="6"/>
       <c r="M89" s="2"/>
       <c r="N89" s="3"/>
       <c r="O89" s="6"/>
     </row>
-    <row r="90" spans="1:15" ht="30">
+    <row r="90" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="4">
         <v>43444</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>332</v>
@@ -5103,26 +5120,26 @@
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="6" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="L90" s="6"/>
       <c r="M90" s="2"/>
       <c r="N90" s="3"/>
       <c r="O90" s="6"/>
     </row>
-    <row r="91" spans="1:15" ht="44.25" customHeight="1">
+    <row r="91" spans="1:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="4">
         <v>43444</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>27</v>
@@ -5132,28 +5149,28 @@
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="6" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="3"/>
       <c r="O91" s="6"/>
     </row>
-    <row r="92" spans="1:15" ht="63" customHeight="1">
+    <row r="92" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="4">
         <v>43444</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>27</v>
@@ -5163,10 +5180,10 @@
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="6" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="M92" s="3" t="s">
         <v>13</v>
@@ -5176,19 +5193,19 @@
       </c>
       <c r="O92" s="6"/>
     </row>
-    <row r="93" spans="1:15" ht="30">
+    <row r="93" spans="1:15" ht="255" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="4">
         <v>43444</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>277</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>31</v>
@@ -5198,57 +5215,57 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="6" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="L93" s="6"/>
       <c r="M93" s="2"/>
       <c r="N93" s="3"/>
       <c r="O93" s="6"/>
     </row>
-    <row r="94" spans="1:15" ht="45">
+    <row r="94" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
-      <c r="B94" s="4">
+      <c r="B94" s="28">
         <v>43444</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="C94" s="26" t="s">
+        <v>571</v>
+      </c>
+      <c r="D94" s="29" t="s">
         <v>451</v>
       </c>
-      <c r="E94" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="F94" s="2" t="s">
+      <c r="E94" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="F94" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="K94" s="6" t="s">
-        <v>575</v>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="29"/>
+      <c r="J94" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="K94" s="8" t="s">
+        <v>572</v>
       </c>
       <c r="L94" s="6"/>
       <c r="M94" s="2"/>
       <c r="N94" s="3"/>
       <c r="O94" s="6"/>
     </row>
-    <row r="95" spans="1:15" ht="30">
+    <row r="95" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="4">
         <v>43444</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>451</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>27</v>
@@ -5258,16 +5275,16 @@
       <c r="I95" s="2"/>
       <c r="J95" s="22"/>
       <c r="K95" s="6" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="L95" s="6" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="3"/>
       <c r="O95" s="6"/>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="4"/>
       <c r="C96" s="6"/>
@@ -5284,7 +5301,7 @@
       <c r="N96" s="3"/>
       <c r="O96" s="6"/>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="4"/>
       <c r="C97" s="6"/>
@@ -5301,7 +5318,7 @@
       <c r="N97" s="3"/>
       <c r="O97" s="6"/>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="4"/>
       <c r="C98" s="6"/>
@@ -5318,7 +5335,7 @@
       <c r="N98" s="3"/>
       <c r="O98" s="6"/>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="4"/>
       <c r="C99" s="6"/>
@@ -5335,7 +5352,7 @@
       <c r="N99" s="3"/>
       <c r="O99" s="6"/>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="4"/>
       <c r="C100" s="6"/>
@@ -5352,7 +5369,7 @@
       <c r="N100" s="3"/>
       <c r="O100" s="6"/>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="4"/>
       <c r="C101" s="6"/>
@@ -5369,7 +5386,7 @@
       <c r="N101" s="3"/>
       <c r="O101" s="6"/>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="4"/>
       <c r="C102" s="6"/>
@@ -5386,7 +5403,7 @@
       <c r="N102" s="3"/>
       <c r="O102" s="6"/>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="4"/>
       <c r="C103" s="6"/>
@@ -5403,7 +5420,7 @@
       <c r="N103" s="3"/>
       <c r="O103" s="6"/>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="4"/>
       <c r="C104" s="6"/>
@@ -5420,7 +5437,7 @@
       <c r="N104" s="3"/>
       <c r="O104" s="6"/>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="4"/>
       <c r="C105" s="6"/>
@@ -5437,7 +5454,7 @@
       <c r="N105" s="3"/>
       <c r="O105" s="6"/>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="4"/>
       <c r="C106" s="6"/>
@@ -5454,7 +5471,7 @@
       <c r="N106" s="3"/>
       <c r="O106" s="6"/>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="4"/>
       <c r="C107" s="6"/>
@@ -5471,7 +5488,7 @@
       <c r="N107" s="3"/>
       <c r="O107" s="6"/>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="4"/>
       <c r="C108" s="6"/>
@@ -5488,7 +5505,7 @@
       <c r="N108" s="3"/>
       <c r="O108" s="6"/>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="4"/>
       <c r="C109" s="6"/>
@@ -5505,7 +5522,7 @@
       <c r="N109" s="3"/>
       <c r="O109" s="6"/>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="4"/>
       <c r="C110" s="6"/>
@@ -5522,7 +5539,7 @@
       <c r="N110" s="3"/>
       <c r="O110" s="6"/>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="4"/>
       <c r="C111" s="6"/>
@@ -5539,7 +5556,7 @@
       <c r="N111" s="3"/>
       <c r="O111" s="6"/>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="4"/>
       <c r="C112" s="6"/>
@@ -5556,7 +5573,7 @@
       <c r="N112" s="3"/>
       <c r="O112" s="6"/>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="4"/>
       <c r="C113" s="6"/>
@@ -5573,7 +5590,7 @@
       <c r="N113" s="3"/>
       <c r="O113" s="6"/>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="4"/>
       <c r="C114" s="6"/>
@@ -5590,7 +5607,7 @@
       <c r="N114" s="3"/>
       <c r="O114" s="6"/>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="4"/>
       <c r="C115" s="6"/>
@@ -5607,7 +5624,7 @@
       <c r="N115" s="3"/>
       <c r="O115" s="6"/>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="4"/>
       <c r="C116" s="6"/>
@@ -5624,7 +5641,7 @@
       <c r="N116" s="3"/>
       <c r="O116" s="6"/>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="4"/>
       <c r="C117" s="6"/>
@@ -5641,7 +5658,7 @@
       <c r="N117" s="3"/>
       <c r="O117" s="6"/>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="4"/>
       <c r="C118" s="6"/>
@@ -5658,7 +5675,7 @@
       <c r="N118" s="3"/>
       <c r="O118" s="6"/>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="4"/>
       <c r="C119" s="6"/>
@@ -5675,7 +5692,7 @@
       <c r="N119" s="3"/>
       <c r="O119" s="6"/>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="4"/>
       <c r="C120" s="6"/>
@@ -5692,7 +5709,7 @@
       <c r="N120" s="3"/>
       <c r="O120" s="6"/>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="4"/>
       <c r="C121" s="6"/>
@@ -5709,7 +5726,7 @@
       <c r="N121" s="3"/>
       <c r="O121" s="6"/>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="4"/>
       <c r="C122" s="6"/>
@@ -5726,7 +5743,7 @@
       <c r="N122" s="3"/>
       <c r="O122" s="6"/>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="4"/>
       <c r="C123" s="6"/>
@@ -5743,7 +5760,7 @@
       <c r="N123" s="3"/>
       <c r="O123" s="6"/>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="4"/>
       <c r="C124" s="6"/>
@@ -5760,7 +5777,7 @@
       <c r="N124" s="3"/>
       <c r="O124" s="6"/>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="4"/>
       <c r="C125" s="6"/>
@@ -5777,7 +5794,7 @@
       <c r="N125" s="3"/>
       <c r="O125" s="6"/>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="4"/>
       <c r="C126" s="6"/>
@@ -5794,7 +5811,7 @@
       <c r="N126" s="3"/>
       <c r="O126" s="6"/>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="4"/>
       <c r="C127" s="6"/>
@@ -5811,7 +5828,7 @@
       <c r="N127" s="3"/>
       <c r="O127" s="6"/>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="4"/>
       <c r="C128" s="6"/>
@@ -5828,7 +5845,7 @@
       <c r="N128" s="3"/>
       <c r="O128" s="6"/>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="4"/>
       <c r="C129" s="6"/>
@@ -5845,7 +5862,7 @@
       <c r="N129" s="3"/>
       <c r="O129" s="6"/>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="4"/>
       <c r="C130" s="6"/>
@@ -5862,7 +5879,7 @@
       <c r="N130" s="3"/>
       <c r="O130" s="6"/>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="4"/>
       <c r="C131" s="6"/>
@@ -5879,7 +5896,7 @@
       <c r="N131" s="3"/>
       <c r="O131" s="6"/>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="4"/>
       <c r="C132" s="6"/>
@@ -5896,7 +5913,7 @@
       <c r="N132" s="3"/>
       <c r="O132" s="6"/>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="4"/>
       <c r="C133" s="6"/>
@@ -5913,7 +5930,7 @@
       <c r="N133" s="3"/>
       <c r="O133" s="6"/>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="4"/>
       <c r="C134" s="6"/>
@@ -5930,7 +5947,7 @@
       <c r="N134" s="3"/>
       <c r="O134" s="6"/>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="4"/>
       <c r="C135" s="6"/>
@@ -5949,7 +5966,7 @@
       <c r="N135" s="3"/>
       <c r="O135" s="6"/>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="4"/>
       <c r="C136" s="6"/>
@@ -5968,7 +5985,7 @@
       <c r="N136" s="3"/>
       <c r="O136" s="6"/>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="4"/>
       <c r="C137" s="6"/>
@@ -5985,7 +6002,7 @@
       <c r="N137" s="3"/>
       <c r="O137" s="6"/>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="4"/>
       <c r="C138" s="6"/>
@@ -6002,7 +6019,7 @@
       <c r="N138" s="3"/>
       <c r="O138" s="6"/>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="4"/>
       <c r="C139" s="6"/>
@@ -6019,7 +6036,7 @@
       <c r="N139" s="3"/>
       <c r="O139" s="6"/>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="4"/>
       <c r="C140" s="6"/>
@@ -6036,7 +6053,7 @@
       <c r="N140" s="3"/>
       <c r="O140" s="6"/>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="4"/>
       <c r="C141" s="6"/>
@@ -6053,7 +6070,7 @@
       <c r="N141" s="3"/>
       <c r="O141" s="6"/>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="4"/>
       <c r="C142" s="6"/>
@@ -6070,7 +6087,7 @@
       <c r="N142" s="3"/>
       <c r="O142" s="6"/>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="4"/>
       <c r="C143" s="6"/>
@@ -6087,7 +6104,7 @@
       <c r="N143" s="3"/>
       <c r="O143" s="6"/>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="4"/>
       <c r="C144" s="6"/>
@@ -6104,7 +6121,7 @@
       <c r="N144" s="3"/>
       <c r="O144" s="6"/>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="4"/>
       <c r="C145" s="6"/>
@@ -6121,7 +6138,7 @@
       <c r="N145" s="3"/>
       <c r="O145" s="6"/>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="4"/>
       <c r="C146" s="6"/>
@@ -6138,7 +6155,7 @@
       <c r="N146" s="3"/>
       <c r="O146" s="6"/>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="4"/>
       <c r="C147" s="6"/>
@@ -6155,7 +6172,7 @@
       <c r="N147" s="3"/>
       <c r="O147" s="6"/>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="4"/>
       <c r="C148" s="6"/>
@@ -6172,7 +6189,7 @@
       <c r="N148" s="3"/>
       <c r="O148" s="6"/>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="4"/>
       <c r="C149" s="6"/>
@@ -6189,7 +6206,7 @@
       <c r="N149" s="3"/>
       <c r="O149" s="6"/>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="4"/>
       <c r="C150" s="6"/>
@@ -6206,7 +6223,7 @@
       <c r="N150" s="3"/>
       <c r="O150" s="6"/>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="4"/>
       <c r="C151" s="6"/>
@@ -6223,7 +6240,7 @@
       <c r="N151" s="3"/>
       <c r="O151" s="6"/>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="4"/>
       <c r="C152" s="6"/>
@@ -6240,7 +6257,7 @@
       <c r="N152" s="3"/>
       <c r="O152" s="6"/>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="4"/>
       <c r="C153" s="6"/>
@@ -6257,7 +6274,7 @@
       <c r="N153" s="3"/>
       <c r="O153" s="6"/>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="4"/>
       <c r="C154" s="6"/>
@@ -6274,7 +6291,7 @@
       <c r="N154" s="3"/>
       <c r="O154" s="6"/>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="4"/>
       <c r="C155" s="6"/>
@@ -6291,7 +6308,7 @@
       <c r="N155" s="3"/>
       <c r="O155" s="6"/>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="4"/>
       <c r="C156" s="6"/>
@@ -6308,7 +6325,7 @@
       <c r="N156" s="3"/>
       <c r="O156" s="6"/>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="4"/>
       <c r="C157" s="6"/>
@@ -6325,7 +6342,7 @@
       <c r="N157" s="3"/>
       <c r="O157" s="6"/>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="4"/>
       <c r="C158" s="6"/>
@@ -6342,7 +6359,7 @@
       <c r="N158" s="3"/>
       <c r="O158" s="6"/>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="4"/>
       <c r="C159" s="6"/>
@@ -6359,7 +6376,7 @@
       <c r="N159" s="3"/>
       <c r="O159" s="6"/>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="4"/>
       <c r="C160" s="6"/>
@@ -6376,7 +6393,7 @@
       <c r="N160" s="3"/>
       <c r="O160" s="6"/>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="4"/>
       <c r="C161" s="6"/>
@@ -6394,86 +6411,90 @@
       <c r="O161" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C161"/>
+  <autoFilter ref="C1:C161" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1"/>
-    <hyperlink ref="N2" r:id="rId2"/>
-    <hyperlink ref="J4" r:id="rId3" tooltip="View this job description" display="https://autodesk.taleo.net/careersection/careersection/candidateacquisition/flow.jsf"/>
-    <hyperlink ref="L9" r:id="rId4"/>
-    <hyperlink ref="M14" r:id="rId5"/>
-    <hyperlink ref="N14" r:id="rId6"/>
-    <hyperlink ref="N20" r:id="rId7"/>
-    <hyperlink ref="N21" r:id="rId8"/>
-    <hyperlink ref="M21" r:id="rId9"/>
-    <hyperlink ref="N23" r:id="rId10"/>
-    <hyperlink ref="M23" r:id="rId11"/>
-    <hyperlink ref="N25" r:id="rId12"/>
-    <hyperlink ref="N28" r:id="rId13"/>
-    <hyperlink ref="L28" r:id="rId14" display="https://career8.successfactors.com/portalcareer?_s.crb=kNBYkSysisIRZTdxfVciJ8DJuxM%253d"/>
-    <hyperlink ref="N31" r:id="rId15"/>
-    <hyperlink ref="M32" r:id="rId16"/>
-    <hyperlink ref="N32" r:id="rId17"/>
-    <hyperlink ref="N24" r:id="rId18"/>
-    <hyperlink ref="L26" r:id="rId19"/>
-    <hyperlink ref="M36" r:id="rId20"/>
-    <hyperlink ref="N36" r:id="rId21"/>
-    <hyperlink ref="M41" r:id="rId22"/>
-    <hyperlink ref="N41" r:id="rId23"/>
-    <hyperlink ref="K41" r:id="rId24"/>
-    <hyperlink ref="L41" display="https://garmin.taleo.net/careersection/iam/accessmanagement/login.jsf?redirectionURI=https%3A%2F%2Fgarmin.taleo.net%2Fcareersection%2F2012_garmin_exp_tech%2Fjobsearch.ftl%3Fftlcompclass%3DLoginComponent&amp;TARGET=https%3A%2F%2Fgarmin.taleo.net%2Fcareersectio"/>
-    <hyperlink ref="M46" r:id="rId25"/>
-    <hyperlink ref="N46" r:id="rId26"/>
-    <hyperlink ref="M47" r:id="rId27"/>
-    <hyperlink ref="N47" r:id="rId28"/>
-    <hyperlink ref="L50" r:id="rId29"/>
-    <hyperlink ref="L51" r:id="rId30"/>
-    <hyperlink ref="M54" r:id="rId31"/>
-    <hyperlink ref="N54" r:id="rId32"/>
-    <hyperlink ref="M55" r:id="rId33"/>
-    <hyperlink ref="N55" r:id="rId34"/>
-    <hyperlink ref="M57" r:id="rId35"/>
-    <hyperlink ref="N57" r:id="rId36"/>
-    <hyperlink ref="M62" r:id="rId37"/>
-    <hyperlink ref="N62" r:id="rId38"/>
-    <hyperlink ref="L62" r:id="rId39"/>
-    <hyperlink ref="M67" r:id="rId40"/>
-    <hyperlink ref="N67" r:id="rId41"/>
-    <hyperlink ref="M71" r:id="rId42"/>
-    <hyperlink ref="N71" r:id="rId43"/>
-    <hyperlink ref="M72" r:id="rId44" display="sarath.sund@gmail.com"/>
-    <hyperlink ref="N72" r:id="rId45"/>
-    <hyperlink ref="L71" r:id="rId46" location="jobDetails=410516_5185"/>
-    <hyperlink ref="L68" r:id="rId47"/>
-    <hyperlink ref="M68" r:id="rId48"/>
-    <hyperlink ref="N68" r:id="rId49"/>
-    <hyperlink ref="N80" r:id="rId50"/>
-    <hyperlink ref="N81" r:id="rId51"/>
-    <hyperlink ref="N82" r:id="rId52"/>
-    <hyperlink ref="N85" r:id="rId53"/>
-    <hyperlink ref="L86" r:id="rId54"/>
-    <hyperlink ref="M92" r:id="rId55"/>
-    <hyperlink ref="N92" r:id="rId56"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J4" r:id="rId3" tooltip="View this job description" display="https://autodesk.taleo.net/careersection/careersection/candidateacquisition/flow.jsf" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="N14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="N20" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="N21" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="M21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="N23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="M23" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="N25" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="N28" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="L28" r:id="rId14" display="https://career8.successfactors.com/portalcareer?_s.crb=kNBYkSysisIRZTdxfVciJ8DJuxM%253d" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="N31" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="M32" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="N32" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="N24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="L26" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="M36" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="N36" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="M41" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="N41" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="K41" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="L41" display="https://garmin.taleo.net/careersection/iam/accessmanagement/login.jsf?redirectionURI=https%3A%2F%2Fgarmin.taleo.net%2Fcareersection%2F2012_garmin_exp_tech%2Fjobsearch.ftl%3Fftlcompclass%3DLoginComponent&amp;TARGET=https%3A%2F%2Fgarmin.taleo.net%2Fcareersectio" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="M46" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="N46" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="M47" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="N47" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="L50" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L51" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="M54" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="N54" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="M55" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="N55" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="M57" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="N57" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="M62" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="N62" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="L62" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="M67" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="N67" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="M71" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="N71" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="M72" r:id="rId44" display="sarath.sund@gmail.com" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="N72" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="L71" r:id="rId46" location="jobDetails=410516_5185" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="L68" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="M68" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="N68" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="N80" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="N81" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="N82" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="N85" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="L86" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="M92" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="N92" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="L88" r:id="rId57" xr:uid="{BD37E33B-8CD6-4A5D-9A47-AE8971068A84}"/>
+    <hyperlink ref="K88" r:id="rId58" xr:uid="{B88746A5-0EED-4892-AE02-C1B8CAAA44B0}"/>
+    <hyperlink ref="L79" r:id="rId59" xr:uid="{AF55B6D0-332F-4F31-AB45-50DF3CFFA4C9}"/>
+    <hyperlink ref="K94" r:id="rId60" xr:uid="{FB0C6F1F-F9B7-490E-8EF8-B6A95C546B27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId57"/>
+  <pageSetup orientation="portrait" r:id="rId61"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D3:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:6">
+    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E3" s="9" t="s">
         <v>60</v>
       </c>
@@ -6481,7 +6502,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="4:6">
+    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>1</v>
       </c>
@@ -6492,7 +6513,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="4:6">
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>2</v>
       </c>
@@ -6503,7 +6524,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="4:6">
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>3</v>
       </c>
@@ -6514,7 +6535,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="4:6">
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>4</v>
       </c>
@@ -6522,7 +6543,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="4:6">
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>5</v>
       </c>
@@ -6530,7 +6551,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="4:6">
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>6</v>
       </c>
@@ -6538,7 +6559,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="4:6">
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>7</v>
       </c>
@@ -6546,7 +6567,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="4:6">
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>8</v>
       </c>
@@ -6554,7 +6575,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="4:6">
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>9</v>
       </c>
@@ -6562,7 +6583,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="4:6">
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>10</v>
       </c>
@@ -6570,7 +6591,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="4:6">
+    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>11</v>
       </c>
@@ -6578,7 +6599,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="4:6">
+    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>12</v>
       </c>
@@ -6586,7 +6607,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="4:6">
+    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D16">
         <v>13</v>
       </c>
@@ -6594,7 +6615,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>14</v>
       </c>
@@ -6602,7 +6623,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>15</v>
       </c>
@@ -6610,7 +6631,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>16</v>
       </c>
@@ -6618,7 +6639,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>17</v>
       </c>
@@ -6626,7 +6647,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="4:5">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>18</v>
       </c>
@@ -6634,7 +6655,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="4:5">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>19</v>
       </c>
@@ -6649,19 +6670,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="E1:G86"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="7" width="48.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:7" ht="15.75" thickBot="1">
+    <row r="1" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1" s="10" t="s">
         <v>0</v>
       </c>
@@ -6672,7 +6693,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="5:7" ht="16.5" thickTop="1" thickBot="1">
+    <row r="2" spans="5:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E2">
         <v>1</v>
       </c>
@@ -6683,7 +6704,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="5:7" ht="15.75" thickBot="1">
+    <row r="3" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E3">
         <v>2</v>
       </c>
@@ -6694,7 +6715,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="5:7" ht="15.75" thickBot="1">
+    <row r="4" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E4">
         <v>3</v>
       </c>
@@ -6705,7 +6726,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="5:7" ht="15.75" thickBot="1">
+    <row r="5" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E5">
         <v>4</v>
       </c>
@@ -6716,7 +6737,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="5:7" ht="15.75" thickBot="1">
+    <row r="6" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6">
         <v>5</v>
       </c>
@@ -6727,7 +6748,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="5:7" ht="15.75" thickBot="1">
+    <row r="7" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7">
         <v>6</v>
       </c>
@@ -6738,7 +6759,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="5:7" ht="15.75" thickBot="1">
+    <row r="8" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8">
         <v>7</v>
       </c>
@@ -6749,7 +6770,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:7" ht="15.75" thickBot="1">
+    <row r="9" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9">
         <v>8</v>
       </c>
@@ -6760,7 +6781,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:7" ht="15.75" thickBot="1">
+    <row r="10" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10">
         <v>9</v>
       </c>
@@ -6771,7 +6792,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="5:7" ht="15.75" thickBot="1">
+    <row r="11" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11">
         <v>10</v>
       </c>
@@ -6782,7 +6803,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="5:7" ht="15.75" thickBot="1">
+    <row r="12" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12">
         <v>11</v>
       </c>
@@ -6793,7 +6814,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="5:7" ht="15.75" thickBot="1">
+    <row r="13" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13">
         <v>12</v>
       </c>
@@ -6804,7 +6825,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="5:7" ht="15.75" thickBot="1">
+    <row r="14" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14">
         <v>13</v>
       </c>
@@ -6815,7 +6836,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="5:7" ht="15.75" thickBot="1">
+    <row r="15" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15">
         <v>14</v>
       </c>
@@ -6826,7 +6847,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="5:7" ht="15.75" thickBot="1">
+    <row r="16" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16">
         <v>15</v>
       </c>
@@ -6837,7 +6858,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="5:7" ht="15.75" thickBot="1">
+    <row r="17" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17">
         <v>16</v>
       </c>
@@ -6848,7 +6869,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="5:7" ht="15.75" thickBot="1">
+    <row r="18" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18">
         <v>17</v>
       </c>
@@ -6859,7 +6880,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="5:7" ht="15.75" thickBot="1">
+    <row r="19" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19">
         <v>18</v>
       </c>
@@ -6870,7 +6891,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="5:7" ht="15.75" thickBot="1">
+    <row r="20" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20">
         <v>19</v>
       </c>
@@ -6881,7 +6902,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="5:7" ht="15.75" thickBot="1">
+    <row r="21" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21">
         <v>20</v>
       </c>
@@ -6892,7 +6913,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="5:7" ht="15.75" thickBot="1">
+    <row r="22" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22">
         <v>21</v>
       </c>
@@ -6903,7 +6924,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="5:7" ht="15.75" thickBot="1">
+    <row r="23" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23">
         <v>22</v>
       </c>
@@ -6914,7 +6935,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="5:7" ht="15.75" thickBot="1">
+    <row r="24" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E24">
         <v>23</v>
       </c>
@@ -6925,7 +6946,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="5:7" ht="15.75" thickBot="1">
+    <row r="25" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E25">
         <v>24</v>
       </c>
@@ -6936,7 +6957,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="5:7" ht="15.75" thickBot="1">
+    <row r="26" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26">
         <v>25</v>
       </c>
@@ -6947,7 +6968,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="5:7" ht="15.75" thickBot="1">
+    <row r="27" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27">
         <v>26</v>
       </c>
@@ -6958,7 +6979,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="5:7" ht="15.75" thickBot="1">
+    <row r="28" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28">
         <v>27</v>
       </c>
@@ -6969,7 +6990,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="5:7" ht="15.75" thickBot="1">
+    <row r="29" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E29">
         <v>28</v>
       </c>
@@ -6980,7 +7001,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="5:7" ht="15.75" thickBot="1">
+    <row r="30" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E30">
         <v>29</v>
       </c>
@@ -6991,7 +7012,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="5:7" ht="15.75" thickBot="1">
+    <row r="31" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E31">
         <v>30</v>
       </c>
@@ -7002,7 +7023,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="5:7" ht="15.75" thickBot="1">
+    <row r="32" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E32">
         <v>31</v>
       </c>
@@ -7013,7 +7034,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="5:7" ht="15.75" thickBot="1">
+    <row r="33" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E33">
         <v>32</v>
       </c>
@@ -7024,7 +7045,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="5:7" ht="15.75" thickBot="1">
+    <row r="34" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E34">
         <v>33</v>
       </c>
@@ -7035,7 +7056,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="35" spans="5:7" ht="15.75" thickBot="1">
+    <row r="35" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E35">
         <v>34</v>
       </c>
@@ -7046,7 +7067,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="5:7" ht="15.75" thickBot="1">
+    <row r="36" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E36">
         <v>35</v>
       </c>
@@ -7057,7 +7078,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="5:7" ht="15.75" thickBot="1">
+    <row r="37" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E37">
         <v>36</v>
       </c>
@@ -7068,7 +7089,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="5:7" ht="15.75" thickBot="1">
+    <row r="38" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E38">
         <v>37</v>
       </c>
@@ -7079,7 +7100,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="5:7" ht="15.75" thickBot="1">
+    <row r="39" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E39">
         <v>38</v>
       </c>
@@ -7090,7 +7111,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="5:7" ht="15.75" thickBot="1">
+    <row r="40" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E40">
         <v>39</v>
       </c>
@@ -7101,7 +7122,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="41" spans="5:7" ht="15.75" thickBot="1">
+    <row r="41" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E41">
         <v>40</v>
       </c>
@@ -7112,7 +7133,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="5:7" ht="15.75" thickBot="1">
+    <row r="42" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E42">
         <v>41</v>
       </c>
@@ -7123,7 +7144,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="5:7" ht="15.75" thickBot="1">
+    <row r="43" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E43">
         <v>42</v>
       </c>
@@ -7134,7 +7155,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="44" spans="5:7" ht="15.75" thickBot="1">
+    <row r="44" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E44">
         <v>43</v>
       </c>
@@ -7145,7 +7166,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="5:7" ht="15.75" thickBot="1">
+    <row r="45" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E45">
         <v>44</v>
       </c>
@@ -7156,7 +7177,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="5:7" ht="15.75" thickBot="1">
+    <row r="46" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E46">
         <v>45</v>
       </c>
@@ -7167,7 +7188,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="5:7" ht="15.75" thickBot="1">
+    <row r="47" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47">
         <v>46</v>
       </c>
@@ -7178,7 +7199,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="48" spans="5:7" ht="15.75" thickBot="1">
+    <row r="48" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E48">
         <v>47</v>
       </c>
@@ -7189,7 +7210,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="49" spans="5:7" ht="15.75" thickBot="1">
+    <row r="49" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E49">
         <v>48</v>
       </c>
@@ -7200,7 +7221,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="5:7" ht="15.75" thickBot="1">
+    <row r="50" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E50">
         <v>49</v>
       </c>
@@ -7211,7 +7232,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="5:7" ht="15.75" thickBot="1">
+    <row r="51" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E51">
         <v>50</v>
       </c>
@@ -7222,7 +7243,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="52" spans="5:7" ht="15.75" thickBot="1">
+    <row r="52" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E52">
         <v>51</v>
       </c>
@@ -7233,7 +7254,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="53" spans="5:7" ht="15.75" thickBot="1">
+    <row r="53" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E53">
         <v>52</v>
       </c>
@@ -7244,7 +7265,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="54" spans="5:7" ht="15.75" thickBot="1">
+    <row r="54" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E54">
         <v>53</v>
       </c>
@@ -7255,7 +7276,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="55" spans="5:7" ht="15.75" thickBot="1">
+    <row r="55" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E55">
         <v>54</v>
       </c>
@@ -7266,7 +7287,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="5:7" ht="15.75" thickBot="1">
+    <row r="56" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E56">
         <v>55</v>
       </c>
@@ -7277,7 +7298,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="57" spans="5:7" ht="15.75" thickBot="1">
+    <row r="57" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E57">
         <v>56</v>
       </c>
@@ -7288,7 +7309,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="5:7" ht="15.75" thickBot="1">
+    <row r="58" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E58">
         <v>57</v>
       </c>
@@ -7299,7 +7320,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="59" spans="5:7" ht="15.75" thickBot="1">
+    <row r="59" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E59">
         <v>58</v>
       </c>
@@ -7310,7 +7331,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="60" spans="5:7" ht="15.75" thickBot="1">
+    <row r="60" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E60">
         <v>59</v>
       </c>
@@ -7321,7 +7342,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="61" spans="5:7" ht="15.75" thickBot="1">
+    <row r="61" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E61">
         <v>60</v>
       </c>
@@ -7332,7 +7353,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="62" spans="5:7" ht="15.75" thickBot="1">
+    <row r="62" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E62">
         <v>61</v>
       </c>
@@ -7343,7 +7364,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="5:7" ht="15.75" thickBot="1">
+    <row r="63" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E63">
         <v>62</v>
       </c>
@@ -7354,7 +7375,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="64" spans="5:7" ht="15.75" thickBot="1">
+    <row r="64" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E64">
         <v>63</v>
       </c>
@@ -7365,7 +7386,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="5:7" ht="15.75" thickBot="1">
+    <row r="65" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E65">
         <v>64</v>
       </c>
@@ -7376,7 +7397,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="66" spans="5:7" ht="15.75" thickBot="1">
+    <row r="66" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E66">
         <v>65</v>
       </c>
@@ -7387,7 +7408,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="67" spans="5:7" ht="15.75" thickBot="1">
+    <row r="67" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E67">
         <v>66</v>
       </c>
@@ -7398,7 +7419,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="5:7" ht="15.75" thickBot="1">
+    <row r="68" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E68">
         <v>67</v>
       </c>
@@ -7409,7 +7430,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="69" spans="5:7" ht="15.75" thickBot="1">
+    <row r="69" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E69">
         <v>68</v>
       </c>
@@ -7420,7 +7441,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="70" spans="5:7" ht="15.75" thickBot="1">
+    <row r="70" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E70">
         <v>69</v>
       </c>
@@ -7431,7 +7452,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="5:7" ht="15.75" thickBot="1">
+    <row r="71" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E71">
         <v>70</v>
       </c>
@@ -7442,7 +7463,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="72" spans="5:7" ht="15.75" thickBot="1">
+    <row r="72" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E72">
         <v>71</v>
       </c>
@@ -7453,7 +7474,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="73" spans="5:7" ht="15.75" thickBot="1">
+    <row r="73" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E73">
         <v>72</v>
       </c>
@@ -7464,7 +7485,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="5:7" ht="15.75" thickBot="1">
+    <row r="74" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E74">
         <v>73</v>
       </c>
@@ -7475,7 +7496,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="5:7" ht="15.75" thickBot="1">
+    <row r="75" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E75">
         <v>74</v>
       </c>
@@ -7486,7 +7507,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="5:7" ht="15.75" thickBot="1">
+    <row r="76" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E76">
         <v>75</v>
       </c>
@@ -7497,7 +7518,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="5:7" ht="15.75" thickBot="1">
+    <row r="77" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E77">
         <v>76</v>
       </c>
@@ -7508,7 +7529,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="5:7" ht="15.75" thickBot="1">
+    <row r="78" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E78">
         <v>77</v>
       </c>
@@ -7519,7 +7540,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="79" spans="5:7" ht="15.75" thickBot="1">
+    <row r="79" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E79">
         <v>78</v>
       </c>
@@ -7530,7 +7551,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="5:7" ht="15.75" thickBot="1">
+    <row r="80" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E80">
         <v>79</v>
       </c>
@@ -7541,7 +7562,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="5:7" ht="15.75" thickBot="1">
+    <row r="81" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E81">
         <v>80</v>
       </c>
@@ -7552,7 +7573,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="82" spans="5:7" ht="15.75" thickBot="1">
+    <row r="82" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E82">
         <v>81</v>
       </c>
@@ -7563,7 +7584,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="5:7" ht="15.75" thickBot="1">
+    <row r="83" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E83">
         <v>82</v>
       </c>
@@ -7574,7 +7595,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="84" spans="5:7" ht="15.75" thickBot="1">
+    <row r="84" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E84">
         <v>83</v>
       </c>
@@ -7585,7 +7606,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="85" spans="5:7" ht="15.75" thickBot="1">
+    <row r="85" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E85">
         <v>84</v>
       </c>
@@ -7596,201 +7617,201 @@
         <v>199</v>
       </c>
     </row>
-    <row r="86" spans="5:7" ht="15.75" thickBot="1">
+    <row r="86" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://www.forbes.com/companies/ibm/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G2" r:id="rId2" display="http://www.ibm.com/"/>
-    <hyperlink ref="F3" r:id="rId3" display="https://www.forbes.com/companies/dxc-technology/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G3" r:id="rId4" display="http://www.dxc.technology/"/>
-    <hyperlink ref="F4" r:id="rId5" display="https://www.forbes.com/companies/deloitte-touche-tohmatsu/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G4" r:id="rId6" display="http://www.deloitte.com/"/>
-    <hyperlink ref="F5" r:id="rId7" display="https://www.forbes.com/companies/cisco-systems/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G5" r:id="rId8" display="http://www.cisco.com/"/>
-    <hyperlink ref="F6" r:id="rId9" display="https://www.forbes.com/companies/accenture/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G6" r:id="rId10" display="http://www.accenture.com/"/>
-    <hyperlink ref="F7" r:id="rId11" display="https://www.forbes.com/companies/sap/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G7" r:id="rId12" display="http://www.sap.com/"/>
-    <hyperlink ref="F8" r:id="rId13" display="https://www.forbes.com/companies/pricewaterhousecoopers/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G8" r:id="rId14" display="http://www.pwc.com/"/>
-    <hyperlink ref="F9" r:id="rId15" display="https://www.forbes.com/companies/oracle/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G9" r:id="rId16" display="http://www.oracle.com/"/>
-    <hyperlink ref="F10" r:id="rId17" display="https://www.forbes.com/companies/mckinsey-company/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G10" r:id="rId18" display="http://www.mckinsey.com/"/>
-    <hyperlink ref="F11" r:id="rId19" display="https://www.forbes.com/companies/kpmg/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G11" r:id="rId20" display="http://www.kpmg.com/"/>
-    <hyperlink ref="F12" r:id="rId21" display="https://www.forbes.com/companies/infosys-consulting/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G12" r:id="rId22" display="http://www.infosys.com/"/>
-    <hyperlink ref="F13" r:id="rId23" display="https://www.forbes.com/companies/information-services-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G13" r:id="rId24" display="http://www.isg-one.com/"/>
-    <hyperlink ref="F14" r:id="rId25" display="https://www.forbes.com/companies/gartner/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G14" r:id="rId26" display="http://www.gartner.com/"/>
-    <hyperlink ref="F15" r:id="rId27" display="https://www.forbes.com/companies/ernst-young/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G15" r:id="rId28" display="http://www.ey.com/"/>
-    <hyperlink ref="F16" r:id="rId29" display="https://www.forbes.com/companies/boston-consulting-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G16" r:id="rId30" display="http://www.bcg.com/"/>
-    <hyperlink ref="F17" r:id="rId31" display="https://www.forbes.com/companies/booz-allen-hamilton/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G17" r:id="rId32" display="http://www.boozallen.com/"/>
-    <hyperlink ref="F18" r:id="rId33" display="https://www.forbes.com/companies/west-monroe-partners/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G18" r:id="rId34" display="http://www.westmonroepartners.com/"/>
-    <hyperlink ref="F19" r:id="rId35" display="https://www.forbes.com/companies/the-chartis-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G19" r:id="rId36" display="http://www.chartis.com/"/>
-    <hyperlink ref="F20" r:id="rId37" display="https://www.forbes.com/companies/tata-consultancy-services/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G20" r:id="rId38" display="http://www.tcs.com/"/>
-    <hyperlink ref="F21" r:id="rId39" display="https://www.forbes.com/companies/strategy/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G21" r:id="rId40" display="http://www.strategyand.pwc.com/"/>
-    <hyperlink ref="F22" r:id="rId41" display="https://www.forbes.com/companies/ssa-company/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G22" r:id="rId42" display="http://www.ssaandco.com/"/>
-    <hyperlink ref="F23" r:id="rId43" display="https://www.forbes.com/companies/slalom-consulting/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G23" r:id="rId44" display="http://www.slalom.com/"/>
-    <hyperlink ref="F24" r:id="rId45" display="https://www.forbes.com/companies/sapient/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G24" r:id="rId46" display="http://www.sapientconsulting.com/"/>
-    <hyperlink ref="F25" r:id="rId47" display="https://www.forbes.com/companies/roland-berger-strategy-consultants/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G25" r:id="rId48" display="http://www.rolandberger.com/"/>
-    <hyperlink ref="F26" r:id="rId49" display="https://www.forbes.com/companies/resources-global-professionals/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G26" r:id="rId50" display="http://www.rgp.com/"/>
-    <hyperlink ref="F27" r:id="rId51" display="https://www.forbes.com/companies/protiviti/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G27" r:id="rId52" display="http://www.protiviti.com/"/>
-    <hyperlink ref="F28" r:id="rId53" display="https://www.forbes.com/companies/point-b/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G28" r:id="rId54" display="http://www.pointb.com/"/>
-    <hyperlink ref="F29" r:id="rId55" display="https://www.forbes.com/companies/oliver-wyman/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G29" r:id="rId56" display="http://www.oliverwyman.com/"/>
-    <hyperlink ref="F30" r:id="rId57" display="https://www.forbes.com/companies/oasys-international/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G30" r:id="rId58" display="http://www.oasysic.com/"/>
-    <hyperlink ref="F31" r:id="rId59" display="https://www.forbes.com/companies/novantas/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G31" r:id="rId60" display="http://www.novantas.com/"/>
-    <hyperlink ref="F32" r:id="rId61" display="https://www.forbes.com/companies/north-highland/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G32" r:id="rId62" display="http://www.northhighland.com/"/>
-    <hyperlink ref="F33" r:id="rId63" display="https://www.forbes.com/companies/medmatica-consulting-associates/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G33" r:id="rId64" display="http://www.medmatica.com/"/>
-    <hyperlink ref="F34" r:id="rId65" display="https://www.forbes.com/companies/lockheed-martin/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G34" r:id="rId66" display="http://www.lockheedmartin.com/"/>
-    <hyperlink ref="F35" r:id="rId67" display="https://www.forbes.com/companies/leappoint/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G35" r:id="rId68" display="http://leappoint.com/"/>
-    <hyperlink ref="F36" r:id="rId69" display="https://www.forbes.com/companies/kurt-salmon/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G36" r:id="rId70" display="http://www.kurtsalmon.com/"/>
-    <hyperlink ref="F37" r:id="rId71" display="https://www.forbes.com/companies/jabian-consulting/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G37" r:id="rId72" display="http://www.jabian.com/"/>
-    <hyperlink ref="F38" r:id="rId73" display="https://www.forbes.com/companies/impact-advisors/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G38" r:id="rId74" display="http://www.impact-advisors.com/"/>
-    <hyperlink ref="F39" r:id="rId75" display="https://www.forbes.com/companies/ignyte-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G39" r:id="rId76" display="http://ignytegroup.com/"/>
-    <hyperlink ref="F40" r:id="rId77" display="https://www.forbes.com/companies/huron-consulting-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G40" r:id="rId78" display="http://www.huronconsultinggroup.com/"/>
-    <hyperlink ref="F41" r:id="rId79" display="https://www.forbes.com/companies/grant-thornton/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G41" r:id="rId80" display="http://www.grantthornton.com/"/>
-    <hyperlink ref="F42" r:id="rId81" display="https://www.forbes.com/companies/fti-consulting/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G42" r:id="rId82" display="http://www.fticonsulting.com/"/>
-    <hyperlink ref="F43" r:id="rId83" display="https://www.forbes.com/companies/forsythe-solutions-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G43" r:id="rId84" display="http://www.forsythe.com/"/>
-    <hyperlink ref="F44" r:id="rId85" display="https://www.forbes.com/companies/everest-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G44" r:id="rId86" display="http://www.everestgrp.com/"/>
-    <hyperlink ref="F45" r:id="rId87" display="https://www.forbes.com/companies/cumberland-consulting-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G45" r:id="rId88" display="http://www.cumberlandcg.com/"/>
-    <hyperlink ref="F46" r:id="rId89" display="https://www.forbes.com/companies/cognizant/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G46" r:id="rId90" display="http://www.cognizant.com/"/>
-    <hyperlink ref="F47" r:id="rId91" display="https://www.forbes.com/companies/clarkston-consulting/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G47" r:id="rId92" display="http://www.clarkstonconsulting.com/"/>
-    <hyperlink ref="F48" r:id="rId93" display="https://www.forbes.com/companies/cgn-global/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G48" r:id="rId94" display="http://www.cgnglobal.com/"/>
-    <hyperlink ref="F49" r:id="rId95" display="https://www.forbes.com/companies/censeo-consulting-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G49" r:id="rId96" display="http://www.censeoconsulting.com/"/>
-    <hyperlink ref="F50" r:id="rId97" display="https://www.forbes.com/companies/captech/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G50" r:id="rId98" display="http://www.captechconsulting.com/"/>
-    <hyperlink ref="F51" r:id="rId99" display="https://www.forbes.com/companies/capgemini-consulting/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G51" r:id="rId100" display="http://www.capgemini.com/"/>
-    <hyperlink ref="F52" r:id="rId101" display="https://www.forbes.com/companies/brattle-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G52" r:id="rId102" display="http://www.brattle.com/"/>
-    <hyperlink ref="F53" r:id="rId103" display="https://www.forbes.com/companies/bdo-usa/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G53" r:id="rId104" display="http://www.bdo.com/"/>
-    <hyperlink ref="F54" r:id="rId105" display="https://www.forbes.com/companies/bain-and-company/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G54" r:id="rId106" display="http://www.bain.com/"/>
-    <hyperlink ref="F55" r:id="rId107" display="https://www.forbes.com/companies/bae-systems/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G55" r:id="rId108" display="http://www.baesystems.com/"/>
-    <hyperlink ref="F56" r:id="rId109" display="https://www.forbes.com/companies/avasant/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G56" r:id="rId110" display="http://www.avasant.com/"/>
-    <hyperlink ref="F57" r:id="rId111" display="https://www.forbes.com/companies/at-kearney/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G57" r:id="rId112" display="http://www.atkearney.com/"/>
-    <hyperlink ref="F58" r:id="rId113" display="https://www.forbes.com/companies/arthur-d-little/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G58" r:id="rId114" display="http://www.adlittle.com/"/>
-    <hyperlink ref="F59" r:id="rId115" display="https://www.forbes.com/companies/archpoint/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G59" r:id="rId116" display="http://www.archpointconsulting.com/"/>
-    <hyperlink ref="F60" r:id="rId117" display="https://www.forbes.com/companies/appirio/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G60" r:id="rId118" display="http://www.appirio.com/"/>
-    <hyperlink ref="F61" r:id="rId119" display="https://www.forbes.com/companies/alixpartners/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G61" r:id="rId120" display="http://www.alixpartners.com/"/>
-    <hyperlink ref="F62" r:id="rId121" display="https://www.forbes.com/companies/microsoft/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G62" r:id="rId122" display="http://www.microsoft.com/"/>
-    <hyperlink ref="F63" r:id="rId123" display="https://www.forbes.com/companies/wipro/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G63" r:id="rId124" display="http://www.wipro.com/"/>
-    <hyperlink ref="F64" r:id="rId125" display="https://www.forbes.com/companies/virtusa/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G64" r:id="rId126" display="http://www.virtusa.com/"/>
-    <hyperlink ref="F65" r:id="rId127" display="https://www.forbes.com/companies/ntt-data-services/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G65" r:id="rId128" display="http://us.nttdata.com/"/>
-    <hyperlink ref="F66" r:id="rId129" display="https://www.forbes.com/companies/mckinnis-consulting-services/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G66" r:id="rId130" display="http://www.mckinnisconsulting.com/"/>
-    <hyperlink ref="F67" r:id="rId131" display="https://www.forbes.com/companies/hitachi-consulting/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G67" r:id="rId132" display="http://www.hitachiconsulting.com/"/>
-    <hyperlink ref="F68" r:id="rId133" display="https://www.forbes.com/companies/hcl-technologies/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G68" r:id="rId134" display="http://www.hcltech.com/"/>
-    <hyperlink ref="F69" r:id="rId135" display="https://www.forbes.com/companies/fujitsu-america/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G69" r:id="rId136" display="http://www.fujitsu.com/"/>
-    <hyperlink ref="F70" r:id="rId137" display="https://www.forbes.com/companies/bridge-solutions-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G70" r:id="rId138" display="http://bridgesgi.com/"/>
-    <hyperlink ref="F71" r:id="rId139" display="https://www.forbes.com/companies/blue-horseshoe-solutions/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G71" r:id="rId140" display="http://www.bhsolutions.com/"/>
-    <hyperlink ref="F72" r:id="rId141" display="https://www.forbes.com/companies/application-consulting-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G72" r:id="rId142" display="http://www.acgi.com/"/>
-    <hyperlink ref="F73" r:id="rId143" display="https://www.forbes.com/companies/simon-kucher-partners/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G73" r:id="rId144" display="http://www.simon-kucher.com/"/>
-    <hyperlink ref="F74" r:id="rId145" display="https://www.forbes.com/companies/navigant-consulting/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G74" r:id="rId146" display="http://www.navigant.com/"/>
-    <hyperlink ref="F75" r:id="rId147" display="https://www.forbes.com/companies/keystone-strategy/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G75" r:id="rId148" display="http://www.keystonestrategy.com/"/>
-    <hyperlink ref="F76" r:id="rId149" display="https://www.forbes.com/companies/kaiser-associates/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G76" r:id="rId150" display="http://www.kaiserassociates.com/"/>
-    <hyperlink ref="F77" r:id="rId151" display="https://www.forbes.com/companies/insight-sourcing-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G77" r:id="rId152" display="http://www.insightsourcing.com/"/>
-    <hyperlink ref="F78" r:id="rId153" display="https://www.forbes.com/companies/innosight/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G78" r:id="rId154" display="http://www.innosight.com/"/>
-    <hyperlink ref="F79" r:id="rId155" display="https://www.forbes.com/companies/ibb-consulting-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G79" r:id="rId156" display="http://www.ibbconsulting.com/"/>
-    <hyperlink ref="F80" r:id="rId157" display="https://www.forbes.com/companies/hay-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G80" r:id="rId158" display="http://www.haygroup.com/"/>
-    <hyperlink ref="F81" r:id="rId159" display="https://www.forbes.com/companies/cornerstone-research/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G81" r:id="rId160" display="http://www.cornerstone.com/"/>
-    <hyperlink ref="F82" r:id="rId161" display="https://www.forbes.com/companies/charles-river-associates/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G82" r:id="rId162" display="http://www.crai.com/"/>
-    <hyperlink ref="F83" r:id="rId163" display="https://www.forbes.com/companies/centric-consulting/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G83" r:id="rId164" display="http://www.centricconsulting.com/"/>
-    <hyperlink ref="F84" r:id="rId165" display="https://www.forbes.com/companies/bates-white/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G84" r:id="rId166" display="http://www.bateswhite.com/"/>
-    <hyperlink ref="F85" r:id="rId167" display="https://www.forbes.com/companies/avanade/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G85" r:id="rId168" display="http://www.avanade.com/"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://www.forbes.com/companies/ibm/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId2" display="http://www.ibm.com/" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="F3" r:id="rId3" display="https://www.forbes.com/companies/dxc-technology/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="G3" r:id="rId4" display="http://www.dxc.technology/" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="F4" r:id="rId5" display="https://www.forbes.com/companies/deloitte-touche-tohmatsu/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="G4" r:id="rId6" display="http://www.deloitte.com/" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="F5" r:id="rId7" display="https://www.forbes.com/companies/cisco-systems/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="G5" r:id="rId8" display="http://www.cisco.com/" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="F6" r:id="rId9" display="https://www.forbes.com/companies/accenture/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="G6" r:id="rId10" display="http://www.accenture.com/" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="F7" r:id="rId11" display="https://www.forbes.com/companies/sap/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="G7" r:id="rId12" display="http://www.sap.com/" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="F8" r:id="rId13" display="https://www.forbes.com/companies/pricewaterhousecoopers/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="G8" r:id="rId14" display="http://www.pwc.com/" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="F9" r:id="rId15" display="https://www.forbes.com/companies/oracle/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="G9" r:id="rId16" display="http://www.oracle.com/" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="F10" r:id="rId17" display="https://www.forbes.com/companies/mckinsey-company/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="G10" r:id="rId18" display="http://www.mckinsey.com/" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="F11" r:id="rId19" display="https://www.forbes.com/companies/kpmg/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="G11" r:id="rId20" display="http://www.kpmg.com/" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="F12" r:id="rId21" display="https://www.forbes.com/companies/infosys-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="G12" r:id="rId22" display="http://www.infosys.com/" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="F13" r:id="rId23" display="https://www.forbes.com/companies/information-services-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="G13" r:id="rId24" display="http://www.isg-one.com/" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="F14" r:id="rId25" display="https://www.forbes.com/companies/gartner/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="G14" r:id="rId26" display="http://www.gartner.com/" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="F15" r:id="rId27" display="https://www.forbes.com/companies/ernst-young/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="G15" r:id="rId28" display="http://www.ey.com/" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="F16" r:id="rId29" display="https://www.forbes.com/companies/boston-consulting-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="G16" r:id="rId30" display="http://www.bcg.com/" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="F17" r:id="rId31" display="https://www.forbes.com/companies/booz-allen-hamilton/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="G17" r:id="rId32" display="http://www.boozallen.com/" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="F18" r:id="rId33" display="https://www.forbes.com/companies/west-monroe-partners/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="G18" r:id="rId34" display="http://www.westmonroepartners.com/" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="F19" r:id="rId35" display="https://www.forbes.com/companies/the-chartis-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="G19" r:id="rId36" display="http://www.chartis.com/" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="F20" r:id="rId37" display="https://www.forbes.com/companies/tata-consultancy-services/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="G20" r:id="rId38" display="http://www.tcs.com/" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="F21" r:id="rId39" display="https://www.forbes.com/companies/strategy/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="G21" r:id="rId40" display="http://www.strategyand.pwc.com/" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="F22" r:id="rId41" display="https://www.forbes.com/companies/ssa-company/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="G22" r:id="rId42" display="http://www.ssaandco.com/" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="F23" r:id="rId43" display="https://www.forbes.com/companies/slalom-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="G23" r:id="rId44" display="http://www.slalom.com/" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="F24" r:id="rId45" display="https://www.forbes.com/companies/sapient/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="G24" r:id="rId46" display="http://www.sapientconsulting.com/" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="F25" r:id="rId47" display="https://www.forbes.com/companies/roland-berger-strategy-consultants/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="G25" r:id="rId48" display="http://www.rolandberger.com/" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="F26" r:id="rId49" display="https://www.forbes.com/companies/resources-global-professionals/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="G26" r:id="rId50" display="http://www.rgp.com/" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="F27" r:id="rId51" display="https://www.forbes.com/companies/protiviti/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="G27" r:id="rId52" display="http://www.protiviti.com/" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="F28" r:id="rId53" display="https://www.forbes.com/companies/point-b/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="G28" r:id="rId54" display="http://www.pointb.com/" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="F29" r:id="rId55" display="https://www.forbes.com/companies/oliver-wyman/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="G29" r:id="rId56" display="http://www.oliverwyman.com/" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
+    <hyperlink ref="F30" r:id="rId57" display="https://www.forbes.com/companies/oasys-international/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
+    <hyperlink ref="G30" r:id="rId58" display="http://www.oasysic.com/" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="F31" r:id="rId59" display="https://www.forbes.com/companies/novantas/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="G31" r:id="rId60" display="http://www.novantas.com/" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="F32" r:id="rId61" display="https://www.forbes.com/companies/north-highland/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
+    <hyperlink ref="G32" r:id="rId62" display="http://www.northhighland.com/" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
+    <hyperlink ref="F33" r:id="rId63" display="https://www.forbes.com/companies/medmatica-consulting-associates/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
+    <hyperlink ref="G33" r:id="rId64" display="http://www.medmatica.com/" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
+    <hyperlink ref="F34" r:id="rId65" display="https://www.forbes.com/companies/lockheed-martin/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
+    <hyperlink ref="G34" r:id="rId66" display="http://www.lockheedmartin.com/" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
+    <hyperlink ref="F35" r:id="rId67" display="https://www.forbes.com/companies/leappoint/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
+    <hyperlink ref="G35" r:id="rId68" display="http://leappoint.com/" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
+    <hyperlink ref="F36" r:id="rId69" display="https://www.forbes.com/companies/kurt-salmon/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
+    <hyperlink ref="G36" r:id="rId70" display="http://www.kurtsalmon.com/" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
+    <hyperlink ref="F37" r:id="rId71" display="https://www.forbes.com/companies/jabian-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
+    <hyperlink ref="G37" r:id="rId72" display="http://www.jabian.com/" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
+    <hyperlink ref="F38" r:id="rId73" display="https://www.forbes.com/companies/impact-advisors/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
+    <hyperlink ref="G38" r:id="rId74" display="http://www.impact-advisors.com/" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
+    <hyperlink ref="F39" r:id="rId75" display="https://www.forbes.com/companies/ignyte-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
+    <hyperlink ref="G39" r:id="rId76" display="http://ignytegroup.com/" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
+    <hyperlink ref="F40" r:id="rId77" display="https://www.forbes.com/companies/huron-consulting-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
+    <hyperlink ref="G40" r:id="rId78" display="http://www.huronconsultinggroup.com/" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
+    <hyperlink ref="F41" r:id="rId79" display="https://www.forbes.com/companies/grant-thornton/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
+    <hyperlink ref="G41" r:id="rId80" display="http://www.grantthornton.com/" xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
+    <hyperlink ref="F42" r:id="rId81" display="https://www.forbes.com/companies/fti-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000050000000}"/>
+    <hyperlink ref="G42" r:id="rId82" display="http://www.fticonsulting.com/" xr:uid="{00000000-0004-0000-0200-000051000000}"/>
+    <hyperlink ref="F43" r:id="rId83" display="https://www.forbes.com/companies/forsythe-solutions-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000052000000}"/>
+    <hyperlink ref="G43" r:id="rId84" display="http://www.forsythe.com/" xr:uid="{00000000-0004-0000-0200-000053000000}"/>
+    <hyperlink ref="F44" r:id="rId85" display="https://www.forbes.com/companies/everest-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000054000000}"/>
+    <hyperlink ref="G44" r:id="rId86" display="http://www.everestgrp.com/" xr:uid="{00000000-0004-0000-0200-000055000000}"/>
+    <hyperlink ref="F45" r:id="rId87" display="https://www.forbes.com/companies/cumberland-consulting-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000056000000}"/>
+    <hyperlink ref="G45" r:id="rId88" display="http://www.cumberlandcg.com/" xr:uid="{00000000-0004-0000-0200-000057000000}"/>
+    <hyperlink ref="F46" r:id="rId89" display="https://www.forbes.com/companies/cognizant/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000058000000}"/>
+    <hyperlink ref="G46" r:id="rId90" display="http://www.cognizant.com/" xr:uid="{00000000-0004-0000-0200-000059000000}"/>
+    <hyperlink ref="F47" r:id="rId91" display="https://www.forbes.com/companies/clarkston-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00005A000000}"/>
+    <hyperlink ref="G47" r:id="rId92" display="http://www.clarkstonconsulting.com/" xr:uid="{00000000-0004-0000-0200-00005B000000}"/>
+    <hyperlink ref="F48" r:id="rId93" display="https://www.forbes.com/companies/cgn-global/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00005C000000}"/>
+    <hyperlink ref="G48" r:id="rId94" display="http://www.cgnglobal.com/" xr:uid="{00000000-0004-0000-0200-00005D000000}"/>
+    <hyperlink ref="F49" r:id="rId95" display="https://www.forbes.com/companies/censeo-consulting-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00005E000000}"/>
+    <hyperlink ref="G49" r:id="rId96" display="http://www.censeoconsulting.com/" xr:uid="{00000000-0004-0000-0200-00005F000000}"/>
+    <hyperlink ref="F50" r:id="rId97" display="https://www.forbes.com/companies/captech/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000060000000}"/>
+    <hyperlink ref="G50" r:id="rId98" display="http://www.captechconsulting.com/" xr:uid="{00000000-0004-0000-0200-000061000000}"/>
+    <hyperlink ref="F51" r:id="rId99" display="https://www.forbes.com/companies/capgemini-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000062000000}"/>
+    <hyperlink ref="G51" r:id="rId100" display="http://www.capgemini.com/" xr:uid="{00000000-0004-0000-0200-000063000000}"/>
+    <hyperlink ref="F52" r:id="rId101" display="https://www.forbes.com/companies/brattle-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000064000000}"/>
+    <hyperlink ref="G52" r:id="rId102" display="http://www.brattle.com/" xr:uid="{00000000-0004-0000-0200-000065000000}"/>
+    <hyperlink ref="F53" r:id="rId103" display="https://www.forbes.com/companies/bdo-usa/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000066000000}"/>
+    <hyperlink ref="G53" r:id="rId104" display="http://www.bdo.com/" xr:uid="{00000000-0004-0000-0200-000067000000}"/>
+    <hyperlink ref="F54" r:id="rId105" display="https://www.forbes.com/companies/bain-and-company/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000068000000}"/>
+    <hyperlink ref="G54" r:id="rId106" display="http://www.bain.com/" xr:uid="{00000000-0004-0000-0200-000069000000}"/>
+    <hyperlink ref="F55" r:id="rId107" display="https://www.forbes.com/companies/bae-systems/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00006A000000}"/>
+    <hyperlink ref="G55" r:id="rId108" display="http://www.baesystems.com/" xr:uid="{00000000-0004-0000-0200-00006B000000}"/>
+    <hyperlink ref="F56" r:id="rId109" display="https://www.forbes.com/companies/avasant/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00006C000000}"/>
+    <hyperlink ref="G56" r:id="rId110" display="http://www.avasant.com/" xr:uid="{00000000-0004-0000-0200-00006D000000}"/>
+    <hyperlink ref="F57" r:id="rId111" display="https://www.forbes.com/companies/at-kearney/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00006E000000}"/>
+    <hyperlink ref="G57" r:id="rId112" display="http://www.atkearney.com/" xr:uid="{00000000-0004-0000-0200-00006F000000}"/>
+    <hyperlink ref="F58" r:id="rId113" display="https://www.forbes.com/companies/arthur-d-little/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000070000000}"/>
+    <hyperlink ref="G58" r:id="rId114" display="http://www.adlittle.com/" xr:uid="{00000000-0004-0000-0200-000071000000}"/>
+    <hyperlink ref="F59" r:id="rId115" display="https://www.forbes.com/companies/archpoint/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000072000000}"/>
+    <hyperlink ref="G59" r:id="rId116" display="http://www.archpointconsulting.com/" xr:uid="{00000000-0004-0000-0200-000073000000}"/>
+    <hyperlink ref="F60" r:id="rId117" display="https://www.forbes.com/companies/appirio/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000074000000}"/>
+    <hyperlink ref="G60" r:id="rId118" display="http://www.appirio.com/" xr:uid="{00000000-0004-0000-0200-000075000000}"/>
+    <hyperlink ref="F61" r:id="rId119" display="https://www.forbes.com/companies/alixpartners/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000076000000}"/>
+    <hyperlink ref="G61" r:id="rId120" display="http://www.alixpartners.com/" xr:uid="{00000000-0004-0000-0200-000077000000}"/>
+    <hyperlink ref="F62" r:id="rId121" display="https://www.forbes.com/companies/microsoft/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000078000000}"/>
+    <hyperlink ref="G62" r:id="rId122" display="http://www.microsoft.com/" xr:uid="{00000000-0004-0000-0200-000079000000}"/>
+    <hyperlink ref="F63" r:id="rId123" display="https://www.forbes.com/companies/wipro/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00007A000000}"/>
+    <hyperlink ref="G63" r:id="rId124" display="http://www.wipro.com/" xr:uid="{00000000-0004-0000-0200-00007B000000}"/>
+    <hyperlink ref="F64" r:id="rId125" display="https://www.forbes.com/companies/virtusa/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00007C000000}"/>
+    <hyperlink ref="G64" r:id="rId126" display="http://www.virtusa.com/" xr:uid="{00000000-0004-0000-0200-00007D000000}"/>
+    <hyperlink ref="F65" r:id="rId127" display="https://www.forbes.com/companies/ntt-data-services/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00007E000000}"/>
+    <hyperlink ref="G65" r:id="rId128" display="http://us.nttdata.com/" xr:uid="{00000000-0004-0000-0200-00007F000000}"/>
+    <hyperlink ref="F66" r:id="rId129" display="https://www.forbes.com/companies/mckinnis-consulting-services/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000080000000}"/>
+    <hyperlink ref="G66" r:id="rId130" display="http://www.mckinnisconsulting.com/" xr:uid="{00000000-0004-0000-0200-000081000000}"/>
+    <hyperlink ref="F67" r:id="rId131" display="https://www.forbes.com/companies/hitachi-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000082000000}"/>
+    <hyperlink ref="G67" r:id="rId132" display="http://www.hitachiconsulting.com/" xr:uid="{00000000-0004-0000-0200-000083000000}"/>
+    <hyperlink ref="F68" r:id="rId133" display="https://www.forbes.com/companies/hcl-technologies/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000084000000}"/>
+    <hyperlink ref="G68" r:id="rId134" display="http://www.hcltech.com/" xr:uid="{00000000-0004-0000-0200-000085000000}"/>
+    <hyperlink ref="F69" r:id="rId135" display="https://www.forbes.com/companies/fujitsu-america/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000086000000}"/>
+    <hyperlink ref="G69" r:id="rId136" display="http://www.fujitsu.com/" xr:uid="{00000000-0004-0000-0200-000087000000}"/>
+    <hyperlink ref="F70" r:id="rId137" display="https://www.forbes.com/companies/bridge-solutions-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000088000000}"/>
+    <hyperlink ref="G70" r:id="rId138" display="http://bridgesgi.com/" xr:uid="{00000000-0004-0000-0200-000089000000}"/>
+    <hyperlink ref="F71" r:id="rId139" display="https://www.forbes.com/companies/blue-horseshoe-solutions/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00008A000000}"/>
+    <hyperlink ref="G71" r:id="rId140" display="http://www.bhsolutions.com/" xr:uid="{00000000-0004-0000-0200-00008B000000}"/>
+    <hyperlink ref="F72" r:id="rId141" display="https://www.forbes.com/companies/application-consulting-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00008C000000}"/>
+    <hyperlink ref="G72" r:id="rId142" display="http://www.acgi.com/" xr:uid="{00000000-0004-0000-0200-00008D000000}"/>
+    <hyperlink ref="F73" r:id="rId143" display="https://www.forbes.com/companies/simon-kucher-partners/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00008E000000}"/>
+    <hyperlink ref="G73" r:id="rId144" display="http://www.simon-kucher.com/" xr:uid="{00000000-0004-0000-0200-00008F000000}"/>
+    <hyperlink ref="F74" r:id="rId145" display="https://www.forbes.com/companies/navigant-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000090000000}"/>
+    <hyperlink ref="G74" r:id="rId146" display="http://www.navigant.com/" xr:uid="{00000000-0004-0000-0200-000091000000}"/>
+    <hyperlink ref="F75" r:id="rId147" display="https://www.forbes.com/companies/keystone-strategy/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000092000000}"/>
+    <hyperlink ref="G75" r:id="rId148" display="http://www.keystonestrategy.com/" xr:uid="{00000000-0004-0000-0200-000093000000}"/>
+    <hyperlink ref="F76" r:id="rId149" display="https://www.forbes.com/companies/kaiser-associates/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000094000000}"/>
+    <hyperlink ref="G76" r:id="rId150" display="http://www.kaiserassociates.com/" xr:uid="{00000000-0004-0000-0200-000095000000}"/>
+    <hyperlink ref="F77" r:id="rId151" display="https://www.forbes.com/companies/insight-sourcing-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000096000000}"/>
+    <hyperlink ref="G77" r:id="rId152" display="http://www.insightsourcing.com/" xr:uid="{00000000-0004-0000-0200-000097000000}"/>
+    <hyperlink ref="F78" r:id="rId153" display="https://www.forbes.com/companies/innosight/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000098000000}"/>
+    <hyperlink ref="G78" r:id="rId154" display="http://www.innosight.com/" xr:uid="{00000000-0004-0000-0200-000099000000}"/>
+    <hyperlink ref="F79" r:id="rId155" display="https://www.forbes.com/companies/ibb-consulting-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00009A000000}"/>
+    <hyperlink ref="G79" r:id="rId156" display="http://www.ibbconsulting.com/" xr:uid="{00000000-0004-0000-0200-00009B000000}"/>
+    <hyperlink ref="F80" r:id="rId157" display="https://www.forbes.com/companies/hay-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00009C000000}"/>
+    <hyperlink ref="G80" r:id="rId158" display="http://www.haygroup.com/" xr:uid="{00000000-0004-0000-0200-00009D000000}"/>
+    <hyperlink ref="F81" r:id="rId159" display="https://www.forbes.com/companies/cornerstone-research/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00009E000000}"/>
+    <hyperlink ref="G81" r:id="rId160" display="http://www.cornerstone.com/" xr:uid="{00000000-0004-0000-0200-00009F000000}"/>
+    <hyperlink ref="F82" r:id="rId161" display="https://www.forbes.com/companies/charles-river-associates/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-0000A0000000}"/>
+    <hyperlink ref="G82" r:id="rId162" display="http://www.crai.com/" xr:uid="{00000000-0004-0000-0200-0000A1000000}"/>
+    <hyperlink ref="F83" r:id="rId163" display="https://www.forbes.com/companies/centric-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-0000A2000000}"/>
+    <hyperlink ref="G83" r:id="rId164" display="http://www.centricconsulting.com/" xr:uid="{00000000-0004-0000-0200-0000A3000000}"/>
+    <hyperlink ref="F84" r:id="rId165" display="https://www.forbes.com/companies/bates-white/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-0000A4000000}"/>
+    <hyperlink ref="G84" r:id="rId166" display="http://www.bateswhite.com/" xr:uid="{00000000-0004-0000-0200-0000A5000000}"/>
+    <hyperlink ref="F85" r:id="rId167" display="https://www.forbes.com/companies/avanade/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-0000A6000000}"/>
+    <hyperlink ref="G85" r:id="rId168" display="http://www.avanade.com/" xr:uid="{00000000-0004-0000-0200-0000A7000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D2:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.5703125" customWidth="1"/>
     <col min="6" max="6" width="55.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:6" ht="34.5">
+    <row r="2" spans="4:6" ht="34.5" x14ac:dyDescent="0.25">
       <c r="D2" s="12" t="s">
         <v>87</v>
       </c>
@@ -7801,7 +7822,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="4:6" ht="15.75">
+    <row r="3" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D3" s="13">
         <v>1</v>
       </c>
@@ -7812,7 +7833,7 @@
         <v>17310000000</v>
       </c>
     </row>
-    <row r="4" spans="4:6" ht="15.75">
+    <row r="4" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D4" s="13">
         <v>2</v>
       </c>
@@ -7823,7 +7844,7 @@
         <v>15460000000</v>
       </c>
     </row>
-    <row r="5" spans="4:6" ht="15.75">
+    <row r="5" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D5" s="13">
         <v>3</v>
       </c>
@@ -7834,7 +7855,7 @@
         <v>14930000000</v>
       </c>
     </row>
-    <row r="6" spans="4:6" ht="15.75">
+    <row r="6" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="13">
         <v>4</v>
       </c>
@@ -7845,7 +7866,7 @@
         <v>14810000000</v>
       </c>
     </row>
-    <row r="7" spans="4:6" ht="15.75">
+    <row r="7" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D7" s="13">
         <v>5</v>
       </c>
@@ -7856,7 +7877,7 @@
         <v>13350000000</v>
       </c>
     </row>
-    <row r="8" spans="4:6" ht="15.75">
+    <row r="8" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D8" s="13">
         <v>6</v>
       </c>
@@ -7867,7 +7888,7 @@
         <v>12253000000</v>
       </c>
     </row>
-    <row r="9" spans="4:6" ht="15.75">
+    <row r="9" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="13">
         <v>7</v>
       </c>
@@ -7878,7 +7899,7 @@
         <v>12000000000</v>
       </c>
     </row>
-    <row r="10" spans="4:6" ht="15.75">
+    <row r="10" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D10" s="13">
         <v>8</v>
       </c>
@@ -7889,7 +7910,7 @@
         <v>11600000000</v>
       </c>
     </row>
-    <row r="11" spans="4:6" ht="15.75">
+    <row r="11" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D11" s="13">
         <v>9</v>
       </c>
@@ -7900,7 +7921,7 @@
         <v>10210000000</v>
       </c>
     </row>
-    <row r="12" spans="4:6" ht="15.75">
+    <row r="12" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D12" s="13">
         <v>10</v>
       </c>
@@ -7911,7 +7932,7 @@
         <v>10180000000</v>
       </c>
     </row>
-    <row r="13" spans="4:6" ht="15.75">
+    <row r="13" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D13" s="13">
         <v>11</v>
       </c>
@@ -7922,7 +7943,7 @@
         <v>8800000000</v>
       </c>
     </row>
-    <row r="14" spans="4:6" ht="15.75">
+    <row r="14" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D14" s="13">
         <v>12</v>
       </c>
@@ -7933,7 +7954,7 @@
         <v>8500000000</v>
       </c>
     </row>
-    <row r="15" spans="4:6" ht="15.75">
+    <row r="15" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D15" s="13">
         <v>13</v>
       </c>
@@ -7944,7 +7965,7 @@
         <v>7882000000</v>
       </c>
     </row>
-    <row r="16" spans="4:6" ht="15.75">
+    <row r="16" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D16" s="13">
         <v>14</v>
       </c>
@@ -7955,7 +7976,7 @@
         <v>6300000000</v>
       </c>
     </row>
-    <row r="17" spans="4:6" ht="15.75">
+    <row r="17" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D17" s="13">
         <v>15</v>
       </c>
@@ -7966,7 +7987,7 @@
         <v>6100000000</v>
       </c>
     </row>
-    <row r="18" spans="4:6" ht="15.75">
+    <row r="18" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D18" s="13">
         <v>16</v>
       </c>
@@ -7977,7 +7998,7 @@
         <v>4300000000</v>
       </c>
     </row>
-    <row r="19" spans="4:6" ht="15.75">
+    <row r="19" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D19" s="13">
         <v>17</v>
       </c>
@@ -7988,7 +8009,7 @@
         <v>4200000000</v>
       </c>
     </row>
-    <row r="20" spans="4:6" ht="15.75">
+    <row r="20" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D20" s="13">
         <v>18</v>
       </c>
@@ -7999,7 +8020,7 @@
         <v>3870000000</v>
       </c>
     </row>
-    <row r="21" spans="4:6" ht="15.75">
+    <row r="21" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D21" s="13">
         <v>19</v>
       </c>
@@ -8010,7 +8031,7 @@
         <v>3566000000</v>
       </c>
     </row>
-    <row r="22" spans="4:6" ht="15.75">
+    <row r="22" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D22" s="13">
         <v>20</v>
       </c>
@@ -8021,7 +8042,7 @@
         <v>3358000000</v>
       </c>
     </row>
-    <row r="23" spans="4:6" ht="15.75">
+    <row r="23" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D23" s="13">
         <v>21</v>
       </c>
@@ -8032,7 +8053,7 @@
         <v>3300000000</v>
       </c>
     </row>
-    <row r="24" spans="4:6" ht="15.75">
+    <row r="24" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D24" s="13">
         <v>22</v>
       </c>
@@ -8043,7 +8064,7 @@
         <v>2813000000</v>
       </c>
     </row>
-    <row r="25" spans="4:6" ht="15.75">
+    <row r="25" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D25" s="13">
         <v>23</v>
       </c>
@@ -8054,7 +8075,7 @@
         <v>2000000000</v>
       </c>
     </row>
-    <row r="26" spans="4:6" ht="15.75">
+    <row r="26" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D26" s="13">
         <v>24</v>
       </c>
@@ -8065,7 +8086,7 @@
         <v>1800000000</v>
       </c>
     </row>
-    <row r="27" spans="4:6" ht="15.75">
+    <row r="27" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D27" s="13">
         <v>25</v>
       </c>
@@ -8076,7 +8097,7 @@
         <v>1800000000</v>
       </c>
     </row>
-    <row r="28" spans="4:6" ht="15.75">
+    <row r="28" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D28" s="13">
         <v>26</v>
       </c>
@@ -8087,7 +8108,7 @@
         <v>1700000000</v>
       </c>
     </row>
-    <row r="29" spans="4:6" ht="15.75">
+    <row r="29" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D29" s="13">
         <v>27</v>
       </c>
@@ -8098,7 +8119,7 @@
         <v>1410000000</v>
       </c>
     </row>
-    <row r="30" spans="4:6" ht="15.75">
+    <row r="30" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D30" s="13">
         <v>28</v>
       </c>
@@ -8109,7 +8130,7 @@
         <v>1400000000</v>
       </c>
     </row>
-    <row r="31" spans="4:6">
+    <row r="31" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D31" s="13">
         <v>29</v>
       </c>
@@ -8120,7 +8141,7 @@
         <v>1305000000</v>
       </c>
     </row>
-    <row r="32" spans="4:6">
+    <row r="32" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D32" s="13">
         <v>30</v>
       </c>
@@ -8131,7 +8152,7 @@
         <v>1300000000</v>
       </c>
     </row>
-    <row r="33" spans="4:6">
+    <row r="33" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D33" s="13">
         <v>31</v>
       </c>
@@ -8142,7 +8163,7 @@
         <v>1300000000</v>
       </c>
     </row>
-    <row r="34" spans="4:6">
+    <row r="34" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D34" s="13">
         <v>32</v>
       </c>
@@ -8153,7 +8174,7 @@
         <v>1190000000</v>
       </c>
     </row>
-    <row r="35" spans="4:6">
+    <row r="35" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D35" s="13">
         <v>33</v>
       </c>
@@ -8164,7 +8185,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="36" spans="4:6">
+    <row r="36" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D36" s="13">
         <v>34</v>
       </c>
@@ -8175,7 +8196,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="37" spans="4:6">
+    <row r="37" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D37" s="13">
         <v>35</v>
       </c>
@@ -8186,7 +8207,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="38" spans="4:6">
+    <row r="38" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D38" s="13">
         <v>36</v>
       </c>
@@ -8197,7 +8218,7 @@
         <v>816000000</v>
       </c>
     </row>
-    <row r="39" spans="4:6">
+    <row r="39" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D39" s="13">
         <v>37</v>
       </c>
@@ -8208,7 +8229,7 @@
         <v>797700000</v>
       </c>
     </row>
-    <row r="40" spans="4:6">
+    <row r="40" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D40" s="13">
         <v>38</v>
       </c>
@@ -8219,7 +8240,7 @@
         <v>781800000</v>
       </c>
     </row>
-    <row r="41" spans="4:6">
+    <row r="41" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D41" s="13">
         <v>39</v>
       </c>
@@ -8230,7 +8251,7 @@
         <v>767000000</v>
       </c>
     </row>
-    <row r="42" spans="4:6">
+    <row r="42" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D42" s="13">
         <v>40</v>
       </c>
@@ -8241,7 +8262,7 @@
         <v>600000000</v>
       </c>
     </row>
-    <row r="43" spans="4:6">
+    <row r="43" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D43" s="13">
         <v>41</v>
       </c>
@@ -8252,7 +8273,7 @@
         <v>600000000</v>
       </c>
     </row>
-    <row r="44" spans="4:6">
+    <row r="44" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D44" s="13">
         <v>42</v>
       </c>
@@ -8263,7 +8284,7 @@
         <v>556000000</v>
       </c>
     </row>
-    <row r="45" spans="4:6">
+    <row r="45" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D45" s="13">
         <v>43</v>
       </c>
@@ -8274,7 +8295,7 @@
         <v>525000000</v>
       </c>
     </row>
-    <row r="46" spans="4:6">
+    <row r="46" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D46" s="13">
         <v>44</v>
       </c>
@@ -8285,7 +8306,7 @@
         <v>500000000</v>
       </c>
     </row>
-    <row r="47" spans="4:6">
+    <row r="47" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D47" s="13">
         <v>45</v>
       </c>
@@ -8296,7 +8317,7 @@
         <v>487000000</v>
       </c>
     </row>
-    <row r="48" spans="4:6">
+    <row r="48" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D48" s="13">
         <v>46</v>
       </c>
@@ -8307,7 +8328,7 @@
         <v>311000000</v>
       </c>
     </row>
-    <row r="49" spans="4:6">
+    <row r="49" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D49" s="13">
         <v>47</v>
       </c>
@@ -8318,7 +8339,7 @@
         <v>239200000</v>
       </c>
     </row>
-    <row r="50" spans="4:6">
+    <row r="50" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D50" s="13">
         <v>48</v>
       </c>
@@ -8329,7 +8350,7 @@
         <v>200000000</v>
       </c>
     </row>
-    <row r="51" spans="4:6">
+    <row r="51" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D51" s="13">
         <v>49</v>
       </c>
@@ -8340,7 +8361,7 @@
         <v>162000000</v>
       </c>
     </row>
-    <row r="52" spans="4:6">
+    <row r="52" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D52" s="15">
         <v>50</v>
       </c>
@@ -8357,16 +8378,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="7:7">
+    <row r="7" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>86</v>
       </c>

--- a/Companies_Apply_Status_Sheet.xlsx
+++ b/Companies_Apply_Status_Sheet.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99C43B9-CF2B-4AFF-9AEC-8332C20A8FCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="10725"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="625">
   <si>
     <t>SLNo</t>
   </si>
@@ -1822,15 +1821,145 @@
     <t>blank page
 applied</t>
   </si>
+  <si>
+    <t>Proj/Portfolio M</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/1010101747/</t>
+  </si>
+  <si>
+    <t>Job Number:  3122680</t>
+  </si>
+  <si>
+    <t>https://ms.taleo.net/careersection/iam/accessmanagement/login.jsf?lang=en&amp;redirectionURI=https%3A%2F%2Fms.taleo.net%2Fcareersection%2F2%2Fjobsearch.ftl%3Fpostdata%3D%247JuwP81X45kc7bcqdGAqjw%3D%3D%26lang%3Den%26ftlcompclass%3DLoginComponent&amp;TARGET=https%3A%2F%2Fms.taleo.net%2Fcareersection%2F2%2Fjobsearch.ftl%3Fpostdata%3D%247JuwP81X45kc7bcqdGAqjw%3D%3D%26lang%3Den%26ftlcompclass%3DLoginComponent</t>
+  </si>
+  <si>
+    <t>Fidelity</t>
+  </si>
+  <si>
+    <t>IT PM (Data Analytics)</t>
+  </si>
+  <si>
+    <t>Durham,NC</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/994651163/</t>
+  </si>
+  <si>
+    <t>https://jobs.fidelity.com/ShowJob/Id/454828/IT%20Project%20Manager%20Data%20Analytics</t>
+  </si>
+  <si>
+    <t>Job ID: 1815516
+**data analytics exp related ques**</t>
+  </si>
+  <si>
+    <t>PPD</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/988507125/?eBP=CwEAAAFnnUbCgUohCMMVwsZaVXIjo55w8JdT-hDVMDalouqmhjRlINsVGh3oYSLOsc8sIUkpzG6P94rCg4qdw4J7z7rOBgf2LL0ZeT9wpx7puEuKdGlfSpXOgzRHmpjIGCYP5Lywf4_L5n2k4D9oFu4cgNG9BMpBgEuW3_Mw0AeNh17oBUjsUAkHeXv013-Alrm3k2yuawHPWrhWKQsXhrqhRnqPeQQXpjD8cVzx_xP7ODmx5KIjbI4Ox4JmxilM3IHyDvke4sCDNv75ePFP4N1vvozKjguMSiodlBWsZeA3pI4rw1qXdX52eByQQ39hBVkyHwIIcHxISDLBLSzkBsZrb1lmNhYI3as&amp;recommendedFlavor=SCHOOL_RECRUIT&amp;refId=3612633c-fe55-492f-877f-cd6e02377655&amp;trk=d_flagship3_job_details</t>
+  </si>
+  <si>
+    <t>Morrisville, NC</t>
+  </si>
+  <si>
+    <t>Assoc TPM</t>
+  </si>
+  <si>
+    <t>Ralph Lauren</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/989107802/?eBP=CwEAAAFnnY_8Y7uFPZRANZG1TDDUr-XfwQ-ImvAuvEFFAJwr_pf76HKtly-i7tP0Ydd1FMMsJJmC3BbCHYoZBMRoh9jnf098k0yA3qURtDDSkdSctSwvy1WZ8K-vNUJ-ksnlfp9zV6ZHAW-1G_gsXZVJJcrzyBC7MBQTv7wHBpbzDL3M2pKVLqXfBUS-qBwNbGszLslnFTRqfS8Y9rubCa-4VaDe5erAB6M_KEMEQbeeta22t6XTbKXP1ISSp6Pz9BvUOkQyBGmwwO5LfhxBjnXUP0LjXFy2QtMZLinIrpo4EBce6NZOLUEp_SG-E6frxg0-6ctJxxIRD1ON0rjREXyayn05vNoPFGK8KA&amp;recommendedFlavor=SCHOOL_RECRUIT&amp;refId=efd6ad06-2f43-471d-8373-d0b2238286ee&amp;trk=d_flagship3_job_details</t>
+  </si>
+  <si>
+    <t>Ref #: 5563668</t>
+  </si>
+  <si>
+    <t>Login with linkedin</t>
+  </si>
+  <si>
+    <t>https://careers.ralphlauren.com/CareersCorporate/ThankYou?jobId=4038&amp;source=Linkedin</t>
+  </si>
+  <si>
+    <t>Hudson's Bay</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/988054328/?eBP=CwEAAAFnnZDrciLDfdL6HOCaDe1VzyHKwthh4qQcWLSYXb7Y0wkUd81NBkSOYJ-Oj6DbxwtxyBFtVPykjshcV2co7-ctQYkVZgA9199ZZrCuMRmL405luxulyjASJjSMrsK69b3l-fOYOvfHplpCBG7r7KTrVNEIVuotoPglX6vWQaOyko3uRNryjjsxF4I49GGKVqnEQESIUQGtA17wbaV-7ibeOeK1fhmltdUYn1AgY-8_4qL4GSXIKOOpifO7Oik7RWa0_0gH4tqmUEniqu_SnKtMF1FIdTIkCv1nho_jezgyXAE3jo1bM6E5kzpWL_nO6zcV2GbTU5BsnLYh7iko3RixxmoBOrA&amp;refId=76d91f4f-2c96-424b-9699-27fb5e5cb5d1&amp;trk=d_flagship3_job_details</t>
+  </si>
+  <si>
+    <t>McKinsey&amp;Comp</t>
+  </si>
+  <si>
+    <t>SanFranciso, CA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/953348151/</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/mckinsey/jobs/4078648002?gh_src=cyg2xi2#app</t>
+  </si>
+  <si>
+    <t>7 yrs exp</t>
+  </si>
+  <si>
+    <t>Infor</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/945022112/?eBP=CwEAAAFnnap7545EMTK5ZPHopepxFzh9slhTVbNcopDS8foen4zOoYhl92KndSMff80Pi42yM9Zw0PiMaKtgt20W-PewBrqQhH9kEZGdH3mWHOMzpba3p7GigfmbUtBn4GKAf3I3ZeNTfHkTPcjhGDw5IbkKB_rlSYHXpKFKzlKeSDh1YRHbrKd_Ljs3sr-aJRyF4nhvrlSk8eNoNm301QJnO9_KK9Z4ujoNfW5KdpaXvMrUyi8B65QeEzyNMT-q2DCzf6HQmOJgK0R39FGbPTwu1WOfS0xxuOmFhTwy7GIp7p0c3MhC_sK6uJaUEr-k41LAfq0dXiQ8Mywdo3eDy2o10__VMOIi_meH_A&amp;recommendedFlavor=SCHOOL_RECRUIT&amp;refId=5ccbbbc5-e3a5-4376-a3e6-3523bd6802da&amp;trk=d_flagship3_job_details</t>
+  </si>
+  <si>
+    <t>Applied. **InMail available</t>
+  </si>
+  <si>
+    <t>ProofPoint</t>
+  </si>
+  <si>
+    <t>Sr Prod M</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/802935395/?eBP=CwEAAAFnnap76Y2GlOuMGXxhZXGMiw9vQOLXeodLvZXzgVipAilXdxGwBCSgAkAzFpA6Js3VEtJR01Wppzqf1A0XGxlpEbfNvFmm4yCtmqno233kcIpegZ17RUEV-cBU07pJMc1lmZxiOpRHVPrdSJEw8gYgVK73IcDHhRrkMy8uDS5pWVUkI0pmJOU1rAQRB8p2wLDR752oHf2cEHUkYH6VJp8AsWDbGJyzrGGURdU1Gy5pXRvZta4OfYo83vY7k-eAtZ6Eom4y4f43gUuH_rmDcb1ZesFbp21uNkWIA3nGfPXB9f9VfLQSYb0Ft7MW-2wqiqTAO_nIdu_BBZU50mZ61HApXSmvwnT6JqTcyI3bMeTj8dm44pM5VjbwTB9Rs7Y2Us0Sfxc&amp;recommendedFlavor=SCHOOL_RECRUIT&amp;refId=5ccbbbc5-e3a5-4376-a3e6-3523bd6802da&amp;trk=d_flagship3_job_details</t>
+  </si>
+  <si>
+    <t>https://chj.tbe.taleo.net/chj04/ats/careers/jobSearch.jsp?org=PROOFPOINT&amp;cws=1&amp;act=logout</t>
+  </si>
+  <si>
+    <t>Robert Walters</t>
+  </si>
+  <si>
+    <t>Redwood city, CA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/842362497/</t>
+  </si>
+  <si>
+    <t>Citrix</t>
+  </si>
+  <si>
+    <t>SantaClara,CA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/912176713/</t>
+  </si>
+  <si>
+    <t>Macy's</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/916010118/</t>
+  </si>
+  <si>
+    <t>Requisition ID: MAC12603</t>
+  </si>
+  <si>
+    <t>https://macys.taleo.net/careersection/iam/accessmanagement/login.jsf?lang=en&amp;redirectionURI=https%3A%2F%2Fmacys.taleo.net%2Fcareersection%2Fmacys_retail_jsa_career_section%2Fjobapply.ftl%3Flang%3Den%26job%3DMAC12603&amp;TARGET=https%3A%2F%2Fmacys.taleo.net%2Fcareersection%2Fmacys_retail_jsa_career_section%2Fjobapply.ftl%3Flang%3Den%26job%3DMAC12603</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2339,23 +2468,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="J80" sqref="J80"/>
+      <selection pane="topRight" activeCell="J112" sqref="J112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
@@ -2373,7 +2502,7 @@
     <col min="15" max="15" width="30.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2420,7 +2549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2453,7 +2582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="2"/>
       <c r="B3" s="4">
         <v>43385</v>
@@ -2480,7 +2609,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="45">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="6" t="s">
@@ -2507,7 +2636,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="6" t="s">
@@ -2530,7 +2659,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
@@ -2553,7 +2682,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="6" t="s">
@@ -2572,7 +2701,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="6" t="s">
@@ -2595,7 +2724,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="45">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="6" t="s">
@@ -2620,7 +2749,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="45">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="6" t="s">
@@ -2645,7 +2774,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
@@ -2668,7 +2797,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="6" t="s">
@@ -2691,7 +2820,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="6" t="s">
@@ -2714,7 +2843,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="2"/>
       <c r="B14" s="4">
         <v>43430</v>
@@ -2741,7 +2870,7 @@
       </c>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="2"/>
       <c r="B15" s="4">
         <v>43430</v>
@@ -2766,7 +2895,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="2"/>
       <c r="B16" s="4">
         <v>43430</v>
@@ -2791,7 +2920,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="2"/>
       <c r="B17" s="4">
         <v>43430</v>
@@ -2816,7 +2945,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="2"/>
       <c r="B18" s="4">
         <v>43430</v>
@@ -2841,7 +2970,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="60">
       <c r="A19" s="2"/>
       <c r="B19" s="4">
         <v>43430</v>
@@ -2868,7 +2997,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="6"/>
     </row>
-    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="30">
       <c r="A20" s="2"/>
       <c r="B20" s="4">
         <v>43430</v>
@@ -2899,7 +3028,7 @@
       </c>
       <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="45">
       <c r="A21" s="2"/>
       <c r="B21" s="4">
         <v>43430</v>
@@ -2930,7 +3059,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="2"/>
       <c r="B22" s="4">
         <v>43430</v>
@@ -2955,7 +3084,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="6"/>
     </row>
-    <row r="23" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="60">
       <c r="A23" s="2"/>
       <c r="B23" s="4">
         <v>43430</v>
@@ -2990,7 +3119,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="49.5" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="4">
         <v>43431</v>
@@ -3025,7 +3154,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="49.5" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="4">
         <v>43430</v>
@@ -3060,7 +3189,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="75">
       <c r="A26" s="2"/>
       <c r="B26" s="4">
         <v>43430</v>
@@ -3093,7 +3222,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="25" customFormat="1" ht="75">
       <c r="A27" s="22"/>
       <c r="B27" s="23">
         <v>43430</v>
@@ -3126,7 +3255,7 @@
       <c r="N27" s="22"/>
       <c r="O27" s="24"/>
     </row>
-    <row r="28" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="120">
       <c r="A28" s="2"/>
       <c r="B28" s="4">
         <v>43430</v>
@@ -3159,7 +3288,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="90">
       <c r="A29" s="2"/>
       <c r="B29" s="4">
         <v>43431</v>
@@ -3188,7 +3317,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="45">
       <c r="A30" s="2"/>
       <c r="B30" s="4">
         <v>43431</v>
@@ -3217,7 +3346,7 @@
       <c r="N30" s="3"/>
       <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="105">
       <c r="A31" s="2"/>
       <c r="B31" s="4">
         <v>43431</v>
@@ -3250,7 +3379,7 @@
       </c>
       <c r="O31" s="6"/>
     </row>
-    <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="30">
       <c r="A32" s="2"/>
       <c r="B32" s="4">
         <v>43431</v>
@@ -3285,7 +3414,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="45">
       <c r="A33" s="2"/>
       <c r="B33" s="4">
         <v>43431</v>
@@ -3312,7 +3441,7 @@
       <c r="N33" s="3"/>
       <c r="O33" s="6"/>
     </row>
-    <row r="34" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="75">
       <c r="A34" s="2"/>
       <c r="B34" s="4">
         <v>43431</v>
@@ -3341,7 +3470,7 @@
       <c r="N34" s="3"/>
       <c r="O34" s="6"/>
     </row>
-    <row r="35" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="75">
       <c r="A35" s="2"/>
       <c r="B35" s="4">
         <v>43431</v>
@@ -3372,7 +3501,7 @@
       <c r="N35" s="3"/>
       <c r="O35" s="6"/>
     </row>
-    <row r="36" spans="1:15" ht="255" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="255">
       <c r="A36" s="2"/>
       <c r="B36" s="4">
         <v>43431</v>
@@ -3409,7 +3538,7 @@
       </c>
       <c r="O36" s="6"/>
     </row>
-    <row r="37" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="60">
       <c r="A37" s="2"/>
       <c r="B37" s="4">
         <v>43432</v>
@@ -3440,7 +3569,7 @@
       <c r="N37" s="3"/>
       <c r="O37" s="6"/>
     </row>
-    <row r="38" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="60">
       <c r="A38" s="2"/>
       <c r="B38" s="4">
         <v>43432</v>
@@ -3469,7 +3598,7 @@
       <c r="N38" s="3"/>
       <c r="O38" s="6"/>
     </row>
-    <row r="39" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="60">
       <c r="A39" s="2"/>
       <c r="B39" s="4">
         <v>43432</v>
@@ -3498,7 +3627,7 @@
       <c r="N39" s="3"/>
       <c r="O39" s="6"/>
     </row>
-    <row r="40" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="60">
       <c r="A40" s="2"/>
       <c r="B40" s="4">
         <v>43432</v>
@@ -3527,7 +3656,7 @@
       <c r="N40" s="3"/>
       <c r="O40" s="6"/>
     </row>
-    <row r="41" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="135">
       <c r="A41" s="2"/>
       <c r="B41" s="4">
         <v>43432</v>
@@ -3562,7 +3691,7 @@
       </c>
       <c r="O41" s="6"/>
     </row>
-    <row r="42" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="60">
       <c r="A42" s="2"/>
       <c r="B42" s="4">
         <v>43432</v>
@@ -3593,7 +3722,7 @@
       <c r="N42" s="3"/>
       <c r="O42" s="6"/>
     </row>
-    <row r="43" spans="1:15" ht="60.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="60.75">
       <c r="A43" s="2"/>
       <c r="B43" s="4">
         <v>43432</v>
@@ -3626,7 +3755,7 @@
       <c r="N43" s="3"/>
       <c r="O43" s="6"/>
     </row>
-    <row r="44" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="60">
       <c r="A44" s="2"/>
       <c r="B44" s="4">
         <v>43432</v>
@@ -3655,7 +3784,7 @@
       <c r="N44" s="3"/>
       <c r="O44" s="6"/>
     </row>
-    <row r="45" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="75">
       <c r="A45" s="2"/>
       <c r="B45" s="4">
         <v>43432</v>
@@ -3684,7 +3813,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="6"/>
     </row>
-    <row r="46" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="45">
       <c r="A46" s="2"/>
       <c r="B46" s="4">
         <v>43432</v>
@@ -3721,7 +3850,7 @@
       </c>
       <c r="O46" s="6"/>
     </row>
-    <row r="47" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="51" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="4">
         <v>43433</v>
@@ -3758,7 +3887,7 @@
       </c>
       <c r="O47" s="6"/>
     </row>
-    <row r="48" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="30">
       <c r="A48" s="2"/>
       <c r="B48" s="4">
         <v>43433</v>
@@ -3789,7 +3918,7 @@
       <c r="N48" s="3"/>
       <c r="O48" s="6"/>
     </row>
-    <row r="49" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="30">
       <c r="A49" s="2"/>
       <c r="B49" s="4">
         <v>43433</v>
@@ -3820,7 +3949,7 @@
       <c r="N49" s="3"/>
       <c r="O49" s="6"/>
     </row>
-    <row r="50" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="30">
       <c r="A50" s="2"/>
       <c r="B50" s="4">
         <v>43433</v>
@@ -3851,7 +3980,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="6"/>
     </row>
-    <row r="51" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="30">
       <c r="A51" s="2"/>
       <c r="B51" s="4">
         <v>43433</v>
@@ -3880,7 +4009,7 @@
       <c r="N51" s="3"/>
       <c r="O51" s="6"/>
     </row>
-    <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="30">
       <c r="A52" s="2"/>
       <c r="B52" s="4">
         <v>43433</v>
@@ -3909,7 +4038,7 @@
       <c r="N52" s="3"/>
       <c r="O52" s="6"/>
     </row>
-    <row r="53" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="45">
       <c r="A53" s="2"/>
       <c r="B53" s="4">
         <v>43433</v>
@@ -3938,7 +4067,7 @@
       <c r="N53" s="3"/>
       <c r="O53" s="6"/>
     </row>
-    <row r="54" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="90">
       <c r="A54" s="2"/>
       <c r="B54" s="4">
         <v>43433</v>
@@ -3971,7 +4100,7 @@
       </c>
       <c r="O54" s="6"/>
     </row>
-    <row r="55" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="90">
       <c r="A55" s="2"/>
       <c r="B55" s="4">
         <v>43434</v>
@@ -4006,7 +4135,7 @@
       </c>
       <c r="O55" s="6"/>
     </row>
-    <row r="56" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="60">
       <c r="A56" s="2"/>
       <c r="B56" s="4">
         <v>43434</v>
@@ -4035,7 +4164,7 @@
       <c r="N56" s="3"/>
       <c r="O56" s="6"/>
     </row>
-    <row r="57" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="42.75" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" s="4">
         <v>43434</v>
@@ -4070,7 +4199,7 @@
       </c>
       <c r="O57" s="6"/>
     </row>
-    <row r="58" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="60">
       <c r="A58" s="2"/>
       <c r="B58" s="4">
         <v>43434</v>
@@ -4099,7 +4228,7 @@
       <c r="N58" s="3"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="42" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="4">
         <v>43434</v>
@@ -4128,7 +4257,7 @@
       <c r="N59" s="3"/>
       <c r="O59" s="6"/>
     </row>
-    <row r="60" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="60">
       <c r="A60" s="2"/>
       <c r="B60" s="4">
         <v>43434</v>
@@ -4157,7 +4286,7 @@
       <c r="N60" s="3"/>
       <c r="O60" s="6"/>
     </row>
-    <row r="61" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="60">
       <c r="A61" s="2"/>
       <c r="B61" s="4">
         <v>43434</v>
@@ -4188,7 +4317,7 @@
       <c r="N61" s="3"/>
       <c r="O61" s="6"/>
     </row>
-    <row r="62" spans="1:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="43.5" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" s="28">
         <v>43434</v>
@@ -4223,7 +4352,7 @@
       </c>
       <c r="O62" s="6"/>
     </row>
-    <row r="63" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="75">
       <c r="A63" s="2"/>
       <c r="B63" s="4">
         <v>43434</v>
@@ -4252,7 +4381,7 @@
       <c r="N63" s="3"/>
       <c r="O63" s="6"/>
     </row>
-    <row r="64" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="51" customHeight="1">
       <c r="A64" s="2"/>
       <c r="B64" s="4">
         <v>43434</v>
@@ -4279,7 +4408,7 @@
       <c r="N64" s="3"/>
       <c r="O64" s="6"/>
     </row>
-    <row r="65" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="51" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="4">
         <v>43434</v>
@@ -4310,7 +4439,7 @@
       <c r="N65" s="3"/>
       <c r="O65" s="6"/>
     </row>
-    <row r="66" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="30">
       <c r="A66" s="2"/>
       <c r="B66" s="4">
         <v>43434</v>
@@ -4339,7 +4468,7 @@
       <c r="N66" s="3"/>
       <c r="O66" s="6"/>
     </row>
-    <row r="67" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="40.5" customHeight="1">
       <c r="A67" s="2"/>
       <c r="B67" s="4">
         <v>43434</v>
@@ -4374,7 +4503,7 @@
       </c>
       <c r="O67" s="6"/>
     </row>
-    <row r="68" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="75">
       <c r="A68" s="2"/>
       <c r="B68" s="28">
         <v>43441</v>
@@ -4411,7 +4540,7 @@
       </c>
       <c r="O68" s="6"/>
     </row>
-    <row r="69" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="45">
       <c r="A69" s="2"/>
       <c r="B69" s="4">
         <v>43441</v>
@@ -4444,7 +4573,7 @@
       <c r="N69" s="3"/>
       <c r="O69" s="6"/>
     </row>
-    <row r="70" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="45">
       <c r="A70" s="2"/>
       <c r="B70" s="4">
         <v>43441</v>
@@ -4477,7 +4606,7 @@
       <c r="N70" s="3"/>
       <c r="O70" s="6"/>
     </row>
-    <row r="71" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="45.75" customHeight="1">
       <c r="A71" s="2"/>
       <c r="B71" s="28">
         <v>43441</v>
@@ -4512,7 +4641,7 @@
       </c>
       <c r="O71" s="6"/>
     </row>
-    <row r="72" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="60">
       <c r="A72" s="2"/>
       <c r="B72" s="4">
         <v>43441</v>
@@ -4549,7 +4678,7 @@
       </c>
       <c r="O72" s="6"/>
     </row>
-    <row r="73" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="45">
       <c r="A73" s="2"/>
       <c r="B73" s="4">
         <v>43441</v>
@@ -4580,7 +4709,7 @@
       <c r="N73" s="3"/>
       <c r="O73" s="6"/>
     </row>
-    <row r="74" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="45">
       <c r="A74" s="2"/>
       <c r="B74" s="4">
         <v>43441</v>
@@ -4609,7 +4738,7 @@
       <c r="N74" s="3"/>
       <c r="O74" s="6"/>
     </row>
-    <row r="75" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="48" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="4">
         <v>43441</v>
@@ -4640,7 +4769,7 @@
       <c r="N75" s="3"/>
       <c r="O75" s="6"/>
     </row>
-    <row r="76" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="41.25" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="4">
         <v>43441</v>
@@ -4671,7 +4800,7 @@
       <c r="N76" s="3"/>
       <c r="O76" s="6"/>
     </row>
-    <row r="77" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="30">
       <c r="A77" s="2"/>
       <c r="B77" s="4">
         <v>43441</v>
@@ -4702,7 +4831,7 @@
       <c r="N77" s="3"/>
       <c r="O77" s="6"/>
     </row>
-    <row r="78" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="45">
       <c r="A78" s="2"/>
       <c r="B78" s="4">
         <v>43441</v>
@@ -4733,7 +4862,7 @@
       <c r="N78" s="3"/>
       <c r="O78" s="6"/>
     </row>
-    <row r="79" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="54" customHeight="1">
       <c r="A79" s="2"/>
       <c r="B79" s="28">
         <v>43441</v>
@@ -4764,7 +4893,7 @@
       <c r="N79" s="3"/>
       <c r="O79" s="6"/>
     </row>
-    <row r="80" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="42" customHeight="1">
       <c r="A80" s="2"/>
       <c r="B80" s="4">
         <v>43444</v>
@@ -4801,7 +4930,7 @@
       </c>
       <c r="O80" s="6"/>
     </row>
-    <row r="81" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="45">
       <c r="A81" s="2"/>
       <c r="B81" s="4">
         <v>43444</v>
@@ -4836,7 +4965,7 @@
       </c>
       <c r="O81" s="6"/>
     </row>
-    <row r="82" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="48" customHeight="1">
       <c r="A82" s="2"/>
       <c r="B82" s="4">
         <v>43444</v>
@@ -4873,7 +5002,7 @@
       </c>
       <c r="O82" s="6"/>
     </row>
-    <row r="83" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="38.25" customHeight="1">
       <c r="A83" s="2"/>
       <c r="B83" s="4">
         <v>43444</v>
@@ -4906,7 +5035,7 @@
       <c r="N83" s="3"/>
       <c r="O83" s="6"/>
     </row>
-    <row r="84" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="45">
       <c r="A84" s="2"/>
       <c r="B84" s="28">
         <v>43444</v>
@@ -4937,7 +5066,7 @@
       <c r="N84" s="3"/>
       <c r="O84" s="6"/>
     </row>
-    <row r="85" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="46.5" customHeight="1">
       <c r="A85" s="2"/>
       <c r="B85" s="4">
         <v>43444</v>
@@ -4974,7 +5103,7 @@
       </c>
       <c r="O85" s="6"/>
     </row>
-    <row r="86" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="45">
       <c r="A86" s="2"/>
       <c r="B86" s="4">
         <v>43444</v>
@@ -5005,7 +5134,7 @@
       <c r="N86" s="3"/>
       <c r="O86" s="6"/>
     </row>
-    <row r="87" spans="1:15" ht="240" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="240">
       <c r="A87" s="2"/>
       <c r="B87" s="28">
         <v>43444</v>
@@ -5036,7 +5165,7 @@
       <c r="N87" s="3"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="45">
       <c r="A88" s="2"/>
       <c r="B88" s="30">
         <v>43444</v>
@@ -5069,7 +5198,7 @@
       <c r="N88" s="3"/>
       <c r="O88" s="6"/>
     </row>
-    <row r="89" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="30">
       <c r="A89" s="2"/>
       <c r="B89" s="4">
         <v>43444</v>
@@ -5098,7 +5227,7 @@
       <c r="N89" s="3"/>
       <c r="O89" s="6"/>
     </row>
-    <row r="90" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="30">
       <c r="A90" s="2"/>
       <c r="B90" s="4">
         <v>43444</v>
@@ -5127,7 +5256,7 @@
       <c r="N90" s="3"/>
       <c r="O90" s="6"/>
     </row>
-    <row r="91" spans="1:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="44.25" customHeight="1">
       <c r="A91" s="2"/>
       <c r="B91" s="4">
         <v>43444</v>
@@ -5158,7 +5287,7 @@
       <c r="N91" s="3"/>
       <c r="O91" s="6"/>
     </row>
-    <row r="92" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="63" customHeight="1">
       <c r="A92" s="2"/>
       <c r="B92" s="4">
         <v>43444</v>
@@ -5193,7 +5322,7 @@
       </c>
       <c r="O92" s="6"/>
     </row>
-    <row r="93" spans="1:15" ht="255" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="57" customHeight="1">
       <c r="A93" s="2"/>
       <c r="B93" s="4">
         <v>43444</v>
@@ -5222,7 +5351,7 @@
       <c r="N93" s="3"/>
       <c r="O93" s="6"/>
     </row>
-    <row r="94" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="45">
       <c r="A94" s="2"/>
       <c r="B94" s="28">
         <v>43444</v>
@@ -5253,7 +5382,7 @@
       <c r="N94" s="3"/>
       <c r="O94" s="6"/>
     </row>
-    <row r="95" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="60">
       <c r="A95" s="2"/>
       <c r="B95" s="4">
         <v>43444</v>
@@ -5284,194 +5413,372 @@
       <c r="N95" s="3"/>
       <c r="O95" s="6"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="51.75" customHeight="1">
       <c r="A96" s="2"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="2"/>
+      <c r="B96" s="4">
+        <v>43445</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="3"/>
+      <c r="J96" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="L96" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="M96" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>290</v>
+      </c>
       <c r="O96" s="6"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="45">
       <c r="A97" s="2"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="2"/>
+      <c r="B97" s="4">
+        <v>43445</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="3"/>
+      <c r="J97" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="L97" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N97" s="3" t="s">
+        <v>272</v>
+      </c>
       <c r="O97" s="6"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="43.5" customHeight="1">
       <c r="A98" s="2"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="2"/>
+      <c r="B98" s="4">
+        <v>43445</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
-      <c r="K98" s="6"/>
+      <c r="K98" s="6" t="s">
+        <v>593</v>
+      </c>
       <c r="L98" s="6"/>
       <c r="M98" s="2"/>
       <c r="N98" s="3"/>
       <c r="O98" s="6"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="59.25" customHeight="1">
       <c r="A99" s="2"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="2"/>
+      <c r="B99" s="4">
+        <v>43445</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-      <c r="K99" s="6"/>
-      <c r="L99" s="6"/>
-      <c r="M99" s="2"/>
+      <c r="J99" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>599</v>
+      </c>
       <c r="N99" s="3"/>
       <c r="O99" s="6"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15">
       <c r="A100" s="2"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="2"/>
+      <c r="B100" s="4">
+        <v>43445</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
-      <c r="K100" s="6"/>
+      <c r="K100" s="6" t="s">
+        <v>602</v>
+      </c>
       <c r="L100" s="6"/>
       <c r="M100" s="2"/>
       <c r="N100" s="3"/>
       <c r="O100" s="6"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="30">
       <c r="A101" s="2"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="2"/>
+      <c r="B101" s="4">
+        <v>43445</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
+      <c r="J101" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>606</v>
+      </c>
       <c r="M101" s="2"/>
       <c r="N101" s="3"/>
       <c r="O101" s="6"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="52.5" customHeight="1">
       <c r="A102" s="2"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="2"/>
+      <c r="B102" s="4">
+        <v>43445</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="6"/>
+      <c r="J102" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>609</v>
+      </c>
       <c r="L102" s="6"/>
       <c r="M102" s="2"/>
       <c r="N102" s="3"/>
       <c r="O102" s="6"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="44.25" customHeight="1">
       <c r="A103" s="2"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="2"/>
+      <c r="B103" s="4">
+        <v>43445</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
-      <c r="K103" s="6"/>
-      <c r="L103" s="6"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="3"/>
+      <c r="K103" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="L103" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="M103" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N103" s="3" t="s">
+        <v>272</v>
+      </c>
       <c r="O103" s="6"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="45">
       <c r="A104" s="2"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="2"/>
+      <c r="B104" s="4">
+        <v>43445</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="6"/>
+      <c r="J104" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>617</v>
+      </c>
       <c r="L104" s="6"/>
       <c r="M104" s="2"/>
       <c r="N104" s="3"/>
       <c r="O104" s="6"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="30">
       <c r="A105" s="2"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="2"/>
+      <c r="B105" s="4">
+        <v>43445</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="6"/>
+      <c r="J105" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>620</v>
+      </c>
       <c r="L105" s="6"/>
       <c r="M105" s="2"/>
       <c r="N105" s="3"/>
       <c r="O105" s="6"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="30">
       <c r="A106" s="2"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="2"/>
+      <c r="B106" s="4">
+        <v>43445</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="6"/>
-      <c r="L106" s="6"/>
-      <c r="M106" s="2"/>
-      <c r="N106" s="3"/>
+      <c r="J106" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="L106" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N106" s="3" t="s">
+        <v>272</v>
+      </c>
       <c r="O106" s="6"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15">
       <c r="A107" s="2"/>
       <c r="B107" s="4"/>
       <c r="C107" s="6"/>
@@ -5488,7 +5795,7 @@
       <c r="N107" s="3"/>
       <c r="O107" s="6"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15">
       <c r="A108" s="2"/>
       <c r="B108" s="4"/>
       <c r="C108" s="6"/>
@@ -5505,7 +5812,7 @@
       <c r="N108" s="3"/>
       <c r="O108" s="6"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15">
       <c r="A109" s="2"/>
       <c r="B109" s="4"/>
       <c r="C109" s="6"/>
@@ -5522,7 +5829,7 @@
       <c r="N109" s="3"/>
       <c r="O109" s="6"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15">
       <c r="A110" s="2"/>
       <c r="B110" s="4"/>
       <c r="C110" s="6"/>
@@ -5539,7 +5846,7 @@
       <c r="N110" s="3"/>
       <c r="O110" s="6"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15">
       <c r="A111" s="2"/>
       <c r="B111" s="4"/>
       <c r="C111" s="6"/>
@@ -5556,7 +5863,7 @@
       <c r="N111" s="3"/>
       <c r="O111" s="6"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15">
       <c r="A112" s="2"/>
       <c r="B112" s="4"/>
       <c r="C112" s="6"/>
@@ -5573,7 +5880,7 @@
       <c r="N112" s="3"/>
       <c r="O112" s="6"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15">
       <c r="A113" s="2"/>
       <c r="B113" s="4"/>
       <c r="C113" s="6"/>
@@ -5590,7 +5897,7 @@
       <c r="N113" s="3"/>
       <c r="O113" s="6"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15">
       <c r="A114" s="2"/>
       <c r="B114" s="4"/>
       <c r="C114" s="6"/>
@@ -5607,7 +5914,7 @@
       <c r="N114" s="3"/>
       <c r="O114" s="6"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15">
       <c r="A115" s="2"/>
       <c r="B115" s="4"/>
       <c r="C115" s="6"/>
@@ -5624,7 +5931,7 @@
       <c r="N115" s="3"/>
       <c r="O115" s="6"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15">
       <c r="A116" s="2"/>
       <c r="B116" s="4"/>
       <c r="C116" s="6"/>
@@ -5641,7 +5948,7 @@
       <c r="N116" s="3"/>
       <c r="O116" s="6"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15">
       <c r="A117" s="2"/>
       <c r="B117" s="4"/>
       <c r="C117" s="6"/>
@@ -5658,7 +5965,7 @@
       <c r="N117" s="3"/>
       <c r="O117" s="6"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15">
       <c r="A118" s="2"/>
       <c r="B118" s="4"/>
       <c r="C118" s="6"/>
@@ -5675,7 +5982,7 @@
       <c r="N118" s="3"/>
       <c r="O118" s="6"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15">
       <c r="A119" s="2"/>
       <c r="B119" s="4"/>
       <c r="C119" s="6"/>
@@ -5692,7 +5999,7 @@
       <c r="N119" s="3"/>
       <c r="O119" s="6"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15">
       <c r="A120" s="2"/>
       <c r="B120" s="4"/>
       <c r="C120" s="6"/>
@@ -5709,7 +6016,7 @@
       <c r="N120" s="3"/>
       <c r="O120" s="6"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15">
       <c r="A121" s="2"/>
       <c r="B121" s="4"/>
       <c r="C121" s="6"/>
@@ -5726,7 +6033,7 @@
       <c r="N121" s="3"/>
       <c r="O121" s="6"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15">
       <c r="A122" s="2"/>
       <c r="B122" s="4"/>
       <c r="C122" s="6"/>
@@ -5743,7 +6050,7 @@
       <c r="N122" s="3"/>
       <c r="O122" s="6"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15">
       <c r="A123" s="2"/>
       <c r="B123" s="4"/>
       <c r="C123" s="6"/>
@@ -5760,7 +6067,7 @@
       <c r="N123" s="3"/>
       <c r="O123" s="6"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15">
       <c r="A124" s="2"/>
       <c r="B124" s="4"/>
       <c r="C124" s="6"/>
@@ -5777,7 +6084,7 @@
       <c r="N124" s="3"/>
       <c r="O124" s="6"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15">
       <c r="A125" s="2"/>
       <c r="B125" s="4"/>
       <c r="C125" s="6"/>
@@ -5794,7 +6101,7 @@
       <c r="N125" s="3"/>
       <c r="O125" s="6"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15">
       <c r="A126" s="2"/>
       <c r="B126" s="4"/>
       <c r="C126" s="6"/>
@@ -5811,7 +6118,7 @@
       <c r="N126" s="3"/>
       <c r="O126" s="6"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15">
       <c r="A127" s="2"/>
       <c r="B127" s="4"/>
       <c r="C127" s="6"/>
@@ -5828,7 +6135,7 @@
       <c r="N127" s="3"/>
       <c r="O127" s="6"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15">
       <c r="A128" s="2"/>
       <c r="B128" s="4"/>
       <c r="C128" s="6"/>
@@ -5845,7 +6152,7 @@
       <c r="N128" s="3"/>
       <c r="O128" s="6"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15">
       <c r="A129" s="2"/>
       <c r="B129" s="4"/>
       <c r="C129" s="6"/>
@@ -5862,7 +6169,7 @@
       <c r="N129" s="3"/>
       <c r="O129" s="6"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15">
       <c r="A130" s="2"/>
       <c r="B130" s="4"/>
       <c r="C130" s="6"/>
@@ -5879,7 +6186,7 @@
       <c r="N130" s="3"/>
       <c r="O130" s="6"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15">
       <c r="A131" s="2"/>
       <c r="B131" s="4"/>
       <c r="C131" s="6"/>
@@ -5896,7 +6203,7 @@
       <c r="N131" s="3"/>
       <c r="O131" s="6"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15">
       <c r="A132" s="2"/>
       <c r="B132" s="4"/>
       <c r="C132" s="6"/>
@@ -5913,7 +6220,7 @@
       <c r="N132" s="3"/>
       <c r="O132" s="6"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15">
       <c r="A133" s="2"/>
       <c r="B133" s="4"/>
       <c r="C133" s="6"/>
@@ -5930,7 +6237,7 @@
       <c r="N133" s="3"/>
       <c r="O133" s="6"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15">
       <c r="A134" s="2"/>
       <c r="B134" s="4"/>
       <c r="C134" s="6"/>
@@ -5947,7 +6254,7 @@
       <c r="N134" s="3"/>
       <c r="O134" s="6"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15">
       <c r="A135" s="2"/>
       <c r="B135" s="4"/>
       <c r="C135" s="6"/>
@@ -5966,7 +6273,7 @@
       <c r="N135" s="3"/>
       <c r="O135" s="6"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15">
       <c r="A136" s="2"/>
       <c r="B136" s="4"/>
       <c r="C136" s="6"/>
@@ -5985,7 +6292,7 @@
       <c r="N136" s="3"/>
       <c r="O136" s="6"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15">
       <c r="A137" s="2"/>
       <c r="B137" s="4"/>
       <c r="C137" s="6"/>
@@ -6002,7 +6309,7 @@
       <c r="N137" s="3"/>
       <c r="O137" s="6"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15">
       <c r="A138" s="2"/>
       <c r="B138" s="4"/>
       <c r="C138" s="6"/>
@@ -6019,7 +6326,7 @@
       <c r="N138" s="3"/>
       <c r="O138" s="6"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15">
       <c r="A139" s="2"/>
       <c r="B139" s="4"/>
       <c r="C139" s="6"/>
@@ -6036,7 +6343,7 @@
       <c r="N139" s="3"/>
       <c r="O139" s="6"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15">
       <c r="A140" s="2"/>
       <c r="B140" s="4"/>
       <c r="C140" s="6"/>
@@ -6053,7 +6360,7 @@
       <c r="N140" s="3"/>
       <c r="O140" s="6"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15">
       <c r="A141" s="2"/>
       <c r="B141" s="4"/>
       <c r="C141" s="6"/>
@@ -6070,7 +6377,7 @@
       <c r="N141" s="3"/>
       <c r="O141" s="6"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15">
       <c r="A142" s="2"/>
       <c r="B142" s="4"/>
       <c r="C142" s="6"/>
@@ -6087,7 +6394,7 @@
       <c r="N142" s="3"/>
       <c r="O142" s="6"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15">
       <c r="A143" s="2"/>
       <c r="B143" s="4"/>
       <c r="C143" s="6"/>
@@ -6104,7 +6411,7 @@
       <c r="N143" s="3"/>
       <c r="O143" s="6"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15">
       <c r="A144" s="2"/>
       <c r="B144" s="4"/>
       <c r="C144" s="6"/>
@@ -6121,7 +6428,7 @@
       <c r="N144" s="3"/>
       <c r="O144" s="6"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15">
       <c r="A145" s="2"/>
       <c r="B145" s="4"/>
       <c r="C145" s="6"/>
@@ -6138,7 +6445,7 @@
       <c r="N145" s="3"/>
       <c r="O145" s="6"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15">
       <c r="A146" s="2"/>
       <c r="B146" s="4"/>
       <c r="C146" s="6"/>
@@ -6155,7 +6462,7 @@
       <c r="N146" s="3"/>
       <c r="O146" s="6"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15">
       <c r="A147" s="2"/>
       <c r="B147" s="4"/>
       <c r="C147" s="6"/>
@@ -6172,7 +6479,7 @@
       <c r="N147" s="3"/>
       <c r="O147" s="6"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15">
       <c r="A148" s="2"/>
       <c r="B148" s="4"/>
       <c r="C148" s="6"/>
@@ -6189,7 +6496,7 @@
       <c r="N148" s="3"/>
       <c r="O148" s="6"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15">
       <c r="A149" s="2"/>
       <c r="B149" s="4"/>
       <c r="C149" s="6"/>
@@ -6206,7 +6513,7 @@
       <c r="N149" s="3"/>
       <c r="O149" s="6"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15">
       <c r="A150" s="2"/>
       <c r="B150" s="4"/>
       <c r="C150" s="6"/>
@@ -6223,7 +6530,7 @@
       <c r="N150" s="3"/>
       <c r="O150" s="6"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15">
       <c r="A151" s="2"/>
       <c r="B151" s="4"/>
       <c r="C151" s="6"/>
@@ -6240,7 +6547,7 @@
       <c r="N151" s="3"/>
       <c r="O151" s="6"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15">
       <c r="A152" s="2"/>
       <c r="B152" s="4"/>
       <c r="C152" s="6"/>
@@ -6257,7 +6564,7 @@
       <c r="N152" s="3"/>
       <c r="O152" s="6"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15">
       <c r="A153" s="2"/>
       <c r="B153" s="4"/>
       <c r="C153" s="6"/>
@@ -6274,7 +6581,7 @@
       <c r="N153" s="3"/>
       <c r="O153" s="6"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15">
       <c r="A154" s="2"/>
       <c r="B154" s="4"/>
       <c r="C154" s="6"/>
@@ -6291,7 +6598,7 @@
       <c r="N154" s="3"/>
       <c r="O154" s="6"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15">
       <c r="A155" s="2"/>
       <c r="B155" s="4"/>
       <c r="C155" s="6"/>
@@ -6308,7 +6615,7 @@
       <c r="N155" s="3"/>
       <c r="O155" s="6"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15">
       <c r="A156" s="2"/>
       <c r="B156" s="4"/>
       <c r="C156" s="6"/>
@@ -6325,7 +6632,7 @@
       <c r="N156" s="3"/>
       <c r="O156" s="6"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15">
       <c r="A157" s="2"/>
       <c r="B157" s="4"/>
       <c r="C157" s="6"/>
@@ -6342,7 +6649,7 @@
       <c r="N157" s="3"/>
       <c r="O157" s="6"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15">
       <c r="A158" s="2"/>
       <c r="B158" s="4"/>
       <c r="C158" s="6"/>
@@ -6359,7 +6666,7 @@
       <c r="N158" s="3"/>
       <c r="O158" s="6"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15">
       <c r="A159" s="2"/>
       <c r="B159" s="4"/>
       <c r="C159" s="6"/>
@@ -6376,7 +6683,7 @@
       <c r="N159" s="3"/>
       <c r="O159" s="6"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15">
       <c r="A160" s="2"/>
       <c r="B160" s="4"/>
       <c r="C160" s="6"/>
@@ -6393,7 +6700,7 @@
       <c r="N160" s="3"/>
       <c r="O160" s="6"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15">
       <c r="A161" s="2"/>
       <c r="B161" s="4"/>
       <c r="C161" s="6"/>
@@ -6411,90 +6718,98 @@
       <c r="O161" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C161" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="C1:C161"/>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="N2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J4" r:id="rId3" tooltip="View this job description" display="https://autodesk.taleo.net/careersection/careersection/candidateacquisition/flow.jsf" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="L9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="M14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="N14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="N20" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="N21" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="M21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="N23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="M23" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="N25" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="N28" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="L28" r:id="rId14" display="https://career8.successfactors.com/portalcareer?_s.crb=kNBYkSysisIRZTdxfVciJ8DJuxM%253d" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="N31" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="M32" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="N32" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="N24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="L26" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="M36" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="N36" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="M41" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="N41" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="K41" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="L41" display="https://garmin.taleo.net/careersection/iam/accessmanagement/login.jsf?redirectionURI=https%3A%2F%2Fgarmin.taleo.net%2Fcareersection%2F2012_garmin_exp_tech%2Fjobsearch.ftl%3Fftlcompclass%3DLoginComponent&amp;TARGET=https%3A%2F%2Fgarmin.taleo.net%2Fcareersectio" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="M46" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="N46" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="M47" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="N47" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="L50" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="L51" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="M54" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="N54" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="M55" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="N55" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="M57" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="N57" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="M62" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="N62" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="L62" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="M67" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="N67" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="M71" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="N71" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="M72" r:id="rId44" display="sarath.sund@gmail.com" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="N72" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="L71" r:id="rId46" location="jobDetails=410516_5185" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="L68" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="M68" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="N68" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="N80" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="N81" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="N82" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="N85" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="L86" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="M92" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="N92" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="L88" r:id="rId57" xr:uid="{BD37E33B-8CD6-4A5D-9A47-AE8971068A84}"/>
-    <hyperlink ref="K88" r:id="rId58" xr:uid="{B88746A5-0EED-4892-AE02-C1B8CAAA44B0}"/>
-    <hyperlink ref="L79" r:id="rId59" xr:uid="{AF55B6D0-332F-4F31-AB45-50DF3CFFA4C9}"/>
-    <hyperlink ref="K94" r:id="rId60" xr:uid="{FB0C6F1F-F9B7-490E-8EF8-B6A95C546B27}"/>
+    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="N2" r:id="rId2"/>
+    <hyperlink ref="J4" r:id="rId3" tooltip="View this job description" display="https://autodesk.taleo.net/careersection/careersection/candidateacquisition/flow.jsf"/>
+    <hyperlink ref="L9" r:id="rId4"/>
+    <hyperlink ref="M14" r:id="rId5"/>
+    <hyperlink ref="N14" r:id="rId6"/>
+    <hyperlink ref="N20" r:id="rId7"/>
+    <hyperlink ref="N21" r:id="rId8"/>
+    <hyperlink ref="M21" r:id="rId9"/>
+    <hyperlink ref="N23" r:id="rId10"/>
+    <hyperlink ref="M23" r:id="rId11"/>
+    <hyperlink ref="N25" r:id="rId12"/>
+    <hyperlink ref="N28" r:id="rId13"/>
+    <hyperlink ref="L28" r:id="rId14" display="https://career8.successfactors.com/portalcareer?_s.crb=kNBYkSysisIRZTdxfVciJ8DJuxM%253d"/>
+    <hyperlink ref="N31" r:id="rId15"/>
+    <hyperlink ref="M32" r:id="rId16"/>
+    <hyperlink ref="N32" r:id="rId17"/>
+    <hyperlink ref="N24" r:id="rId18"/>
+    <hyperlink ref="L26" r:id="rId19"/>
+    <hyperlink ref="M36" r:id="rId20"/>
+    <hyperlink ref="N36" r:id="rId21"/>
+    <hyperlink ref="M41" r:id="rId22"/>
+    <hyperlink ref="N41" r:id="rId23"/>
+    <hyperlink ref="K41" r:id="rId24"/>
+    <hyperlink ref="L41" display="https://garmin.taleo.net/careersection/iam/accessmanagement/login.jsf?redirectionURI=https%3A%2F%2Fgarmin.taleo.net%2Fcareersection%2F2012_garmin_exp_tech%2Fjobsearch.ftl%3Fftlcompclass%3DLoginComponent&amp;TARGET=https%3A%2F%2Fgarmin.taleo.net%2Fcareersectio"/>
+    <hyperlink ref="M46" r:id="rId25"/>
+    <hyperlink ref="N46" r:id="rId26"/>
+    <hyperlink ref="M47" r:id="rId27"/>
+    <hyperlink ref="N47" r:id="rId28"/>
+    <hyperlink ref="L50" r:id="rId29"/>
+    <hyperlink ref="L51" r:id="rId30"/>
+    <hyperlink ref="M54" r:id="rId31"/>
+    <hyperlink ref="N54" r:id="rId32"/>
+    <hyperlink ref="M55" r:id="rId33"/>
+    <hyperlink ref="N55" r:id="rId34"/>
+    <hyperlink ref="M57" r:id="rId35"/>
+    <hyperlink ref="N57" r:id="rId36"/>
+    <hyperlink ref="M62" r:id="rId37"/>
+    <hyperlink ref="N62" r:id="rId38"/>
+    <hyperlink ref="L62" r:id="rId39"/>
+    <hyperlink ref="M67" r:id="rId40"/>
+    <hyperlink ref="N67" r:id="rId41"/>
+    <hyperlink ref="M71" r:id="rId42"/>
+    <hyperlink ref="N71" r:id="rId43"/>
+    <hyperlink ref="M72" r:id="rId44" display="sarath.sund@gmail.com"/>
+    <hyperlink ref="N72" r:id="rId45"/>
+    <hyperlink ref="L71" r:id="rId46" location="jobDetails=410516_5185"/>
+    <hyperlink ref="L68" r:id="rId47"/>
+    <hyperlink ref="M68" r:id="rId48"/>
+    <hyperlink ref="N68" r:id="rId49"/>
+    <hyperlink ref="N80" r:id="rId50"/>
+    <hyperlink ref="N81" r:id="rId51"/>
+    <hyperlink ref="N82" r:id="rId52"/>
+    <hyperlink ref="N85" r:id="rId53"/>
+    <hyperlink ref="L86" r:id="rId54"/>
+    <hyperlink ref="M92" r:id="rId55"/>
+    <hyperlink ref="N92" r:id="rId56"/>
+    <hyperlink ref="L88" r:id="rId57"/>
+    <hyperlink ref="K88" r:id="rId58"/>
+    <hyperlink ref="L79" r:id="rId59"/>
+    <hyperlink ref="K94" r:id="rId60"/>
+    <hyperlink ref="M96" r:id="rId61"/>
+    <hyperlink ref="N96" r:id="rId62"/>
+    <hyperlink ref="L97" r:id="rId63"/>
+    <hyperlink ref="M97" r:id="rId64"/>
+    <hyperlink ref="N97" r:id="rId65"/>
+    <hyperlink ref="M103" r:id="rId66"/>
+    <hyperlink ref="N103" r:id="rId67"/>
+    <hyperlink ref="N106" r:id="rId68"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId61"/>
+  <pageSetup orientation="portrait" r:id="rId69"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:6">
       <c r="E3" s="9" t="s">
         <v>60</v>
       </c>
@@ -6502,7 +6817,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:6">
       <c r="D4">
         <v>1</v>
       </c>
@@ -6513,7 +6828,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:6">
       <c r="D5">
         <v>2</v>
       </c>
@@ -6524,7 +6839,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:6">
       <c r="D6">
         <v>3</v>
       </c>
@@ -6535,7 +6850,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:6">
       <c r="D7">
         <v>4</v>
       </c>
@@ -6543,7 +6858,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:6">
       <c r="D8">
         <v>5</v>
       </c>
@@ -6551,7 +6866,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:6">
       <c r="D9">
         <v>6</v>
       </c>
@@ -6559,7 +6874,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:6">
       <c r="D10">
         <v>7</v>
       </c>
@@ -6567,7 +6882,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:6">
       <c r="D11">
         <v>8</v>
       </c>
@@ -6575,7 +6890,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:6">
       <c r="D12">
         <v>9</v>
       </c>
@@ -6583,7 +6898,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:6">
       <c r="D13">
         <v>10</v>
       </c>
@@ -6591,7 +6906,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:6">
       <c r="D14">
         <v>11</v>
       </c>
@@ -6599,7 +6914,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:6">
       <c r="D15">
         <v>12</v>
       </c>
@@ -6607,7 +6922,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:6">
       <c r="D16">
         <v>13</v>
       </c>
@@ -6615,7 +6930,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5">
       <c r="D17">
         <v>14</v>
       </c>
@@ -6623,7 +6938,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:5">
       <c r="D18">
         <v>15</v>
       </c>
@@ -6631,7 +6946,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:5">
       <c r="D19">
         <v>16</v>
       </c>
@@ -6639,7 +6954,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:5">
       <c r="D20">
         <v>17</v>
       </c>
@@ -6647,7 +6962,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:5">
       <c r="D21">
         <v>18</v>
       </c>
@@ -6655,7 +6970,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:5">
       <c r="D22">
         <v>19</v>
       </c>
@@ -6670,19 +6985,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:G86"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="7" width="48.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="5:7" ht="15.75" thickBot="1">
       <c r="E1" s="10" t="s">
         <v>0</v>
       </c>
@@ -6693,7 +7008,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="5:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="5:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="E2">
         <v>1</v>
       </c>
@@ -6704,7 +7019,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:7" ht="15.75" thickBot="1">
       <c r="E3">
         <v>2</v>
       </c>
@@ -6715,7 +7030,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:7" ht="15.75" thickBot="1">
       <c r="E4">
         <v>3</v>
       </c>
@@ -6726,7 +7041,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:7" ht="15.75" thickBot="1">
       <c r="E5">
         <v>4</v>
       </c>
@@ -6737,7 +7052,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:7" ht="15.75" thickBot="1">
       <c r="E6">
         <v>5</v>
       </c>
@@ -6748,7 +7063,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:7" ht="15.75" thickBot="1">
       <c r="E7">
         <v>6</v>
       </c>
@@ -6759,7 +7074,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:7" ht="15.75" thickBot="1">
       <c r="E8">
         <v>7</v>
       </c>
@@ -6770,7 +7085,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:7" ht="15.75" thickBot="1">
       <c r="E9">
         <v>8</v>
       </c>
@@ -6781,7 +7096,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:7" ht="15.75" thickBot="1">
       <c r="E10">
         <v>9</v>
       </c>
@@ -6792,7 +7107,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:7" ht="15.75" thickBot="1">
       <c r="E11">
         <v>10</v>
       </c>
@@ -6803,7 +7118,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:7" ht="15.75" thickBot="1">
       <c r="E12">
         <v>11</v>
       </c>
@@ -6814,7 +7129,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:7" ht="15.75" thickBot="1">
       <c r="E13">
         <v>12</v>
       </c>
@@ -6825,7 +7140,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:7" ht="15.75" thickBot="1">
       <c r="E14">
         <v>13</v>
       </c>
@@ -6836,7 +7151,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:7" ht="15.75" thickBot="1">
       <c r="E15">
         <v>14</v>
       </c>
@@ -6847,7 +7162,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:7" ht="15.75" thickBot="1">
       <c r="E16">
         <v>15</v>
       </c>
@@ -6858,7 +7173,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:7" ht="15.75" thickBot="1">
       <c r="E17">
         <v>16</v>
       </c>
@@ -6869,7 +7184,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:7" ht="15.75" thickBot="1">
       <c r="E18">
         <v>17</v>
       </c>
@@ -6880,7 +7195,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:7" ht="15.75" thickBot="1">
       <c r="E19">
         <v>18</v>
       </c>
@@ -6891,7 +7206,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:7" ht="15.75" thickBot="1">
       <c r="E20">
         <v>19</v>
       </c>
@@ -6902,7 +7217,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:7" ht="15.75" thickBot="1">
       <c r="E21">
         <v>20</v>
       </c>
@@ -6913,7 +7228,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:7" ht="15.75" thickBot="1">
       <c r="E22">
         <v>21</v>
       </c>
@@ -6924,7 +7239,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:7" ht="15.75" thickBot="1">
       <c r="E23">
         <v>22</v>
       </c>
@@ -6935,7 +7250,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:7" ht="15.75" thickBot="1">
       <c r="E24">
         <v>23</v>
       </c>
@@ -6946,7 +7261,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:7" ht="15.75" thickBot="1">
       <c r="E25">
         <v>24</v>
       </c>
@@ -6957,7 +7272,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:7" ht="15.75" thickBot="1">
       <c r="E26">
         <v>25</v>
       </c>
@@ -6968,7 +7283,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:7" ht="15.75" thickBot="1">
       <c r="E27">
         <v>26</v>
       </c>
@@ -6979,7 +7294,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:7" ht="15.75" thickBot="1">
       <c r="E28">
         <v>27</v>
       </c>
@@ -6990,7 +7305,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:7" ht="15.75" thickBot="1">
       <c r="E29">
         <v>28</v>
       </c>
@@ -7001,7 +7316,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:7" ht="15.75" thickBot="1">
       <c r="E30">
         <v>29</v>
       </c>
@@ -7012,7 +7327,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:7" ht="15.75" thickBot="1">
       <c r="E31">
         <v>30</v>
       </c>
@@ -7023,7 +7338,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:7" ht="15.75" thickBot="1">
       <c r="E32">
         <v>31</v>
       </c>
@@ -7034,7 +7349,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:7" ht="15.75" thickBot="1">
       <c r="E33">
         <v>32</v>
       </c>
@@ -7045,7 +7360,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:7" ht="15.75" thickBot="1">
       <c r="E34">
         <v>33</v>
       </c>
@@ -7056,7 +7371,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="35" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:7" ht="15.75" thickBot="1">
       <c r="E35">
         <v>34</v>
       </c>
@@ -7067,7 +7382,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:7" ht="15.75" thickBot="1">
       <c r="E36">
         <v>35</v>
       </c>
@@ -7078,7 +7393,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:7" ht="15.75" thickBot="1">
       <c r="E37">
         <v>36</v>
       </c>
@@ -7089,7 +7404,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:7" ht="15.75" thickBot="1">
       <c r="E38">
         <v>37</v>
       </c>
@@ -7100,7 +7415,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:7" ht="15.75" thickBot="1">
       <c r="E39">
         <v>38</v>
       </c>
@@ -7111,7 +7426,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:7" ht="15.75" thickBot="1">
       <c r="E40">
         <v>39</v>
       </c>
@@ -7122,7 +7437,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="41" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:7" ht="15.75" thickBot="1">
       <c r="E41">
         <v>40</v>
       </c>
@@ -7133,7 +7448,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:7" ht="15.75" thickBot="1">
       <c r="E42">
         <v>41</v>
       </c>
@@ -7144,7 +7459,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:7" ht="15.75" thickBot="1">
       <c r="E43">
         <v>42</v>
       </c>
@@ -7155,7 +7470,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="44" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:7" ht="15.75" thickBot="1">
       <c r="E44">
         <v>43</v>
       </c>
@@ -7166,7 +7481,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:7" ht="15.75" thickBot="1">
       <c r="E45">
         <v>44</v>
       </c>
@@ -7177,7 +7492,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:7" ht="15.75" thickBot="1">
       <c r="E46">
         <v>45</v>
       </c>
@@ -7188,7 +7503,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:7" ht="15.75" thickBot="1">
       <c r="E47">
         <v>46</v>
       </c>
@@ -7199,7 +7514,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="48" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:7" ht="15.75" thickBot="1">
       <c r="E48">
         <v>47</v>
       </c>
@@ -7210,7 +7525,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="49" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:7" ht="15.75" thickBot="1">
       <c r="E49">
         <v>48</v>
       </c>
@@ -7221,7 +7536,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:7" ht="15.75" thickBot="1">
       <c r="E50">
         <v>49</v>
       </c>
@@ -7232,7 +7547,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:7" ht="15.75" thickBot="1">
       <c r="E51">
         <v>50</v>
       </c>
@@ -7243,7 +7558,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="52" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:7" ht="15.75" thickBot="1">
       <c r="E52">
         <v>51</v>
       </c>
@@ -7254,7 +7569,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="53" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:7" ht="15.75" thickBot="1">
       <c r="E53">
         <v>52</v>
       </c>
@@ -7265,7 +7580,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="54" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:7" ht="15.75" thickBot="1">
       <c r="E54">
         <v>53</v>
       </c>
@@ -7276,7 +7591,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="55" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:7" ht="15.75" thickBot="1">
       <c r="E55">
         <v>54</v>
       </c>
@@ -7287,7 +7602,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:7" ht="15.75" thickBot="1">
       <c r="E56">
         <v>55</v>
       </c>
@@ -7298,7 +7613,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="57" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:7" ht="15.75" thickBot="1">
       <c r="E57">
         <v>56</v>
       </c>
@@ -7309,7 +7624,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:7" ht="15.75" thickBot="1">
       <c r="E58">
         <v>57</v>
       </c>
@@ -7320,7 +7635,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="59" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:7" ht="15.75" thickBot="1">
       <c r="E59">
         <v>58</v>
       </c>
@@ -7331,7 +7646,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="60" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:7" ht="15.75" thickBot="1">
       <c r="E60">
         <v>59</v>
       </c>
@@ -7342,7 +7657,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="61" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:7" ht="15.75" thickBot="1">
       <c r="E61">
         <v>60</v>
       </c>
@@ -7353,7 +7668,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="62" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:7" ht="15.75" thickBot="1">
       <c r="E62">
         <v>61</v>
       </c>
@@ -7364,7 +7679,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:7" ht="15.75" thickBot="1">
       <c r="E63">
         <v>62</v>
       </c>
@@ -7375,7 +7690,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="64" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:7" ht="15.75" thickBot="1">
       <c r="E64">
         <v>63</v>
       </c>
@@ -7386,7 +7701,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:7" ht="15.75" thickBot="1">
       <c r="E65">
         <v>64</v>
       </c>
@@ -7397,7 +7712,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="66" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:7" ht="15.75" thickBot="1">
       <c r="E66">
         <v>65</v>
       </c>
@@ -7408,7 +7723,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="67" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:7" ht="15.75" thickBot="1">
       <c r="E67">
         <v>66</v>
       </c>
@@ -7419,7 +7734,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:7" ht="15.75" thickBot="1">
       <c r="E68">
         <v>67</v>
       </c>
@@ -7430,7 +7745,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="69" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:7" ht="15.75" thickBot="1">
       <c r="E69">
         <v>68</v>
       </c>
@@ -7441,7 +7756,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="70" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:7" ht="15.75" thickBot="1">
       <c r="E70">
         <v>69</v>
       </c>
@@ -7452,7 +7767,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:7" ht="15.75" thickBot="1">
       <c r="E71">
         <v>70</v>
       </c>
@@ -7463,7 +7778,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="72" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:7" ht="15.75" thickBot="1">
       <c r="E72">
         <v>71</v>
       </c>
@@ -7474,7 +7789,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="73" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:7" ht="15.75" thickBot="1">
       <c r="E73">
         <v>72</v>
       </c>
@@ -7485,7 +7800,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:7" ht="15.75" thickBot="1">
       <c r="E74">
         <v>73</v>
       </c>
@@ -7496,7 +7811,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:7" ht="15.75" thickBot="1">
       <c r="E75">
         <v>74</v>
       </c>
@@ -7507,7 +7822,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:7" ht="15.75" thickBot="1">
       <c r="E76">
         <v>75</v>
       </c>
@@ -7518,7 +7833,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:7" ht="15.75" thickBot="1">
       <c r="E77">
         <v>76</v>
       </c>
@@ -7529,7 +7844,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:7" ht="15.75" thickBot="1">
       <c r="E78">
         <v>77</v>
       </c>
@@ -7540,7 +7855,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="79" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:7" ht="15.75" thickBot="1">
       <c r="E79">
         <v>78</v>
       </c>
@@ -7551,7 +7866,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:7" ht="15.75" thickBot="1">
       <c r="E80">
         <v>79</v>
       </c>
@@ -7562,7 +7877,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:7" ht="15.75" thickBot="1">
       <c r="E81">
         <v>80</v>
       </c>
@@ -7573,7 +7888,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="82" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:7" ht="15.75" thickBot="1">
       <c r="E82">
         <v>81</v>
       </c>
@@ -7584,7 +7899,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:7" ht="15.75" thickBot="1">
       <c r="E83">
         <v>82</v>
       </c>
@@ -7595,7 +7910,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="84" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:7" ht="15.75" thickBot="1">
       <c r="E84">
         <v>83</v>
       </c>
@@ -7606,7 +7921,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="85" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:7" ht="15.75" thickBot="1">
       <c r="E85">
         <v>84</v>
       </c>
@@ -7617,201 +7932,201 @@
         <v>199</v>
       </c>
     </row>
-    <row r="86" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:7" ht="15.75" thickBot="1">
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://www.forbes.com/companies/ibm/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="G2" r:id="rId2" display="http://www.ibm.com/" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="F3" r:id="rId3" display="https://www.forbes.com/companies/dxc-technology/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="G3" r:id="rId4" display="http://www.dxc.technology/" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="F4" r:id="rId5" display="https://www.forbes.com/companies/deloitte-touche-tohmatsu/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="G4" r:id="rId6" display="http://www.deloitte.com/" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="F5" r:id="rId7" display="https://www.forbes.com/companies/cisco-systems/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="G5" r:id="rId8" display="http://www.cisco.com/" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="F6" r:id="rId9" display="https://www.forbes.com/companies/accenture/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="G6" r:id="rId10" display="http://www.accenture.com/" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="F7" r:id="rId11" display="https://www.forbes.com/companies/sap/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="G7" r:id="rId12" display="http://www.sap.com/" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="F8" r:id="rId13" display="https://www.forbes.com/companies/pricewaterhousecoopers/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="G8" r:id="rId14" display="http://www.pwc.com/" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="F9" r:id="rId15" display="https://www.forbes.com/companies/oracle/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="G9" r:id="rId16" display="http://www.oracle.com/" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="F10" r:id="rId17" display="https://www.forbes.com/companies/mckinsey-company/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="G10" r:id="rId18" display="http://www.mckinsey.com/" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="F11" r:id="rId19" display="https://www.forbes.com/companies/kpmg/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="G11" r:id="rId20" display="http://www.kpmg.com/" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="F12" r:id="rId21" display="https://www.forbes.com/companies/infosys-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="G12" r:id="rId22" display="http://www.infosys.com/" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="F13" r:id="rId23" display="https://www.forbes.com/companies/information-services-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="G13" r:id="rId24" display="http://www.isg-one.com/" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="F14" r:id="rId25" display="https://www.forbes.com/companies/gartner/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="G14" r:id="rId26" display="http://www.gartner.com/" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="F15" r:id="rId27" display="https://www.forbes.com/companies/ernst-young/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="G15" r:id="rId28" display="http://www.ey.com/" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="F16" r:id="rId29" display="https://www.forbes.com/companies/boston-consulting-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="G16" r:id="rId30" display="http://www.bcg.com/" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="F17" r:id="rId31" display="https://www.forbes.com/companies/booz-allen-hamilton/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="G17" r:id="rId32" display="http://www.boozallen.com/" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="F18" r:id="rId33" display="https://www.forbes.com/companies/west-monroe-partners/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="G18" r:id="rId34" display="http://www.westmonroepartners.com/" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="F19" r:id="rId35" display="https://www.forbes.com/companies/the-chartis-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="G19" r:id="rId36" display="http://www.chartis.com/" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink ref="F20" r:id="rId37" display="https://www.forbes.com/companies/tata-consultancy-services/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink ref="G20" r:id="rId38" display="http://www.tcs.com/" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink ref="F21" r:id="rId39" display="https://www.forbes.com/companies/strategy/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink ref="G21" r:id="rId40" display="http://www.strategyand.pwc.com/" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink ref="F22" r:id="rId41" display="https://www.forbes.com/companies/ssa-company/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="G22" r:id="rId42" display="http://www.ssaandco.com/" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="F23" r:id="rId43" display="https://www.forbes.com/companies/slalom-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="G23" r:id="rId44" display="http://www.slalom.com/" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="F24" r:id="rId45" display="https://www.forbes.com/companies/sapient/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="G24" r:id="rId46" display="http://www.sapientconsulting.com/" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="F25" r:id="rId47" display="https://www.forbes.com/companies/roland-berger-strategy-consultants/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="G25" r:id="rId48" display="http://www.rolandberger.com/" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="F26" r:id="rId49" display="https://www.forbes.com/companies/resources-global-professionals/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="G26" r:id="rId50" display="http://www.rgp.com/" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink ref="F27" r:id="rId51" display="https://www.forbes.com/companies/protiviti/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
-    <hyperlink ref="G27" r:id="rId52" display="http://www.protiviti.com/" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
-    <hyperlink ref="F28" r:id="rId53" display="https://www.forbes.com/companies/point-b/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
-    <hyperlink ref="G28" r:id="rId54" display="http://www.pointb.com/" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
-    <hyperlink ref="F29" r:id="rId55" display="https://www.forbes.com/companies/oliver-wyman/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
-    <hyperlink ref="G29" r:id="rId56" display="http://www.oliverwyman.com/" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
-    <hyperlink ref="F30" r:id="rId57" display="https://www.forbes.com/companies/oasys-international/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
-    <hyperlink ref="G30" r:id="rId58" display="http://www.oasysic.com/" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
-    <hyperlink ref="F31" r:id="rId59" display="https://www.forbes.com/companies/novantas/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
-    <hyperlink ref="G31" r:id="rId60" display="http://www.novantas.com/" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
-    <hyperlink ref="F32" r:id="rId61" display="https://www.forbes.com/companies/north-highland/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
-    <hyperlink ref="G32" r:id="rId62" display="http://www.northhighland.com/" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
-    <hyperlink ref="F33" r:id="rId63" display="https://www.forbes.com/companies/medmatica-consulting-associates/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
-    <hyperlink ref="G33" r:id="rId64" display="http://www.medmatica.com/" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
-    <hyperlink ref="F34" r:id="rId65" display="https://www.forbes.com/companies/lockheed-martin/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
-    <hyperlink ref="G34" r:id="rId66" display="http://www.lockheedmartin.com/" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
-    <hyperlink ref="F35" r:id="rId67" display="https://www.forbes.com/companies/leappoint/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
-    <hyperlink ref="G35" r:id="rId68" display="http://leappoint.com/" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
-    <hyperlink ref="F36" r:id="rId69" display="https://www.forbes.com/companies/kurt-salmon/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
-    <hyperlink ref="G36" r:id="rId70" display="http://www.kurtsalmon.com/" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
-    <hyperlink ref="F37" r:id="rId71" display="https://www.forbes.com/companies/jabian-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
-    <hyperlink ref="G37" r:id="rId72" display="http://www.jabian.com/" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
-    <hyperlink ref="F38" r:id="rId73" display="https://www.forbes.com/companies/impact-advisors/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
-    <hyperlink ref="G38" r:id="rId74" display="http://www.impact-advisors.com/" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
-    <hyperlink ref="F39" r:id="rId75" display="https://www.forbes.com/companies/ignyte-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
-    <hyperlink ref="G39" r:id="rId76" display="http://ignytegroup.com/" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
-    <hyperlink ref="F40" r:id="rId77" display="https://www.forbes.com/companies/huron-consulting-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
-    <hyperlink ref="G40" r:id="rId78" display="http://www.huronconsultinggroup.com/" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
-    <hyperlink ref="F41" r:id="rId79" display="https://www.forbes.com/companies/grant-thornton/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
-    <hyperlink ref="G41" r:id="rId80" display="http://www.grantthornton.com/" xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
-    <hyperlink ref="F42" r:id="rId81" display="https://www.forbes.com/companies/fti-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000050000000}"/>
-    <hyperlink ref="G42" r:id="rId82" display="http://www.fticonsulting.com/" xr:uid="{00000000-0004-0000-0200-000051000000}"/>
-    <hyperlink ref="F43" r:id="rId83" display="https://www.forbes.com/companies/forsythe-solutions-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000052000000}"/>
-    <hyperlink ref="G43" r:id="rId84" display="http://www.forsythe.com/" xr:uid="{00000000-0004-0000-0200-000053000000}"/>
-    <hyperlink ref="F44" r:id="rId85" display="https://www.forbes.com/companies/everest-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000054000000}"/>
-    <hyperlink ref="G44" r:id="rId86" display="http://www.everestgrp.com/" xr:uid="{00000000-0004-0000-0200-000055000000}"/>
-    <hyperlink ref="F45" r:id="rId87" display="https://www.forbes.com/companies/cumberland-consulting-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000056000000}"/>
-    <hyperlink ref="G45" r:id="rId88" display="http://www.cumberlandcg.com/" xr:uid="{00000000-0004-0000-0200-000057000000}"/>
-    <hyperlink ref="F46" r:id="rId89" display="https://www.forbes.com/companies/cognizant/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000058000000}"/>
-    <hyperlink ref="G46" r:id="rId90" display="http://www.cognizant.com/" xr:uid="{00000000-0004-0000-0200-000059000000}"/>
-    <hyperlink ref="F47" r:id="rId91" display="https://www.forbes.com/companies/clarkston-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00005A000000}"/>
-    <hyperlink ref="G47" r:id="rId92" display="http://www.clarkstonconsulting.com/" xr:uid="{00000000-0004-0000-0200-00005B000000}"/>
-    <hyperlink ref="F48" r:id="rId93" display="https://www.forbes.com/companies/cgn-global/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00005C000000}"/>
-    <hyperlink ref="G48" r:id="rId94" display="http://www.cgnglobal.com/" xr:uid="{00000000-0004-0000-0200-00005D000000}"/>
-    <hyperlink ref="F49" r:id="rId95" display="https://www.forbes.com/companies/censeo-consulting-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00005E000000}"/>
-    <hyperlink ref="G49" r:id="rId96" display="http://www.censeoconsulting.com/" xr:uid="{00000000-0004-0000-0200-00005F000000}"/>
-    <hyperlink ref="F50" r:id="rId97" display="https://www.forbes.com/companies/captech/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000060000000}"/>
-    <hyperlink ref="G50" r:id="rId98" display="http://www.captechconsulting.com/" xr:uid="{00000000-0004-0000-0200-000061000000}"/>
-    <hyperlink ref="F51" r:id="rId99" display="https://www.forbes.com/companies/capgemini-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000062000000}"/>
-    <hyperlink ref="G51" r:id="rId100" display="http://www.capgemini.com/" xr:uid="{00000000-0004-0000-0200-000063000000}"/>
-    <hyperlink ref="F52" r:id="rId101" display="https://www.forbes.com/companies/brattle-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000064000000}"/>
-    <hyperlink ref="G52" r:id="rId102" display="http://www.brattle.com/" xr:uid="{00000000-0004-0000-0200-000065000000}"/>
-    <hyperlink ref="F53" r:id="rId103" display="https://www.forbes.com/companies/bdo-usa/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000066000000}"/>
-    <hyperlink ref="G53" r:id="rId104" display="http://www.bdo.com/" xr:uid="{00000000-0004-0000-0200-000067000000}"/>
-    <hyperlink ref="F54" r:id="rId105" display="https://www.forbes.com/companies/bain-and-company/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000068000000}"/>
-    <hyperlink ref="G54" r:id="rId106" display="http://www.bain.com/" xr:uid="{00000000-0004-0000-0200-000069000000}"/>
-    <hyperlink ref="F55" r:id="rId107" display="https://www.forbes.com/companies/bae-systems/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00006A000000}"/>
-    <hyperlink ref="G55" r:id="rId108" display="http://www.baesystems.com/" xr:uid="{00000000-0004-0000-0200-00006B000000}"/>
-    <hyperlink ref="F56" r:id="rId109" display="https://www.forbes.com/companies/avasant/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00006C000000}"/>
-    <hyperlink ref="G56" r:id="rId110" display="http://www.avasant.com/" xr:uid="{00000000-0004-0000-0200-00006D000000}"/>
-    <hyperlink ref="F57" r:id="rId111" display="https://www.forbes.com/companies/at-kearney/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00006E000000}"/>
-    <hyperlink ref="G57" r:id="rId112" display="http://www.atkearney.com/" xr:uid="{00000000-0004-0000-0200-00006F000000}"/>
-    <hyperlink ref="F58" r:id="rId113" display="https://www.forbes.com/companies/arthur-d-little/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000070000000}"/>
-    <hyperlink ref="G58" r:id="rId114" display="http://www.adlittle.com/" xr:uid="{00000000-0004-0000-0200-000071000000}"/>
-    <hyperlink ref="F59" r:id="rId115" display="https://www.forbes.com/companies/archpoint/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000072000000}"/>
-    <hyperlink ref="G59" r:id="rId116" display="http://www.archpointconsulting.com/" xr:uid="{00000000-0004-0000-0200-000073000000}"/>
-    <hyperlink ref="F60" r:id="rId117" display="https://www.forbes.com/companies/appirio/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000074000000}"/>
-    <hyperlink ref="G60" r:id="rId118" display="http://www.appirio.com/" xr:uid="{00000000-0004-0000-0200-000075000000}"/>
-    <hyperlink ref="F61" r:id="rId119" display="https://www.forbes.com/companies/alixpartners/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000076000000}"/>
-    <hyperlink ref="G61" r:id="rId120" display="http://www.alixpartners.com/" xr:uid="{00000000-0004-0000-0200-000077000000}"/>
-    <hyperlink ref="F62" r:id="rId121" display="https://www.forbes.com/companies/microsoft/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000078000000}"/>
-    <hyperlink ref="G62" r:id="rId122" display="http://www.microsoft.com/" xr:uid="{00000000-0004-0000-0200-000079000000}"/>
-    <hyperlink ref="F63" r:id="rId123" display="https://www.forbes.com/companies/wipro/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00007A000000}"/>
-    <hyperlink ref="G63" r:id="rId124" display="http://www.wipro.com/" xr:uid="{00000000-0004-0000-0200-00007B000000}"/>
-    <hyperlink ref="F64" r:id="rId125" display="https://www.forbes.com/companies/virtusa/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00007C000000}"/>
-    <hyperlink ref="G64" r:id="rId126" display="http://www.virtusa.com/" xr:uid="{00000000-0004-0000-0200-00007D000000}"/>
-    <hyperlink ref="F65" r:id="rId127" display="https://www.forbes.com/companies/ntt-data-services/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00007E000000}"/>
-    <hyperlink ref="G65" r:id="rId128" display="http://us.nttdata.com/" xr:uid="{00000000-0004-0000-0200-00007F000000}"/>
-    <hyperlink ref="F66" r:id="rId129" display="https://www.forbes.com/companies/mckinnis-consulting-services/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000080000000}"/>
-    <hyperlink ref="G66" r:id="rId130" display="http://www.mckinnisconsulting.com/" xr:uid="{00000000-0004-0000-0200-000081000000}"/>
-    <hyperlink ref="F67" r:id="rId131" display="https://www.forbes.com/companies/hitachi-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000082000000}"/>
-    <hyperlink ref="G67" r:id="rId132" display="http://www.hitachiconsulting.com/" xr:uid="{00000000-0004-0000-0200-000083000000}"/>
-    <hyperlink ref="F68" r:id="rId133" display="https://www.forbes.com/companies/hcl-technologies/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000084000000}"/>
-    <hyperlink ref="G68" r:id="rId134" display="http://www.hcltech.com/" xr:uid="{00000000-0004-0000-0200-000085000000}"/>
-    <hyperlink ref="F69" r:id="rId135" display="https://www.forbes.com/companies/fujitsu-america/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000086000000}"/>
-    <hyperlink ref="G69" r:id="rId136" display="http://www.fujitsu.com/" xr:uid="{00000000-0004-0000-0200-000087000000}"/>
-    <hyperlink ref="F70" r:id="rId137" display="https://www.forbes.com/companies/bridge-solutions-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000088000000}"/>
-    <hyperlink ref="G70" r:id="rId138" display="http://bridgesgi.com/" xr:uid="{00000000-0004-0000-0200-000089000000}"/>
-    <hyperlink ref="F71" r:id="rId139" display="https://www.forbes.com/companies/blue-horseshoe-solutions/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00008A000000}"/>
-    <hyperlink ref="G71" r:id="rId140" display="http://www.bhsolutions.com/" xr:uid="{00000000-0004-0000-0200-00008B000000}"/>
-    <hyperlink ref="F72" r:id="rId141" display="https://www.forbes.com/companies/application-consulting-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00008C000000}"/>
-    <hyperlink ref="G72" r:id="rId142" display="http://www.acgi.com/" xr:uid="{00000000-0004-0000-0200-00008D000000}"/>
-    <hyperlink ref="F73" r:id="rId143" display="https://www.forbes.com/companies/simon-kucher-partners/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00008E000000}"/>
-    <hyperlink ref="G73" r:id="rId144" display="http://www.simon-kucher.com/" xr:uid="{00000000-0004-0000-0200-00008F000000}"/>
-    <hyperlink ref="F74" r:id="rId145" display="https://www.forbes.com/companies/navigant-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000090000000}"/>
-    <hyperlink ref="G74" r:id="rId146" display="http://www.navigant.com/" xr:uid="{00000000-0004-0000-0200-000091000000}"/>
-    <hyperlink ref="F75" r:id="rId147" display="https://www.forbes.com/companies/keystone-strategy/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000092000000}"/>
-    <hyperlink ref="G75" r:id="rId148" display="http://www.keystonestrategy.com/" xr:uid="{00000000-0004-0000-0200-000093000000}"/>
-    <hyperlink ref="F76" r:id="rId149" display="https://www.forbes.com/companies/kaiser-associates/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000094000000}"/>
-    <hyperlink ref="G76" r:id="rId150" display="http://www.kaiserassociates.com/" xr:uid="{00000000-0004-0000-0200-000095000000}"/>
-    <hyperlink ref="F77" r:id="rId151" display="https://www.forbes.com/companies/insight-sourcing-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000096000000}"/>
-    <hyperlink ref="G77" r:id="rId152" display="http://www.insightsourcing.com/" xr:uid="{00000000-0004-0000-0200-000097000000}"/>
-    <hyperlink ref="F78" r:id="rId153" display="https://www.forbes.com/companies/innosight/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000098000000}"/>
-    <hyperlink ref="G78" r:id="rId154" display="http://www.innosight.com/" xr:uid="{00000000-0004-0000-0200-000099000000}"/>
-    <hyperlink ref="F79" r:id="rId155" display="https://www.forbes.com/companies/ibb-consulting-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00009A000000}"/>
-    <hyperlink ref="G79" r:id="rId156" display="http://www.ibbconsulting.com/" xr:uid="{00000000-0004-0000-0200-00009B000000}"/>
-    <hyperlink ref="F80" r:id="rId157" display="https://www.forbes.com/companies/hay-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00009C000000}"/>
-    <hyperlink ref="G80" r:id="rId158" display="http://www.haygroup.com/" xr:uid="{00000000-0004-0000-0200-00009D000000}"/>
-    <hyperlink ref="F81" r:id="rId159" display="https://www.forbes.com/companies/cornerstone-research/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00009E000000}"/>
-    <hyperlink ref="G81" r:id="rId160" display="http://www.cornerstone.com/" xr:uid="{00000000-0004-0000-0200-00009F000000}"/>
-    <hyperlink ref="F82" r:id="rId161" display="https://www.forbes.com/companies/charles-river-associates/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-0000A0000000}"/>
-    <hyperlink ref="G82" r:id="rId162" display="http://www.crai.com/" xr:uid="{00000000-0004-0000-0200-0000A1000000}"/>
-    <hyperlink ref="F83" r:id="rId163" display="https://www.forbes.com/companies/centric-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-0000A2000000}"/>
-    <hyperlink ref="G83" r:id="rId164" display="http://www.centricconsulting.com/" xr:uid="{00000000-0004-0000-0200-0000A3000000}"/>
-    <hyperlink ref="F84" r:id="rId165" display="https://www.forbes.com/companies/bates-white/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-0000A4000000}"/>
-    <hyperlink ref="G84" r:id="rId166" display="http://www.bateswhite.com/" xr:uid="{00000000-0004-0000-0200-0000A5000000}"/>
-    <hyperlink ref="F85" r:id="rId167" display="https://www.forbes.com/companies/avanade/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-0000A6000000}"/>
-    <hyperlink ref="G85" r:id="rId168" display="http://www.avanade.com/" xr:uid="{00000000-0004-0000-0200-0000A7000000}"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://www.forbes.com/companies/ibm/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G2" r:id="rId2" display="http://www.ibm.com/"/>
+    <hyperlink ref="F3" r:id="rId3" display="https://www.forbes.com/companies/dxc-technology/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G3" r:id="rId4" display="http://www.dxc.technology/"/>
+    <hyperlink ref="F4" r:id="rId5" display="https://www.forbes.com/companies/deloitte-touche-tohmatsu/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G4" r:id="rId6" display="http://www.deloitte.com/"/>
+    <hyperlink ref="F5" r:id="rId7" display="https://www.forbes.com/companies/cisco-systems/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G5" r:id="rId8" display="http://www.cisco.com/"/>
+    <hyperlink ref="F6" r:id="rId9" display="https://www.forbes.com/companies/accenture/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G6" r:id="rId10" display="http://www.accenture.com/"/>
+    <hyperlink ref="F7" r:id="rId11" display="https://www.forbes.com/companies/sap/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G7" r:id="rId12" display="http://www.sap.com/"/>
+    <hyperlink ref="F8" r:id="rId13" display="https://www.forbes.com/companies/pricewaterhousecoopers/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G8" r:id="rId14" display="http://www.pwc.com/"/>
+    <hyperlink ref="F9" r:id="rId15" display="https://www.forbes.com/companies/oracle/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G9" r:id="rId16" display="http://www.oracle.com/"/>
+    <hyperlink ref="F10" r:id="rId17" display="https://www.forbes.com/companies/mckinsey-company/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G10" r:id="rId18" display="http://www.mckinsey.com/"/>
+    <hyperlink ref="F11" r:id="rId19" display="https://www.forbes.com/companies/kpmg/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G11" r:id="rId20" display="http://www.kpmg.com/"/>
+    <hyperlink ref="F12" r:id="rId21" display="https://www.forbes.com/companies/infosys-consulting/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G12" r:id="rId22" display="http://www.infosys.com/"/>
+    <hyperlink ref="F13" r:id="rId23" display="https://www.forbes.com/companies/information-services-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G13" r:id="rId24" display="http://www.isg-one.com/"/>
+    <hyperlink ref="F14" r:id="rId25" display="https://www.forbes.com/companies/gartner/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G14" r:id="rId26" display="http://www.gartner.com/"/>
+    <hyperlink ref="F15" r:id="rId27" display="https://www.forbes.com/companies/ernst-young/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G15" r:id="rId28" display="http://www.ey.com/"/>
+    <hyperlink ref="F16" r:id="rId29" display="https://www.forbes.com/companies/boston-consulting-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G16" r:id="rId30" display="http://www.bcg.com/"/>
+    <hyperlink ref="F17" r:id="rId31" display="https://www.forbes.com/companies/booz-allen-hamilton/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G17" r:id="rId32" display="http://www.boozallen.com/"/>
+    <hyperlink ref="F18" r:id="rId33" display="https://www.forbes.com/companies/west-monroe-partners/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G18" r:id="rId34" display="http://www.westmonroepartners.com/"/>
+    <hyperlink ref="F19" r:id="rId35" display="https://www.forbes.com/companies/the-chartis-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G19" r:id="rId36" display="http://www.chartis.com/"/>
+    <hyperlink ref="F20" r:id="rId37" display="https://www.forbes.com/companies/tata-consultancy-services/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G20" r:id="rId38" display="http://www.tcs.com/"/>
+    <hyperlink ref="F21" r:id="rId39" display="https://www.forbes.com/companies/strategy/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G21" r:id="rId40" display="http://www.strategyand.pwc.com/"/>
+    <hyperlink ref="F22" r:id="rId41" display="https://www.forbes.com/companies/ssa-company/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G22" r:id="rId42" display="http://www.ssaandco.com/"/>
+    <hyperlink ref="F23" r:id="rId43" display="https://www.forbes.com/companies/slalom-consulting/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G23" r:id="rId44" display="http://www.slalom.com/"/>
+    <hyperlink ref="F24" r:id="rId45" display="https://www.forbes.com/companies/sapient/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G24" r:id="rId46" display="http://www.sapientconsulting.com/"/>
+    <hyperlink ref="F25" r:id="rId47" display="https://www.forbes.com/companies/roland-berger-strategy-consultants/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G25" r:id="rId48" display="http://www.rolandberger.com/"/>
+    <hyperlink ref="F26" r:id="rId49" display="https://www.forbes.com/companies/resources-global-professionals/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G26" r:id="rId50" display="http://www.rgp.com/"/>
+    <hyperlink ref="F27" r:id="rId51" display="https://www.forbes.com/companies/protiviti/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G27" r:id="rId52" display="http://www.protiviti.com/"/>
+    <hyperlink ref="F28" r:id="rId53" display="https://www.forbes.com/companies/point-b/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G28" r:id="rId54" display="http://www.pointb.com/"/>
+    <hyperlink ref="F29" r:id="rId55" display="https://www.forbes.com/companies/oliver-wyman/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G29" r:id="rId56" display="http://www.oliverwyman.com/"/>
+    <hyperlink ref="F30" r:id="rId57" display="https://www.forbes.com/companies/oasys-international/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G30" r:id="rId58" display="http://www.oasysic.com/"/>
+    <hyperlink ref="F31" r:id="rId59" display="https://www.forbes.com/companies/novantas/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G31" r:id="rId60" display="http://www.novantas.com/"/>
+    <hyperlink ref="F32" r:id="rId61" display="https://www.forbes.com/companies/north-highland/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G32" r:id="rId62" display="http://www.northhighland.com/"/>
+    <hyperlink ref="F33" r:id="rId63" display="https://www.forbes.com/companies/medmatica-consulting-associates/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G33" r:id="rId64" display="http://www.medmatica.com/"/>
+    <hyperlink ref="F34" r:id="rId65" display="https://www.forbes.com/companies/lockheed-martin/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G34" r:id="rId66" display="http://www.lockheedmartin.com/"/>
+    <hyperlink ref="F35" r:id="rId67" display="https://www.forbes.com/companies/leappoint/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G35" r:id="rId68" display="http://leappoint.com/"/>
+    <hyperlink ref="F36" r:id="rId69" display="https://www.forbes.com/companies/kurt-salmon/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G36" r:id="rId70" display="http://www.kurtsalmon.com/"/>
+    <hyperlink ref="F37" r:id="rId71" display="https://www.forbes.com/companies/jabian-consulting/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G37" r:id="rId72" display="http://www.jabian.com/"/>
+    <hyperlink ref="F38" r:id="rId73" display="https://www.forbes.com/companies/impact-advisors/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G38" r:id="rId74" display="http://www.impact-advisors.com/"/>
+    <hyperlink ref="F39" r:id="rId75" display="https://www.forbes.com/companies/ignyte-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G39" r:id="rId76" display="http://ignytegroup.com/"/>
+    <hyperlink ref="F40" r:id="rId77" display="https://www.forbes.com/companies/huron-consulting-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G40" r:id="rId78" display="http://www.huronconsultinggroup.com/"/>
+    <hyperlink ref="F41" r:id="rId79" display="https://www.forbes.com/companies/grant-thornton/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G41" r:id="rId80" display="http://www.grantthornton.com/"/>
+    <hyperlink ref="F42" r:id="rId81" display="https://www.forbes.com/companies/fti-consulting/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G42" r:id="rId82" display="http://www.fticonsulting.com/"/>
+    <hyperlink ref="F43" r:id="rId83" display="https://www.forbes.com/companies/forsythe-solutions-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G43" r:id="rId84" display="http://www.forsythe.com/"/>
+    <hyperlink ref="F44" r:id="rId85" display="https://www.forbes.com/companies/everest-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G44" r:id="rId86" display="http://www.everestgrp.com/"/>
+    <hyperlink ref="F45" r:id="rId87" display="https://www.forbes.com/companies/cumberland-consulting-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G45" r:id="rId88" display="http://www.cumberlandcg.com/"/>
+    <hyperlink ref="F46" r:id="rId89" display="https://www.forbes.com/companies/cognizant/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G46" r:id="rId90" display="http://www.cognizant.com/"/>
+    <hyperlink ref="F47" r:id="rId91" display="https://www.forbes.com/companies/clarkston-consulting/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G47" r:id="rId92" display="http://www.clarkstonconsulting.com/"/>
+    <hyperlink ref="F48" r:id="rId93" display="https://www.forbes.com/companies/cgn-global/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G48" r:id="rId94" display="http://www.cgnglobal.com/"/>
+    <hyperlink ref="F49" r:id="rId95" display="https://www.forbes.com/companies/censeo-consulting-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G49" r:id="rId96" display="http://www.censeoconsulting.com/"/>
+    <hyperlink ref="F50" r:id="rId97" display="https://www.forbes.com/companies/captech/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G50" r:id="rId98" display="http://www.captechconsulting.com/"/>
+    <hyperlink ref="F51" r:id="rId99" display="https://www.forbes.com/companies/capgemini-consulting/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G51" r:id="rId100" display="http://www.capgemini.com/"/>
+    <hyperlink ref="F52" r:id="rId101" display="https://www.forbes.com/companies/brattle-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G52" r:id="rId102" display="http://www.brattle.com/"/>
+    <hyperlink ref="F53" r:id="rId103" display="https://www.forbes.com/companies/bdo-usa/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G53" r:id="rId104" display="http://www.bdo.com/"/>
+    <hyperlink ref="F54" r:id="rId105" display="https://www.forbes.com/companies/bain-and-company/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G54" r:id="rId106" display="http://www.bain.com/"/>
+    <hyperlink ref="F55" r:id="rId107" display="https://www.forbes.com/companies/bae-systems/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G55" r:id="rId108" display="http://www.baesystems.com/"/>
+    <hyperlink ref="F56" r:id="rId109" display="https://www.forbes.com/companies/avasant/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G56" r:id="rId110" display="http://www.avasant.com/"/>
+    <hyperlink ref="F57" r:id="rId111" display="https://www.forbes.com/companies/at-kearney/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G57" r:id="rId112" display="http://www.atkearney.com/"/>
+    <hyperlink ref="F58" r:id="rId113" display="https://www.forbes.com/companies/arthur-d-little/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G58" r:id="rId114" display="http://www.adlittle.com/"/>
+    <hyperlink ref="F59" r:id="rId115" display="https://www.forbes.com/companies/archpoint/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G59" r:id="rId116" display="http://www.archpointconsulting.com/"/>
+    <hyperlink ref="F60" r:id="rId117" display="https://www.forbes.com/companies/appirio/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G60" r:id="rId118" display="http://www.appirio.com/"/>
+    <hyperlink ref="F61" r:id="rId119" display="https://www.forbes.com/companies/alixpartners/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G61" r:id="rId120" display="http://www.alixpartners.com/"/>
+    <hyperlink ref="F62" r:id="rId121" display="https://www.forbes.com/companies/microsoft/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G62" r:id="rId122" display="http://www.microsoft.com/"/>
+    <hyperlink ref="F63" r:id="rId123" display="https://www.forbes.com/companies/wipro/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G63" r:id="rId124" display="http://www.wipro.com/"/>
+    <hyperlink ref="F64" r:id="rId125" display="https://www.forbes.com/companies/virtusa/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G64" r:id="rId126" display="http://www.virtusa.com/"/>
+    <hyperlink ref="F65" r:id="rId127" display="https://www.forbes.com/companies/ntt-data-services/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G65" r:id="rId128" display="http://us.nttdata.com/"/>
+    <hyperlink ref="F66" r:id="rId129" display="https://www.forbes.com/companies/mckinnis-consulting-services/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G66" r:id="rId130" display="http://www.mckinnisconsulting.com/"/>
+    <hyperlink ref="F67" r:id="rId131" display="https://www.forbes.com/companies/hitachi-consulting/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G67" r:id="rId132" display="http://www.hitachiconsulting.com/"/>
+    <hyperlink ref="F68" r:id="rId133" display="https://www.forbes.com/companies/hcl-technologies/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G68" r:id="rId134" display="http://www.hcltech.com/"/>
+    <hyperlink ref="F69" r:id="rId135" display="https://www.forbes.com/companies/fujitsu-america/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G69" r:id="rId136" display="http://www.fujitsu.com/"/>
+    <hyperlink ref="F70" r:id="rId137" display="https://www.forbes.com/companies/bridge-solutions-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G70" r:id="rId138" display="http://bridgesgi.com/"/>
+    <hyperlink ref="F71" r:id="rId139" display="https://www.forbes.com/companies/blue-horseshoe-solutions/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G71" r:id="rId140" display="http://www.bhsolutions.com/"/>
+    <hyperlink ref="F72" r:id="rId141" display="https://www.forbes.com/companies/application-consulting-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G72" r:id="rId142" display="http://www.acgi.com/"/>
+    <hyperlink ref="F73" r:id="rId143" display="https://www.forbes.com/companies/simon-kucher-partners/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G73" r:id="rId144" display="http://www.simon-kucher.com/"/>
+    <hyperlink ref="F74" r:id="rId145" display="https://www.forbes.com/companies/navigant-consulting/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G74" r:id="rId146" display="http://www.navigant.com/"/>
+    <hyperlink ref="F75" r:id="rId147" display="https://www.forbes.com/companies/keystone-strategy/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G75" r:id="rId148" display="http://www.keystonestrategy.com/"/>
+    <hyperlink ref="F76" r:id="rId149" display="https://www.forbes.com/companies/kaiser-associates/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G76" r:id="rId150" display="http://www.kaiserassociates.com/"/>
+    <hyperlink ref="F77" r:id="rId151" display="https://www.forbes.com/companies/insight-sourcing-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G77" r:id="rId152" display="http://www.insightsourcing.com/"/>
+    <hyperlink ref="F78" r:id="rId153" display="https://www.forbes.com/companies/innosight/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G78" r:id="rId154" display="http://www.innosight.com/"/>
+    <hyperlink ref="F79" r:id="rId155" display="https://www.forbes.com/companies/ibb-consulting-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G79" r:id="rId156" display="http://www.ibbconsulting.com/"/>
+    <hyperlink ref="F80" r:id="rId157" display="https://www.forbes.com/companies/hay-group/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G80" r:id="rId158" display="http://www.haygroup.com/"/>
+    <hyperlink ref="F81" r:id="rId159" display="https://www.forbes.com/companies/cornerstone-research/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G81" r:id="rId160" display="http://www.cornerstone.com/"/>
+    <hyperlink ref="F82" r:id="rId161" display="https://www.forbes.com/companies/charles-river-associates/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G82" r:id="rId162" display="http://www.crai.com/"/>
+    <hyperlink ref="F83" r:id="rId163" display="https://www.forbes.com/companies/centric-consulting/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G83" r:id="rId164" display="http://www.centricconsulting.com/"/>
+    <hyperlink ref="F84" r:id="rId165" display="https://www.forbes.com/companies/bates-white/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G84" r:id="rId166" display="http://www.bateswhite.com/"/>
+    <hyperlink ref="F85" r:id="rId167" display="https://www.forbes.com/companies/avanade/?list=best-management-consulting-firms"/>
+    <hyperlink ref="G85" r:id="rId168" display="http://www.avanade.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.5703125" customWidth="1"/>
     <col min="6" max="6" width="55.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:6" ht="34.5">
       <c r="D2" s="12" t="s">
         <v>87</v>
       </c>
@@ -7822,7 +8137,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:6" ht="15.75">
       <c r="D3" s="13">
         <v>1</v>
       </c>
@@ -7833,7 +8148,7 @@
         <v>17310000000</v>
       </c>
     </row>
-    <row r="4" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:6" ht="15.75">
       <c r="D4" s="13">
         <v>2</v>
       </c>
@@ -7844,7 +8159,7 @@
         <v>15460000000</v>
       </c>
     </row>
-    <row r="5" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:6" ht="15.75">
       <c r="D5" s="13">
         <v>3</v>
       </c>
@@ -7855,7 +8170,7 @@
         <v>14930000000</v>
       </c>
     </row>
-    <row r="6" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:6" ht="15.75">
       <c r="D6" s="13">
         <v>4</v>
       </c>
@@ -7866,7 +8181,7 @@
         <v>14810000000</v>
       </c>
     </row>
-    <row r="7" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:6" ht="15.75">
       <c r="D7" s="13">
         <v>5</v>
       </c>
@@ -7877,7 +8192,7 @@
         <v>13350000000</v>
       </c>
     </row>
-    <row r="8" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:6" ht="15.75">
       <c r="D8" s="13">
         <v>6</v>
       </c>
@@ -7888,7 +8203,7 @@
         <v>12253000000</v>
       </c>
     </row>
-    <row r="9" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:6" ht="15.75">
       <c r="D9" s="13">
         <v>7</v>
       </c>
@@ -7899,7 +8214,7 @@
         <v>12000000000</v>
       </c>
     </row>
-    <row r="10" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:6" ht="15.75">
       <c r="D10" s="13">
         <v>8</v>
       </c>
@@ -7910,7 +8225,7 @@
         <v>11600000000</v>
       </c>
     </row>
-    <row r="11" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:6" ht="15.75">
       <c r="D11" s="13">
         <v>9</v>
       </c>
@@ -7921,7 +8236,7 @@
         <v>10210000000</v>
       </c>
     </row>
-    <row r="12" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:6" ht="15.75">
       <c r="D12" s="13">
         <v>10</v>
       </c>
@@ -7932,7 +8247,7 @@
         <v>10180000000</v>
       </c>
     </row>
-    <row r="13" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:6" ht="15.75">
       <c r="D13" s="13">
         <v>11</v>
       </c>
@@ -7943,7 +8258,7 @@
         <v>8800000000</v>
       </c>
     </row>
-    <row r="14" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:6" ht="15.75">
       <c r="D14" s="13">
         <v>12</v>
       </c>
@@ -7954,7 +8269,7 @@
         <v>8500000000</v>
       </c>
     </row>
-    <row r="15" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:6" ht="15.75">
       <c r="D15" s="13">
         <v>13</v>
       </c>
@@ -7965,7 +8280,7 @@
         <v>7882000000</v>
       </c>
     </row>
-    <row r="16" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:6" ht="15.75">
       <c r="D16" s="13">
         <v>14</v>
       </c>
@@ -7976,7 +8291,7 @@
         <v>6300000000</v>
       </c>
     </row>
-    <row r="17" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" ht="15.75">
       <c r="D17" s="13">
         <v>15</v>
       </c>
@@ -7987,7 +8302,7 @@
         <v>6100000000</v>
       </c>
     </row>
-    <row r="18" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:6" ht="15.75">
       <c r="D18" s="13">
         <v>16</v>
       </c>
@@ -7998,7 +8313,7 @@
         <v>4300000000</v>
       </c>
     </row>
-    <row r="19" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:6" ht="15.75">
       <c r="D19" s="13">
         <v>17</v>
       </c>
@@ -8009,7 +8324,7 @@
         <v>4200000000</v>
       </c>
     </row>
-    <row r="20" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:6" ht="15.75">
       <c r="D20" s="13">
         <v>18</v>
       </c>
@@ -8020,7 +8335,7 @@
         <v>3870000000</v>
       </c>
     </row>
-    <row r="21" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:6" ht="15.75">
       <c r="D21" s="13">
         <v>19</v>
       </c>
@@ -8031,7 +8346,7 @@
         <v>3566000000</v>
       </c>
     </row>
-    <row r="22" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:6" ht="15.75">
       <c r="D22" s="13">
         <v>20</v>
       </c>
@@ -8042,7 +8357,7 @@
         <v>3358000000</v>
       </c>
     </row>
-    <row r="23" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:6" ht="15.75">
       <c r="D23" s="13">
         <v>21</v>
       </c>
@@ -8053,7 +8368,7 @@
         <v>3300000000</v>
       </c>
     </row>
-    <row r="24" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:6" ht="15.75">
       <c r="D24" s="13">
         <v>22</v>
       </c>
@@ -8064,7 +8379,7 @@
         <v>2813000000</v>
       </c>
     </row>
-    <row r="25" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:6" ht="15.75">
       <c r="D25" s="13">
         <v>23</v>
       </c>
@@ -8075,7 +8390,7 @@
         <v>2000000000</v>
       </c>
     </row>
-    <row r="26" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:6" ht="15.75">
       <c r="D26" s="13">
         <v>24</v>
       </c>
@@ -8086,7 +8401,7 @@
         <v>1800000000</v>
       </c>
     </row>
-    <row r="27" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:6" ht="15.75">
       <c r="D27" s="13">
         <v>25</v>
       </c>
@@ -8097,7 +8412,7 @@
         <v>1800000000</v>
       </c>
     </row>
-    <row r="28" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:6" ht="15.75">
       <c r="D28" s="13">
         <v>26</v>
       </c>
@@ -8108,7 +8423,7 @@
         <v>1700000000</v>
       </c>
     </row>
-    <row r="29" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:6" ht="15.75">
       <c r="D29" s="13">
         <v>27</v>
       </c>
@@ -8119,7 +8434,7 @@
         <v>1410000000</v>
       </c>
     </row>
-    <row r="30" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:6" ht="15.75">
       <c r="D30" s="13">
         <v>28</v>
       </c>
@@ -8130,7 +8445,7 @@
         <v>1400000000</v>
       </c>
     </row>
-    <row r="31" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:6">
       <c r="D31" s="13">
         <v>29</v>
       </c>
@@ -8141,7 +8456,7 @@
         <v>1305000000</v>
       </c>
     </row>
-    <row r="32" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:6">
       <c r="D32" s="13">
         <v>30</v>
       </c>
@@ -8152,7 +8467,7 @@
         <v>1300000000</v>
       </c>
     </row>
-    <row r="33" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:6">
       <c r="D33" s="13">
         <v>31</v>
       </c>
@@ -8163,7 +8478,7 @@
         <v>1300000000</v>
       </c>
     </row>
-    <row r="34" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:6">
       <c r="D34" s="13">
         <v>32</v>
       </c>
@@ -8174,7 +8489,7 @@
         <v>1190000000</v>
       </c>
     </row>
-    <row r="35" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:6">
       <c r="D35" s="13">
         <v>33</v>
       </c>
@@ -8185,7 +8500,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="36" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:6">
       <c r="D36" s="13">
         <v>34</v>
       </c>
@@ -8196,7 +8511,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="37" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:6">
       <c r="D37" s="13">
         <v>35</v>
       </c>
@@ -8207,7 +8522,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="38" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:6">
       <c r="D38" s="13">
         <v>36</v>
       </c>
@@ -8218,7 +8533,7 @@
         <v>816000000</v>
       </c>
     </row>
-    <row r="39" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:6">
       <c r="D39" s="13">
         <v>37</v>
       </c>
@@ -8229,7 +8544,7 @@
         <v>797700000</v>
       </c>
     </row>
-    <row r="40" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:6">
       <c r="D40" s="13">
         <v>38</v>
       </c>
@@ -8240,7 +8555,7 @@
         <v>781800000</v>
       </c>
     </row>
-    <row r="41" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:6">
       <c r="D41" s="13">
         <v>39</v>
       </c>
@@ -8251,7 +8566,7 @@
         <v>767000000</v>
       </c>
     </row>
-    <row r="42" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:6">
       <c r="D42" s="13">
         <v>40</v>
       </c>
@@ -8262,7 +8577,7 @@
         <v>600000000</v>
       </c>
     </row>
-    <row r="43" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:6">
       <c r="D43" s="13">
         <v>41</v>
       </c>
@@ -8273,7 +8588,7 @@
         <v>600000000</v>
       </c>
     </row>
-    <row r="44" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:6">
       <c r="D44" s="13">
         <v>42</v>
       </c>
@@ -8284,7 +8599,7 @@
         <v>556000000</v>
       </c>
     </row>
-    <row r="45" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:6">
       <c r="D45" s="13">
         <v>43</v>
       </c>
@@ -8295,7 +8610,7 @@
         <v>525000000</v>
       </c>
     </row>
-    <row r="46" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:6">
       <c r="D46" s="13">
         <v>44</v>
       </c>
@@ -8306,7 +8621,7 @@
         <v>500000000</v>
       </c>
     </row>
-    <row r="47" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:6">
       <c r="D47" s="13">
         <v>45</v>
       </c>
@@ -8317,7 +8632,7 @@
         <v>487000000</v>
       </c>
     </row>
-    <row r="48" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:6">
       <c r="D48" s="13">
         <v>46</v>
       </c>
@@ -8328,7 +8643,7 @@
         <v>311000000</v>
       </c>
     </row>
-    <row r="49" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:6">
       <c r="D49" s="13">
         <v>47</v>
       </c>
@@ -8339,7 +8654,7 @@
         <v>239200000</v>
       </c>
     </row>
-    <row r="50" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:6">
       <c r="D50" s="13">
         <v>48</v>
       </c>
@@ -8350,7 +8665,7 @@
         <v>200000000</v>
       </c>
     </row>
-    <row r="51" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:6">
       <c r="D51" s="13">
         <v>49</v>
       </c>
@@ -8361,7 +8676,7 @@
         <v>162000000</v>
       </c>
     </row>
-    <row r="52" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:6">
       <c r="D52" s="15">
         <v>50</v>
       </c>
@@ -8378,16 +8693,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="7" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="7:7">
       <c r="G7" t="s">
         <v>86</v>
       </c>

--- a/Companies_Apply_Status_Sheet.xlsx
+++ b/Companies_Apply_Status_Sheet.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="679">
   <si>
     <t>SLNo</t>
   </si>
@@ -1951,6 +1951,171 @@
   <si>
     <t>https://macys.taleo.net/careersection/iam/accessmanagement/login.jsf?lang=en&amp;redirectionURI=https%3A%2F%2Fmacys.taleo.net%2Fcareersection%2Fmacys_retail_jsa_career_section%2Fjobapply.ftl%3Flang%3Den%26job%3DMAC12603&amp;TARGET=https%3A%2F%2Fmacys.taleo.net%2Fcareersection%2Fmacys_retail_jsa_career_section%2Fjobapply.ftl%3Flang%3Den%26job%3DMAC12603</t>
   </si>
+  <si>
+    <t>Paypal</t>
+  </si>
+  <si>
+    <t>Santa Jose, CA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/989709567/?eBP=CwEAAAFnojOe6jAHeRffCwuzdRozwOtBXtXFNL-JhCrdBbmcX0iWhVV6FDJG0zaCfK63QFW37IwCSBC6_odQiIrKslwxqDU1XwaWMidbhx6DARJ3S7QWTPiQSP5vSnxoR6MTbx6oCh6t-2tQVQii0SVNd1pyQEGrxjvIZKEx91hAXY6hW52bBhozJ6h6ZjED4jk6pP-LOAjPYIx-84VQWj4D5I2Pl8akjQyb0WkDfriqvKHZW4Xflro04IzkjclTn5wBqthI8lq_TOCCizX2caaz_hi5dYUsEYvCB0W95IG7axUAPhM4AHr84w9frk2wX5xcfPnFhdzsCyeXg3WAAqIQDUoSZUBEp4eu_w&amp;recommendedFlavor=IN_NETWORK&amp;refId=afeda563-3c46-4108-9b76-6ed31857666a&amp;trk=d_flagship3_job_details</t>
+  </si>
+  <si>
+    <t>Job ID: R0036441</t>
+  </si>
+  <si>
+    <t>https://wd1.myworkdaysite.com/recruiting/paypal/jobs/login?redirect=%2Frecruiting%2Fpaypal%2Fjobs%2Fjob%2FSan-Jose%2FProduct-Manager_R0036441-1%2Fapply%3Fsource%3Dlinkedin</t>
+  </si>
+  <si>
+    <t>Evernote</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/990136354/?eBP=CwEAAAFnojOrw9PuTlYNwiO0UqVEQAiTY7gEbsOWhVPnHrcFaTVObR572O4PgNW4AHyet5hCt49ctxx894EY-8Mmm4nzQzVad1Arx23s2CwDkxQ-E12elj5NYMRnCVL3KyBCTDH4fEGsVzZrdYCxFyQp0zu9CwJkKlsG9ZDlFMzieySnd4g-Xaqla0DpMZgwVm1zIYPVU7LUEXMPBuL_VepPxxEk-KsqYp2c6McjpB_8nlUb8ZQaKXO0tjrEciShukZi1S7Fl-Fl4gGMtvb-5WEurUa1xxu8vFwdNuCthClDfWFakwCaBXY593pdplnDRxCUAhslG-fBoW65Sn3hyItbboNTS2W5JH99kQ&amp;refId=98c5eec1-4727-473c-bd1b-f5c20fb3de05&amp;trk=d_flagship3_job_details</t>
+  </si>
+  <si>
+    <t>https://evernote.com/careers/job/?id=1436508&amp;gh_jid=1436508&amp;gh_src=346b88a01</t>
+  </si>
+  <si>
+    <t>**cant open**</t>
+  </si>
+  <si>
+    <t>Belmont, CA</t>
+  </si>
+  <si>
+    <t>B-Stock Solutions</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/976207387/</t>
+  </si>
+  <si>
+    <t>Franklin, TN</t>
+  </si>
+  <si>
+    <t>Job Reference #
+184386BR</t>
+  </si>
+  <si>
+    <t>https://jobs.ubs.com/TGnewUI/Search/home/HomeWithPreLoad?PageType=JobDetails&amp;partnerid=25008&amp;siteid=5012&amp;jobId=186707&amp;source=ILINKEDIN#Applications</t>
+  </si>
+  <si>
+    <t>Not available. Removed</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/search/?currentJobId=1018261955</t>
+  </si>
+  <si>
+    <t>Horizontal Integration</t>
+  </si>
+  <si>
+    <t>St Louis, MS</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/search/?currentJobId=1016333216</t>
+  </si>
+  <si>
+    <t>Kennesaw, Georgia</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/993929691/</t>
+  </si>
+  <si>
+    <t>Keste</t>
+  </si>
+  <si>
+    <t>berry St, San Fran</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/960140938/</t>
+  </si>
+  <si>
+    <t>Fanatics Inc</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/954514575/</t>
+  </si>
+  <si>
+    <t>San Mateo, CA</t>
+  </si>
+  <si>
+    <t>Job Code :3968</t>
+  </si>
+  <si>
+    <t>https://chp.tbe.taleo.net/chp03/ats/careers/v2/candidateLogin?org=FANA&amp;cws=41</t>
+  </si>
+  <si>
+    <t>Exabeam</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/1000106883/</t>
+  </si>
+  <si>
+    <t>https://jobs.lever.co/exabeam/ba05c953-2551-49f0-b94f-cdbbf3f0c952?lever-source=LinkedInJobs</t>
+  </si>
+  <si>
+    <t>Splunk</t>
+  </si>
+  <si>
+    <t>Washington, dC</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/920811641/</t>
+  </si>
+  <si>
+    <t>http://jobs.jobvite.com/splunk/job/oFri8fwg/applyConfirmation</t>
+  </si>
+  <si>
+    <t>Thought Works</t>
+  </si>
+  <si>
+    <t>BA/Prod M</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/1004560633/</t>
+  </si>
+  <si>
+    <t>https://www.thoughtworks.com/jobs/1404507?gh_jid=1404507?utm_campaign=recruitment-sponsored-postings&amp;utm_medium=site-sponsorship&amp;utm_source=linkedin.com&amp;gh_src=kh6pt5?utm_campaign=recruitment-sponsored-postings&amp;utm_medium=site-sponsorship&amp;utm_source=linkedin.com&amp;gh_src=kh6pt5</t>
+  </si>
+  <si>
+    <t>**Mandatory cover letter</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/1004530430/</t>
+  </si>
+  <si>
+    <t>**Arunoday Kamuni Regula,
+Vishwanarayanan Sriganesh**</t>
+  </si>
+  <si>
+    <t>CGI</t>
+  </si>
+  <si>
+    <t>Impl PM</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/999278949/</t>
+  </si>
+  <si>
+    <t>Position ID: J1218-0058
+**Existing creds not working **</t>
+  </si>
+  <si>
+    <t>https://clients.njoyn.com/cgi/xweb/XWeb.asp?tbtoken=Zl5ZRB4XCG5xZnd0QlIgCFNIdRJEcFRadEhYUVF6ExFaLzZuWjFqd2ByeAkbVhRSSXEqWA%3D%3D&amp;chk=dFlbQBJe&amp;page=Login&amp;JobID=&amp;brid=&amp;AFL=0</t>
+  </si>
+  <si>
+    <t>Prod M, Google Cloud</t>
+  </si>
+  <si>
+    <t>San francisco, cA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/1018292671/</t>
+  </si>
+  <si>
+    <t>unable to upload resume as before, even from mobile</t>
+  </si>
+  <si>
+    <t>https://careers.google.com/jobs/results/4661655872798720-product-manager-google-cloud/?src=Online%2FLinkedIn%2Flinkedin_us&amp;utm_campaign=contract&amp;utm_medium=jobposting&amp;utm_source=linkedin</t>
+  </si>
 </sst>
 </file>
 
@@ -1959,7 +2124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2023,6 +2188,23 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2129,7 +2311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2195,6 +2377,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2468,7 +2661,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2478,10 +2671,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="J112" sqref="J112"/>
+      <selection pane="topRight" activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2494,7 +2687,7 @@
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="7" customWidth="1"/>
     <col min="10" max="10" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="42.5703125" style="7" customWidth="1"/>
     <col min="13" max="13" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -2527,7 +2720,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -4164,40 +4357,42 @@
       <c r="N56" s="3"/>
       <c r="O56" s="6"/>
     </row>
-    <row r="57" spans="1:15" ht="42.75" customHeight="1">
-      <c r="A57" s="2"/>
-      <c r="B57" s="4">
+    <row r="57" spans="1:15" s="39" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A57" s="33"/>
+      <c r="B57" s="34">
         <v>43434</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="35" t="s">
         <v>425</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="36" t="s">
         <v>428</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="19" t="s">
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="35" t="s">
+        <v>640</v>
+      </c>
+      <c r="J57" s="35" t="s">
         <v>430</v>
       </c>
-      <c r="K57" s="19" t="s">
+      <c r="K57" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="L57" s="19" t="s">
+      <c r="L57" s="35" t="s">
         <v>429</v>
       </c>
-      <c r="M57" s="3" t="s">
+      <c r="M57" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N57" s="3" t="s">
+      <c r="N57" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="O57" s="6"/>
+      <c r="O57" s="38"/>
     </row>
     <row r="58" spans="1:15" ht="60">
       <c r="A58" s="2"/>
@@ -4216,7 +4411,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
+      <c r="I58" s="6"/>
       <c r="J58" s="19" t="s">
         <v>436</v>
       </c>
@@ -4245,7 +4440,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
+      <c r="I59" s="6"/>
       <c r="J59" s="19" t="s">
         <v>437</v>
       </c>
@@ -4274,7 +4469,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
+      <c r="I60" s="6"/>
       <c r="J60" s="19" t="s">
         <v>440</v>
       </c>
@@ -5551,7 +5746,7 @@
       <c r="N99" s="3"/>
       <c r="O99" s="6"/>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" ht="62.25" customHeight="1">
       <c r="A100" s="2"/>
       <c r="B100" s="4">
         <v>43445</v>
@@ -5741,7 +5936,7 @@
       <c r="N105" s="3"/>
       <c r="O105" s="6"/>
     </row>
-    <row r="106" spans="1:15" ht="30">
+    <row r="106" spans="1:15" ht="60" customHeight="1">
       <c r="A106" s="2"/>
       <c r="B106" s="4">
         <v>43445</v>
@@ -5778,240 +5973,454 @@
       </c>
       <c r="O106" s="6"/>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" ht="55.5" customHeight="1">
       <c r="A107" s="2"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="2"/>
+      <c r="B107" s="4">
+        <v>43446</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="6"/>
-      <c r="L107" s="6"/>
-      <c r="M107" s="2"/>
-      <c r="N107" s="3"/>
+      <c r="J107" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="L107" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="M107" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N107" s="3" t="s">
+        <v>290</v>
+      </c>
       <c r="O107" s="6"/>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" ht="52.5" customHeight="1">
       <c r="A108" s="2"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="2"/>
+      <c r="B108" s="4">
+        <v>43446</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="6"/>
-      <c r="L108" s="6"/>
+      <c r="J108" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="K108" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="L108" s="6" t="s">
+        <v>632</v>
+      </c>
       <c r="M108" s="2"/>
       <c r="N108" s="3"/>
       <c r="O108" s="6"/>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" ht="30">
       <c r="A109" s="2"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="2"/>
+      <c r="B109" s="4">
+        <v>43446</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
-      <c r="K109" s="6"/>
+      <c r="K109" s="6" t="s">
+        <v>636</v>
+      </c>
       <c r="L109" s="6"/>
       <c r="M109" s="2"/>
       <c r="N109" s="3"/>
       <c r="O109" s="6"/>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" ht="60">
       <c r="A110" s="2"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="2"/>
+      <c r="B110" s="4">
+        <v>43446</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-      <c r="K110" s="6"/>
-      <c r="L110" s="6"/>
-      <c r="M110" s="2"/>
-      <c r="N110" s="3"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="L110" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="M110" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N110" s="3" t="s">
+        <v>272</v>
+      </c>
       <c r="O110" s="6"/>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" ht="30">
       <c r="A111" s="2"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="2"/>
+      <c r="B111" s="4">
+        <v>43446</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
-      <c r="K111" s="6"/>
+      <c r="K111" s="6" t="s">
+        <v>644</v>
+      </c>
       <c r="L111" s="6"/>
       <c r="M111" s="2"/>
       <c r="N111" s="3"/>
       <c r="O111" s="6"/>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" ht="45">
       <c r="A112" s="2"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="2"/>
+      <c r="B112" s="4">
+        <v>43446</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
-      <c r="K112" s="6"/>
+      <c r="K112" s="6" t="s">
+        <v>646</v>
+      </c>
       <c r="L112" s="6"/>
       <c r="M112" s="2"/>
       <c r="N112" s="3"/>
       <c r="O112" s="6"/>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" ht="30">
       <c r="A113" s="2"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="2"/>
+      <c r="B113" s="4">
+        <v>43446</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
-      <c r="K113" s="6"/>
+      <c r="K113" s="6" t="s">
+        <v>649</v>
+      </c>
       <c r="L113" s="6"/>
       <c r="M113" s="2"/>
       <c r="N113" s="3"/>
       <c r="O113" s="6"/>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" ht="45">
       <c r="A114" s="2"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="2"/>
+      <c r="B114" s="4">
+        <v>43446</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
-      <c r="K114" s="6"/>
-      <c r="L114" s="6"/>
-      <c r="M114" s="2"/>
-      <c r="N114" s="3"/>
+      <c r="J114" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="K114" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="L114" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="M114" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N114" s="3" t="s">
+        <v>272</v>
+      </c>
       <c r="O114" s="6"/>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" ht="45">
       <c r="A115" s="2"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="2"/>
+      <c r="B115" s="4">
+        <v>43446</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
-      <c r="K115" s="6"/>
-      <c r="L115" s="6"/>
+      <c r="K115" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="L115" s="6" t="s">
+        <v>657</v>
+      </c>
       <c r="M115" s="2"/>
       <c r="N115" s="3"/>
       <c r="O115" s="6"/>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" ht="30">
       <c r="A116" s="2"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="6"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="2"/>
+      <c r="B116" s="4">
+        <v>43446</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
-      <c r="K116" s="6"/>
-      <c r="L116" s="6"/>
+      <c r="K116" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="L116" s="6" t="s">
+        <v>661</v>
+      </c>
       <c r="M116" s="2"/>
       <c r="N116" s="3"/>
       <c r="O116" s="6"/>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" ht="30">
       <c r="A117" s="2"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="2"/>
+      <c r="B117" s="4">
+        <v>43446</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
-      <c r="K117" s="6"/>
-      <c r="L117" s="6"/>
+      <c r="J117" s="18" t="s">
+        <v>666</v>
+      </c>
+      <c r="K117" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="L117" s="6" t="s">
+        <v>665</v>
+      </c>
       <c r="M117" s="2"/>
       <c r="N117" s="3"/>
       <c r="O117" s="6"/>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" ht="30">
       <c r="A118" s="2"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="2"/>
+      <c r="B118" s="4">
+        <v>43446</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
-      <c r="K118" s="6"/>
+      <c r="J118" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="K118" s="6" t="s">
+        <v>667</v>
+      </c>
       <c r="L118" s="6"/>
       <c r="M118" s="2"/>
       <c r="N118" s="3"/>
       <c r="O118" s="6"/>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" ht="30">
       <c r="A119" s="2"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="2"/>
+      <c r="B119" s="4">
+        <v>43446</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
-      <c r="K119" s="6"/>
-      <c r="L119" s="6"/>
+      <c r="J119" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="K119" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="L119" s="6" t="s">
+        <v>673</v>
+      </c>
       <c r="M119" s="2"/>
       <c r="N119" s="3"/>
       <c r="O119" s="6"/>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" ht="45">
       <c r="A120" s="2"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="2"/>
+      <c r="B120" s="4">
+        <v>43446</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
-      <c r="K120" s="6"/>
-      <c r="L120" s="6"/>
+      <c r="J120" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="K120" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="L120" s="6" t="s">
+        <v>678</v>
+      </c>
       <c r="M120" s="2"/>
       <c r="N120" s="3"/>
       <c r="O120" s="6"/>
@@ -6789,9 +7198,15 @@
     <hyperlink ref="M103" r:id="rId66"/>
     <hyperlink ref="N103" r:id="rId67"/>
     <hyperlink ref="N106" r:id="rId68"/>
+    <hyperlink ref="M107" r:id="rId69"/>
+    <hyperlink ref="N107" r:id="rId70"/>
+    <hyperlink ref="M110" r:id="rId71"/>
+    <hyperlink ref="N110" r:id="rId72"/>
+    <hyperlink ref="M114" r:id="rId73"/>
+    <hyperlink ref="N114" r:id="rId74"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId69"/>
+  <pageSetup orientation="portrait" r:id="rId75"/>
 </worksheet>
 </file>
 
@@ -6988,8 +7403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:G86"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8126,7 +8541,7 @@
     <col min="6" max="6" width="55.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:6" ht="34.5">
+    <row r="2" spans="4:6" ht="31.5">
       <c r="D2" s="12" t="s">
         <v>87</v>
       </c>
@@ -8137,7 +8552,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="4:6" ht="15.75">
+    <row r="3" spans="4:6">
       <c r="D3" s="13">
         <v>1</v>
       </c>
@@ -8148,7 +8563,7 @@
         <v>17310000000</v>
       </c>
     </row>
-    <row r="4" spans="4:6" ht="15.75">
+    <row r="4" spans="4:6">
       <c r="D4" s="13">
         <v>2</v>
       </c>
@@ -8159,7 +8574,7 @@
         <v>15460000000</v>
       </c>
     </row>
-    <row r="5" spans="4:6" ht="15.75">
+    <row r="5" spans="4:6">
       <c r="D5" s="13">
         <v>3</v>
       </c>
@@ -8170,7 +8585,7 @@
         <v>14930000000</v>
       </c>
     </row>
-    <row r="6" spans="4:6" ht="15.75">
+    <row r="6" spans="4:6">
       <c r="D6" s="13">
         <v>4</v>
       </c>
@@ -8181,7 +8596,7 @@
         <v>14810000000</v>
       </c>
     </row>
-    <row r="7" spans="4:6" ht="15.75">
+    <row r="7" spans="4:6">
       <c r="D7" s="13">
         <v>5</v>
       </c>
@@ -8192,7 +8607,7 @@
         <v>13350000000</v>
       </c>
     </row>
-    <row r="8" spans="4:6" ht="15.75">
+    <row r="8" spans="4:6">
       <c r="D8" s="13">
         <v>6</v>
       </c>
@@ -8203,7 +8618,7 @@
         <v>12253000000</v>
       </c>
     </row>
-    <row r="9" spans="4:6" ht="15.75">
+    <row r="9" spans="4:6">
       <c r="D9" s="13">
         <v>7</v>
       </c>
@@ -8214,7 +8629,7 @@
         <v>12000000000</v>
       </c>
     </row>
-    <row r="10" spans="4:6" ht="15.75">
+    <row r="10" spans="4:6">
       <c r="D10" s="13">
         <v>8</v>
       </c>
@@ -8225,7 +8640,7 @@
         <v>11600000000</v>
       </c>
     </row>
-    <row r="11" spans="4:6" ht="15.75">
+    <row r="11" spans="4:6">
       <c r="D11" s="13">
         <v>9</v>
       </c>
@@ -8236,7 +8651,7 @@
         <v>10210000000</v>
       </c>
     </row>
-    <row r="12" spans="4:6" ht="15.75">
+    <row r="12" spans="4:6">
       <c r="D12" s="13">
         <v>10</v>
       </c>
@@ -8247,7 +8662,7 @@
         <v>10180000000</v>
       </c>
     </row>
-    <row r="13" spans="4:6" ht="15.75">
+    <row r="13" spans="4:6">
       <c r="D13" s="13">
         <v>11</v>
       </c>
@@ -8258,7 +8673,7 @@
         <v>8800000000</v>
       </c>
     </row>
-    <row r="14" spans="4:6" ht="15.75">
+    <row r="14" spans="4:6">
       <c r="D14" s="13">
         <v>12</v>
       </c>
@@ -8269,7 +8684,7 @@
         <v>8500000000</v>
       </c>
     </row>
-    <row r="15" spans="4:6" ht="15.75">
+    <row r="15" spans="4:6">
       <c r="D15" s="13">
         <v>13</v>
       </c>
@@ -8280,7 +8695,7 @@
         <v>7882000000</v>
       </c>
     </row>
-    <row r="16" spans="4:6" ht="15.75">
+    <row r="16" spans="4:6">
       <c r="D16" s="13">
         <v>14</v>
       </c>
@@ -8291,7 +8706,7 @@
         <v>6300000000</v>
       </c>
     </row>
-    <row r="17" spans="4:6" ht="15.75">
+    <row r="17" spans="4:6">
       <c r="D17" s="13">
         <v>15</v>
       </c>
@@ -8302,7 +8717,7 @@
         <v>6100000000</v>
       </c>
     </row>
-    <row r="18" spans="4:6" ht="15.75">
+    <row r="18" spans="4:6">
       <c r="D18" s="13">
         <v>16</v>
       </c>
@@ -8313,7 +8728,7 @@
         <v>4300000000</v>
       </c>
     </row>
-    <row r="19" spans="4:6" ht="15.75">
+    <row r="19" spans="4:6">
       <c r="D19" s="13">
         <v>17</v>
       </c>
@@ -8324,7 +8739,7 @@
         <v>4200000000</v>
       </c>
     </row>
-    <row r="20" spans="4:6" ht="15.75">
+    <row r="20" spans="4:6">
       <c r="D20" s="13">
         <v>18</v>
       </c>
@@ -8335,7 +8750,7 @@
         <v>3870000000</v>
       </c>
     </row>
-    <row r="21" spans="4:6" ht="15.75">
+    <row r="21" spans="4:6">
       <c r="D21" s="13">
         <v>19</v>
       </c>
@@ -8346,7 +8761,7 @@
         <v>3566000000</v>
       </c>
     </row>
-    <row r="22" spans="4:6" ht="15.75">
+    <row r="22" spans="4:6">
       <c r="D22" s="13">
         <v>20</v>
       </c>
@@ -8357,7 +8772,7 @@
         <v>3358000000</v>
       </c>
     </row>
-    <row r="23" spans="4:6" ht="15.75">
+    <row r="23" spans="4:6">
       <c r="D23" s="13">
         <v>21</v>
       </c>
@@ -8368,7 +8783,7 @@
         <v>3300000000</v>
       </c>
     </row>
-    <row r="24" spans="4:6" ht="15.75">
+    <row r="24" spans="4:6">
       <c r="D24" s="13">
         <v>22</v>
       </c>
@@ -8379,7 +8794,7 @@
         <v>2813000000</v>
       </c>
     </row>
-    <row r="25" spans="4:6" ht="15.75">
+    <row r="25" spans="4:6">
       <c r="D25" s="13">
         <v>23</v>
       </c>
@@ -8390,7 +8805,7 @@
         <v>2000000000</v>
       </c>
     </row>
-    <row r="26" spans="4:6" ht="15.75">
+    <row r="26" spans="4:6">
       <c r="D26" s="13">
         <v>24</v>
       </c>
@@ -8401,7 +8816,7 @@
         <v>1800000000</v>
       </c>
     </row>
-    <row r="27" spans="4:6" ht="15.75">
+    <row r="27" spans="4:6">
       <c r="D27" s="13">
         <v>25</v>
       </c>
@@ -8412,7 +8827,7 @@
         <v>1800000000</v>
       </c>
     </row>
-    <row r="28" spans="4:6" ht="15.75">
+    <row r="28" spans="4:6">
       <c r="D28" s="13">
         <v>26</v>
       </c>
@@ -8423,7 +8838,7 @@
         <v>1700000000</v>
       </c>
     </row>
-    <row r="29" spans="4:6" ht="15.75">
+    <row r="29" spans="4:6">
       <c r="D29" s="13">
         <v>27</v>
       </c>
@@ -8434,7 +8849,7 @@
         <v>1410000000</v>
       </c>
     </row>
-    <row r="30" spans="4:6" ht="15.75">
+    <row r="30" spans="4:6">
       <c r="D30" s="13">
         <v>28</v>
       </c>

--- a/Companies_Apply_Status_Sheet.xlsx
+++ b/Companies_Apply_Status_Sheet.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="700">
   <si>
     <t>SLNo</t>
   </si>
@@ -2115,6 +2115,69 @@
   </si>
   <si>
     <t>https://careers.google.com/jobs/results/4661655872798720-product-manager-google-cloud/?src=Online%2FLinkedIn%2Flinkedin_us&amp;utm_campaign=contract&amp;utm_medium=jobposting&amp;utm_source=linkedin</t>
+  </si>
+  <si>
+    <t>Ookla</t>
+  </si>
+  <si>
+    <t>Seatte, WA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/990145818/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/job-apply/990145818?refId=c16546cc-bbd9-4c9e-a779-155dc878266e&amp;trk=d_flagship3_job_details</t>
+  </si>
+  <si>
+    <t>**Unique abt u??Exp with ookla products??</t>
+  </si>
+  <si>
+    <t>Lyft</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/990792372/</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/embed/job_app?token=4129388002&amp;gh_src=uwvxb4jc2&amp;s=LinkedIn&amp;source=LinkedIn</t>
+  </si>
+  <si>
+    <t>Asset Works LLC</t>
+  </si>
+  <si>
+    <t>Wayne, PA</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/970632939/</t>
+  </si>
+  <si>
+    <t>M &amp; T Bank</t>
+  </si>
+  <si>
+    <t>Wilmington, DE</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/978992648/</t>
+  </si>
+  <si>
+    <t>https://mtb.taleo.net/careersection/iam/accessmanagement/login.jsf?redirectionURI=https%3A%2F%2Fmtb.taleo.net%2Fcareersection%2F.mtbcareersection_corporate%2Fjobsearch.ftl%3Fftlcompclass%3DLoginComponent&amp;TARGET=https%3A%2F%2Fmtb.taleo.net%2Fcareersection%2F.mtbcareersection_corporate%2Fjobsearch.ftl%3Fftlcompclass%3DLoginComponent</t>
+  </si>
+  <si>
+    <t>Tableau</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/search/?currentJobId=1022555265&amp;f_C=157317&amp;keywords=project%20manager&amp;locationId=OTHERS.worldwide</t>
+  </si>
+  <si>
+    <t>PTC</t>
+  </si>
+  <si>
+    <t>Greater Boston</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/1004791991/?eBP=CwEAAAFnrJBhXJdlc4Us-Xp3Ru6_MvYrC80UWmu7M9gBWo78ACllBMc7X3qUTE43yG82nlKVHLaFb1h1z-s3lNAXOzJ-4qlnjnalkcPmPwJZ5KGGHkMJhLAybLdVKOAXLRfAncK5VdZwsHWrEUY9yBVDIZYAUDoD_3elTRdPoY368fentDkE7ToSYOr8XasJvnX8I1plzCNR_LyJ_SWp2oaHAfzSkklwWqK8E-696dAHF8uO3CmgFAvcuRfxo_MeG3wX8TYKXHIdPau4BtI0X8vqPOWRXm5sezm842mLaBKSxBMpT7NhVVVU1Q_oNtbb3ROXcgpOtDK-O416cNuETbZbD2E&amp;refId=dbcee068-e45f-4b2b-8bbe-d2499bc73408&amp;trk=d_flagship3_search_srp_jobs</t>
+  </si>
+  <si>
+    <t>https://tableau.wd1.myworkdayjobs.com/en-US/External/job/Seattle-WA/Product-Manager--Technical-Partners_D78451?source=LinkedIn</t>
   </si>
 </sst>
 </file>
@@ -2661,7 +2724,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2671,10 +2734,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="D125" sqref="D125"/>
+      <selection pane="topRight" activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6295,7 +6358,7 @@
       <c r="N116" s="3"/>
       <c r="O116" s="6"/>
     </row>
-    <row r="117" spans="1:15" ht="30">
+    <row r="117" spans="1:15" ht="120">
       <c r="A117" s="2"/>
       <c r="B117" s="4">
         <v>43446</v>
@@ -6359,7 +6422,7 @@
       <c r="N118" s="3"/>
       <c r="O118" s="6"/>
     </row>
-    <row r="119" spans="1:15" ht="30">
+    <row r="119" spans="1:15" ht="75">
       <c r="A119" s="2"/>
       <c r="B119" s="4">
         <v>43446</v>
@@ -6392,7 +6455,7 @@
       <c r="N119" s="3"/>
       <c r="O119" s="6"/>
     </row>
-    <row r="120" spans="1:15" ht="45">
+    <row r="120" spans="1:15" ht="75">
       <c r="A120" s="2"/>
       <c r="B120" s="4">
         <v>43446</v>
@@ -6425,103 +6488,191 @@
       <c r="N120" s="3"/>
       <c r="O120" s="6"/>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" ht="30">
       <c r="A121" s="2"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="2"/>
+      <c r="B121" s="4">
+        <v>43448</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
-      <c r="K121" s="6"/>
-      <c r="L121" s="6"/>
+      <c r="J121" s="18" t="s">
+        <v>683</v>
+      </c>
+      <c r="K121" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="L121" s="6" t="s">
+        <v>682</v>
+      </c>
       <c r="M121" s="2"/>
       <c r="N121" s="3"/>
       <c r="O121" s="6"/>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" ht="30">
       <c r="A122" s="2"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="2"/>
+      <c r="B122" s="4">
+        <v>43448</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
-      <c r="K122" s="6"/>
-      <c r="L122" s="6"/>
+      <c r="K122" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="L122" s="6" t="s">
+        <v>686</v>
+      </c>
       <c r="M122" s="2"/>
       <c r="N122" s="3"/>
       <c r="O122" s="6"/>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" ht="30">
       <c r="A123" s="2"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="2"/>
+      <c r="B123" s="4">
+        <v>43448</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
-      <c r="K123" s="6"/>
+      <c r="K123" s="6" t="s">
+        <v>689</v>
+      </c>
       <c r="L123" s="6"/>
       <c r="M123" s="2"/>
       <c r="N123" s="3"/>
       <c r="O123" s="6"/>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" ht="30">
       <c r="A124" s="2"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="2"/>
+      <c r="B124" s="4">
+        <v>43448</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
-      <c r="K124" s="6"/>
-      <c r="L124" s="6"/>
-      <c r="M124" s="2"/>
-      <c r="N124" s="3"/>
+      <c r="K124" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="L124" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="M124" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N124" s="3" t="s">
+        <v>272</v>
+      </c>
       <c r="O124" s="6"/>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" ht="35.25" customHeight="1">
       <c r="A125" s="2"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="2"/>
+      <c r="B125" s="4">
+        <v>43448</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>451</v>
+      </c>
       <c r="E125" s="6"/>
-      <c r="F125" s="2"/>
+      <c r="F125" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
-      <c r="K125" s="6"/>
-      <c r="L125" s="6"/>
-      <c r="M125" s="2"/>
-      <c r="N125" s="3"/>
+      <c r="J125" s="22"/>
+      <c r="K125" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="L125" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="M125" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N125" s="3" t="s">
+        <v>290</v>
+      </c>
       <c r="O125" s="6"/>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" ht="30">
       <c r="A126" s="2"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="2"/>
+      <c r="B126" s="4">
+        <v>43448</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
-      <c r="K126" s="6"/>
+      <c r="K126" s="6" t="s">
+        <v>698</v>
+      </c>
       <c r="L126" s="6"/>
       <c r="M126" s="2"/>
       <c r="N126" s="3"/>
@@ -7204,9 +7355,14 @@
     <hyperlink ref="N110" r:id="rId72"/>
     <hyperlink ref="M114" r:id="rId73"/>
     <hyperlink ref="N114" r:id="rId74"/>
+    <hyperlink ref="K121" r:id="rId75"/>
+    <hyperlink ref="M124" r:id="rId76"/>
+    <hyperlink ref="N124" r:id="rId77"/>
+    <hyperlink ref="M125" r:id="rId78"/>
+    <hyperlink ref="N125" r:id="rId79"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId75"/>
+  <pageSetup orientation="portrait" r:id="rId80"/>
 </worksheet>
 </file>
 
@@ -7215,7 +7371,7 @@
   <dimension ref="D3:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Companies_Apply_Status_Sheet.xlsx
+++ b/Companies_Apply_Status_Sheet.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B613A765-F96E-4D37-BE5F-8D51BD268715}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="10725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,19 +15,26 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$155</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">17</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="706">
   <si>
     <t>SLNo</t>
   </si>
@@ -1228,9 +1236,6 @@
     <t>https://moneygramjob.taleo.net/careersection/MGI_ex/jobapply.ftl?job=18010987&amp;lang=en</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/jobs/search/?currentJobId=990080941</t>
-  </si>
-  <si>
     <t>Manager, BUS000GI</t>
   </si>
   <si>
@@ -1427,9 +1432,6 @@
   </si>
   <si>
     <t>https://www.linkedin.com/jobs/view/943536122/?eBP=NotAvailableFromVoyagerAPI&amp;recommendedFlavor=SCHOOL_RECRUIT&amp;refId=2564469351543587875784&amp;trk=d_flagship3_job_home</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/jobs/view/994379073/?eBP=NotAvailableFromVoyagerAPI&amp;recommendedFlavor=HIDDEN_GEM&amp;refId=2564469351543587875784&amp;trk=d_flagship3_job_home</t>
   </si>
   <si>
     <t>https://www.linkedin.com/jobs/view/899650828/?eBP=CwEAAAFnZQJU2S-9hlsEBM9R8SsPv4qApk0qeGvTjzuJxuBB5OTL8gmXtMD5pbBCJtCr6lkM_-iTBFg0gh7zKikqnzxU7gguJIwneNag2KmM1Yh1a6vo4XiSTXivUMPPmT85ZIRTOS6tpLCecjTntkG9JqRNhfY2HXsWhU3KbhqzFeHO11HpvwZ0RCFQd3Rob7SN_Kh_ocalF2VZ4wrbsBjrQ1Ve180wstK8deQM-vpaii5n3k32htCnpv2ERB-cMeZNiC5U0-M43HV8LVU3ubczHyuHnXJ7KgKZtO0uh5dQx_72HOIPwxhdP4XYlWegJCEFruEZbpKxyeasuBjiVwGgTzJPJEQ&amp;refId=742aa48b-95cb-435d-892a-5f4885982282&amp;trk=d_flagship3_job_details</t>
@@ -2178,16 +2180,40 @@
   </si>
   <si>
     <t>https://tableau.wd1.myworkdayjobs.com/en-US/External/job/Seattle-WA/Product-Manager--Technical-Partners_D78451?source=LinkedIn</t>
+  </si>
+  <si>
+    <t>auto login</t>
+  </si>
+  <si>
+    <t>UI path</t>
+  </si>
+  <si>
+    <t>Newyork</t>
+  </si>
+  <si>
+    <t>mid sized and applied in company website</t>
+  </si>
+  <si>
+    <t>i3cZbQg6hf5m3FT</t>
+  </si>
+  <si>
+    <t>Coinbase</t>
+  </si>
+  <si>
+    <t>weight job let seee</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/1014071432/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2724,23 +2750,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O161"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="F128" sqref="F128"/>
+      <selection pane="topRight" activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
@@ -2758,7 +2784,7 @@
     <col min="15" max="15" width="30.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2805,7 +2831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2838,7 +2864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="4">
         <v>43385</v>
@@ -2865,7 +2891,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="45">
+    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="6" t="s">
@@ -2892,7 +2918,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="6" t="s">
@@ -2915,7 +2941,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
@@ -2938,7 +2964,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="6" t="s">
@@ -2957,7 +2983,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="6" t="s">
@@ -2980,7 +3006,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:15" ht="45">
+    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="6" t="s">
@@ -3005,7 +3031,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:15" ht="45">
+    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="6" t="s">
@@ -3030,7 +3056,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
@@ -3053,7 +3079,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="6" t="s">
@@ -3076,7 +3102,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="6" t="s">
@@ -3099,7 +3125,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="4">
         <v>43430</v>
@@ -3126,7 +3152,7 @@
       </c>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="4">
         <v>43430</v>
@@ -3151,7 +3177,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="4">
         <v>43430</v>
@@ -3176,7 +3202,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="4">
         <v>43430</v>
@@ -3201,7 +3227,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="4">
         <v>43430</v>
@@ -3226,7 +3252,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" ht="60">
+    <row r="19" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="4">
         <v>43430</v>
@@ -3253,7 +3279,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="6"/>
     </row>
-    <row r="20" spans="1:15" ht="30">
+    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="4">
         <v>43430</v>
@@ -3284,7 +3310,7 @@
       </c>
       <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="1:15" ht="45">
+    <row r="21" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="4">
         <v>43430</v>
@@ -3315,7 +3341,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="4">
         <v>43430</v>
@@ -3340,7 +3366,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="6"/>
     </row>
-    <row r="23" spans="1:15" ht="60">
+    <row r="23" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="4">
         <v>43430</v>
@@ -3375,7 +3401,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="49.5" customHeight="1">
+    <row r="24" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="4">
         <v>43431</v>
@@ -3410,7 +3436,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="49.5" customHeight="1">
+    <row r="25" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="4">
         <v>43430</v>
@@ -3445,7 +3471,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="75">
+    <row r="26" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="4">
         <v>43430</v>
@@ -3478,7 +3504,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="25" customFormat="1" ht="75">
+    <row r="27" spans="1:15" s="25" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="23">
         <v>43430</v>
@@ -3511,7 +3537,7 @@
       <c r="N27" s="22"/>
       <c r="O27" s="24"/>
     </row>
-    <row r="28" spans="1:15" ht="120">
+    <row r="28" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="4">
         <v>43430</v>
@@ -3544,7 +3570,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="90">
+    <row r="29" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="4">
         <v>43431</v>
@@ -3573,7 +3599,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" ht="45">
+    <row r="30" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="4">
         <v>43431</v>
@@ -3602,7 +3628,7 @@
       <c r="N30" s="3"/>
       <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="1:15" ht="105">
+    <row r="31" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="4">
         <v>43431</v>
@@ -3635,7 +3661,7 @@
       </c>
       <c r="O31" s="6"/>
     </row>
-    <row r="32" spans="1:15" ht="30">
+    <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="4">
         <v>43431</v>
@@ -3670,7 +3696,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="45">
+    <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="4">
         <v>43431</v>
@@ -3697,7 +3723,7 @@
       <c r="N33" s="3"/>
       <c r="O33" s="6"/>
     </row>
-    <row r="34" spans="1:15" ht="75">
+    <row r="34" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="4">
         <v>43431</v>
@@ -3726,7 +3752,7 @@
       <c r="N34" s="3"/>
       <c r="O34" s="6"/>
     </row>
-    <row r="35" spans="1:15" ht="75">
+    <row r="35" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="4">
         <v>43431</v>
@@ -3757,7 +3783,7 @@
       <c r="N35" s="3"/>
       <c r="O35" s="6"/>
     </row>
-    <row r="36" spans="1:15" ht="255">
+    <row r="36" spans="1:15" ht="255" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="4">
         <v>43431</v>
@@ -3794,7 +3820,7 @@
       </c>
       <c r="O36" s="6"/>
     </row>
-    <row r="37" spans="1:15" ht="60">
+    <row r="37" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="4">
         <v>43432</v>
@@ -3825,7 +3851,7 @@
       <c r="N37" s="3"/>
       <c r="O37" s="6"/>
     </row>
-    <row r="38" spans="1:15" ht="60">
+    <row r="38" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="4">
         <v>43432</v>
@@ -3854,7 +3880,7 @@
       <c r="N38" s="3"/>
       <c r="O38" s="6"/>
     </row>
-    <row r="39" spans="1:15" ht="60">
+    <row r="39" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="4">
         <v>43432</v>
@@ -3883,7 +3909,7 @@
       <c r="N39" s="3"/>
       <c r="O39" s="6"/>
     </row>
-    <row r="40" spans="1:15" ht="60">
+    <row r="40" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="4">
         <v>43432</v>
@@ -3912,7 +3938,7 @@
       <c r="N40" s="3"/>
       <c r="O40" s="6"/>
     </row>
-    <row r="41" spans="1:15" ht="135">
+    <row r="41" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="4">
         <v>43432</v>
@@ -3947,7 +3973,7 @@
       </c>
       <c r="O41" s="6"/>
     </row>
-    <row r="42" spans="1:15" ht="60">
+    <row r="42" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="4">
         <v>43432</v>
@@ -3978,7 +4004,7 @@
       <c r="N42" s="3"/>
       <c r="O42" s="6"/>
     </row>
-    <row r="43" spans="1:15" ht="60.75">
+    <row r="43" spans="1:15" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="4">
         <v>43432</v>
@@ -4011,7 +4037,7 @@
       <c r="N43" s="3"/>
       <c r="O43" s="6"/>
     </row>
-    <row r="44" spans="1:15" ht="60">
+    <row r="44" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="4">
         <v>43432</v>
@@ -4040,7 +4066,7 @@
       <c r="N44" s="3"/>
       <c r="O44" s="6"/>
     </row>
-    <row r="45" spans="1:15" ht="75">
+    <row r="45" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="4">
         <v>43432</v>
@@ -4069,7 +4095,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="6"/>
     </row>
-    <row r="46" spans="1:15" ht="45">
+    <row r="46" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="4">
         <v>43432</v>
@@ -4106,19 +4132,19 @@
       </c>
       <c r="O46" s="6"/>
     </row>
-    <row r="47" spans="1:15" ht="51" customHeight="1">
+    <row r="47" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="4">
         <v>43433</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>27</v>
@@ -4127,13 +4153,13 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>13</v>
@@ -4143,141 +4169,141 @@
       </c>
       <c r="O47" s="6"/>
     </row>
-    <row r="48" spans="1:15" ht="30">
+    <row r="48" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="4">
         <v>43433</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
       <c r="I48" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J48" s="18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="3"/>
       <c r="O48" s="6"/>
     </row>
-    <row r="49" spans="1:15" ht="30">
+    <row r="49" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="4">
         <v>43433</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
       <c r="H49" s="18"/>
       <c r="I49" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="3"/>
       <c r="O49" s="6"/>
     </row>
-    <row r="50" spans="1:15" ht="30">
+    <row r="50" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="4">
         <v>43433</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
       <c r="H50" s="18"/>
       <c r="I50" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="3"/>
       <c r="O50" s="6"/>
     </row>
-    <row r="51" spans="1:15" ht="30">
+    <row r="51" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="4">
         <v>43433</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>349</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K51" s="6"/>
       <c r="L51" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="3"/>
       <c r="O51" s="6"/>
     </row>
-    <row r="52" spans="1:15" ht="30">
+    <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="4">
         <v>43433</v>
       </c>
       <c r="C52" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="6" t="s">
         <v>404</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>405</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -4285,28 +4311,28 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="L52" s="6" t="s">
         <v>406</v>
-      </c>
-      <c r="L52" s="6" t="s">
-        <v>407</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="3"/>
       <c r="O52" s="6"/>
     </row>
-    <row r="53" spans="1:15" ht="45">
+    <row r="53" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="4">
         <v>43433</v>
       </c>
       <c r="C53" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="D53" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="E53" s="19" t="s">
         <v>409</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>410</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
@@ -4314,28 +4340,28 @@
       <c r="I53" s="18"/>
       <c r="J53" s="18"/>
       <c r="K53" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="L53" s="6" t="s">
         <v>411</v>
-      </c>
-      <c r="L53" s="6" t="s">
-        <v>412</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="3"/>
       <c r="O53" s="6"/>
     </row>
-    <row r="54" spans="1:15" ht="90">
+    <row r="54" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="4">
         <v>43433</v>
       </c>
       <c r="C54" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>414</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -4343,10 +4369,10 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="L54" s="6" t="s">
         <v>416</v>
-      </c>
-      <c r="L54" s="6" t="s">
-        <v>417</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>13</v>
@@ -4356,32 +4382,32 @@
       </c>
       <c r="O54" s="6"/>
     </row>
-    <row r="55" spans="1:15" ht="90">
+    <row r="55" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="4">
         <v>43434</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>362</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K55" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="L55" s="6" t="s">
         <v>420</v>
-      </c>
-      <c r="L55" s="6" t="s">
-        <v>421</v>
       </c>
       <c r="M55" s="3" t="s">
         <v>13</v>
@@ -4391,63 +4417,63 @@
       </c>
       <c r="O55" s="6"/>
     </row>
-    <row r="56" spans="1:15" ht="60">
+    <row r="56" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="4">
         <v>43434</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>277</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
       <c r="H56" s="18"/>
       <c r="I56" s="18"/>
       <c r="J56" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K56" s="19"/>
       <c r="L56" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="3"/>
       <c r="O56" s="6"/>
     </row>
-    <row r="57" spans="1:15" s="39" customFormat="1" ht="42.75" customHeight="1">
+    <row r="57" spans="1:15" s="39" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="33"/>
       <c r="B57" s="34">
         <v>43434</v>
       </c>
       <c r="C57" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="E57" s="35" t="s">
         <v>425</v>
-      </c>
-      <c r="D57" s="36" t="s">
-        <v>428</v>
-      </c>
-      <c r="E57" s="35" t="s">
-        <v>426</v>
       </c>
       <c r="F57" s="36"/>
       <c r="G57" s="36"/>
       <c r="H57" s="36"/>
       <c r="I57" s="35" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="J57" s="35" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K57" s="35" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L57" s="35" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M57" s="37" t="s">
         <v>13</v>
@@ -4457,16 +4483,16 @@
       </c>
       <c r="O57" s="38"/>
     </row>
-    <row r="58" spans="1:15" ht="60">
+    <row r="58" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="4">
         <v>43434</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>332</v>
@@ -4476,81 +4502,81 @@
       <c r="H58" s="2"/>
       <c r="I58" s="6"/>
       <c r="J58" s="19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="3"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" ht="42" customHeight="1">
+    <row r="59" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="4">
         <v>43434</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="6"/>
       <c r="J59" s="19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K59" s="6"/>
       <c r="L59" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="3"/>
       <c r="O59" s="6"/>
     </row>
-    <row r="60" spans="1:15" ht="60">
+    <row r="60" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="4">
         <v>43434</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>438</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>439</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="6"/>
       <c r="J60" s="19" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K60" s="6"/>
       <c r="L60" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="3"/>
       <c r="O60" s="6"/>
     </row>
-    <row r="61" spans="1:15" ht="60">
+    <row r="61" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="4">
         <v>43434</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>279</v>
@@ -4563,44 +4589,44 @@
       <c r="H61" s="18"/>
       <c r="I61" s="18"/>
       <c r="J61" s="18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K61" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="L61" s="6" t="s">
         <v>443</v>
-      </c>
-      <c r="L61" s="6" t="s">
-        <v>444</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="3"/>
       <c r="O61" s="6"/>
     </row>
-    <row r="62" spans="1:15" ht="43.5" customHeight="1">
+    <row r="62" spans="1:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="28">
         <v>43434</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D62" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="E62" s="26" t="s">
         <v>446</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>447</v>
       </c>
       <c r="F62" s="29"/>
       <c r="G62" s="29"/>
       <c r="H62" s="29"/>
       <c r="I62" s="29"/>
       <c r="J62" s="26" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="K62" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="L62" s="8" t="s">
         <v>448</v>
-      </c>
-      <c r="L62" s="8" t="s">
-        <v>449</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>13</v>
@@ -4610,19 +4636,19 @@
       </c>
       <c r="O62" s="6"/>
     </row>
-    <row r="63" spans="1:15" ht="75">
+    <row r="63" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="4">
         <v>43434</v>
       </c>
       <c r="C63" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>452</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -4630,28 +4656,28 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="3"/>
       <c r="O63" s="6"/>
     </row>
-    <row r="64" spans="1:15" ht="51" customHeight="1">
+    <row r="64" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="4">
         <v>43434</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
@@ -4659,26 +4685,26 @@
       <c r="I64" s="18"/>
       <c r="J64" s="18"/>
       <c r="K64" s="19" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L64" s="6"/>
       <c r="M64" s="2"/>
       <c r="N64" s="3"/>
       <c r="O64" s="6"/>
     </row>
-    <row r="65" spans="1:15" ht="51" customHeight="1">
+    <row r="65" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="4">
         <v>43434</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>27</v>
@@ -4688,28 +4714,28 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="L65" s="6" t="s">
         <v>458</v>
-      </c>
-      <c r="L65" s="6" t="s">
-        <v>460</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="3"/>
       <c r="O65" s="6"/>
     </row>
-    <row r="66" spans="1:15" ht="30">
+    <row r="66" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="4">
         <v>43434</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>31</v>
@@ -4719,39 +4745,39 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L66" s="6"/>
       <c r="M66" s="2"/>
       <c r="N66" s="3"/>
       <c r="O66" s="6"/>
     </row>
-    <row r="67" spans="1:15" ht="40.5" customHeight="1">
+    <row r="67" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="4">
         <v>43434</v>
       </c>
       <c r="C67" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E67" s="6" t="s">
         <v>464</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>466</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="M67" s="3" t="s">
         <v>13</v>
@@ -4761,19 +4787,19 @@
       </c>
       <c r="O67" s="6"/>
     </row>
-    <row r="68" spans="1:15" ht="75">
+    <row r="68" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="28">
         <v>43441</v>
       </c>
       <c r="C68" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>468</v>
+      </c>
+      <c r="E68" s="26" t="s">
         <v>469</v>
-      </c>
-      <c r="D68" s="29" t="s">
-        <v>470</v>
-      </c>
-      <c r="E68" s="26" t="s">
-        <v>471</v>
       </c>
       <c r="F68" s="29" t="s">
         <v>27</v>
@@ -4782,13 +4808,13 @@
       <c r="H68" s="29"/>
       <c r="I68" s="29"/>
       <c r="J68" s="26" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="M68" s="3" t="s">
         <v>13</v>
@@ -4798,19 +4824,19 @@
       </c>
       <c r="O68" s="6"/>
     </row>
-    <row r="69" spans="1:15" ht="45">
+    <row r="69" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="4">
         <v>43441</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F69" s="18" t="s">
         <v>27</v>
@@ -4819,19 +4845,19 @@
       <c r="H69" s="18"/>
       <c r="I69" s="18"/>
       <c r="J69" s="19" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="6"/>
     </row>
-    <row r="70" spans="1:15" ht="45">
+    <row r="70" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="4">
         <v>43441</v>
@@ -4840,10 +4866,10 @@
         <v>56</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F70" s="18" t="s">
         <v>27</v>
@@ -4852,19 +4878,19 @@
       <c r="H70" s="18"/>
       <c r="I70" s="18"/>
       <c r="J70" s="18" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="3"/>
       <c r="O70" s="6"/>
     </row>
-    <row r="71" spans="1:15" ht="45.75" customHeight="1">
+    <row r="71" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="28">
         <v>43441</v>
@@ -4873,23 +4899,23 @@
         <v>46</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F71" s="29"/>
       <c r="G71" s="29"/>
       <c r="H71" s="29"/>
       <c r="I71" s="29"/>
       <c r="J71" s="26" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="M71" s="3" t="s">
         <v>13</v>
@@ -4899,19 +4925,19 @@
       </c>
       <c r="O71" s="6"/>
     </row>
-    <row r="72" spans="1:15" ht="60">
+    <row r="72" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="4">
         <v>43441</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>279</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>27</v>
@@ -4920,66 +4946,66 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="26" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L72" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="M72" s="8" t="s">
         <v>487</v>
-      </c>
-      <c r="M72" s="8" t="s">
-        <v>489</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>272</v>
       </c>
       <c r="O72" s="6"/>
     </row>
-    <row r="73" spans="1:15" ht="45">
+    <row r="73" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="4">
         <v>43441</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>279</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="3"/>
       <c r="O73" s="6"/>
     </row>
-    <row r="74" spans="1:15" ht="45">
+    <row r="74" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="4">
         <v>43441</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>279</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>31</v>
@@ -4989,57 +5015,57 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="L74" s="6"/>
       <c r="M74" s="2"/>
       <c r="N74" s="3"/>
       <c r="O74" s="6"/>
     </row>
-    <row r="75" spans="1:15" ht="48" customHeight="1">
+    <row r="75" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="4">
         <v>43441</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
       <c r="H75" s="18"/>
       <c r="I75" s="18"/>
       <c r="J75" s="18" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="3"/>
       <c r="O75" s="6"/>
     </row>
-    <row r="76" spans="1:15" ht="41.25" customHeight="1">
+    <row r="76" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="4">
         <v>43441</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>27</v>
@@ -5048,29 +5074,29 @@
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="K76" s="6"/>
       <c r="L76" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="3"/>
       <c r="O76" s="6"/>
     </row>
-    <row r="77" spans="1:15" ht="30">
+    <row r="77" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="4">
         <v>43441</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>27</v>
@@ -5080,28 +5106,28 @@
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="L77" s="6" t="s">
         <v>505</v>
-      </c>
-      <c r="L77" s="6" t="s">
-        <v>507</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="3"/>
       <c r="O77" s="6"/>
     </row>
-    <row r="78" spans="1:15" ht="45">
+    <row r="78" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="4">
         <v>43441</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>27</v>
@@ -5111,59 +5137,59 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="3"/>
       <c r="O78" s="6"/>
     </row>
-    <row r="79" spans="1:15" ht="54" customHeight="1">
+    <row r="79" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="28">
         <v>43441</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D79" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F79" s="29"/>
       <c r="G79" s="29"/>
       <c r="H79" s="29"/>
       <c r="I79" s="29"/>
       <c r="J79" s="26" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="3"/>
       <c r="O79" s="6"/>
     </row>
-    <row r="80" spans="1:15" ht="42" customHeight="1">
+    <row r="80" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="4">
         <v>43444</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>279</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>27</v>
@@ -5172,13 +5198,13 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>13</v>
@@ -5188,19 +5214,19 @@
       </c>
       <c r="O80" s="6"/>
     </row>
-    <row r="81" spans="1:15" ht="45">
+    <row r="81" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="4">
         <v>43444</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>27</v>
@@ -5209,11 +5235,11 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="K81" s="6"/>
       <c r="L81" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>13</v>
@@ -5223,19 +5249,19 @@
       </c>
       <c r="O81" s="6"/>
     </row>
-    <row r="82" spans="1:15" ht="48" customHeight="1">
+    <row r="82" spans="1:15" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="4">
         <v>43444</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>27</v>
@@ -5244,13 +5270,13 @@
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K82" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="L82" s="6" t="s">
         <v>529</v>
-      </c>
-      <c r="L82" s="6" t="s">
-        <v>531</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>13</v>
@@ -5260,19 +5286,19 @@
       </c>
       <c r="O82" s="6"/>
     </row>
-    <row r="83" spans="1:15" ht="38.25" customHeight="1">
+    <row r="83" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="4">
         <v>43444</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D83" s="18" t="s">
         <v>279</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F83" s="18" t="s">
         <v>27</v>
@@ -5281,19 +5307,19 @@
       <c r="H83" s="18"/>
       <c r="I83" s="18"/>
       <c r="J83" s="18" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="K83" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="L83" s="6" t="s">
         <v>533</v>
-      </c>
-      <c r="L83" s="6" t="s">
-        <v>535</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="3"/>
       <c r="O83" s="6"/>
     </row>
-    <row r="84" spans="1:15" ht="45">
+    <row r="84" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="28">
         <v>43444</v>
@@ -5302,10 +5328,10 @@
         <v>68</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F84" s="29" t="s">
         <v>27</v>
@@ -5314,29 +5340,29 @@
       <c r="H84" s="29"/>
       <c r="I84" s="29"/>
       <c r="J84" s="29" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="L84" s="6"/>
       <c r="M84" s="2"/>
       <c r="N84" s="3"/>
       <c r="O84" s="6"/>
     </row>
-    <row r="85" spans="1:15" ht="46.5" customHeight="1">
+    <row r="85" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="4">
         <v>43444</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>27</v>
@@ -5345,13 +5371,13 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>13</v>
@@ -5361,19 +5387,19 @@
       </c>
       <c r="O85" s="6"/>
     </row>
-    <row r="86" spans="1:15" ht="45">
+    <row r="86" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="4">
         <v>43444</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>279</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>27</v>
@@ -5383,28 +5409,28 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="3"/>
       <c r="O86" s="6"/>
     </row>
-    <row r="87" spans="1:15" ht="240">
+    <row r="87" spans="1:15" ht="240" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="28">
         <v>43444</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D87" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F87" s="29" t="s">
         <v>27</v>
@@ -5413,29 +5439,29 @@
       <c r="H87" s="29"/>
       <c r="I87" s="29"/>
       <c r="J87" s="26" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="L87" s="6"/>
       <c r="M87" s="2"/>
       <c r="N87" s="3"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="1:15" ht="45">
+    <row r="88" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="30">
         <v>43444</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D88" s="32" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F88" s="32" t="s">
         <v>27</v>
@@ -5444,31 +5470,31 @@
       <c r="H88" s="32"/>
       <c r="I88" s="32"/>
       <c r="J88" s="31" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="3"/>
       <c r="O88" s="6"/>
     </row>
-    <row r="89" spans="1:15" ht="30">
+    <row r="89" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="4">
         <v>43444</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>31</v>
@@ -5478,23 +5504,23 @@
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="L89" s="6"/>
       <c r="M89" s="2"/>
       <c r="N89" s="3"/>
       <c r="O89" s="6"/>
     </row>
-    <row r="90" spans="1:15" ht="30">
+    <row r="90" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="4">
         <v>43444</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>332</v>
@@ -5507,26 +5533,26 @@
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="L90" s="6"/>
       <c r="M90" s="2"/>
       <c r="N90" s="3"/>
       <c r="O90" s="6"/>
     </row>
-    <row r="91" spans="1:15" ht="44.25" customHeight="1">
+    <row r="91" spans="1:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="4">
         <v>43444</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>27</v>
@@ -5536,28 +5562,28 @@
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="3"/>
       <c r="O91" s="6"/>
     </row>
-    <row r="92" spans="1:15" ht="63" customHeight="1">
+    <row r="92" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="4">
         <v>43444</v>
       </c>
       <c r="C92" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E92" s="6" t="s">
         <v>563</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>565</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>27</v>
@@ -5567,10 +5593,10 @@
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M92" s="3" t="s">
         <v>13</v>
@@ -5580,19 +5606,19 @@
       </c>
       <c r="O92" s="6"/>
     </row>
-    <row r="93" spans="1:15" ht="57" customHeight="1">
+    <row r="93" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="4">
         <v>43444</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>277</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>31</v>
@@ -5602,26 +5628,26 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="L93" s="6"/>
       <c r="M93" s="2"/>
       <c r="N93" s="3"/>
       <c r="O93" s="6"/>
     </row>
-    <row r="94" spans="1:15" ht="45">
+    <row r="94" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="28">
         <v>43444</v>
       </c>
       <c r="C94" s="26" t="s">
+        <v>569</v>
+      </c>
+      <c r="D94" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="E94" s="26" t="s">
         <v>571</v>
-      </c>
-      <c r="D94" s="29" t="s">
-        <v>451</v>
-      </c>
-      <c r="E94" s="26" t="s">
-        <v>573</v>
       </c>
       <c r="F94" s="29" t="s">
         <v>27</v>
@@ -5630,29 +5656,29 @@
       <c r="H94" s="29"/>
       <c r="I94" s="29"/>
       <c r="J94" s="26" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="L94" s="6"/>
       <c r="M94" s="2"/>
       <c r="N94" s="3"/>
       <c r="O94" s="6"/>
     </row>
-    <row r="95" spans="1:15" ht="60">
+    <row r="95" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="4">
         <v>43444</v>
       </c>
       <c r="C95" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E95" s="6" t="s">
         <v>574</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>576</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>27</v>
@@ -5662,16 +5688,16 @@
       <c r="I95" s="2"/>
       <c r="J95" s="22"/>
       <c r="K95" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="L95" s="6" t="s">
         <v>575</v>
-      </c>
-      <c r="L95" s="6" t="s">
-        <v>577</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="3"/>
       <c r="O95" s="6"/>
     </row>
-    <row r="96" spans="1:15" ht="51.75" customHeight="1">
+    <row r="96" spans="1:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="4">
         <v>43445</v>
@@ -5680,7 +5706,7 @@
         <v>59</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>329</v>
@@ -5692,13 +5718,13 @@
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="K96" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="L96" s="6" t="s">
         <v>583</v>
-      </c>
-      <c r="L96" s="6" t="s">
-        <v>585</v>
       </c>
       <c r="M96" s="3" t="s">
         <v>13</v>
@@ -5708,19 +5734,19 @@
       </c>
       <c r="O96" s="6"/>
     </row>
-    <row r="97" spans="1:15" ht="45">
+    <row r="97" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="4">
         <v>43445</v>
       </c>
       <c r="C97" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E97" s="6" t="s">
         <v>586</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>588</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>27</v>
@@ -5729,13 +5755,13 @@
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97" s="19" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="M97" s="3" t="s">
         <v>13</v>
@@ -5745,19 +5771,19 @@
       </c>
       <c r="O97" s="6"/>
     </row>
-    <row r="98" spans="1:15" ht="43.5" customHeight="1">
+    <row r="98" spans="1:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="4">
         <v>43445</v>
       </c>
       <c r="C98" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E98" s="6" t="s">
         <v>592</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>594</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>31</v>
@@ -5767,20 +5793,20 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="L98" s="6"/>
       <c r="M98" s="2"/>
       <c r="N98" s="3"/>
       <c r="O98" s="6"/>
     </row>
-    <row r="99" spans="1:15" ht="59.25" customHeight="1">
+    <row r="99" spans="1:15" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="4">
         <v>43445</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>33</v>
@@ -5795,27 +5821,27 @@
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="L99" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="K99" s="6" t="s">
+      <c r="M99" s="2" t="s">
         <v>597</v>
-      </c>
-      <c r="L99" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="M99" s="2" t="s">
-        <v>599</v>
       </c>
       <c r="N99" s="3"/>
       <c r="O99" s="6"/>
     </row>
-    <row r="100" spans="1:15" ht="62.25" customHeight="1">
+    <row r="100" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="4">
         <v>43445</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>33</v>
@@ -5831,26 +5857,26 @@
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="L100" s="6"/>
       <c r="M100" s="2"/>
       <c r="N100" s="3"/>
       <c r="O100" s="6"/>
     </row>
-    <row r="101" spans="1:15" ht="30">
+    <row r="101" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="4">
         <v>43445</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>27</v>
@@ -5859,31 +5885,31 @@
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="L101" s="6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="3"/>
       <c r="O101" s="6"/>
     </row>
-    <row r="102" spans="1:15" ht="52.5" customHeight="1">
+    <row r="102" spans="1:15" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="4">
         <v>43445</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>31</v>
@@ -5892,29 +5918,29 @@
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="18" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="L102" s="6"/>
       <c r="M102" s="2"/>
       <c r="N102" s="3"/>
       <c r="O102" s="6"/>
     </row>
-    <row r="103" spans="1:15" ht="44.25" customHeight="1">
+    <row r="103" spans="1:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="4">
         <v>43445</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>27</v>
@@ -5924,10 +5950,10 @@
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
       <c r="K103" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L103" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="M103" s="3" t="s">
         <v>13</v>
@@ -5937,19 +5963,19 @@
       </c>
       <c r="O103" s="6"/>
     </row>
-    <row r="104" spans="1:15" ht="45">
+    <row r="104" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="4">
         <v>43445</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>31</v>
@@ -5958,29 +5984,29 @@
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="L104" s="6"/>
       <c r="M104" s="2"/>
       <c r="N104" s="3"/>
       <c r="O104" s="6"/>
     </row>
-    <row r="105" spans="1:15" ht="30">
+    <row r="105" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="4">
         <v>43445</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>31</v>
@@ -5989,29 +6015,29 @@
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="L105" s="6"/>
       <c r="M105" s="2"/>
       <c r="N105" s="3"/>
       <c r="O105" s="6"/>
     </row>
-    <row r="106" spans="1:15" ht="60" customHeight="1">
+    <row r="106" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="4">
         <v>43445</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>27</v>
@@ -6020,13 +6046,13 @@
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="K106" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="L106" s="6" t="s">
         <v>622</v>
-      </c>
-      <c r="L106" s="6" t="s">
-        <v>624</v>
       </c>
       <c r="M106" s="2" t="s">
         <v>13</v>
@@ -6036,19 +6062,19 @@
       </c>
       <c r="O106" s="6"/>
     </row>
-    <row r="107" spans="1:15" ht="55.5" customHeight="1">
+    <row r="107" spans="1:15" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="4">
         <v>43446</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>27</v>
@@ -6057,13 +6083,13 @@
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="K107" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="L107" s="6" t="s">
         <v>627</v>
-      </c>
-      <c r="L107" s="6" t="s">
-        <v>629</v>
       </c>
       <c r="M107" s="3" t="s">
         <v>13</v>
@@ -6073,19 +6099,19 @@
       </c>
       <c r="O107" s="6"/>
     </row>
-    <row r="108" spans="1:15" ht="52.5" customHeight="1">
+    <row r="108" spans="1:15" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="4">
         <v>43446</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>27</v>
@@ -6094,31 +6120,31 @@
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="18" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="3"/>
       <c r="O108" s="6"/>
     </row>
-    <row r="109" spans="1:15" ht="30">
+    <row r="109" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="4">
         <v>43446</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>31</v>
@@ -6128,26 +6154,26 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="L109" s="6"/>
       <c r="M109" s="2"/>
       <c r="N109" s="3"/>
       <c r="O109" s="6"/>
     </row>
-    <row r="110" spans="1:15" ht="60">
+    <row r="110" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="4">
         <v>43446</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>27</v>
@@ -6156,13 +6182,13 @@
       <c r="H110" s="2"/>
       <c r="I110" s="6"/>
       <c r="J110" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="M110" s="3" t="s">
         <v>13</v>
@@ -6172,19 +6198,19 @@
       </c>
       <c r="O110" s="6"/>
     </row>
-    <row r="111" spans="1:15" ht="30">
+    <row r="111" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="4">
         <v>43446</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>31</v>
@@ -6194,14 +6220,14 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
       <c r="K111" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="L111" s="6"/>
       <c r="M111" s="2"/>
       <c r="N111" s="3"/>
       <c r="O111" s="6"/>
     </row>
-    <row r="112" spans="1:15" ht="45">
+    <row r="112" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="4">
         <v>43446</v>
@@ -6210,10 +6236,10 @@
         <v>369</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>31</v>
@@ -6223,26 +6249,26 @@
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="L112" s="6"/>
       <c r="M112" s="2"/>
       <c r="N112" s="3"/>
       <c r="O112" s="6"/>
     </row>
-    <row r="113" spans="1:15" ht="30">
+    <row r="113" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="4">
         <v>43446</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>31</v>
@@ -6252,26 +6278,26 @@
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
       <c r="K113" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="L113" s="6"/>
       <c r="M113" s="2"/>
       <c r="N113" s="3"/>
       <c r="O113" s="6"/>
     </row>
-    <row r="114" spans="1:15" ht="45">
+    <row r="114" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="4">
         <v>43446</v>
       </c>
       <c r="C114" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E114" s="6" t="s">
         <v>650</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>652</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>27</v>
@@ -6280,13 +6306,13 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="M114" s="3" t="s">
         <v>13</v>
@@ -6296,19 +6322,19 @@
       </c>
       <c r="O114" s="6"/>
     </row>
-    <row r="115" spans="1:15" ht="45">
+    <row r="115" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="4">
         <v>43446</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>27</v>
@@ -6318,28 +6344,28 @@
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
       <c r="K115" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="3"/>
       <c r="O115" s="6"/>
     </row>
-    <row r="116" spans="1:15" ht="30">
+    <row r="116" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="4">
         <v>43446</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>279</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>27</v>
@@ -6349,28 +6375,28 @@
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
       <c r="K116" s="6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="3"/>
       <c r="O116" s="6"/>
     </row>
-    <row r="117" spans="1:15" ht="120">
+    <row r="117" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="4">
         <v>43446</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>27</v>
@@ -6379,19 +6405,19 @@
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
       <c r="J117" s="18" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="L117" s="6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="3"/>
       <c r="O117" s="6"/>
     </row>
-    <row r="118" spans="1:15" ht="30">
+    <row r="118" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="4">
         <v>43446</v>
@@ -6403,7 +6429,7 @@
         <v>33</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>27</v>
@@ -6412,29 +6438,29 @@
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
       <c r="J118" s="19" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="L118" s="6"/>
       <c r="M118" s="2"/>
       <c r="N118" s="3"/>
       <c r="O118" s="6"/>
     </row>
-    <row r="119" spans="1:15" ht="75">
+    <row r="119" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="4">
         <v>43446</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>27</v>
@@ -6443,31 +6469,31 @@
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
       <c r="J119" s="19" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="K119" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="L119" s="6" t="s">
         <v>671</v>
-      </c>
-      <c r="L119" s="6" t="s">
-        <v>673</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="3"/>
       <c r="O119" s="6"/>
     </row>
-    <row r="120" spans="1:15" ht="75">
+    <row r="120" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="4">
         <v>43446</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>27</v>
@@ -6476,31 +6502,31 @@
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
       <c r="J120" s="18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K120" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="L120" s="6" t="s">
         <v>676</v>
-      </c>
-      <c r="L120" s="6" t="s">
-        <v>678</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="3"/>
       <c r="O120" s="6"/>
     </row>
-    <row r="121" spans="1:15" ht="30">
+    <row r="121" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="4">
         <v>43448</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>31</v>
@@ -6509,31 +6535,31 @@
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
       <c r="J121" s="18" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="L121" s="6" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="3"/>
       <c r="O121" s="6"/>
     </row>
-    <row r="122" spans="1:15" ht="30">
+    <row r="122" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="4">
         <v>43448</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>27</v>
@@ -6543,28 +6569,28 @@
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
       <c r="K122" s="6" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="3"/>
       <c r="O122" s="6"/>
     </row>
-    <row r="123" spans="1:15" ht="30">
+    <row r="123" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="4">
         <v>43448</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>31</v>
@@ -6574,26 +6600,26 @@
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
       <c r="K123" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L123" s="6"/>
       <c r="M123" s="2"/>
       <c r="N123" s="3"/>
       <c r="O123" s="6"/>
     </row>
-    <row r="124" spans="1:15" ht="30">
+    <row r="124" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="4">
         <v>43448</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>27</v>
@@ -6603,10 +6629,10 @@
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
       <c r="K124" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="M124" s="3" t="s">
         <v>13</v>
@@ -6616,16 +6642,16 @@
       </c>
       <c r="O124" s="6"/>
     </row>
-    <row r="125" spans="1:15" ht="35.25" customHeight="1">
+    <row r="125" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="4">
         <v>43448</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="2" t="s">
@@ -6636,10 +6662,10 @@
       <c r="I125" s="2"/>
       <c r="J125" s="22"/>
       <c r="K125" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="L125" s="6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="M125" s="3" t="s">
         <v>13</v>
@@ -6649,19 +6675,19 @@
       </c>
       <c r="O125" s="6"/>
     </row>
-    <row r="126" spans="1:15" ht="30">
+    <row r="126" spans="1:15" ht="225" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="4">
         <v>43448</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>277</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>31</v>
@@ -6671,65 +6697,103 @@
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
       <c r="K126" s="6" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="L126" s="6"/>
       <c r="M126" s="2"/>
       <c r="N126" s="3"/>
       <c r="O126" s="6"/>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="4"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="2"/>
+      <c r="C127" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
-      <c r="M127" s="2"/>
-      <c r="N127" s="3"/>
+      <c r="M127" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N127" s="3" t="s">
+        <v>698</v>
+      </c>
       <c r="O127" s="6"/>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="4"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="6"/>
-      <c r="F128" s="2"/>
+      <c r="C128" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
+      <c r="J128" s="2" t="s">
+        <v>701</v>
+      </c>
       <c r="K128" s="6"/>
       <c r="L128" s="6"/>
       <c r="M128" s="2"/>
       <c r="N128" s="3"/>
       <c r="O128" s="6"/>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="2"/>
+      <c r="B129" s="4">
+        <v>43466</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E129" s="6"/>
-      <c r="F129" s="2"/>
+      <c r="F129" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
-      <c r="K129" s="6"/>
+      <c r="J129" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="K129" s="6" t="s">
+        <v>705</v>
+      </c>
       <c r="L129" s="6"/>
-      <c r="M129" s="2"/>
-      <c r="N129" s="3"/>
+      <c r="M129" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N129" s="6" t="s">
+        <v>702</v>
+      </c>
       <c r="O129" s="6"/>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="4"/>
       <c r="C130" s="6"/>
@@ -6746,7 +6810,7 @@
       <c r="N130" s="3"/>
       <c r="O130" s="6"/>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="4"/>
       <c r="C131" s="6"/>
@@ -6763,7 +6827,7 @@
       <c r="N131" s="3"/>
       <c r="O131" s="6"/>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="4"/>
       <c r="C132" s="6"/>
@@ -6780,7 +6844,7 @@
       <c r="N132" s="3"/>
       <c r="O132" s="6"/>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="4"/>
       <c r="C133" s="6"/>
@@ -6797,7 +6861,7 @@
       <c r="N133" s="3"/>
       <c r="O133" s="6"/>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="4"/>
       <c r="C134" s="6"/>
@@ -6814,13 +6878,11 @@
       <c r="N134" s="3"/>
       <c r="O134" s="6"/>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="4"/>
       <c r="C135" s="6"/>
-      <c r="D135" s="2" t="s">
-        <v>389</v>
-      </c>
+      <c r="D135" s="2"/>
       <c r="E135" s="6"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
@@ -6833,13 +6895,11 @@
       <c r="N135" s="3"/>
       <c r="O135" s="6"/>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="4"/>
       <c r="C136" s="6"/>
-      <c r="D136" s="2" t="s">
-        <v>454</v>
-      </c>
+      <c r="D136" s="2"/>
       <c r="E136" s="6"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
@@ -6852,7 +6912,7 @@
       <c r="N136" s="3"/>
       <c r="O136" s="6"/>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="4"/>
       <c r="C137" s="6"/>
@@ -6869,7 +6929,7 @@
       <c r="N137" s="3"/>
       <c r="O137" s="6"/>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="4"/>
       <c r="C138" s="6"/>
@@ -6886,7 +6946,7 @@
       <c r="N138" s="3"/>
       <c r="O138" s="6"/>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="4"/>
       <c r="C139" s="6"/>
@@ -6903,7 +6963,7 @@
       <c r="N139" s="3"/>
       <c r="O139" s="6"/>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="4"/>
       <c r="C140" s="6"/>
@@ -6920,7 +6980,7 @@
       <c r="N140" s="3"/>
       <c r="O140" s="6"/>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="4"/>
       <c r="C141" s="6"/>
@@ -6937,7 +6997,7 @@
       <c r="N141" s="3"/>
       <c r="O141" s="6"/>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="4"/>
       <c r="C142" s="6"/>
@@ -6954,7 +7014,7 @@
       <c r="N142" s="3"/>
       <c r="O142" s="6"/>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="4"/>
       <c r="C143" s="6"/>
@@ -6971,7 +7031,7 @@
       <c r="N143" s="3"/>
       <c r="O143" s="6"/>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="4"/>
       <c r="C144" s="6"/>
@@ -6988,7 +7048,7 @@
       <c r="N144" s="3"/>
       <c r="O144" s="6"/>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="4"/>
       <c r="C145" s="6"/>
@@ -7005,7 +7065,7 @@
       <c r="N145" s="3"/>
       <c r="O145" s="6"/>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="4"/>
       <c r="C146" s="6"/>
@@ -7022,7 +7082,7 @@
       <c r="N146" s="3"/>
       <c r="O146" s="6"/>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="4"/>
       <c r="C147" s="6"/>
@@ -7039,7 +7099,7 @@
       <c r="N147" s="3"/>
       <c r="O147" s="6"/>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="4"/>
       <c r="C148" s="6"/>
@@ -7056,7 +7116,7 @@
       <c r="N148" s="3"/>
       <c r="O148" s="6"/>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="4"/>
       <c r="C149" s="6"/>
@@ -7073,7 +7133,7 @@
       <c r="N149" s="3"/>
       <c r="O149" s="6"/>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="4"/>
       <c r="C150" s="6"/>
@@ -7090,7 +7150,7 @@
       <c r="N150" s="3"/>
       <c r="O150" s="6"/>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="4"/>
       <c r="C151" s="6"/>
@@ -7107,7 +7167,7 @@
       <c r="N151" s="3"/>
       <c r="O151" s="6"/>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="4"/>
       <c r="C152" s="6"/>
@@ -7124,7 +7184,7 @@
       <c r="N152" s="3"/>
       <c r="O152" s="6"/>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="4"/>
       <c r="C153" s="6"/>
@@ -7141,7 +7201,7 @@
       <c r="N153" s="3"/>
       <c r="O153" s="6"/>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="4"/>
       <c r="C154" s="6"/>
@@ -7158,7 +7218,7 @@
       <c r="N154" s="3"/>
       <c r="O154" s="6"/>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="4"/>
       <c r="C155" s="6"/>
@@ -7175,212 +7235,112 @@
       <c r="N155" s="3"/>
       <c r="O155" s="6"/>
     </row>
-    <row r="156" spans="1:15">
-      <c r="A156" s="2"/>
-      <c r="B156" s="4"/>
-      <c r="C156" s="6"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="6"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="2"/>
-      <c r="J156" s="2"/>
-      <c r="K156" s="6"/>
-      <c r="L156" s="6"/>
-      <c r="M156" s="2"/>
-      <c r="N156" s="3"/>
-      <c r="O156" s="6"/>
-    </row>
-    <row r="157" spans="1:15">
-      <c r="A157" s="2"/>
-      <c r="B157" s="4"/>
-      <c r="C157" s="6"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="6"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="2"/>
-      <c r="J157" s="2"/>
-      <c r="K157" s="6"/>
-      <c r="L157" s="6"/>
-      <c r="M157" s="2"/>
-      <c r="N157" s="3"/>
-      <c r="O157" s="6"/>
-    </row>
-    <row r="158" spans="1:15">
-      <c r="A158" s="2"/>
-      <c r="B158" s="4"/>
-      <c r="C158" s="6"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="6"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
-      <c r="I158" s="2"/>
-      <c r="J158" s="2"/>
-      <c r="K158" s="6"/>
-      <c r="L158" s="6"/>
-      <c r="M158" s="2"/>
-      <c r="N158" s="3"/>
-      <c r="O158" s="6"/>
-    </row>
-    <row r="159" spans="1:15">
-      <c r="A159" s="2"/>
-      <c r="B159" s="4"/>
-      <c r="C159" s="6"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="6"/>
-      <c r="F159" s="2"/>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
-      <c r="I159" s="2"/>
-      <c r="J159" s="2"/>
-      <c r="K159" s="6"/>
-      <c r="L159" s="6"/>
-      <c r="M159" s="2"/>
-      <c r="N159" s="3"/>
-      <c r="O159" s="6"/>
-    </row>
-    <row r="160" spans="1:15">
-      <c r="A160" s="2"/>
-      <c r="B160" s="4"/>
-      <c r="C160" s="6"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="6"/>
-      <c r="F160" s="2"/>
-      <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
-      <c r="I160" s="2"/>
-      <c r="J160" s="2"/>
-      <c r="K160" s="6"/>
-      <c r="L160" s="6"/>
-      <c r="M160" s="2"/>
-      <c r="N160" s="3"/>
-      <c r="O160" s="6"/>
-    </row>
-    <row r="161" spans="1:15">
-      <c r="A161" s="2"/>
-      <c r="B161" s="4"/>
-      <c r="C161" s="6"/>
-      <c r="D161" s="2"/>
-      <c r="E161" s="6"/>
-      <c r="F161" s="2"/>
-      <c r="G161" s="2"/>
-      <c r="H161" s="2"/>
-      <c r="I161" s="2"/>
-      <c r="J161" s="2"/>
-      <c r="K161" s="6"/>
-      <c r="L161" s="6"/>
-      <c r="M161" s="2"/>
-      <c r="N161" s="3"/>
-      <c r="O161" s="6"/>
-    </row>
   </sheetData>
-  <autoFilter ref="C1:C161"/>
+  <autoFilter ref="C1:C155" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1"/>
-    <hyperlink ref="N2" r:id="rId2"/>
-    <hyperlink ref="J4" r:id="rId3" tooltip="View this job description" display="https://autodesk.taleo.net/careersection/careersection/candidateacquisition/flow.jsf"/>
-    <hyperlink ref="L9" r:id="rId4"/>
-    <hyperlink ref="M14" r:id="rId5"/>
-    <hyperlink ref="N14" r:id="rId6"/>
-    <hyperlink ref="N20" r:id="rId7"/>
-    <hyperlink ref="N21" r:id="rId8"/>
-    <hyperlink ref="M21" r:id="rId9"/>
-    <hyperlink ref="N23" r:id="rId10"/>
-    <hyperlink ref="M23" r:id="rId11"/>
-    <hyperlink ref="N25" r:id="rId12"/>
-    <hyperlink ref="N28" r:id="rId13"/>
-    <hyperlink ref="L28" r:id="rId14" display="https://career8.successfactors.com/portalcareer?_s.crb=kNBYkSysisIRZTdxfVciJ8DJuxM%253d"/>
-    <hyperlink ref="N31" r:id="rId15"/>
-    <hyperlink ref="M32" r:id="rId16"/>
-    <hyperlink ref="N32" r:id="rId17"/>
-    <hyperlink ref="N24" r:id="rId18"/>
-    <hyperlink ref="L26" r:id="rId19"/>
-    <hyperlink ref="M36" r:id="rId20"/>
-    <hyperlink ref="N36" r:id="rId21"/>
-    <hyperlink ref="M41" r:id="rId22"/>
-    <hyperlink ref="N41" r:id="rId23"/>
-    <hyperlink ref="K41" r:id="rId24"/>
-    <hyperlink ref="L41" display="https://garmin.taleo.net/careersection/iam/accessmanagement/login.jsf?redirectionURI=https%3A%2F%2Fgarmin.taleo.net%2Fcareersection%2F2012_garmin_exp_tech%2Fjobsearch.ftl%3Fftlcompclass%3DLoginComponent&amp;TARGET=https%3A%2F%2Fgarmin.taleo.net%2Fcareersectio"/>
-    <hyperlink ref="M46" r:id="rId25"/>
-    <hyperlink ref="N46" r:id="rId26"/>
-    <hyperlink ref="M47" r:id="rId27"/>
-    <hyperlink ref="N47" r:id="rId28"/>
-    <hyperlink ref="L50" r:id="rId29"/>
-    <hyperlink ref="L51" r:id="rId30"/>
-    <hyperlink ref="M54" r:id="rId31"/>
-    <hyperlink ref="N54" r:id="rId32"/>
-    <hyperlink ref="M55" r:id="rId33"/>
-    <hyperlink ref="N55" r:id="rId34"/>
-    <hyperlink ref="M57" r:id="rId35"/>
-    <hyperlink ref="N57" r:id="rId36"/>
-    <hyperlink ref="M62" r:id="rId37"/>
-    <hyperlink ref="N62" r:id="rId38"/>
-    <hyperlink ref="L62" r:id="rId39"/>
-    <hyperlink ref="M67" r:id="rId40"/>
-    <hyperlink ref="N67" r:id="rId41"/>
-    <hyperlink ref="M71" r:id="rId42"/>
-    <hyperlink ref="N71" r:id="rId43"/>
-    <hyperlink ref="M72" r:id="rId44" display="sarath.sund@gmail.com"/>
-    <hyperlink ref="N72" r:id="rId45"/>
-    <hyperlink ref="L71" r:id="rId46" location="jobDetails=410516_5185"/>
-    <hyperlink ref="L68" r:id="rId47"/>
-    <hyperlink ref="M68" r:id="rId48"/>
-    <hyperlink ref="N68" r:id="rId49"/>
-    <hyperlink ref="N80" r:id="rId50"/>
-    <hyperlink ref="N81" r:id="rId51"/>
-    <hyperlink ref="N82" r:id="rId52"/>
-    <hyperlink ref="N85" r:id="rId53"/>
-    <hyperlink ref="L86" r:id="rId54"/>
-    <hyperlink ref="M92" r:id="rId55"/>
-    <hyperlink ref="N92" r:id="rId56"/>
-    <hyperlink ref="L88" r:id="rId57"/>
-    <hyperlink ref="K88" r:id="rId58"/>
-    <hyperlink ref="L79" r:id="rId59"/>
-    <hyperlink ref="K94" r:id="rId60"/>
-    <hyperlink ref="M96" r:id="rId61"/>
-    <hyperlink ref="N96" r:id="rId62"/>
-    <hyperlink ref="L97" r:id="rId63"/>
-    <hyperlink ref="M97" r:id="rId64"/>
-    <hyperlink ref="N97" r:id="rId65"/>
-    <hyperlink ref="M103" r:id="rId66"/>
-    <hyperlink ref="N103" r:id="rId67"/>
-    <hyperlink ref="N106" r:id="rId68"/>
-    <hyperlink ref="M107" r:id="rId69"/>
-    <hyperlink ref="N107" r:id="rId70"/>
-    <hyperlink ref="M110" r:id="rId71"/>
-    <hyperlink ref="N110" r:id="rId72"/>
-    <hyperlink ref="M114" r:id="rId73"/>
-    <hyperlink ref="N114" r:id="rId74"/>
-    <hyperlink ref="K121" r:id="rId75"/>
-    <hyperlink ref="M124" r:id="rId76"/>
-    <hyperlink ref="N124" r:id="rId77"/>
-    <hyperlink ref="M125" r:id="rId78"/>
-    <hyperlink ref="N125" r:id="rId79"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J4" r:id="rId3" tooltip="View this job description" display="https://autodesk.taleo.net/careersection/careersection/candidateacquisition/flow.jsf" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="N14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="N20" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="N21" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="M21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="N23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="M23" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="N25" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="N28" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="L28" r:id="rId14" display="https://career8.successfactors.com/portalcareer?_s.crb=kNBYkSysisIRZTdxfVciJ8DJuxM%253d" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="N31" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="M32" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="N32" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="N24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="L26" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="M36" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="N36" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="M41" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="N41" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="K41" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="L41" display="https://garmin.taleo.net/careersection/iam/accessmanagement/login.jsf?redirectionURI=https%3A%2F%2Fgarmin.taleo.net%2Fcareersection%2F2012_garmin_exp_tech%2Fjobsearch.ftl%3Fftlcompclass%3DLoginComponent&amp;TARGET=https%3A%2F%2Fgarmin.taleo.net%2Fcareersectio" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="M46" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="N46" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="M47" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="N47" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="L50" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L51" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="M54" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="N54" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="M55" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="N55" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="M57" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="N57" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="M62" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="N62" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="L62" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="M67" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="N67" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="M71" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="N71" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="M72" r:id="rId44" display="sarath.sund@gmail.com" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="N72" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="L71" r:id="rId46" location="jobDetails=410516_5185" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="L68" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="M68" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="N68" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="N80" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="N81" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="N82" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="N85" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="L86" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="M92" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="N92" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="L88" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="K88" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="L79" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="K94" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="M96" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="N96" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="L97" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="M97" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="N97" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="M103" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="N103" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="N106" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="M107" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="N107" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="M110" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="N110" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="M114" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="N114" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="K121" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="M124" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="N124" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="M125" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="N125" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="M127" r:id="rId80" xr:uid="{D07B7326-219A-40BA-A5FE-E68B8AAC0D9D}"/>
+    <hyperlink ref="M129" r:id="rId81" xr:uid="{A63C2807-673A-49B2-AE6C-747C2AA26D0D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId80"/>
+  <pageSetup orientation="portrait" r:id="rId82"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D3:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:6">
+    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E3" s="9" t="s">
         <v>60</v>
       </c>
@@ -7388,7 +7348,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="4:6">
+    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>1</v>
       </c>
@@ -7399,7 +7359,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="4:6">
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>2</v>
       </c>
@@ -7410,7 +7370,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="4:6">
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>3</v>
       </c>
@@ -7421,7 +7381,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="4:6">
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>4</v>
       </c>
@@ -7429,7 +7389,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="4:6">
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>5</v>
       </c>
@@ -7437,7 +7397,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="4:6">
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>6</v>
       </c>
@@ -7445,7 +7405,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="4:6">
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>7</v>
       </c>
@@ -7453,7 +7413,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="4:6">
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>8</v>
       </c>
@@ -7461,7 +7421,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="4:6">
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>9</v>
       </c>
@@ -7469,7 +7429,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="4:6">
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>10</v>
       </c>
@@ -7477,7 +7437,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="4:6">
+    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>11</v>
       </c>
@@ -7485,7 +7445,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="4:6">
+    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>12</v>
       </c>
@@ -7493,7 +7453,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="4:6">
+    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D16">
         <v>13</v>
       </c>
@@ -7501,7 +7461,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>14</v>
       </c>
@@ -7509,7 +7469,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>15</v>
       </c>
@@ -7517,7 +7477,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>16</v>
       </c>
@@ -7525,7 +7485,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>17</v>
       </c>
@@ -7533,7 +7493,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="4:5">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>18</v>
       </c>
@@ -7541,7 +7501,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="4:5">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>19</v>
       </c>
@@ -7556,19 +7516,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="E1:G86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="7" width="48.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:7" ht="15.75" thickBot="1">
+    <row r="1" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1" s="10" t="s">
         <v>0</v>
       </c>
@@ -7579,7 +7539,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="5:7" ht="16.5" thickTop="1" thickBot="1">
+    <row r="2" spans="5:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E2">
         <v>1</v>
       </c>
@@ -7590,7 +7550,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="5:7" ht="15.75" thickBot="1">
+    <row r="3" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E3">
         <v>2</v>
       </c>
@@ -7601,7 +7561,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="5:7" ht="15.75" thickBot="1">
+    <row r="4" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E4">
         <v>3</v>
       </c>
@@ -7612,7 +7572,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="5:7" ht="15.75" thickBot="1">
+    <row r="5" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E5">
         <v>4</v>
       </c>
@@ -7623,7 +7583,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="5:7" ht="15.75" thickBot="1">
+    <row r="6" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6">
         <v>5</v>
       </c>
@@ -7634,7 +7594,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="5:7" ht="15.75" thickBot="1">
+    <row r="7" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7">
         <v>6</v>
       </c>
@@ -7645,7 +7605,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="5:7" ht="15.75" thickBot="1">
+    <row r="8" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8">
         <v>7</v>
       </c>
@@ -7656,7 +7616,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:7" ht="15.75" thickBot="1">
+    <row r="9" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9">
         <v>8</v>
       </c>
@@ -7667,7 +7627,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:7" ht="15.75" thickBot="1">
+    <row r="10" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10">
         <v>9</v>
       </c>
@@ -7678,7 +7638,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="5:7" ht="15.75" thickBot="1">
+    <row r="11" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11">
         <v>10</v>
       </c>
@@ -7689,7 +7649,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="5:7" ht="15.75" thickBot="1">
+    <row r="12" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12">
         <v>11</v>
       </c>
@@ -7700,7 +7660,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="5:7" ht="15.75" thickBot="1">
+    <row r="13" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13">
         <v>12</v>
       </c>
@@ -7711,7 +7671,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="5:7" ht="15.75" thickBot="1">
+    <row r="14" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14">
         <v>13</v>
       </c>
@@ -7722,7 +7682,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="5:7" ht="15.75" thickBot="1">
+    <row r="15" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15">
         <v>14</v>
       </c>
@@ -7733,7 +7693,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="5:7" ht="15.75" thickBot="1">
+    <row r="16" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16">
         <v>15</v>
       </c>
@@ -7744,7 +7704,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="5:7" ht="15.75" thickBot="1">
+    <row r="17" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17">
         <v>16</v>
       </c>
@@ -7755,7 +7715,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="5:7" ht="15.75" thickBot="1">
+    <row r="18" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18">
         <v>17</v>
       </c>
@@ -7766,7 +7726,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="5:7" ht="15.75" thickBot="1">
+    <row r="19" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19">
         <v>18</v>
       </c>
@@ -7777,7 +7737,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="5:7" ht="15.75" thickBot="1">
+    <row r="20" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20">
         <v>19</v>
       </c>
@@ -7788,7 +7748,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="5:7" ht="15.75" thickBot="1">
+    <row r="21" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21">
         <v>20</v>
       </c>
@@ -7799,7 +7759,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="5:7" ht="15.75" thickBot="1">
+    <row r="22" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22">
         <v>21</v>
       </c>
@@ -7810,7 +7770,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="5:7" ht="15.75" thickBot="1">
+    <row r="23" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23">
         <v>22</v>
       </c>
@@ -7821,7 +7781,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="5:7" ht="15.75" thickBot="1">
+    <row r="24" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E24">
         <v>23</v>
       </c>
@@ -7832,7 +7792,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="5:7" ht="15.75" thickBot="1">
+    <row r="25" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E25">
         <v>24</v>
       </c>
@@ -7843,7 +7803,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="5:7" ht="15.75" thickBot="1">
+    <row r="26" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26">
         <v>25</v>
       </c>
@@ -7854,7 +7814,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="5:7" ht="15.75" thickBot="1">
+    <row r="27" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27">
         <v>26</v>
       </c>
@@ -7865,7 +7825,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="5:7" ht="15.75" thickBot="1">
+    <row r="28" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28">
         <v>27</v>
       </c>
@@ -7876,7 +7836,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="5:7" ht="15.75" thickBot="1">
+    <row r="29" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E29">
         <v>28</v>
       </c>
@@ -7887,7 +7847,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="5:7" ht="15.75" thickBot="1">
+    <row r="30" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E30">
         <v>29</v>
       </c>
@@ -7898,7 +7858,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="5:7" ht="15.75" thickBot="1">
+    <row r="31" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E31">
         <v>30</v>
       </c>
@@ -7909,7 +7869,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="5:7" ht="15.75" thickBot="1">
+    <row r="32" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E32">
         <v>31</v>
       </c>
@@ -7920,7 +7880,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="5:7" ht="15.75" thickBot="1">
+    <row r="33" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E33">
         <v>32</v>
       </c>
@@ -7931,7 +7891,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="5:7" ht="15.75" thickBot="1">
+    <row r="34" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E34">
         <v>33</v>
       </c>
@@ -7942,7 +7902,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="35" spans="5:7" ht="15.75" thickBot="1">
+    <row r="35" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E35">
         <v>34</v>
       </c>
@@ -7953,7 +7913,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="5:7" ht="15.75" thickBot="1">
+    <row r="36" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E36">
         <v>35</v>
       </c>
@@ -7964,7 +7924,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="5:7" ht="15.75" thickBot="1">
+    <row r="37" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E37">
         <v>36</v>
       </c>
@@ -7975,7 +7935,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="5:7" ht="15.75" thickBot="1">
+    <row r="38" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E38">
         <v>37</v>
       </c>
@@ -7986,7 +7946,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="5:7" ht="15.75" thickBot="1">
+    <row r="39" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E39">
         <v>38</v>
       </c>
@@ -7997,7 +7957,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="5:7" ht="15.75" thickBot="1">
+    <row r="40" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E40">
         <v>39</v>
       </c>
@@ -8008,7 +7968,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="41" spans="5:7" ht="15.75" thickBot="1">
+    <row r="41" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E41">
         <v>40</v>
       </c>
@@ -8019,7 +7979,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="5:7" ht="15.75" thickBot="1">
+    <row r="42" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E42">
         <v>41</v>
       </c>
@@ -8030,7 +7990,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="5:7" ht="15.75" thickBot="1">
+    <row r="43" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E43">
         <v>42</v>
       </c>
@@ -8041,7 +8001,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="44" spans="5:7" ht="15.75" thickBot="1">
+    <row r="44" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E44">
         <v>43</v>
       </c>
@@ -8052,7 +8012,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="5:7" ht="15.75" thickBot="1">
+    <row r="45" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E45">
         <v>44</v>
       </c>
@@ -8063,7 +8023,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="5:7" ht="15.75" thickBot="1">
+    <row r="46" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E46">
         <v>45</v>
       </c>
@@ -8074,7 +8034,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="5:7" ht="15.75" thickBot="1">
+    <row r="47" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47">
         <v>46</v>
       </c>
@@ -8085,7 +8045,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="48" spans="5:7" ht="15.75" thickBot="1">
+    <row r="48" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E48">
         <v>47</v>
       </c>
@@ -8096,7 +8056,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="49" spans="5:7" ht="15.75" thickBot="1">
+    <row r="49" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E49">
         <v>48</v>
       </c>
@@ -8107,7 +8067,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="5:7" ht="15.75" thickBot="1">
+    <row r="50" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E50">
         <v>49</v>
       </c>
@@ -8118,7 +8078,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="5:7" ht="15.75" thickBot="1">
+    <row r="51" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E51">
         <v>50</v>
       </c>
@@ -8129,7 +8089,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="52" spans="5:7" ht="15.75" thickBot="1">
+    <row r="52" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E52">
         <v>51</v>
       </c>
@@ -8140,7 +8100,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="53" spans="5:7" ht="15.75" thickBot="1">
+    <row r="53" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E53">
         <v>52</v>
       </c>
@@ -8151,7 +8111,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="54" spans="5:7" ht="15.75" thickBot="1">
+    <row r="54" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E54">
         <v>53</v>
       </c>
@@ -8162,7 +8122,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="55" spans="5:7" ht="15.75" thickBot="1">
+    <row r="55" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E55">
         <v>54</v>
       </c>
@@ -8173,7 +8133,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="5:7" ht="15.75" thickBot="1">
+    <row r="56" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E56">
         <v>55</v>
       </c>
@@ -8184,7 +8144,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="57" spans="5:7" ht="15.75" thickBot="1">
+    <row r="57" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E57">
         <v>56</v>
       </c>
@@ -8195,7 +8155,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="5:7" ht="15.75" thickBot="1">
+    <row r="58" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E58">
         <v>57</v>
       </c>
@@ -8206,7 +8166,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="59" spans="5:7" ht="15.75" thickBot="1">
+    <row r="59" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E59">
         <v>58</v>
       </c>
@@ -8217,7 +8177,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="60" spans="5:7" ht="15.75" thickBot="1">
+    <row r="60" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E60">
         <v>59</v>
       </c>
@@ -8228,7 +8188,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="61" spans="5:7" ht="15.75" thickBot="1">
+    <row r="61" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E61">
         <v>60</v>
       </c>
@@ -8239,7 +8199,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="62" spans="5:7" ht="15.75" thickBot="1">
+    <row r="62" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E62">
         <v>61</v>
       </c>
@@ -8250,7 +8210,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="5:7" ht="15.75" thickBot="1">
+    <row r="63" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E63">
         <v>62</v>
       </c>
@@ -8261,7 +8221,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="64" spans="5:7" ht="15.75" thickBot="1">
+    <row r="64" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E64">
         <v>63</v>
       </c>
@@ -8272,7 +8232,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="5:7" ht="15.75" thickBot="1">
+    <row r="65" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E65">
         <v>64</v>
       </c>
@@ -8283,7 +8243,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="66" spans="5:7" ht="15.75" thickBot="1">
+    <row r="66" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E66">
         <v>65</v>
       </c>
@@ -8294,7 +8254,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="67" spans="5:7" ht="15.75" thickBot="1">
+    <row r="67" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E67">
         <v>66</v>
       </c>
@@ -8305,7 +8265,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="5:7" ht="15.75" thickBot="1">
+    <row r="68" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E68">
         <v>67</v>
       </c>
@@ -8316,7 +8276,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="69" spans="5:7" ht="15.75" thickBot="1">
+    <row r="69" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E69">
         <v>68</v>
       </c>
@@ -8327,7 +8287,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="70" spans="5:7" ht="15.75" thickBot="1">
+    <row r="70" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E70">
         <v>69</v>
       </c>
@@ -8338,7 +8298,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="5:7" ht="15.75" thickBot="1">
+    <row r="71" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E71">
         <v>70</v>
       </c>
@@ -8349,7 +8309,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="72" spans="5:7" ht="15.75" thickBot="1">
+    <row r="72" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E72">
         <v>71</v>
       </c>
@@ -8360,7 +8320,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="73" spans="5:7" ht="15.75" thickBot="1">
+    <row r="73" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E73">
         <v>72</v>
       </c>
@@ -8371,7 +8331,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="5:7" ht="15.75" thickBot="1">
+    <row r="74" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E74">
         <v>73</v>
       </c>
@@ -8382,7 +8342,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="5:7" ht="15.75" thickBot="1">
+    <row r="75" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E75">
         <v>74</v>
       </c>
@@ -8393,7 +8353,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="5:7" ht="15.75" thickBot="1">
+    <row r="76" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E76">
         <v>75</v>
       </c>
@@ -8404,7 +8364,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="5:7" ht="15.75" thickBot="1">
+    <row r="77" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E77">
         <v>76</v>
       </c>
@@ -8415,7 +8375,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="5:7" ht="15.75" thickBot="1">
+    <row r="78" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E78">
         <v>77</v>
       </c>
@@ -8426,7 +8386,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="79" spans="5:7" ht="15.75" thickBot="1">
+    <row r="79" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E79">
         <v>78</v>
       </c>
@@ -8437,7 +8397,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="5:7" ht="15.75" thickBot="1">
+    <row r="80" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E80">
         <v>79</v>
       </c>
@@ -8448,7 +8408,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="5:7" ht="15.75" thickBot="1">
+    <row r="81" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E81">
         <v>80</v>
       </c>
@@ -8459,7 +8419,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="82" spans="5:7" ht="15.75" thickBot="1">
+    <row r="82" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E82">
         <v>81</v>
       </c>
@@ -8470,7 +8430,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="5:7" ht="15.75" thickBot="1">
+    <row r="83" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E83">
         <v>82</v>
       </c>
@@ -8481,7 +8441,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="84" spans="5:7" ht="15.75" thickBot="1">
+    <row r="84" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E84">
         <v>83</v>
       </c>
@@ -8492,7 +8452,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="85" spans="5:7" ht="15.75" thickBot="1">
+    <row r="85" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E85">
         <v>84</v>
       </c>
@@ -8503,201 +8463,201 @@
         <v>199</v>
       </c>
     </row>
-    <row r="86" spans="5:7" ht="15.75" thickBot="1">
+    <row r="86" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://www.forbes.com/companies/ibm/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G2" r:id="rId2" display="http://www.ibm.com/"/>
-    <hyperlink ref="F3" r:id="rId3" display="https://www.forbes.com/companies/dxc-technology/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G3" r:id="rId4" display="http://www.dxc.technology/"/>
-    <hyperlink ref="F4" r:id="rId5" display="https://www.forbes.com/companies/deloitte-touche-tohmatsu/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G4" r:id="rId6" display="http://www.deloitte.com/"/>
-    <hyperlink ref="F5" r:id="rId7" display="https://www.forbes.com/companies/cisco-systems/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G5" r:id="rId8" display="http://www.cisco.com/"/>
-    <hyperlink ref="F6" r:id="rId9" display="https://www.forbes.com/companies/accenture/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G6" r:id="rId10" display="http://www.accenture.com/"/>
-    <hyperlink ref="F7" r:id="rId11" display="https://www.forbes.com/companies/sap/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G7" r:id="rId12" display="http://www.sap.com/"/>
-    <hyperlink ref="F8" r:id="rId13" display="https://www.forbes.com/companies/pricewaterhousecoopers/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G8" r:id="rId14" display="http://www.pwc.com/"/>
-    <hyperlink ref="F9" r:id="rId15" display="https://www.forbes.com/companies/oracle/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G9" r:id="rId16" display="http://www.oracle.com/"/>
-    <hyperlink ref="F10" r:id="rId17" display="https://www.forbes.com/companies/mckinsey-company/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G10" r:id="rId18" display="http://www.mckinsey.com/"/>
-    <hyperlink ref="F11" r:id="rId19" display="https://www.forbes.com/companies/kpmg/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G11" r:id="rId20" display="http://www.kpmg.com/"/>
-    <hyperlink ref="F12" r:id="rId21" display="https://www.forbes.com/companies/infosys-consulting/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G12" r:id="rId22" display="http://www.infosys.com/"/>
-    <hyperlink ref="F13" r:id="rId23" display="https://www.forbes.com/companies/information-services-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G13" r:id="rId24" display="http://www.isg-one.com/"/>
-    <hyperlink ref="F14" r:id="rId25" display="https://www.forbes.com/companies/gartner/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G14" r:id="rId26" display="http://www.gartner.com/"/>
-    <hyperlink ref="F15" r:id="rId27" display="https://www.forbes.com/companies/ernst-young/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G15" r:id="rId28" display="http://www.ey.com/"/>
-    <hyperlink ref="F16" r:id="rId29" display="https://www.forbes.com/companies/boston-consulting-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G16" r:id="rId30" display="http://www.bcg.com/"/>
-    <hyperlink ref="F17" r:id="rId31" display="https://www.forbes.com/companies/booz-allen-hamilton/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G17" r:id="rId32" display="http://www.boozallen.com/"/>
-    <hyperlink ref="F18" r:id="rId33" display="https://www.forbes.com/companies/west-monroe-partners/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G18" r:id="rId34" display="http://www.westmonroepartners.com/"/>
-    <hyperlink ref="F19" r:id="rId35" display="https://www.forbes.com/companies/the-chartis-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G19" r:id="rId36" display="http://www.chartis.com/"/>
-    <hyperlink ref="F20" r:id="rId37" display="https://www.forbes.com/companies/tata-consultancy-services/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G20" r:id="rId38" display="http://www.tcs.com/"/>
-    <hyperlink ref="F21" r:id="rId39" display="https://www.forbes.com/companies/strategy/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G21" r:id="rId40" display="http://www.strategyand.pwc.com/"/>
-    <hyperlink ref="F22" r:id="rId41" display="https://www.forbes.com/companies/ssa-company/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G22" r:id="rId42" display="http://www.ssaandco.com/"/>
-    <hyperlink ref="F23" r:id="rId43" display="https://www.forbes.com/companies/slalom-consulting/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G23" r:id="rId44" display="http://www.slalom.com/"/>
-    <hyperlink ref="F24" r:id="rId45" display="https://www.forbes.com/companies/sapient/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G24" r:id="rId46" display="http://www.sapientconsulting.com/"/>
-    <hyperlink ref="F25" r:id="rId47" display="https://www.forbes.com/companies/roland-berger-strategy-consultants/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G25" r:id="rId48" display="http://www.rolandberger.com/"/>
-    <hyperlink ref="F26" r:id="rId49" display="https://www.forbes.com/companies/resources-global-professionals/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G26" r:id="rId50" display="http://www.rgp.com/"/>
-    <hyperlink ref="F27" r:id="rId51" display="https://www.forbes.com/companies/protiviti/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G27" r:id="rId52" display="http://www.protiviti.com/"/>
-    <hyperlink ref="F28" r:id="rId53" display="https://www.forbes.com/companies/point-b/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G28" r:id="rId54" display="http://www.pointb.com/"/>
-    <hyperlink ref="F29" r:id="rId55" display="https://www.forbes.com/companies/oliver-wyman/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G29" r:id="rId56" display="http://www.oliverwyman.com/"/>
-    <hyperlink ref="F30" r:id="rId57" display="https://www.forbes.com/companies/oasys-international/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G30" r:id="rId58" display="http://www.oasysic.com/"/>
-    <hyperlink ref="F31" r:id="rId59" display="https://www.forbes.com/companies/novantas/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G31" r:id="rId60" display="http://www.novantas.com/"/>
-    <hyperlink ref="F32" r:id="rId61" display="https://www.forbes.com/companies/north-highland/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G32" r:id="rId62" display="http://www.northhighland.com/"/>
-    <hyperlink ref="F33" r:id="rId63" display="https://www.forbes.com/companies/medmatica-consulting-associates/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G33" r:id="rId64" display="http://www.medmatica.com/"/>
-    <hyperlink ref="F34" r:id="rId65" display="https://www.forbes.com/companies/lockheed-martin/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G34" r:id="rId66" display="http://www.lockheedmartin.com/"/>
-    <hyperlink ref="F35" r:id="rId67" display="https://www.forbes.com/companies/leappoint/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G35" r:id="rId68" display="http://leappoint.com/"/>
-    <hyperlink ref="F36" r:id="rId69" display="https://www.forbes.com/companies/kurt-salmon/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G36" r:id="rId70" display="http://www.kurtsalmon.com/"/>
-    <hyperlink ref="F37" r:id="rId71" display="https://www.forbes.com/companies/jabian-consulting/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G37" r:id="rId72" display="http://www.jabian.com/"/>
-    <hyperlink ref="F38" r:id="rId73" display="https://www.forbes.com/companies/impact-advisors/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G38" r:id="rId74" display="http://www.impact-advisors.com/"/>
-    <hyperlink ref="F39" r:id="rId75" display="https://www.forbes.com/companies/ignyte-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G39" r:id="rId76" display="http://ignytegroup.com/"/>
-    <hyperlink ref="F40" r:id="rId77" display="https://www.forbes.com/companies/huron-consulting-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G40" r:id="rId78" display="http://www.huronconsultinggroup.com/"/>
-    <hyperlink ref="F41" r:id="rId79" display="https://www.forbes.com/companies/grant-thornton/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G41" r:id="rId80" display="http://www.grantthornton.com/"/>
-    <hyperlink ref="F42" r:id="rId81" display="https://www.forbes.com/companies/fti-consulting/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G42" r:id="rId82" display="http://www.fticonsulting.com/"/>
-    <hyperlink ref="F43" r:id="rId83" display="https://www.forbes.com/companies/forsythe-solutions-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G43" r:id="rId84" display="http://www.forsythe.com/"/>
-    <hyperlink ref="F44" r:id="rId85" display="https://www.forbes.com/companies/everest-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G44" r:id="rId86" display="http://www.everestgrp.com/"/>
-    <hyperlink ref="F45" r:id="rId87" display="https://www.forbes.com/companies/cumberland-consulting-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G45" r:id="rId88" display="http://www.cumberlandcg.com/"/>
-    <hyperlink ref="F46" r:id="rId89" display="https://www.forbes.com/companies/cognizant/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G46" r:id="rId90" display="http://www.cognizant.com/"/>
-    <hyperlink ref="F47" r:id="rId91" display="https://www.forbes.com/companies/clarkston-consulting/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G47" r:id="rId92" display="http://www.clarkstonconsulting.com/"/>
-    <hyperlink ref="F48" r:id="rId93" display="https://www.forbes.com/companies/cgn-global/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G48" r:id="rId94" display="http://www.cgnglobal.com/"/>
-    <hyperlink ref="F49" r:id="rId95" display="https://www.forbes.com/companies/censeo-consulting-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G49" r:id="rId96" display="http://www.censeoconsulting.com/"/>
-    <hyperlink ref="F50" r:id="rId97" display="https://www.forbes.com/companies/captech/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G50" r:id="rId98" display="http://www.captechconsulting.com/"/>
-    <hyperlink ref="F51" r:id="rId99" display="https://www.forbes.com/companies/capgemini-consulting/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G51" r:id="rId100" display="http://www.capgemini.com/"/>
-    <hyperlink ref="F52" r:id="rId101" display="https://www.forbes.com/companies/brattle-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G52" r:id="rId102" display="http://www.brattle.com/"/>
-    <hyperlink ref="F53" r:id="rId103" display="https://www.forbes.com/companies/bdo-usa/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G53" r:id="rId104" display="http://www.bdo.com/"/>
-    <hyperlink ref="F54" r:id="rId105" display="https://www.forbes.com/companies/bain-and-company/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G54" r:id="rId106" display="http://www.bain.com/"/>
-    <hyperlink ref="F55" r:id="rId107" display="https://www.forbes.com/companies/bae-systems/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G55" r:id="rId108" display="http://www.baesystems.com/"/>
-    <hyperlink ref="F56" r:id="rId109" display="https://www.forbes.com/companies/avasant/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G56" r:id="rId110" display="http://www.avasant.com/"/>
-    <hyperlink ref="F57" r:id="rId111" display="https://www.forbes.com/companies/at-kearney/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G57" r:id="rId112" display="http://www.atkearney.com/"/>
-    <hyperlink ref="F58" r:id="rId113" display="https://www.forbes.com/companies/arthur-d-little/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G58" r:id="rId114" display="http://www.adlittle.com/"/>
-    <hyperlink ref="F59" r:id="rId115" display="https://www.forbes.com/companies/archpoint/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G59" r:id="rId116" display="http://www.archpointconsulting.com/"/>
-    <hyperlink ref="F60" r:id="rId117" display="https://www.forbes.com/companies/appirio/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G60" r:id="rId118" display="http://www.appirio.com/"/>
-    <hyperlink ref="F61" r:id="rId119" display="https://www.forbes.com/companies/alixpartners/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G61" r:id="rId120" display="http://www.alixpartners.com/"/>
-    <hyperlink ref="F62" r:id="rId121" display="https://www.forbes.com/companies/microsoft/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G62" r:id="rId122" display="http://www.microsoft.com/"/>
-    <hyperlink ref="F63" r:id="rId123" display="https://www.forbes.com/companies/wipro/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G63" r:id="rId124" display="http://www.wipro.com/"/>
-    <hyperlink ref="F64" r:id="rId125" display="https://www.forbes.com/companies/virtusa/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G64" r:id="rId126" display="http://www.virtusa.com/"/>
-    <hyperlink ref="F65" r:id="rId127" display="https://www.forbes.com/companies/ntt-data-services/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G65" r:id="rId128" display="http://us.nttdata.com/"/>
-    <hyperlink ref="F66" r:id="rId129" display="https://www.forbes.com/companies/mckinnis-consulting-services/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G66" r:id="rId130" display="http://www.mckinnisconsulting.com/"/>
-    <hyperlink ref="F67" r:id="rId131" display="https://www.forbes.com/companies/hitachi-consulting/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G67" r:id="rId132" display="http://www.hitachiconsulting.com/"/>
-    <hyperlink ref="F68" r:id="rId133" display="https://www.forbes.com/companies/hcl-technologies/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G68" r:id="rId134" display="http://www.hcltech.com/"/>
-    <hyperlink ref="F69" r:id="rId135" display="https://www.forbes.com/companies/fujitsu-america/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G69" r:id="rId136" display="http://www.fujitsu.com/"/>
-    <hyperlink ref="F70" r:id="rId137" display="https://www.forbes.com/companies/bridge-solutions-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G70" r:id="rId138" display="http://bridgesgi.com/"/>
-    <hyperlink ref="F71" r:id="rId139" display="https://www.forbes.com/companies/blue-horseshoe-solutions/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G71" r:id="rId140" display="http://www.bhsolutions.com/"/>
-    <hyperlink ref="F72" r:id="rId141" display="https://www.forbes.com/companies/application-consulting-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G72" r:id="rId142" display="http://www.acgi.com/"/>
-    <hyperlink ref="F73" r:id="rId143" display="https://www.forbes.com/companies/simon-kucher-partners/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G73" r:id="rId144" display="http://www.simon-kucher.com/"/>
-    <hyperlink ref="F74" r:id="rId145" display="https://www.forbes.com/companies/navigant-consulting/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G74" r:id="rId146" display="http://www.navigant.com/"/>
-    <hyperlink ref="F75" r:id="rId147" display="https://www.forbes.com/companies/keystone-strategy/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G75" r:id="rId148" display="http://www.keystonestrategy.com/"/>
-    <hyperlink ref="F76" r:id="rId149" display="https://www.forbes.com/companies/kaiser-associates/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G76" r:id="rId150" display="http://www.kaiserassociates.com/"/>
-    <hyperlink ref="F77" r:id="rId151" display="https://www.forbes.com/companies/insight-sourcing-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G77" r:id="rId152" display="http://www.insightsourcing.com/"/>
-    <hyperlink ref="F78" r:id="rId153" display="https://www.forbes.com/companies/innosight/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G78" r:id="rId154" display="http://www.innosight.com/"/>
-    <hyperlink ref="F79" r:id="rId155" display="https://www.forbes.com/companies/ibb-consulting-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G79" r:id="rId156" display="http://www.ibbconsulting.com/"/>
-    <hyperlink ref="F80" r:id="rId157" display="https://www.forbes.com/companies/hay-group/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G80" r:id="rId158" display="http://www.haygroup.com/"/>
-    <hyperlink ref="F81" r:id="rId159" display="https://www.forbes.com/companies/cornerstone-research/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G81" r:id="rId160" display="http://www.cornerstone.com/"/>
-    <hyperlink ref="F82" r:id="rId161" display="https://www.forbes.com/companies/charles-river-associates/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G82" r:id="rId162" display="http://www.crai.com/"/>
-    <hyperlink ref="F83" r:id="rId163" display="https://www.forbes.com/companies/centric-consulting/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G83" r:id="rId164" display="http://www.centricconsulting.com/"/>
-    <hyperlink ref="F84" r:id="rId165" display="https://www.forbes.com/companies/bates-white/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G84" r:id="rId166" display="http://www.bateswhite.com/"/>
-    <hyperlink ref="F85" r:id="rId167" display="https://www.forbes.com/companies/avanade/?list=best-management-consulting-firms"/>
-    <hyperlink ref="G85" r:id="rId168" display="http://www.avanade.com/"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://www.forbes.com/companies/ibm/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId2" display="http://www.ibm.com/" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="F3" r:id="rId3" display="https://www.forbes.com/companies/dxc-technology/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="G3" r:id="rId4" display="http://www.dxc.technology/" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="F4" r:id="rId5" display="https://www.forbes.com/companies/deloitte-touche-tohmatsu/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="G4" r:id="rId6" display="http://www.deloitte.com/" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="F5" r:id="rId7" display="https://www.forbes.com/companies/cisco-systems/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="G5" r:id="rId8" display="http://www.cisco.com/" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="F6" r:id="rId9" display="https://www.forbes.com/companies/accenture/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="G6" r:id="rId10" display="http://www.accenture.com/" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="F7" r:id="rId11" display="https://www.forbes.com/companies/sap/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="G7" r:id="rId12" display="http://www.sap.com/" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="F8" r:id="rId13" display="https://www.forbes.com/companies/pricewaterhousecoopers/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="G8" r:id="rId14" display="http://www.pwc.com/" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="F9" r:id="rId15" display="https://www.forbes.com/companies/oracle/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="G9" r:id="rId16" display="http://www.oracle.com/" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="F10" r:id="rId17" display="https://www.forbes.com/companies/mckinsey-company/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="G10" r:id="rId18" display="http://www.mckinsey.com/" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="F11" r:id="rId19" display="https://www.forbes.com/companies/kpmg/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="G11" r:id="rId20" display="http://www.kpmg.com/" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="F12" r:id="rId21" display="https://www.forbes.com/companies/infosys-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="G12" r:id="rId22" display="http://www.infosys.com/" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="F13" r:id="rId23" display="https://www.forbes.com/companies/information-services-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="G13" r:id="rId24" display="http://www.isg-one.com/" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="F14" r:id="rId25" display="https://www.forbes.com/companies/gartner/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="G14" r:id="rId26" display="http://www.gartner.com/" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="F15" r:id="rId27" display="https://www.forbes.com/companies/ernst-young/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="G15" r:id="rId28" display="http://www.ey.com/" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="F16" r:id="rId29" display="https://www.forbes.com/companies/boston-consulting-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="G16" r:id="rId30" display="http://www.bcg.com/" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="F17" r:id="rId31" display="https://www.forbes.com/companies/booz-allen-hamilton/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="G17" r:id="rId32" display="http://www.boozallen.com/" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="F18" r:id="rId33" display="https://www.forbes.com/companies/west-monroe-partners/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="G18" r:id="rId34" display="http://www.westmonroepartners.com/" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="F19" r:id="rId35" display="https://www.forbes.com/companies/the-chartis-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="G19" r:id="rId36" display="http://www.chartis.com/" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="F20" r:id="rId37" display="https://www.forbes.com/companies/tata-consultancy-services/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="G20" r:id="rId38" display="http://www.tcs.com/" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="F21" r:id="rId39" display="https://www.forbes.com/companies/strategy/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="G21" r:id="rId40" display="http://www.strategyand.pwc.com/" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="F22" r:id="rId41" display="https://www.forbes.com/companies/ssa-company/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="G22" r:id="rId42" display="http://www.ssaandco.com/" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="F23" r:id="rId43" display="https://www.forbes.com/companies/slalom-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="G23" r:id="rId44" display="http://www.slalom.com/" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="F24" r:id="rId45" display="https://www.forbes.com/companies/sapient/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="G24" r:id="rId46" display="http://www.sapientconsulting.com/" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="F25" r:id="rId47" display="https://www.forbes.com/companies/roland-berger-strategy-consultants/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="G25" r:id="rId48" display="http://www.rolandberger.com/" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="F26" r:id="rId49" display="https://www.forbes.com/companies/resources-global-professionals/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="G26" r:id="rId50" display="http://www.rgp.com/" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="F27" r:id="rId51" display="https://www.forbes.com/companies/protiviti/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="G27" r:id="rId52" display="http://www.protiviti.com/" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="F28" r:id="rId53" display="https://www.forbes.com/companies/point-b/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="G28" r:id="rId54" display="http://www.pointb.com/" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="F29" r:id="rId55" display="https://www.forbes.com/companies/oliver-wyman/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="G29" r:id="rId56" display="http://www.oliverwyman.com/" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
+    <hyperlink ref="F30" r:id="rId57" display="https://www.forbes.com/companies/oasys-international/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
+    <hyperlink ref="G30" r:id="rId58" display="http://www.oasysic.com/" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="F31" r:id="rId59" display="https://www.forbes.com/companies/novantas/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="G31" r:id="rId60" display="http://www.novantas.com/" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="F32" r:id="rId61" display="https://www.forbes.com/companies/north-highland/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
+    <hyperlink ref="G32" r:id="rId62" display="http://www.northhighland.com/" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
+    <hyperlink ref="F33" r:id="rId63" display="https://www.forbes.com/companies/medmatica-consulting-associates/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
+    <hyperlink ref="G33" r:id="rId64" display="http://www.medmatica.com/" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
+    <hyperlink ref="F34" r:id="rId65" display="https://www.forbes.com/companies/lockheed-martin/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
+    <hyperlink ref="G34" r:id="rId66" display="http://www.lockheedmartin.com/" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
+    <hyperlink ref="F35" r:id="rId67" display="https://www.forbes.com/companies/leappoint/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
+    <hyperlink ref="G35" r:id="rId68" display="http://leappoint.com/" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
+    <hyperlink ref="F36" r:id="rId69" display="https://www.forbes.com/companies/kurt-salmon/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
+    <hyperlink ref="G36" r:id="rId70" display="http://www.kurtsalmon.com/" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
+    <hyperlink ref="F37" r:id="rId71" display="https://www.forbes.com/companies/jabian-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
+    <hyperlink ref="G37" r:id="rId72" display="http://www.jabian.com/" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
+    <hyperlink ref="F38" r:id="rId73" display="https://www.forbes.com/companies/impact-advisors/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
+    <hyperlink ref="G38" r:id="rId74" display="http://www.impact-advisors.com/" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
+    <hyperlink ref="F39" r:id="rId75" display="https://www.forbes.com/companies/ignyte-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
+    <hyperlink ref="G39" r:id="rId76" display="http://ignytegroup.com/" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
+    <hyperlink ref="F40" r:id="rId77" display="https://www.forbes.com/companies/huron-consulting-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
+    <hyperlink ref="G40" r:id="rId78" display="http://www.huronconsultinggroup.com/" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
+    <hyperlink ref="F41" r:id="rId79" display="https://www.forbes.com/companies/grant-thornton/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
+    <hyperlink ref="G41" r:id="rId80" display="http://www.grantthornton.com/" xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
+    <hyperlink ref="F42" r:id="rId81" display="https://www.forbes.com/companies/fti-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000050000000}"/>
+    <hyperlink ref="G42" r:id="rId82" display="http://www.fticonsulting.com/" xr:uid="{00000000-0004-0000-0200-000051000000}"/>
+    <hyperlink ref="F43" r:id="rId83" display="https://www.forbes.com/companies/forsythe-solutions-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000052000000}"/>
+    <hyperlink ref="G43" r:id="rId84" display="http://www.forsythe.com/" xr:uid="{00000000-0004-0000-0200-000053000000}"/>
+    <hyperlink ref="F44" r:id="rId85" display="https://www.forbes.com/companies/everest-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000054000000}"/>
+    <hyperlink ref="G44" r:id="rId86" display="http://www.everestgrp.com/" xr:uid="{00000000-0004-0000-0200-000055000000}"/>
+    <hyperlink ref="F45" r:id="rId87" display="https://www.forbes.com/companies/cumberland-consulting-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000056000000}"/>
+    <hyperlink ref="G45" r:id="rId88" display="http://www.cumberlandcg.com/" xr:uid="{00000000-0004-0000-0200-000057000000}"/>
+    <hyperlink ref="F46" r:id="rId89" display="https://www.forbes.com/companies/cognizant/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000058000000}"/>
+    <hyperlink ref="G46" r:id="rId90" display="http://www.cognizant.com/" xr:uid="{00000000-0004-0000-0200-000059000000}"/>
+    <hyperlink ref="F47" r:id="rId91" display="https://www.forbes.com/companies/clarkston-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00005A000000}"/>
+    <hyperlink ref="G47" r:id="rId92" display="http://www.clarkstonconsulting.com/" xr:uid="{00000000-0004-0000-0200-00005B000000}"/>
+    <hyperlink ref="F48" r:id="rId93" display="https://www.forbes.com/companies/cgn-global/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00005C000000}"/>
+    <hyperlink ref="G48" r:id="rId94" display="http://www.cgnglobal.com/" xr:uid="{00000000-0004-0000-0200-00005D000000}"/>
+    <hyperlink ref="F49" r:id="rId95" display="https://www.forbes.com/companies/censeo-consulting-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00005E000000}"/>
+    <hyperlink ref="G49" r:id="rId96" display="http://www.censeoconsulting.com/" xr:uid="{00000000-0004-0000-0200-00005F000000}"/>
+    <hyperlink ref="F50" r:id="rId97" display="https://www.forbes.com/companies/captech/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000060000000}"/>
+    <hyperlink ref="G50" r:id="rId98" display="http://www.captechconsulting.com/" xr:uid="{00000000-0004-0000-0200-000061000000}"/>
+    <hyperlink ref="F51" r:id="rId99" display="https://www.forbes.com/companies/capgemini-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000062000000}"/>
+    <hyperlink ref="G51" r:id="rId100" display="http://www.capgemini.com/" xr:uid="{00000000-0004-0000-0200-000063000000}"/>
+    <hyperlink ref="F52" r:id="rId101" display="https://www.forbes.com/companies/brattle-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000064000000}"/>
+    <hyperlink ref="G52" r:id="rId102" display="http://www.brattle.com/" xr:uid="{00000000-0004-0000-0200-000065000000}"/>
+    <hyperlink ref="F53" r:id="rId103" display="https://www.forbes.com/companies/bdo-usa/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000066000000}"/>
+    <hyperlink ref="G53" r:id="rId104" display="http://www.bdo.com/" xr:uid="{00000000-0004-0000-0200-000067000000}"/>
+    <hyperlink ref="F54" r:id="rId105" display="https://www.forbes.com/companies/bain-and-company/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000068000000}"/>
+    <hyperlink ref="G54" r:id="rId106" display="http://www.bain.com/" xr:uid="{00000000-0004-0000-0200-000069000000}"/>
+    <hyperlink ref="F55" r:id="rId107" display="https://www.forbes.com/companies/bae-systems/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00006A000000}"/>
+    <hyperlink ref="G55" r:id="rId108" display="http://www.baesystems.com/" xr:uid="{00000000-0004-0000-0200-00006B000000}"/>
+    <hyperlink ref="F56" r:id="rId109" display="https://www.forbes.com/companies/avasant/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00006C000000}"/>
+    <hyperlink ref="G56" r:id="rId110" display="http://www.avasant.com/" xr:uid="{00000000-0004-0000-0200-00006D000000}"/>
+    <hyperlink ref="F57" r:id="rId111" display="https://www.forbes.com/companies/at-kearney/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00006E000000}"/>
+    <hyperlink ref="G57" r:id="rId112" display="http://www.atkearney.com/" xr:uid="{00000000-0004-0000-0200-00006F000000}"/>
+    <hyperlink ref="F58" r:id="rId113" display="https://www.forbes.com/companies/arthur-d-little/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000070000000}"/>
+    <hyperlink ref="G58" r:id="rId114" display="http://www.adlittle.com/" xr:uid="{00000000-0004-0000-0200-000071000000}"/>
+    <hyperlink ref="F59" r:id="rId115" display="https://www.forbes.com/companies/archpoint/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000072000000}"/>
+    <hyperlink ref="G59" r:id="rId116" display="http://www.archpointconsulting.com/" xr:uid="{00000000-0004-0000-0200-000073000000}"/>
+    <hyperlink ref="F60" r:id="rId117" display="https://www.forbes.com/companies/appirio/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000074000000}"/>
+    <hyperlink ref="G60" r:id="rId118" display="http://www.appirio.com/" xr:uid="{00000000-0004-0000-0200-000075000000}"/>
+    <hyperlink ref="F61" r:id="rId119" display="https://www.forbes.com/companies/alixpartners/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000076000000}"/>
+    <hyperlink ref="G61" r:id="rId120" display="http://www.alixpartners.com/" xr:uid="{00000000-0004-0000-0200-000077000000}"/>
+    <hyperlink ref="F62" r:id="rId121" display="https://www.forbes.com/companies/microsoft/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000078000000}"/>
+    <hyperlink ref="G62" r:id="rId122" display="http://www.microsoft.com/" xr:uid="{00000000-0004-0000-0200-000079000000}"/>
+    <hyperlink ref="F63" r:id="rId123" display="https://www.forbes.com/companies/wipro/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00007A000000}"/>
+    <hyperlink ref="G63" r:id="rId124" display="http://www.wipro.com/" xr:uid="{00000000-0004-0000-0200-00007B000000}"/>
+    <hyperlink ref="F64" r:id="rId125" display="https://www.forbes.com/companies/virtusa/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00007C000000}"/>
+    <hyperlink ref="G64" r:id="rId126" display="http://www.virtusa.com/" xr:uid="{00000000-0004-0000-0200-00007D000000}"/>
+    <hyperlink ref="F65" r:id="rId127" display="https://www.forbes.com/companies/ntt-data-services/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00007E000000}"/>
+    <hyperlink ref="G65" r:id="rId128" display="http://us.nttdata.com/" xr:uid="{00000000-0004-0000-0200-00007F000000}"/>
+    <hyperlink ref="F66" r:id="rId129" display="https://www.forbes.com/companies/mckinnis-consulting-services/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000080000000}"/>
+    <hyperlink ref="G66" r:id="rId130" display="http://www.mckinnisconsulting.com/" xr:uid="{00000000-0004-0000-0200-000081000000}"/>
+    <hyperlink ref="F67" r:id="rId131" display="https://www.forbes.com/companies/hitachi-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000082000000}"/>
+    <hyperlink ref="G67" r:id="rId132" display="http://www.hitachiconsulting.com/" xr:uid="{00000000-0004-0000-0200-000083000000}"/>
+    <hyperlink ref="F68" r:id="rId133" display="https://www.forbes.com/companies/hcl-technologies/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000084000000}"/>
+    <hyperlink ref="G68" r:id="rId134" display="http://www.hcltech.com/" xr:uid="{00000000-0004-0000-0200-000085000000}"/>
+    <hyperlink ref="F69" r:id="rId135" display="https://www.forbes.com/companies/fujitsu-america/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000086000000}"/>
+    <hyperlink ref="G69" r:id="rId136" display="http://www.fujitsu.com/" xr:uid="{00000000-0004-0000-0200-000087000000}"/>
+    <hyperlink ref="F70" r:id="rId137" display="https://www.forbes.com/companies/bridge-solutions-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000088000000}"/>
+    <hyperlink ref="G70" r:id="rId138" display="http://bridgesgi.com/" xr:uid="{00000000-0004-0000-0200-000089000000}"/>
+    <hyperlink ref="F71" r:id="rId139" display="https://www.forbes.com/companies/blue-horseshoe-solutions/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00008A000000}"/>
+    <hyperlink ref="G71" r:id="rId140" display="http://www.bhsolutions.com/" xr:uid="{00000000-0004-0000-0200-00008B000000}"/>
+    <hyperlink ref="F72" r:id="rId141" display="https://www.forbes.com/companies/application-consulting-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00008C000000}"/>
+    <hyperlink ref="G72" r:id="rId142" display="http://www.acgi.com/" xr:uid="{00000000-0004-0000-0200-00008D000000}"/>
+    <hyperlink ref="F73" r:id="rId143" display="https://www.forbes.com/companies/simon-kucher-partners/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00008E000000}"/>
+    <hyperlink ref="G73" r:id="rId144" display="http://www.simon-kucher.com/" xr:uid="{00000000-0004-0000-0200-00008F000000}"/>
+    <hyperlink ref="F74" r:id="rId145" display="https://www.forbes.com/companies/navigant-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000090000000}"/>
+    <hyperlink ref="G74" r:id="rId146" display="http://www.navigant.com/" xr:uid="{00000000-0004-0000-0200-000091000000}"/>
+    <hyperlink ref="F75" r:id="rId147" display="https://www.forbes.com/companies/keystone-strategy/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000092000000}"/>
+    <hyperlink ref="G75" r:id="rId148" display="http://www.keystonestrategy.com/" xr:uid="{00000000-0004-0000-0200-000093000000}"/>
+    <hyperlink ref="F76" r:id="rId149" display="https://www.forbes.com/companies/kaiser-associates/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000094000000}"/>
+    <hyperlink ref="G76" r:id="rId150" display="http://www.kaiserassociates.com/" xr:uid="{00000000-0004-0000-0200-000095000000}"/>
+    <hyperlink ref="F77" r:id="rId151" display="https://www.forbes.com/companies/insight-sourcing-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000096000000}"/>
+    <hyperlink ref="G77" r:id="rId152" display="http://www.insightsourcing.com/" xr:uid="{00000000-0004-0000-0200-000097000000}"/>
+    <hyperlink ref="F78" r:id="rId153" display="https://www.forbes.com/companies/innosight/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-000098000000}"/>
+    <hyperlink ref="G78" r:id="rId154" display="http://www.innosight.com/" xr:uid="{00000000-0004-0000-0200-000099000000}"/>
+    <hyperlink ref="F79" r:id="rId155" display="https://www.forbes.com/companies/ibb-consulting-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00009A000000}"/>
+    <hyperlink ref="G79" r:id="rId156" display="http://www.ibbconsulting.com/" xr:uid="{00000000-0004-0000-0200-00009B000000}"/>
+    <hyperlink ref="F80" r:id="rId157" display="https://www.forbes.com/companies/hay-group/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00009C000000}"/>
+    <hyperlink ref="G80" r:id="rId158" display="http://www.haygroup.com/" xr:uid="{00000000-0004-0000-0200-00009D000000}"/>
+    <hyperlink ref="F81" r:id="rId159" display="https://www.forbes.com/companies/cornerstone-research/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-00009E000000}"/>
+    <hyperlink ref="G81" r:id="rId160" display="http://www.cornerstone.com/" xr:uid="{00000000-0004-0000-0200-00009F000000}"/>
+    <hyperlink ref="F82" r:id="rId161" display="https://www.forbes.com/companies/charles-river-associates/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-0000A0000000}"/>
+    <hyperlink ref="G82" r:id="rId162" display="http://www.crai.com/" xr:uid="{00000000-0004-0000-0200-0000A1000000}"/>
+    <hyperlink ref="F83" r:id="rId163" display="https://www.forbes.com/companies/centric-consulting/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-0000A2000000}"/>
+    <hyperlink ref="G83" r:id="rId164" display="http://www.centricconsulting.com/" xr:uid="{00000000-0004-0000-0200-0000A3000000}"/>
+    <hyperlink ref="F84" r:id="rId165" display="https://www.forbes.com/companies/bates-white/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-0000A4000000}"/>
+    <hyperlink ref="G84" r:id="rId166" display="http://www.bateswhite.com/" xr:uid="{00000000-0004-0000-0200-0000A5000000}"/>
+    <hyperlink ref="F85" r:id="rId167" display="https://www.forbes.com/companies/avanade/?list=best-management-consulting-firms" xr:uid="{00000000-0004-0000-0200-0000A6000000}"/>
+    <hyperlink ref="G85" r:id="rId168" display="http://www.avanade.com/" xr:uid="{00000000-0004-0000-0200-0000A7000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D2:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.5703125" customWidth="1"/>
     <col min="6" max="6" width="55.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:6" ht="31.5">
+    <row r="2" spans="4:6" ht="34.5" x14ac:dyDescent="0.25">
       <c r="D2" s="12" t="s">
         <v>87</v>
       </c>
@@ -8708,7 +8668,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="4:6">
+    <row r="3" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D3" s="13">
         <v>1</v>
       </c>
@@ -8719,7 +8679,7 @@
         <v>17310000000</v>
       </c>
     </row>
-    <row r="4" spans="4:6">
+    <row r="4" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D4" s="13">
         <v>2</v>
       </c>
@@ -8730,7 +8690,7 @@
         <v>15460000000</v>
       </c>
     </row>
-    <row r="5" spans="4:6">
+    <row r="5" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D5" s="13">
         <v>3</v>
       </c>
@@ -8741,7 +8701,7 @@
         <v>14930000000</v>
       </c>
     </row>
-    <row r="6" spans="4:6">
+    <row r="6" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="13">
         <v>4</v>
       </c>
@@ -8752,7 +8712,7 @@
         <v>14810000000</v>
       </c>
     </row>
-    <row r="7" spans="4:6">
+    <row r="7" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D7" s="13">
         <v>5</v>
       </c>
@@ -8763,7 +8723,7 @@
         <v>13350000000</v>
       </c>
     </row>
-    <row r="8" spans="4:6">
+    <row r="8" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D8" s="13">
         <v>6</v>
       </c>
@@ -8774,7 +8734,7 @@
         <v>12253000000</v>
       </c>
     </row>
-    <row r="9" spans="4:6">
+    <row r="9" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="13">
         <v>7</v>
       </c>
@@ -8785,7 +8745,7 @@
         <v>12000000000</v>
       </c>
     </row>
-    <row r="10" spans="4:6">
+    <row r="10" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D10" s="13">
         <v>8</v>
       </c>
@@ -8796,7 +8756,7 @@
         <v>11600000000</v>
       </c>
     </row>
-    <row r="11" spans="4:6">
+    <row r="11" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D11" s="13">
         <v>9</v>
       </c>
@@ -8807,7 +8767,7 @@
         <v>10210000000</v>
       </c>
     </row>
-    <row r="12" spans="4:6">
+    <row r="12" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D12" s="13">
         <v>10</v>
       </c>
@@ -8818,7 +8778,7 @@
         <v>10180000000</v>
       </c>
     </row>
-    <row r="13" spans="4:6">
+    <row r="13" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D13" s="13">
         <v>11</v>
       </c>
@@ -8829,7 +8789,7 @@
         <v>8800000000</v>
       </c>
     </row>
-    <row r="14" spans="4:6">
+    <row r="14" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D14" s="13">
         <v>12</v>
       </c>
@@ -8840,7 +8800,7 @@
         <v>8500000000</v>
       </c>
     </row>
-    <row r="15" spans="4:6">
+    <row r="15" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D15" s="13">
         <v>13</v>
       </c>
@@ -8851,7 +8811,7 @@
         <v>7882000000</v>
       </c>
     </row>
-    <row r="16" spans="4:6">
+    <row r="16" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D16" s="13">
         <v>14</v>
       </c>
@@ -8862,7 +8822,7 @@
         <v>6300000000</v>
       </c>
     </row>
-    <row r="17" spans="4:6">
+    <row r="17" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D17" s="13">
         <v>15</v>
       </c>
@@ -8873,7 +8833,7 @@
         <v>6100000000</v>
       </c>
     </row>
-    <row r="18" spans="4:6">
+    <row r="18" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D18" s="13">
         <v>16</v>
       </c>
@@ -8884,7 +8844,7 @@
         <v>4300000000</v>
       </c>
     </row>
-    <row r="19" spans="4:6">
+    <row r="19" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D19" s="13">
         <v>17</v>
       </c>
@@ -8895,7 +8855,7 @@
         <v>4200000000</v>
       </c>
     </row>
-    <row r="20" spans="4:6">
+    <row r="20" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D20" s="13">
         <v>18</v>
       </c>
@@ -8906,7 +8866,7 @@
         <v>3870000000</v>
       </c>
     </row>
-    <row r="21" spans="4:6">
+    <row r="21" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D21" s="13">
         <v>19</v>
       </c>
@@ -8917,7 +8877,7 @@
         <v>3566000000</v>
       </c>
     </row>
-    <row r="22" spans="4:6">
+    <row r="22" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D22" s="13">
         <v>20</v>
       </c>
@@ -8928,7 +8888,7 @@
         <v>3358000000</v>
       </c>
     </row>
-    <row r="23" spans="4:6">
+    <row r="23" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D23" s="13">
         <v>21</v>
       </c>
@@ -8939,7 +8899,7 @@
         <v>3300000000</v>
       </c>
     </row>
-    <row r="24" spans="4:6">
+    <row r="24" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D24" s="13">
         <v>22</v>
       </c>
@@ -8950,7 +8910,7 @@
         <v>2813000000</v>
       </c>
     </row>
-    <row r="25" spans="4:6">
+    <row r="25" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D25" s="13">
         <v>23</v>
       </c>
@@ -8961,7 +8921,7 @@
         <v>2000000000</v>
       </c>
     </row>
-    <row r="26" spans="4:6">
+    <row r="26" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D26" s="13">
         <v>24</v>
       </c>
@@ -8972,7 +8932,7 @@
         <v>1800000000</v>
       </c>
     </row>
-    <row r="27" spans="4:6">
+    <row r="27" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D27" s="13">
         <v>25</v>
       </c>
@@ -8983,7 +8943,7 @@
         <v>1800000000</v>
       </c>
     </row>
-    <row r="28" spans="4:6">
+    <row r="28" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D28" s="13">
         <v>26</v>
       </c>
@@ -8994,7 +8954,7 @@
         <v>1700000000</v>
       </c>
     </row>
-    <row r="29" spans="4:6">
+    <row r="29" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D29" s="13">
         <v>27</v>
       </c>
@@ -9005,7 +8965,7 @@
         <v>1410000000</v>
       </c>
     </row>
-    <row r="30" spans="4:6">
+    <row r="30" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D30" s="13">
         <v>28</v>
       </c>
@@ -9016,7 +8976,7 @@
         <v>1400000000</v>
       </c>
     </row>
-    <row r="31" spans="4:6">
+    <row r="31" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D31" s="13">
         <v>29</v>
       </c>
@@ -9027,7 +8987,7 @@
         <v>1305000000</v>
       </c>
     </row>
-    <row r="32" spans="4:6">
+    <row r="32" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D32" s="13">
         <v>30</v>
       </c>
@@ -9038,7 +8998,7 @@
         <v>1300000000</v>
       </c>
     </row>
-    <row r="33" spans="4:6">
+    <row r="33" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D33" s="13">
         <v>31</v>
       </c>
@@ -9049,7 +9009,7 @@
         <v>1300000000</v>
       </c>
     </row>
-    <row r="34" spans="4:6">
+    <row r="34" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D34" s="13">
         <v>32</v>
       </c>
@@ -9060,7 +9020,7 @@
         <v>1190000000</v>
       </c>
     </row>
-    <row r="35" spans="4:6">
+    <row r="35" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D35" s="13">
         <v>33</v>
       </c>
@@ -9071,7 +9031,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="36" spans="4:6">
+    <row r="36" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D36" s="13">
         <v>34</v>
       </c>
@@ -9082,7 +9042,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="37" spans="4:6">
+    <row r="37" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D37" s="13">
         <v>35</v>
       </c>
@@ -9093,7 +9053,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="38" spans="4:6">
+    <row r="38" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D38" s="13">
         <v>36</v>
       </c>
@@ -9104,7 +9064,7 @@
         <v>816000000</v>
       </c>
     </row>
-    <row r="39" spans="4:6">
+    <row r="39" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D39" s="13">
         <v>37</v>
       </c>
@@ -9115,7 +9075,7 @@
         <v>797700000</v>
       </c>
     </row>
-    <row r="40" spans="4:6">
+    <row r="40" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D40" s="13">
         <v>38</v>
       </c>
@@ -9126,7 +9086,7 @@
         <v>781800000</v>
       </c>
     </row>
-    <row r="41" spans="4:6">
+    <row r="41" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D41" s="13">
         <v>39</v>
       </c>
@@ -9137,7 +9097,7 @@
         <v>767000000</v>
       </c>
     </row>
-    <row r="42" spans="4:6">
+    <row r="42" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D42" s="13">
         <v>40</v>
       </c>
@@ -9148,7 +9108,7 @@
         <v>600000000</v>
       </c>
     </row>
-    <row r="43" spans="4:6">
+    <row r="43" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D43" s="13">
         <v>41</v>
       </c>
@@ -9159,7 +9119,7 @@
         <v>600000000</v>
       </c>
     </row>
-    <row r="44" spans="4:6">
+    <row r="44" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D44" s="13">
         <v>42</v>
       </c>
@@ -9170,7 +9130,7 @@
         <v>556000000</v>
       </c>
     </row>
-    <row r="45" spans="4:6">
+    <row r="45" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D45" s="13">
         <v>43</v>
       </c>
@@ -9181,7 +9141,7 @@
         <v>525000000</v>
       </c>
     </row>
-    <row r="46" spans="4:6">
+    <row r="46" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D46" s="13">
         <v>44</v>
       </c>
@@ -9192,7 +9152,7 @@
         <v>500000000</v>
       </c>
     </row>
-    <row r="47" spans="4:6">
+    <row r="47" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D47" s="13">
         <v>45</v>
       </c>
@@ -9203,7 +9163,7 @@
         <v>487000000</v>
       </c>
     </row>
-    <row r="48" spans="4:6">
+    <row r="48" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D48" s="13">
         <v>46</v>
       </c>
@@ -9214,7 +9174,7 @@
         <v>311000000</v>
       </c>
     </row>
-    <row r="49" spans="4:6">
+    <row r="49" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D49" s="13">
         <v>47</v>
       </c>
@@ -9225,7 +9185,7 @@
         <v>239200000</v>
       </c>
     </row>
-    <row r="50" spans="4:6">
+    <row r="50" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D50" s="13">
         <v>48</v>
       </c>
@@ -9236,7 +9196,7 @@
         <v>200000000</v>
       </c>
     </row>
-    <row r="51" spans="4:6">
+    <row r="51" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D51" s="13">
         <v>49</v>
       </c>
@@ -9247,7 +9207,7 @@
         <v>162000000</v>
       </c>
     </row>
-    <row r="52" spans="4:6">
+    <row r="52" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D52" s="15">
         <v>50</v>
       </c>
@@ -9264,16 +9224,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="7:7">
+    <row r="7" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>86</v>
       </c>
